--- a/Vessel_Device_Installation_Tracker NV.xlsx
+++ b/Vessel_Device_Installation_Tracker NV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel.Faurax\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Axel.Faurax\OneDrive - Britoil Offshore Services Pte Ltd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FBB7E4-A775-4B03-B062-CC2ADBB510BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5929760-29B4-4FBD-B5DB-E23A2F078BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="258">
   <si>
     <r>
       <t>This is the Vessel</t>
@@ -845,22 +845,136 @@
     <t>Current 2025</t>
   </si>
   <si>
+    <t>SOLD</t>
+  </si>
+  <si>
     <t>Installation Progress</t>
   </si>
   <si>
-    <t>Vessels Updated Info</t>
+    <t>Vessel Updated Info</t>
   </si>
   <si>
-    <t>SOLD</t>
+    <t>Fleet estimated Savings</t>
   </si>
   <si>
-    <t>Estimated Fleet Global Savings</t>
+    <t>Brake Horsepower </t>
   </si>
   <si>
-    <t>Last 12 months</t>
+    <t>Bollard Pull </t>
   </si>
   <si>
-    <t>Goal next 12 months</t>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>43.00m x 12.60m</t>
+  </si>
+  <si>
+    <t>60.00m x 17.80m</t>
+  </si>
+  <si>
+    <t>51.00m x 13.00m</t>
+  </si>
+  <si>
+    <t>40.00m x 11.40m</t>
+  </si>
+  <si>
+    <t>47.00m x 13.60m</t>
+  </si>
+  <si>
+    <t>52.00m x 15.00m</t>
+  </si>
+  <si>
+    <t>56.00m x 16.00m</t>
+  </si>
+  <si>
+    <t>51.00m x 15.00m</t>
+  </si>
+  <si>
+    <t>59.00m x 16.00m</t>
+  </si>
+  <si>
+    <t>76.00m x 16.80m</t>
+  </si>
+  <si>
+    <t>81.00m x 16.80m</t>
+  </si>
+  <si>
+    <t>65.00m x 16.80m</t>
+  </si>
+  <si>
+    <t>BRITOIL DEFIANCE</t>
+  </si>
+  <si>
+    <t>73.00m x 17.20m</t>
+  </si>
+  <si>
+    <t>59.25m x 14.95m</t>
+  </si>
+  <si>
+    <t>65.00m x 16.40m</t>
+  </si>
+  <si>
+    <t>65.00m x 16.00m</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>32.50m x 7.90m</t>
+  </si>
+  <si>
+    <t>610 sqm</t>
+  </si>
+  <si>
+    <t>71.50m x 15.00m</t>
+  </si>
+  <si>
+    <t>750 sqm</t>
+  </si>
+  <si>
+    <t>80.00m x 18.40m</t>
+  </si>
+  <si>
+    <t>620 sqm</t>
+  </si>
+  <si>
+    <t>71.85m x 16.00m</t>
+  </si>
+  <si>
+    <t>850 sqm</t>
+  </si>
+  <si>
+    <t>83.40m x 18.00m</t>
+  </si>
+  <si>
+    <t>708 sqm</t>
+  </si>
+  <si>
+    <t>73.60m x 16.00m</t>
+  </si>
+  <si>
+    <t>700 sqm</t>
+  </si>
+  <si>
+    <t>75.00m x 17.25m</t>
+  </si>
+  <si>
+    <t>701 sqm</t>
+  </si>
+  <si>
+    <t>703 sqm</t>
+  </si>
+  <si>
+    <t>704 sqm</t>
+  </si>
+  <si>
+    <t>705 sqm</t>
+  </si>
+  <si>
+    <t>706 sqm</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1646,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1904,7 +2018,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,6 +2193,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5804,7 +5921,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5871,7 +5988,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>202</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -11663,10 +11780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF689"/>
+  <dimension ref="A1:AH689"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="V81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.149999999999999" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -12396,7 +12513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B17" s="126"/>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
@@ -12449,7 +12566,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B18" s="127"/>
       <c r="C18" s="127"/>
       <c r="D18" s="127"/>
@@ -12500,7 +12617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>140</v>
       </c>
@@ -12561,7 +12678,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B20" s="123"/>
       <c r="C20" s="123"/>
       <c r="D20" s="123"/>
@@ -12611,7 +12728,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="123"/>
       <c r="C21" s="123"/>
       <c r="D21" s="123"/>
@@ -12658,7 +12775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="123"/>
       <c r="C22" s="123"/>
       <c r="D22" s="123"/>
@@ -12708,7 +12825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B23" s="124"/>
       <c r="C23" s="124"/>
       <c r="D23" s="124"/>
@@ -12758,7 +12875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>140</v>
       </c>
@@ -12806,7 +12923,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B25" s="126"/>
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
@@ -12845,7 +12962,7 @@
       </c>
       <c r="AD25" s="170"/>
     </row>
-    <row r="26" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B26" s="126"/>
       <c r="C26" s="126"/>
       <c r="D26" s="126"/>
@@ -12880,7 +12997,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B27" s="126"/>
       <c r="C27" s="126"/>
       <c r="D27" s="126"/>
@@ -12915,7 +13032,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B28" s="127"/>
       <c r="C28" s="127"/>
       <c r="D28" s="127"/>
@@ -12952,7 +13069,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>140</v>
       </c>
@@ -12997,8 +13114,20 @@
       <c r="X29" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB29" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD29" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE29" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B30" s="123"/>
       <c r="C30" s="123"/>
       <c r="D30" s="123"/>
@@ -13033,8 +13162,29 @@
       <c r="W30" s="8">
         <v>32000</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC30" s="180">
+        <v>3600</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>52</v>
+      </c>
+      <c r="AE30" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B31" s="123"/>
       <c r="C31" s="123"/>
       <c r="D31" s="123"/>
@@ -13069,8 +13219,29 @@
       <c r="W31" s="8">
         <v>32000</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC31" s="180">
+        <v>3600</v>
+      </c>
+      <c r="AD31" s="8">
+        <v>52</v>
+      </c>
+      <c r="AE31" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AF31" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="8">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="123"/>
       <c r="C32" s="123"/>
       <c r="D32" s="123"/>
@@ -13105,8 +13276,29 @@
       <c r="W32" s="8">
         <v>32000</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC32" s="180">
+        <v>11000</v>
+      </c>
+      <c r="AD32" s="8">
+        <v>150</v>
+      </c>
+      <c r="AE32" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF32" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>0.94405594400000004</v>
+      </c>
+      <c r="AH32" s="8">
+        <v>33611.111109999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B33" s="124"/>
       <c r="C33" s="124"/>
       <c r="D33" s="124"/>
@@ -13141,8 +13333,29 @@
       <c r="W33" s="8">
         <v>32000</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC33" s="180">
+        <v>10500</v>
+      </c>
+      <c r="AD33" s="8">
+        <v>130</v>
+      </c>
+      <c r="AE33" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF33" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>0.85714285700000004</v>
+      </c>
+      <c r="AH33" s="8">
+        <v>32083.333330000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="125">
         <v>6</v>
       </c>
@@ -13182,8 +13395,29 @@
       <c r="W34" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC34" s="180">
+        <v>10500</v>
+      </c>
+      <c r="AD34" s="8">
+        <v>130</v>
+      </c>
+      <c r="AE34" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF34" s="8">
+        <v>12.4</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>0.85714285700000004</v>
+      </c>
+      <c r="AH34" s="8">
+        <v>32083.333330000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B35" s="126"/>
       <c r="C35" s="126"/>
       <c r="D35" s="126"/>
@@ -13219,8 +13453,29 @@
       <c r="W35" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC35" s="180">
+        <v>5400</v>
+      </c>
+      <c r="AD35" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE35" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF35" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>0.89743589700000004</v>
+      </c>
+      <c r="AH35" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B36" s="126"/>
       <c r="C36" s="126"/>
       <c r="D36" s="126"/>
@@ -13254,8 +13509,29 @@
       <c r="W36" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC36" s="180">
+        <v>5400</v>
+      </c>
+      <c r="AD36" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE36" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF36" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>0.89743589700000004</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B37" s="126"/>
       <c r="C37" s="126"/>
       <c r="D37" s="126"/>
@@ -13289,8 +13565,29 @@
       <c r="W37" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC37" s="180">
+        <v>5400</v>
+      </c>
+      <c r="AD37" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE37" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF37" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>0.89743589700000004</v>
+      </c>
+      <c r="AH37" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B38" s="127"/>
       <c r="C38" s="127"/>
       <c r="D38" s="127"/>
@@ -13326,8 +13623,29 @@
       <c r="W38" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB38" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC38" s="180">
+        <v>5400</v>
+      </c>
+      <c r="AD38" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE38" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF38" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>0.89743589700000004</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>140</v>
       </c>
@@ -13370,8 +13688,29 @@
       <c r="W39" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC39" s="180">
+        <v>5400</v>
+      </c>
+      <c r="AD39" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF39" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG39" s="8">
+        <v>0.89743589700000004</v>
+      </c>
+      <c r="AH39" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B40" s="123"/>
       <c r="C40" s="123"/>
       <c r="D40" s="123"/>
@@ -13407,8 +13746,29 @@
       <c r="W40" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC40" s="180">
+        <v>5400</v>
+      </c>
+      <c r="AD40" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE40" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF40" s="8">
+        <v>13</v>
+      </c>
+      <c r="AG40" s="8">
+        <v>0.89743589700000004</v>
+      </c>
+      <c r="AH40" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B41" s="123"/>
       <c r="C41" s="123"/>
       <c r="D41" s="123"/>
@@ -13444,8 +13804,29 @@
       <c r="W41" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC41" s="180">
+        <v>7216</v>
+      </c>
+      <c r="AD41" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF41" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>0.959406447</v>
+      </c>
+      <c r="AH41" s="8">
+        <v>22048.888889999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B42" s="123"/>
       <c r="C42" s="123"/>
       <c r="D42" s="123"/>
@@ -13481,8 +13862,29 @@
       <c r="W42" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC42" s="180">
+        <v>7216</v>
+      </c>
+      <c r="AD42" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE42" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF42" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="AG42" s="8">
+        <v>0.959406447</v>
+      </c>
+      <c r="AH42" s="8">
+        <v>22048.888889999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B43" s="124"/>
       <c r="C43" s="124"/>
       <c r="D43" s="124"/>
@@ -13518,8 +13920,29 @@
       <c r="W43" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC43" s="180">
+        <v>7216</v>
+      </c>
+      <c r="AD43" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF43" s="8">
+        <v>13.9</v>
+      </c>
+      <c r="AG43" s="8">
+        <v>0.959406447</v>
+      </c>
+      <c r="AH43" s="8">
+        <v>22048.888889999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="125">
         <v>8</v>
       </c>
@@ -13559,8 +13982,29 @@
       <c r="W44" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC44" s="180">
+        <v>7268</v>
+      </c>
+      <c r="AD44" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE44" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF44" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="AG44" s="8">
+        <v>0.95254222899999996</v>
+      </c>
+      <c r="AH44" s="8">
+        <v>22207.77778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B45" s="126"/>
       <c r="C45" s="126"/>
       <c r="D45" s="126"/>
@@ -13596,8 +14040,29 @@
       <c r="W45" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC45" s="180">
+        <v>7268</v>
+      </c>
+      <c r="AD45" s="8">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF45" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="AG45" s="8">
+        <v>0.95254222899999996</v>
+      </c>
+      <c r="AH45" s="8">
+        <v>22207.77778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B46" s="126"/>
       <c r="C46" s="126"/>
       <c r="D46" s="126"/>
@@ -13631,8 +14096,29 @@
       <c r="W46" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB46" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC46" s="180">
+        <v>8000</v>
+      </c>
+      <c r="AD46" s="8">
+        <v>110</v>
+      </c>
+      <c r="AE46" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF46" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="AG46" s="8">
+        <v>0.95192307700000001</v>
+      </c>
+      <c r="AH46" s="8">
+        <v>24444.444439999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B47" s="126"/>
       <c r="C47" s="126"/>
       <c r="D47" s="126"/>
@@ -13666,8 +14152,29 @@
       <c r="W47" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC47" s="180">
+        <v>8000</v>
+      </c>
+      <c r="AD47" s="8">
+        <v>110</v>
+      </c>
+      <c r="AE47" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF47" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="AG47" s="8">
+        <v>0.95192307700000001</v>
+      </c>
+      <c r="AH47" s="8">
+        <v>24444.444439999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B48" s="127"/>
       <c r="C48" s="127"/>
       <c r="D48" s="127"/>
@@ -13703,8 +14210,29 @@
       <c r="W48" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC48" s="180">
+        <v>8000</v>
+      </c>
+      <c r="AD48" s="8">
+        <v>106</v>
+      </c>
+      <c r="AE48" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF48" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="AG48" s="8">
+        <v>0.91730769199999995</v>
+      </c>
+      <c r="AH48" s="8">
+        <v>24444.444439999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="122">
         <v>9</v>
       </c>
@@ -13744,8 +14272,29 @@
       <c r="W49" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB49" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC49" s="180">
+        <v>12240</v>
+      </c>
+      <c r="AD49" s="8">
+        <v>155</v>
+      </c>
+      <c r="AE49" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF49" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="AG49" s="8">
+        <v>0.87669683300000001</v>
+      </c>
+      <c r="AH49" s="8">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B50" s="123"/>
       <c r="C50" s="123"/>
       <c r="D50" s="123"/>
@@ -13781,8 +14330,29 @@
       <c r="W50" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB50" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC50" s="180">
+        <v>12240</v>
+      </c>
+      <c r="AD50" s="8">
+        <v>155</v>
+      </c>
+      <c r="AE50" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF50" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="AG50" s="8">
+        <v>0.87669683300000001</v>
+      </c>
+      <c r="AH50" s="8">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B51" s="123"/>
       <c r="C51" s="123"/>
       <c r="D51" s="123"/>
@@ -13816,8 +14386,29 @@
       <c r="W51" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB51" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC51" s="180">
+        <v>9000</v>
+      </c>
+      <c r="AD51" s="8">
+        <v>85</v>
+      </c>
+      <c r="AE51" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF51" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="AG51" s="8">
+        <v>0.65384615400000001</v>
+      </c>
+      <c r="AH51" s="8">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B52" s="123"/>
       <c r="C52" s="123"/>
       <c r="D52" s="123"/>
@@ -13851,8 +14442,29 @@
       <c r="W52" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB52" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC52" s="180">
+        <v>6866</v>
+      </c>
+      <c r="AD52" s="8">
+        <v>90.5</v>
+      </c>
+      <c r="AE52" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF52" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="AG52" s="8">
+        <v>0.91252324699999998</v>
+      </c>
+      <c r="AH52" s="8">
+        <v>20979.444439999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B53" s="124"/>
       <c r="C53" s="124"/>
       <c r="D53" s="124"/>
@@ -13888,8 +14500,29 @@
       <c r="W53" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC53" s="180">
+        <v>7000</v>
+      </c>
+      <c r="AD53" s="8">
+        <v>90</v>
+      </c>
+      <c r="AE53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF53" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="AG53" s="8">
+        <v>0.89010988999999996</v>
+      </c>
+      <c r="AH53" s="8">
+        <v>21388.888889999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="125">
         <v>10</v>
       </c>
@@ -13929,8 +14562,29 @@
       <c r="W54" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB54" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC54" s="180">
+        <v>6866</v>
+      </c>
+      <c r="AD54" s="8">
+        <v>90.2</v>
+      </c>
+      <c r="AE54" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF54" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="AG54" s="8">
+        <v>0.90949830799999998</v>
+      </c>
+      <c r="AH54" s="8">
+        <v>20979.444439999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B55" s="126"/>
       <c r="C55" s="126"/>
       <c r="D55" s="126"/>
@@ -13966,8 +14620,29 @@
       <c r="W55" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB55" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC55" s="180">
+        <v>8000</v>
+      </c>
+      <c r="AD55" s="8">
+        <v>116</v>
+      </c>
+      <c r="AE55" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF55" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="AG55" s="8">
+        <v>1.0038461540000001</v>
+      </c>
+      <c r="AH55" s="8">
+        <v>24444.444439999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B56" s="126"/>
       <c r="C56" s="126"/>
       <c r="D56" s="126"/>
@@ -14001,8 +14676,29 @@
       <c r="W56" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB56" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC56" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD56" s="8">
+        <v>65</v>
+      </c>
+      <c r="AE56" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF56" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="AG56" s="8">
+        <v>0.87378640799999996</v>
+      </c>
+      <c r="AH56" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B57" s="126"/>
       <c r="C57" s="126"/>
       <c r="D57" s="126"/>
@@ -14036,8 +14732,29 @@
       <c r="W57" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB57" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC57" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD57" s="8">
+        <v>66</v>
+      </c>
+      <c r="AE57" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF57" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="AG57" s="8">
+        <v>0.88722927600000001</v>
+      </c>
+      <c r="AH57" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B58" s="127"/>
       <c r="C58" s="127"/>
       <c r="D58" s="127"/>
@@ -14073,8 +14790,29 @@
       <c r="W58" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC58" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD58" s="8">
+        <v>65</v>
+      </c>
+      <c r="AE58" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF58" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="AG58" s="8">
+        <v>0.87378640799999996</v>
+      </c>
+      <c r="AH58" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>140</v>
       </c>
@@ -14119,8 +14857,29 @@
       <c r="W59" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB59" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC59" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD59" s="8">
+        <v>70</v>
+      </c>
+      <c r="AE59" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF59" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="AG59" s="8">
+        <v>0.94100074700000003</v>
+      </c>
+      <c r="AH59" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B60" s="123"/>
       <c r="C60" s="123"/>
       <c r="D60" s="123"/>
@@ -14158,8 +14917,29 @@
       <c r="W60" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC60" s="180">
+        <v>6500</v>
+      </c>
+      <c r="AD60" s="8">
+        <v>88</v>
+      </c>
+      <c r="AE60" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF60" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="AG60" s="8">
+        <v>0.93727810700000003</v>
+      </c>
+      <c r="AH60" s="8">
+        <v>19861.111110000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B61" s="123"/>
       <c r="C61" s="123"/>
       <c r="D61" s="123"/>
@@ -14195,8 +14975,29 @@
       <c r="W61" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB61" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC61" s="180">
+        <v>6500</v>
+      </c>
+      <c r="AD61" s="8">
+        <v>85</v>
+      </c>
+      <c r="AE61" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF61" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="AG61" s="8">
+        <v>0.90532544400000003</v>
+      </c>
+      <c r="AH61" s="8">
+        <v>19861.111110000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B62" s="123"/>
       <c r="C62" s="123"/>
       <c r="D62" s="123"/>
@@ -14232,8 +15033,29 @@
       <c r="W62" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC62" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD62" s="8">
+        <v>65</v>
+      </c>
+      <c r="AE62" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF62" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="AG62" s="8">
+        <v>0.87378640799999996</v>
+      </c>
+      <c r="AH62" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B63" s="124"/>
       <c r="C63" s="124"/>
       <c r="D63" s="124"/>
@@ -14269,8 +15091,29 @@
       <c r="W63" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB63" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC63" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD63" s="8">
+        <v>65.3</v>
+      </c>
+      <c r="AE63" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF63" s="8">
+        <v>12.7</v>
+      </c>
+      <c r="AG63" s="8">
+        <v>0.87781926799999999</v>
+      </c>
+      <c r="AH63" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>140</v>
       </c>
@@ -14315,8 +15158,29 @@
       <c r="W64" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC64" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD64" s="8">
+        <v>69.2</v>
+      </c>
+      <c r="AE64" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF64" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="AG64" s="8">
+        <v>0.93024645299999997</v>
+      </c>
+      <c r="AH64" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B65" s="126"/>
       <c r="C65" s="126"/>
       <c r="D65" s="126"/>
@@ -14352,8 +15216,29 @@
       <c r="W65" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB65" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC65" s="180">
+        <v>6500</v>
+      </c>
+      <c r="AD65" s="8">
+        <v>92</v>
+      </c>
+      <c r="AE65" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF65" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="AG65" s="8">
+        <v>0.97988165699999996</v>
+      </c>
+      <c r="AH65" s="8">
+        <v>19861.111110000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B66" s="126"/>
       <c r="C66" s="126"/>
       <c r="D66" s="126"/>
@@ -14391,8 +15276,29 @@
       <c r="W66" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB66" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC66" s="180">
+        <v>6500</v>
+      </c>
+      <c r="AD66" s="8">
+        <v>87.3</v>
+      </c>
+      <c r="AE66" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF66" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="AG66" s="8">
+        <v>0.92982248499999998</v>
+      </c>
+      <c r="AH66" s="8">
+        <v>19861.111110000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B67" s="126"/>
       <c r="C67" s="126"/>
       <c r="D67" s="126"/>
@@ -14430,8 +15336,29 @@
       <c r="W67" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB67" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC67" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD67" s="8">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AE67" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF67" s="8">
+        <v>13.3</v>
+      </c>
+      <c r="AG67" s="8">
+        <v>0.91949215799999995</v>
+      </c>
+      <c r="AH67" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B68" s="127"/>
       <c r="C68" s="127"/>
       <c r="D68" s="127"/>
@@ -14467,8 +15394,29 @@
       <c r="W68" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB68" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC68" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD68" s="8">
+        <v>66.3</v>
+      </c>
+      <c r="AE68" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF68" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="AG68" s="8">
+        <v>0.89126213600000004</v>
+      </c>
+      <c r="AH68" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="122">
         <v>13</v>
       </c>
@@ -14508,8 +15456,29 @@
       <c r="W69" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB69" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC69" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD69" s="8">
+        <v>69.5</v>
+      </c>
+      <c r="AE69" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF69" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="AG69" s="8">
+        <v>0.934279313</v>
+      </c>
+      <c r="AH69" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B70" s="123"/>
       <c r="C70" s="123"/>
       <c r="D70" s="123"/>
@@ -14545,8 +15514,29 @@
       <c r="W70" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC70" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD70" s="8">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AE70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF70" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="AG70" s="8">
+        <v>0.92890216599999997</v>
+      </c>
+      <c r="AH70" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B71" s="123"/>
       <c r="C71" s="123"/>
       <c r="D71" s="123"/>
@@ -14580,8 +15570,29 @@
       <c r="W71" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB71" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC71" s="180">
+        <v>5150</v>
+      </c>
+      <c r="AD71" s="8">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="AE71" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF71" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="AG71" s="8">
+        <v>0.93965646000000003</v>
+      </c>
+      <c r="AH71" s="8">
+        <v>15736.11111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B72" s="123"/>
       <c r="C72" s="123"/>
       <c r="D72" s="123"/>
@@ -14615,8 +15626,29 @@
       <c r="W72" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB72" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC72" s="180">
+        <v>1971</v>
+      </c>
+      <c r="AD72" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE72" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF72" s="8">
+        <v>15</v>
+      </c>
+      <c r="AG72" s="8">
+        <v>1.038461538</v>
+      </c>
+      <c r="AH72" s="8">
+        <v>6022.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B73" s="124"/>
       <c r="C73" s="124"/>
       <c r="D73" s="124"/>
@@ -14652,8 +15684,26 @@
       <c r="W73" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB73" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC73" s="8">
+        <v>6866</v>
+      </c>
+      <c r="AD73" s="8">
+        <v>90</v>
+      </c>
+      <c r="AF73" s="8">
+        <v>15</v>
+      </c>
+      <c r="AG73" s="8">
+        <v>1.038461538</v>
+      </c>
+      <c r="AH73" s="8">
+        <v>20979.444439999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="125">
         <v>14</v>
       </c>
@@ -14693,8 +15743,23 @@
       <c r="W74" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB74" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC74" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD74" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE74" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH74" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B75" s="126"/>
       <c r="C75" s="126"/>
       <c r="D75" s="126"/>
@@ -14730,8 +15795,23 @@
       <c r="W75" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC75" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD75" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE75" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH75" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B76" s="126"/>
       <c r="C76" s="126"/>
       <c r="D76" s="126"/>
@@ -14765,8 +15845,23 @@
       <c r="W76" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB76" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC76" s="8">
+        <v>7500</v>
+      </c>
+      <c r="AD76" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE76" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH76" s="8">
+        <v>22916.666669999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B77" s="126"/>
       <c r="C77" s="126"/>
       <c r="D77" s="126"/>
@@ -14800,8 +15895,23 @@
       <c r="W77" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB77" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC77" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD77" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE77" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH77" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B78" s="127"/>
       <c r="C78" s="127"/>
       <c r="D78" s="127"/>
@@ -14837,8 +15947,23 @@
       <c r="W78" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB78" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC78" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD78" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE78" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="AH78" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>140</v>
       </c>
@@ -14883,8 +16008,23 @@
       <c r="W79" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB79" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC79" s="8">
+        <v>8000</v>
+      </c>
+      <c r="AD79" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE79" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH79" s="8">
+        <v>24444.444439999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B80" s="123"/>
       <c r="C80" s="123"/>
       <c r="D80" s="123"/>
@@ -14920,8 +16060,23 @@
       <c r="W80" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB80" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC80" s="8">
+        <v>8000</v>
+      </c>
+      <c r="AD80" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE80" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH80" s="8">
+        <v>24444.444439999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B81" s="123"/>
       <c r="C81" s="123"/>
       <c r="D81" s="123"/>
@@ -14959,8 +16114,23 @@
       <c r="W81" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB81" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC81" s="8">
+        <v>6500</v>
+      </c>
+      <c r="AD81" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE81" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH81" s="8">
+        <v>19861.111110000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B82" s="123"/>
       <c r="C82" s="123"/>
       <c r="D82" s="123"/>
@@ -14996,8 +16166,23 @@
       <c r="W82" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB82" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC82" s="8">
+        <v>6500</v>
+      </c>
+      <c r="AD82" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE82" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH82" s="8">
+        <v>19861.111110000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B83" s="124"/>
       <c r="C83" s="124"/>
       <c r="D83" s="124"/>
@@ -15033,8 +16218,23 @@
       <c r="W83" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB83" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC83" s="8">
+        <v>7500</v>
+      </c>
+      <c r="AD83" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE83" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH83" s="8">
+        <v>22916.666669999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>140</v>
       </c>
@@ -15079,8 +16279,23 @@
       <c r="W84" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC84" s="8">
+        <v>7500</v>
+      </c>
+      <c r="AD84" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE84" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH84" s="8">
+        <v>22916.666669999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B85" s="126"/>
       <c r="C85" s="126"/>
       <c r="D85" s="126"/>
@@ -15118,8 +16333,23 @@
       <c r="W85" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB85" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC85" s="8">
+        <v>6600</v>
+      </c>
+      <c r="AD85" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE85" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH85" s="8">
+        <v>20166.666669999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B86" s="126"/>
       <c r="C86" s="126"/>
       <c r="D86" s="126"/>
@@ -15155,8 +16385,23 @@
       <c r="W86" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB86" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC86" s="8">
+        <v>6600</v>
+      </c>
+      <c r="AD86" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE86" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH86" s="8">
+        <v>20166.666669999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B87" s="126"/>
       <c r="C87" s="126"/>
       <c r="D87" s="126"/>
@@ -15192,8 +16437,23 @@
       <c r="W87" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB87" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC87" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD87" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE87" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH87" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B88" s="127"/>
       <c r="C88" s="127"/>
       <c r="D88" s="127"/>
@@ -15229,8 +16489,23 @@
       <c r="W88" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AB88" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC88" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD88" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE88" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH88" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>140</v>
       </c>
@@ -15275,8 +16550,23 @@
       <c r="W89" s="8">
         <v>22000</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB89" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC89" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD89" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE89" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH89" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B90" s="123"/>
       <c r="C90" s="123"/>
       <c r="D90" s="123"/>
@@ -15314,8 +16604,23 @@
       <c r="W90" s="8">
         <v>22000</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC90" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD90" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE90" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH90" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B91" s="123"/>
       <c r="C91" s="123"/>
       <c r="D91" s="123"/>
@@ -15351,8 +16656,23 @@
       <c r="W91" s="8">
         <v>22000</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="AB91" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC91" s="8">
+        <v>6000</v>
+      </c>
+      <c r="AD91" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="AE91" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH91" s="8">
+        <v>18333.333330000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B92" s="123"/>
       <c r="C92" s="123"/>
       <c r="D92" s="123"/>
@@ -15389,7 +16709,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B93" s="123"/>
       <c r="C93" s="123"/>
       <c r="D93" s="123"/>
@@ -15426,7 +16746,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="94" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B94" s="124"/>
       <c r="C94" s="124"/>
       <c r="D94" s="124"/>
@@ -15465,7 +16785,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="95" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="125">
         <v>18</v>
       </c>
@@ -15506,7 +16826,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B96" s="126"/>
       <c r="C96" s="126"/>
       <c r="D96" s="126"/>
@@ -17324,10 +18644,10 @@
         <v/>
       </c>
       <c r="K144" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L144" s="42" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U144" s="8" t="str" cm="1">
         <f t="array" ref="U144">IF(C144="",INDEX(C137:C144,MATCH(TRUE,INDEX((C137:C144&lt;&gt;""),0),0)),C144)</f>
@@ -26346,7 +27666,7 @@
         <v>96</v>
       </c>
       <c r="F383" s="32" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="G383" s="37"/>
       <c r="H383" s="61" t="str">
@@ -30918,8 +32238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30930,7 +32250,9 @@
     <col min="6" max="6" width="17.90625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" style="8" customWidth="1"/>
     <col min="8" max="8" width="13.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="8.7265625" style="8"/>
+    <col min="9" max="9" width="8.7265625" style="8"/>
+    <col min="10" max="10" width="10.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7265625" style="8"/>
     <col min="14" max="14" width="8.7265625" style="8" customWidth="1"/>
     <col min="15" max="16" width="8.7265625" style="8"/>
     <col min="17" max="17" width="10.26953125" style="8" customWidth="1"/>
@@ -30958,14 +32280,12 @@
       <c r="G2" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="112" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>219</v>
+      <c r="I2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="120">
+        <f>R13</f>
+        <v>0.44853156439551939</v>
       </c>
       <c r="N2" s="111" t="s">
         <v>196</v>
@@ -31013,14 +32333,11 @@
         <v>1</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J3" s="120">
-        <f>R13</f>
-        <v>0.44853156439551939</v>
-      </c>
-      <c r="K3" s="120">
-        <v>0.8</v>
+        <f>Tracker!A410</f>
+        <v>0.59701492537313428</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="112">
@@ -31048,11 +32365,11 @@
       </c>
       <c r="U3" s="8">
         <f>SUM(C3:C12)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V3" s="8">
         <f>W4-T3-U3</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W3" s="8">
         <v>0</v>
@@ -31068,7 +32385,7 @@
       </c>
       <c r="C4" s="22">
         <f>COUNTIFS(Tracker!E:E,A4,Tracker!F:F,"In Process")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="22">
         <f>COUNTIF(Tracker!E:E,A4)-COUNTIFS(Tracker!E:E,A4,Tracker!F:F,"No need")</f>
@@ -31076,20 +32393,17 @@
       </c>
       <c r="E4" s="25">
         <f t="shared" ref="E4:E12" si="0">(B4+C4)/D4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="28" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="120">
-        <f>Tracker!A410</f>
-        <v>0.59701492537313428</v>
-      </c>
-      <c r="K4" s="120">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="J4" s="121">
+        <f>1-(180000*66-C16)/(180000*66)</f>
+        <v>9.0803872053872081E-2</v>
       </c>
       <c r="N4" s="112">
         <f>B4*(Tracker!AC4+Tracker!AD4)</f>
@@ -31145,16 +32459,6 @@
       </c>
       <c r="G5" s="28" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="J5" s="121">
-        <f>1-(180000*66-C16)/(180000*66)</f>
-        <v>9.0803872053872081E-2</v>
-      </c>
-      <c r="K5" s="120">
-        <v>0.2</v>
       </c>
       <c r="N5" s="112">
         <f>B5*(Tracker!AC5+Tracker!AD5)</f>

--- a/Vessel_Device_Installation_Tracker NV.xlsx
+++ b/Vessel_Device_Installation_Tracker NV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://britoilos-my.sharepoint.com/personal/axel_faurax_britoil_com_sg/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1624" documentId="13_ncr:1_{E5929760-29B4-4FBD-B5DB-E23A2F078BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC57E59-6896-40F2-AABE-DF1304AADFBD}"/>
+  <xr:revisionPtr revIDLastSave="1628" documentId="13_ncr:1_{E5929760-29B4-4FBD-B5DB-E23A2F078BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E2995AE-93F8-469F-85BE-EDEC169B9255}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="313">
   <si>
     <r>
       <t>This is the Vessel</t>
@@ -1899,7 +1899,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2339,19 +2339,16 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2370,6 +2367,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2444,59 +2504,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2520,24 +2532,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3456,7 +3450,7 @@
                   <c:v>600153.72451842146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>330040.70506826253</c:v>
+                  <c:v>339605.33476715907</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>441258.54684870021</c:v>
@@ -4049,7 +4043,7 @@
                   <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117500</c:v>
+                  <c:v>122200</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4380,7 +4374,7 @@
                   <c:v>19185.154210813052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20627.544066766408</c:v>
+                  <c:v>21225.333422947442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21434.061589943623</c:v>
@@ -4852,7 +4846,7 @@
                   <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>200</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6061,7 +6055,7 @@
                   <c:v>0.28888888888888886</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38028169014084506</c:v>
+                  <c:v>0.39436619718309857</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.5</c:v>
@@ -6082,7 +6076,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57555176528794361</c:v>
+                  <c:v>0.57683217501905748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6399,7 +6393,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>213</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -6531,7 +6525,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>328</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -12246,8 +12240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ736"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H461" sqref="H461"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.149999999999999" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -12291,34 +12285,34 @@
       <c r="I1" s="8"/>
       <c r="J1" s="49"/>
       <c r="K1" s="9"/>
-      <c r="AB1" s="149" t="s">
+      <c r="AB1" s="159" t="s">
         <v>296</v>
       </c>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="151"/>
-      <c r="AM1" s="149" t="s">
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="161"/>
+      <c r="AM1" s="159" t="s">
         <v>295</v>
       </c>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="150"/>
-      <c r="AP1" s="151"/>
+      <c r="AN1" s="160"/>
+      <c r="AO1" s="160"/>
+      <c r="AP1" s="161"/>
     </row>
     <row r="2" spans="1:43" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="172" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="174"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="194"/>
       <c r="I2" s="48"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="201" t="s">
+      <c r="K2" s="172" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -12331,14 +12325,14 @@
         <f>2000*0.01</f>
         <v>20</v>
       </c>
-      <c r="T2" s="191" t="s">
+      <c r="T2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="194" t="s">
+      <c r="U2" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="194"/>
-      <c r="W2" s="195"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="166"/>
       <c r="AB2" s="23" t="s">
         <v>98</v>
       </c>
@@ -12371,16 +12365,16 @@
       </c>
     </row>
     <row r="3" spans="1:43" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="177"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="197"/>
       <c r="I3" s="48"/>
       <c r="J3" s="50"/>
-      <c r="K3" s="196"/>
+      <c r="K3" s="167"/>
       <c r="N3" s="8" t="s">
         <v>115</v>
       </c>
@@ -12391,10 +12385,10 @@
         <f>O3*Q2</f>
         <v>64</v>
       </c>
-      <c r="T3" s="192"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="197"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
+      <c r="W3" s="168"/>
       <c r="AB3" s="137" t="s">
         <v>13</v>
       </c>
@@ -12427,26 +12421,26 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="186" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="178" t="s">
+      <c r="D4" s="187"/>
+      <c r="E4" s="198" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="180" t="s">
+      <c r="F4" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="180"/>
-      <c r="H4" s="182" t="s">
+      <c r="G4" s="200"/>
+      <c r="H4" s="202" t="s">
         <v>133</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="196"/>
+      <c r="K4" s="167"/>
       <c r="N4" s="8" t="s">
         <v>118</v>
       </c>
@@ -12460,10 +12454,10 @@
         <f>8000/25</f>
         <v>320</v>
       </c>
-      <c r="T4" s="192"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="197"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
+      <c r="W4" s="168"/>
       <c r="AB4" s="109" t="s">
         <v>93</v>
       </c>
@@ -12497,20 +12491,20 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="170"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="182"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="47"/>
       <c r="J5" s="51"/>
-      <c r="K5" s="196"/>
-      <c r="T5" s="192"/>
-      <c r="U5" s="196"/>
-      <c r="V5" s="196"/>
-      <c r="W5" s="197"/>
+      <c r="K5" s="167"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="168"/>
       <c r="AB5" s="109" t="s">
         <v>111</v>
       </c>
@@ -12544,20 +12538,20 @@
       </c>
     </row>
     <row r="6" spans="1:43" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="171"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="179"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="183"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="203"/>
       <c r="I6" s="47"/>
       <c r="J6" s="51"/>
-      <c r="K6" s="196"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="198"/>
-      <c r="V6" s="198"/>
-      <c r="W6" s="199"/>
+      <c r="K6" s="167"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="170"/>
       <c r="AB6" s="109" t="s">
         <v>291</v>
       </c>
@@ -12719,13 +12713,13 @@
       <c r="A9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="157">
+      <c r="B9" s="156">
         <v>1</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="157" t="s">
+      <c r="D9" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -12798,9 +12792,9 @@
       </c>
     </row>
     <row r="10" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="3" t="s">
         <v>107</v>
       </c>
@@ -12870,9 +12864,9 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="3" t="s">
         <v>110</v>
       </c>
@@ -12943,9 +12937,9 @@
       </c>
     </row>
     <row r="12" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="157"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -13001,9 +12995,9 @@
       </c>
     </row>
     <row r="13" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
@@ -13062,13 +13056,13 @@
       <c r="A14" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="154">
+      <c r="B14" s="153">
         <v>2</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -13088,7 +13082,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K14" s="154" t="s">
+      <c r="K14" s="153" t="s">
         <v>173</v>
       </c>
       <c r="L14" s="44"/>
@@ -13139,9 +13133,9 @@
       </c>
     </row>
     <row r="15" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="155"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="6" t="s">
         <v>107</v>
       </c>
@@ -13161,7 +13155,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K15" s="155"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="45"/>
       <c r="U15" s="119" t="s">
         <v>15</v>
@@ -13212,9 +13206,9 @@
       </c>
     </row>
     <row r="16" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
       <c r="E16" s="6" t="s">
         <v>110</v>
       </c>
@@ -13234,7 +13228,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K16" s="155"/>
+      <c r="K16" s="154"/>
       <c r="L16" s="45"/>
       <c r="U16" s="119" t="s">
         <v>15</v>
@@ -13285,9 +13279,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
@@ -13309,7 +13303,7 @@
         <f t="shared" si="3"/>
         <v>32.915653637553767</v>
       </c>
-      <c r="K17" s="155"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="45"/>
       <c r="U17" s="119" t="s">
         <v>15</v>
@@ -13344,9 +13338,9 @@
       </c>
     </row>
     <row r="18" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
       <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
@@ -13366,7 +13360,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K18" s="156"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="46"/>
       <c r="U18" s="119" t="s">
         <v>15</v>
@@ -13404,13 +13398,13 @@
       <c r="A19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="157">
+      <c r="B19" s="156">
         <v>3</v>
       </c>
-      <c r="C19" s="157" t="s">
+      <c r="C19" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="157" t="s">
+      <c r="D19" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -13477,9 +13471,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
@@ -13534,9 +13528,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="158"/>
-      <c r="C21" s="158"/>
-      <c r="D21" s="158"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
       <c r="E21" s="3" t="s">
         <v>110</v>
       </c>
@@ -13588,9 +13582,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="3" t="s">
         <v>107</v>
       </c>
@@ -13645,9 +13639,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
@@ -13705,13 +13699,13 @@
       <c r="A24" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="154">
+      <c r="B24" s="153">
         <v>4</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D24" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -13731,7 +13725,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K24" s="184" t="s">
+      <c r="K24" s="177" t="s">
         <v>101</v>
       </c>
       <c r="L24" s="44"/>
@@ -13756,9 +13750,9 @@
       <c r="Z24" s="121"/>
     </row>
     <row r="25" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
@@ -13778,7 +13772,7 @@
         <f t="shared" si="3"/>
         <v>83.2</v>
       </c>
-      <c r="K25" s="185"/>
+      <c r="K25" s="178"/>
       <c r="L25" s="45"/>
       <c r="U25" s="119" t="s">
         <v>18</v>
@@ -13796,15 +13790,15 @@
         <v>32083</v>
       </c>
       <c r="Z25" s="121"/>
-      <c r="AJ25" s="152" t="s">
+      <c r="AJ25" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="AK25" s="153"/>
+      <c r="AK25" s="205"/>
     </row>
     <row r="26" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
       <c r="E26" s="6" t="s">
         <v>110</v>
       </c>
@@ -13824,7 +13818,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="185"/>
+      <c r="K26" s="178"/>
       <c r="L26" s="45"/>
       <c r="U26" s="119" t="s">
         <v>18</v>
@@ -13844,9 +13838,9 @@
       <c r="Z26" s="121"/>
     </row>
     <row r="27" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
       <c r="E27" s="6" t="s">
         <v>107</v>
       </c>
@@ -13866,7 +13860,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K27" s="185"/>
+      <c r="K27" s="178"/>
       <c r="L27" s="45"/>
       <c r="U27" s="119" t="s">
         <v>18</v>
@@ -13886,9 +13880,9 @@
       <c r="Z27" s="121"/>
     </row>
     <row r="28" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
@@ -13910,7 +13904,7 @@
         <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
-      <c r="K28" s="186"/>
+      <c r="K28" s="179"/>
       <c r="L28" s="46"/>
       <c r="U28" s="119" t="s">
         <v>18</v>
@@ -13933,13 +13927,13 @@
       <c r="A29" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="157">
+      <c r="B29" s="156">
         <v>5</v>
       </c>
-      <c r="C29" s="157" t="s">
+      <c r="C29" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="157" t="s">
+      <c r="D29" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -13994,9 +13988,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="157"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
@@ -14058,9 +14052,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
       <c r="E31" s="3" t="s">
         <v>110</v>
       </c>
@@ -14123,9 +14117,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
       <c r="E32" s="3" t="s">
         <v>107</v>
       </c>
@@ -14183,14 +14177,14 @@
         <v>0.94405594400000004</v>
       </c>
       <c r="AH32" s="8">
-        <f t="shared" ref="AH32:AH100" si="7">$AH$30 *AC32/ $AC$30</f>
+        <f t="shared" ref="AH32:AH99" si="7">$AH$30 *AC32/ $AC$30</f>
         <v>33611.111111111109</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="158"/>
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
@@ -14256,13 +14250,13 @@
       <c r="A34" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="154">
+      <c r="B34" s="153">
         <v>6</v>
       </c>
-      <c r="C34" s="154" t="s">
+      <c r="C34" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="154" t="s">
+      <c r="D34" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -14325,9 +14319,9 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
+      <c r="B35" s="154"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="154"/>
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
@@ -14390,9 +14384,9 @@
       </c>
     </row>
     <row r="36" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
       <c r="E36" s="6" t="s">
         <v>110</v>
       </c>
@@ -14455,9 +14449,9 @@
       </c>
     </row>
     <row r="37" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
+      <c r="B37" s="154"/>
+      <c r="C37" s="154"/>
+      <c r="D37" s="154"/>
       <c r="E37" s="6" t="s">
         <v>107</v>
       </c>
@@ -14520,9 +14514,9 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
       <c r="E38" s="7" t="s">
         <v>14</v>
       </c>
@@ -14588,13 +14582,13 @@
       <c r="A39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="157">
+      <c r="B39" s="156">
         <v>7</v>
       </c>
-      <c r="C39" s="157" t="s">
+      <c r="C39" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="157" t="s">
+      <c r="D39" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -14657,9 +14651,9 @@
       </c>
     </row>
     <row r="40" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
+      <c r="B40" s="157"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="157"/>
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
@@ -14722,9 +14716,9 @@
       </c>
     </row>
     <row r="41" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="157"/>
       <c r="E41" s="3" t="s">
         <v>110</v>
       </c>
@@ -14787,9 +14781,9 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
       <c r="E42" s="3" t="s">
         <v>292</v>
       </c>
@@ -14852,9 +14846,9 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
       <c r="E43" s="3" t="s">
         <v>107</v>
       </c>
@@ -14917,9 +14911,9 @@
       </c>
     </row>
     <row r="44" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="159"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="159"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
       <c r="E44" s="4" t="s">
         <v>14</v>
       </c>
@@ -14985,13 +14979,13 @@
       <c r="A45" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="154">
+      <c r="B45" s="153">
         <v>8</v>
       </c>
-      <c r="C45" s="154" t="s">
+      <c r="C45" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="154" t="s">
+      <c r="D45" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -15054,9 +15048,9 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="155"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="155"/>
+      <c r="B46" s="154"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
@@ -15119,9 +15113,9 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
       <c r="E47" s="6" t="s">
         <v>110</v>
       </c>
@@ -15184,9 +15178,9 @@
       </c>
     </row>
     <row r="48" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="155"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
+      <c r="B48" s="154"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
       <c r="E48" s="6" t="s">
         <v>107</v>
       </c>
@@ -15249,9 +15243,9 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="156"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
       <c r="E49" s="7" t="s">
         <v>14</v>
       </c>
@@ -15317,13 +15311,13 @@
       <c r="A50" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="157">
+      <c r="B50" s="156">
         <v>9</v>
       </c>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="157" t="s">
+      <c r="D50" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -15386,9 +15380,9 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="158"/>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="157"/>
       <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
@@ -15451,9 +15445,9 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="158"/>
-      <c r="C52" s="158"/>
-      <c r="D52" s="158"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="157"/>
       <c r="E52" s="3" t="s">
         <v>110</v>
       </c>
@@ -15516,9 +15510,9 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="158"/>
-      <c r="C53" s="158"/>
-      <c r="D53" s="158"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="157"/>
       <c r="E53" s="3" t="s">
         <v>107</v>
       </c>
@@ -15581,9 +15575,9 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="159"/>
-      <c r="C54" s="159"/>
-      <c r="D54" s="159"/>
+      <c r="B54" s="158"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
       <c r="E54" s="4" t="s">
         <v>14</v>
       </c>
@@ -15649,13 +15643,13 @@
       <c r="A55" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="154">
+      <c r="B55" s="153">
         <v>10</v>
       </c>
-      <c r="C55" s="154" t="s">
+      <c r="C55" s="153" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="154" t="s">
+      <c r="D55" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="27" t="s">
@@ -15718,9 +15712,9 @@
       </c>
     </row>
     <row r="56" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="155"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
       <c r="E56" s="6" t="s">
         <v>13</v>
       </c>
@@ -15783,9 +15777,9 @@
       </c>
     </row>
     <row r="57" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="155"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
       <c r="E57" s="6" t="s">
         <v>110</v>
       </c>
@@ -15848,9 +15842,9 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
+      <c r="B58" s="154"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="154"/>
       <c r="E58" s="6" t="s">
         <v>107</v>
       </c>
@@ -15913,9 +15907,9 @@
       </c>
     </row>
     <row r="59" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="156"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
       <c r="E59" s="7" t="s">
         <v>14</v>
       </c>
@@ -15983,13 +15977,13 @@
       <c r="A60" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="157">
+      <c r="B60" s="156">
         <v>11</v>
       </c>
-      <c r="C60" s="157" t="s">
+      <c r="C60" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="157" t="s">
+      <c r="D60" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="26" t="s">
@@ -16009,7 +16003,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K60" s="157" t="s">
+      <c r="K60" s="156" t="s">
         <v>166</v>
       </c>
       <c r="L60" s="41"/>
@@ -16054,9 +16048,9 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="158"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
       <c r="E61" s="3" t="s">
         <v>13</v>
       </c>
@@ -16076,7 +16070,7 @@
         <f t="shared" si="3"/>
         <v>49.373480456330654</v>
       </c>
-      <c r="K61" s="158"/>
+      <c r="K61" s="157"/>
       <c r="L61" s="42" t="s">
         <v>167</v>
       </c>
@@ -16121,9 +16115,9 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="158"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
+      <c r="B62" s="157"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="157"/>
       <c r="E62" s="3" t="s">
         <v>110</v>
       </c>
@@ -16143,7 +16137,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K62" s="158"/>
+      <c r="K62" s="157"/>
       <c r="L62" s="42"/>
       <c r="U62" s="119" t="str" cm="1">
         <f t="array" ref="U62">IF(C62="",INDEX(C59:C62,MATCH(TRUE,INDEX((C59:C62&lt;&gt;""),0),0)),C62)</f>
@@ -16186,9 +16180,9 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="158"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
+      <c r="B63" s="157"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="157"/>
       <c r="E63" s="3" t="s">
         <v>107</v>
       </c>
@@ -16208,7 +16202,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K63" s="158"/>
+      <c r="K63" s="157"/>
       <c r="L63" s="42"/>
       <c r="U63" s="119" t="str" cm="1">
         <f t="array" ref="U63">IF(C63="",INDEX(C60:C63,MATCH(TRUE,INDEX((C60:C63&lt;&gt;""),0),0)),C63)</f>
@@ -16251,9 +16245,9 @@
       </c>
     </row>
     <row r="64" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="159"/>
-      <c r="C64" s="159"/>
-      <c r="D64" s="159"/>
+      <c r="B64" s="158"/>
+      <c r="C64" s="158"/>
+      <c r="D64" s="158"/>
       <c r="E64" s="4" t="s">
         <v>14</v>
       </c>
@@ -16273,7 +16267,7 @@
         <f t="shared" si="3"/>
         <v>6.1716850570413317</v>
       </c>
-      <c r="K64" s="159"/>
+      <c r="K64" s="158"/>
       <c r="L64" s="43"/>
       <c r="U64" s="119" t="str" cm="1">
         <f t="array" ref="U64">IF(C64="",INDEX(C60:C64,MATCH(TRUE,INDEX((C60:C64&lt;&gt;""),0),0)),C64)</f>
@@ -16319,13 +16313,13 @@
       <c r="A65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B65" s="154">
+      <c r="B65" s="153">
         <v>12</v>
       </c>
-      <c r="C65" s="154" t="s">
+      <c r="C65" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="154" t="s">
+      <c r="D65" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="27" t="s">
@@ -16345,7 +16339,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K65" s="154" t="s">
+      <c r="K65" s="153" t="s">
         <v>147</v>
       </c>
       <c r="L65" s="44"/>
@@ -16390,9 +16384,9 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="155"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="154"/>
+      <c r="D66" s="154"/>
       <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
@@ -16412,7 +16406,7 @@
         <f t="shared" si="3"/>
         <v>65.974939218253226</v>
       </c>
-      <c r="K66" s="155"/>
+      <c r="K66" s="154"/>
       <c r="L66" s="45"/>
       <c r="U66" s="119" t="str" cm="1">
         <f t="array" ref="U66">IF(C66="",INDEX(C62:C66,MATCH(TRUE,INDEX((C62:C66&lt;&gt;""),0),0)),C66)</f>
@@ -16455,9 +16449,9 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
-      <c r="D67" s="155"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
       <c r="E67" s="6" t="s">
         <v>110</v>
       </c>
@@ -16477,7 +16471,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K67" s="155"/>
+      <c r="K67" s="154"/>
       <c r="L67" s="45" t="s">
         <v>144</v>
       </c>
@@ -16522,9 +16516,9 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="155"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
       <c r="E68" s="6" t="s">
         <v>107</v>
       </c>
@@ -16544,7 +16538,7 @@
         <f t="shared" si="3"/>
         <v>87.622966149242572</v>
       </c>
-      <c r="K68" s="155"/>
+      <c r="K68" s="154"/>
       <c r="L68" s="45" t="s">
         <v>148</v>
       </c>
@@ -16589,9 +16583,9 @@
       </c>
     </row>
     <row r="69" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
       <c r="E69" s="7" t="s">
         <v>14</v>
       </c>
@@ -16611,7 +16605,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K69" s="156"/>
+      <c r="K69" s="155"/>
       <c r="L69" s="46"/>
       <c r="U69" s="119" t="str" cm="1">
         <f t="array" ref="U69">IF(C69="",INDEX(C65:C69,MATCH(TRUE,INDEX((C65:C69&lt;&gt;""),0),0)),C69)</f>
@@ -16657,13 +16651,13 @@
       <c r="A70" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="157">
+      <c r="B70" s="156">
         <v>13</v>
       </c>
-      <c r="C70" s="157" t="s">
+      <c r="C70" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="157" t="s">
+      <c r="D70" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -16726,9 +16720,9 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="158"/>
-      <c r="C71" s="158"/>
-      <c r="D71" s="158"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="157"/>
       <c r="E71" s="3" t="s">
         <v>13</v>
       </c>
@@ -16791,9 +16785,9 @@
       </c>
     </row>
     <row r="72" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="158"/>
-      <c r="C72" s="158"/>
-      <c r="D72" s="158"/>
+      <c r="B72" s="157"/>
+      <c r="C72" s="157"/>
+      <c r="D72" s="157"/>
       <c r="E72" s="3" t="s">
         <v>104</v>
       </c>
@@ -16856,9 +16850,9 @@
       </c>
     </row>
     <row r="73" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="158"/>
-      <c r="C73" s="158"/>
-      <c r="D73" s="158"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
       <c r="E73" s="3" t="s">
         <v>110</v>
       </c>
@@ -16921,9 +16915,9 @@
       </c>
     </row>
     <row r="74" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="158"/>
-      <c r="C74" s="158"/>
-      <c r="D74" s="158"/>
+      <c r="B74" s="157"/>
+      <c r="C74" s="157"/>
+      <c r="D74" s="157"/>
       <c r="E74" s="3" t="s">
         <v>107</v>
       </c>
@@ -16986,9 +16980,9 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="159"/>
-      <c r="C75" s="159"/>
-      <c r="D75" s="159"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
       <c r="E75" s="4" t="s">
         <v>14</v>
       </c>
@@ -17054,13 +17048,13 @@
       <c r="A76" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="154">
+      <c r="B76" s="153">
         <v>14</v>
       </c>
-      <c r="C76" s="154" t="s">
+      <c r="C76" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="154" t="s">
+      <c r="D76" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="27" t="s">
@@ -17117,9 +17111,9 @@
       </c>
     </row>
     <row r="77" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="155"/>
-      <c r="C77" s="155"/>
-      <c r="D77" s="155"/>
+      <c r="B77" s="154"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
       <c r="E77" s="6" t="s">
         <v>13</v>
       </c>
@@ -17176,9 +17170,9 @@
       </c>
     </row>
     <row r="78" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="155"/>
-      <c r="C78" s="155"/>
-      <c r="D78" s="155"/>
+      <c r="B78" s="154"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
       <c r="E78" s="6" t="s">
         <v>110</v>
       </c>
@@ -17237,9 +17231,9 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="155"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="155"/>
+      <c r="B79" s="154"/>
+      <c r="C79" s="154"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="6" t="s">
         <v>107</v>
       </c>
@@ -17296,9 +17290,9 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="156"/>
-      <c r="C80" s="156"/>
-      <c r="D80" s="156"/>
+      <c r="B80" s="155"/>
+      <c r="C80" s="155"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="7" t="s">
         <v>14</v>
       </c>
@@ -17358,13 +17352,13 @@
       <c r="A81" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="157">
+      <c r="B81" s="156">
         <v>15</v>
       </c>
-      <c r="C81" s="157" t="s">
+      <c r="C81" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="157" t="s">
+      <c r="D81" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="26" t="s">
@@ -17384,7 +17378,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K81" s="200" t="s">
+      <c r="K81" s="171" t="s">
         <v>170</v>
       </c>
       <c r="L81" s="41"/>
@@ -17423,9 +17417,9 @@
       </c>
     </row>
     <row r="82" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="158"/>
-      <c r="C82" s="158"/>
-      <c r="D82" s="158"/>
+      <c r="B82" s="157"/>
+      <c r="C82" s="157"/>
+      <c r="D82" s="157"/>
       <c r="E82" s="3" t="s">
         <v>13</v>
       </c>
@@ -17445,7 +17439,7 @@
         <f t="shared" si="18"/>
         <v>66.450720029923318</v>
       </c>
-      <c r="K82" s="158"/>
+      <c r="K82" s="157"/>
       <c r="L82" s="42"/>
       <c r="U82" s="119" t="str" cm="1">
         <f t="array" ref="U82">IF(C82="",INDEX(C78:C82,MATCH(TRUE,INDEX((C78:C82&lt;&gt;""),0),0)),C82)</f>
@@ -17482,9 +17476,9 @@
       </c>
     </row>
     <row r="83" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="158"/>
-      <c r="C83" s="158"/>
-      <c r="D83" s="158"/>
+      <c r="B83" s="157"/>
+      <c r="C83" s="157"/>
+      <c r="D83" s="157"/>
       <c r="E83" s="3" t="s">
         <v>110</v>
       </c>
@@ -17504,7 +17498,7 @@
         <f t="shared" si="18"/>
         <v>96.561202543482324</v>
       </c>
-      <c r="K83" s="158"/>
+      <c r="K83" s="157"/>
       <c r="L83" s="42" t="s">
         <v>175</v>
       </c>
@@ -17543,9 +17537,9 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="158"/>
-      <c r="C84" s="158"/>
-      <c r="D84" s="158"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="157"/>
       <c r="E84" s="3" t="s">
         <v>107</v>
       </c>
@@ -17565,7 +17559,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K84" s="158"/>
+      <c r="K84" s="157"/>
       <c r="L84" s="42"/>
       <c r="U84" s="119" t="str" cm="1">
         <f t="array" ref="U84">IF(C84="",INDEX(C80:C84,MATCH(TRUE,INDEX((C80:C84&lt;&gt;""),0),0)),C84)</f>
@@ -17602,9 +17596,9 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="159"/>
-      <c r="C85" s="159"/>
-      <c r="D85" s="159"/>
+      <c r="B85" s="158"/>
+      <c r="C85" s="158"/>
+      <c r="D85" s="158"/>
       <c r="E85" s="4" t="s">
         <v>14</v>
       </c>
@@ -17624,7 +17618,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K85" s="159"/>
+      <c r="K85" s="158"/>
       <c r="L85" s="43"/>
       <c r="U85" s="119" t="str" cm="1">
         <f t="array" ref="U85">IF(C85="",INDEX(C81:C85,MATCH(TRUE,INDEX((C81:C85&lt;&gt;""),0),0)),C85)</f>
@@ -17664,13 +17658,13 @@
       <c r="A86" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B86" s="154">
+      <c r="B86" s="153">
         <v>16</v>
       </c>
-      <c r="C86" s="154" t="s">
+      <c r="C86" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="154" t="s">
+      <c r="D86" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="27" t="s">
@@ -17690,7 +17684,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K86" s="154" t="s">
+      <c r="K86" s="153" t="s">
         <v>168</v>
       </c>
       <c r="L86" s="44"/>
@@ -17729,9 +17723,9 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="155"/>
-      <c r="C87" s="155"/>
-      <c r="D87" s="155"/>
+      <c r="B87" s="154"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
       <c r="E87" s="6" t="s">
         <v>13</v>
       </c>
@@ -17753,7 +17747,7 @@
         <f t="shared" si="18"/>
         <v>66.450720029923318</v>
       </c>
-      <c r="K87" s="155"/>
+      <c r="K87" s="154"/>
       <c r="L87" s="45"/>
       <c r="U87" s="119" t="str" cm="1">
         <f t="array" ref="U87">IF(C87="",INDEX(C83:C87,MATCH(TRUE,INDEX((C83:C87&lt;&gt;""),0),0)),C87)</f>
@@ -17790,9 +17784,9 @@
       </c>
     </row>
     <row r="88" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="155"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="155"/>
+      <c r="B88" s="154"/>
+      <c r="C88" s="154"/>
+      <c r="D88" s="154"/>
       <c r="E88" s="6" t="s">
         <v>110</v>
       </c>
@@ -17812,7 +17806,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K88" s="155"/>
+      <c r="K88" s="154"/>
       <c r="L88" s="45"/>
       <c r="U88" s="119" t="str" cm="1">
         <f t="array" ref="U88">IF(C88="",INDEX(C84:C88,MATCH(TRUE,INDEX((C84:C88&lt;&gt;""),0),0)),C88)</f>
@@ -17849,9 +17843,9 @@
       </c>
     </row>
     <row r="89" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="155"/>
-      <c r="C89" s="155"/>
-      <c r="D89" s="155"/>
+      <c r="B89" s="154"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="154"/>
       <c r="E89" s="6" t="s">
         <v>107</v>
       </c>
@@ -17871,7 +17865,7 @@
         <f t="shared" si="18"/>
         <v>88.254862539741907</v>
       </c>
-      <c r="K89" s="155"/>
+      <c r="K89" s="154"/>
       <c r="L89" s="45"/>
       <c r="U89" s="119" t="str" cm="1">
         <f t="array" ref="U89">IF(C89="",INDEX(C85:C89,MATCH(TRUE,INDEX((C85:C89&lt;&gt;""),0),0)),C89)</f>
@@ -17908,9 +17902,9 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="156"/>
-      <c r="C90" s="156"/>
-      <c r="D90" s="156"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="155"/>
       <c r="E90" s="7" t="s">
         <v>14</v>
       </c>
@@ -17930,7 +17924,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K90" s="156"/>
+      <c r="K90" s="155"/>
       <c r="L90" s="46"/>
       <c r="U90" s="119" t="str" cm="1">
         <f t="array" ref="U90">IF(C90="",INDEX(C86:C90,MATCH(TRUE,INDEX((C86:C90&lt;&gt;""),0),0)),C90)</f>
@@ -17970,13 +17964,13 @@
       <c r="A91" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B91" s="157">
+      <c r="B91" s="156">
         <v>17</v>
       </c>
-      <c r="C91" s="157" t="s">
+      <c r="C91" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="157" t="s">
+      <c r="D91" s="156" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="26" t="s">
@@ -17996,7 +17990,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K91" s="157" t="s">
+      <c r="K91" s="156" t="s">
         <v>102</v>
       </c>
       <c r="L91" s="41"/>
@@ -18035,9 +18029,9 @@
       </c>
     </row>
     <row r="92" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="158"/>
-      <c r="C92" s="158"/>
-      <c r="D92" s="158"/>
+      <c r="B92" s="157"/>
+      <c r="C92" s="157"/>
+      <c r="D92" s="157"/>
       <c r="E92" s="3" t="s">
         <v>13</v>
       </c>
@@ -18059,7 +18053,7 @@
         <f t="shared" si="18"/>
         <v>73.144567046942214</v>
       </c>
-      <c r="K92" s="158"/>
+      <c r="K92" s="157"/>
       <c r="L92" s="42"/>
       <c r="U92" s="119" t="str" cm="1">
         <f t="array" ref="U92">IF(C92="",INDEX(C88:C92,MATCH(TRUE,INDEX((C88:C92&lt;&gt;""),0),0)),C92)</f>
@@ -18096,9 +18090,9 @@
       </c>
     </row>
     <row r="93" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="158"/>
-      <c r="C93" s="158"/>
-      <c r="D93" s="158"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="157"/>
+      <c r="D93" s="157"/>
       <c r="E93" s="3" t="s">
         <v>107</v>
       </c>
@@ -18118,7 +18112,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K93" s="158"/>
+      <c r="K93" s="157"/>
       <c r="L93" s="42"/>
       <c r="U93" s="119" t="str" cm="1">
         <f t="array" ref="U93">IF(C93="",INDEX(C89:C93,MATCH(TRUE,INDEX((C89:C93&lt;&gt;""),0),0)),C93)</f>
@@ -18155,9 +18149,9 @@
       </c>
     </row>
     <row r="94" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="158"/>
-      <c r="C94" s="158"/>
-      <c r="D94" s="158"/>
+      <c r="B94" s="157"/>
+      <c r="C94" s="157"/>
+      <c r="D94" s="157"/>
       <c r="E94" s="3" t="s">
         <v>110</v>
       </c>
@@ -18177,7 +18171,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K94" s="158"/>
+      <c r="K94" s="157"/>
       <c r="L94" s="42"/>
       <c r="U94" s="119" t="str" cm="1">
         <f t="array" ref="U94">IF(C94="",INDEX(C90:C94,MATCH(TRUE,INDEX((C90:C94&lt;&gt;""),0),0)),C94)</f>
@@ -18214,9 +18208,9 @@
       </c>
     </row>
     <row r="95" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="158"/>
-      <c r="C95" s="158"/>
-      <c r="D95" s="158"/>
+      <c r="B95" s="157"/>
+      <c r="C95" s="157"/>
+      <c r="D95" s="157"/>
       <c r="E95" s="3" t="s">
         <v>111</v>
       </c>
@@ -18236,7 +18230,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K95" s="158"/>
+      <c r="K95" s="157"/>
       <c r="L95" s="42"/>
       <c r="U95" s="119" t="str" cm="1">
         <f t="array" ref="U95">IF(C95="",INDEX(C90:C95,MATCH(TRUE,INDEX((C90:C95&lt;&gt;""),0),0)),C95)</f>
@@ -18273,9 +18267,9 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="159"/>
-      <c r="C96" s="159"/>
-      <c r="D96" s="159"/>
+      <c r="B96" s="158"/>
+      <c r="C96" s="158"/>
+      <c r="D96" s="158"/>
       <c r="E96" s="4" t="s">
         <v>14</v>
       </c>
@@ -18297,7 +18291,7 @@
         <f t="shared" si="18"/>
         <v>9.1430708808677768</v>
       </c>
-      <c r="K96" s="159"/>
+      <c r="K96" s="158"/>
       <c r="L96" s="43"/>
       <c r="U96" s="119" t="str" cm="1">
         <f t="array" ref="U96">IF(C96="",INDEX(C91:C96,MATCH(TRUE,INDEX((C91:C96&lt;&gt;""),0),0)),C96)</f>
@@ -18337,13 +18331,13 @@
       <c r="A97" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="154">
+      <c r="B97" s="153">
         <v>18</v>
       </c>
-      <c r="C97" s="154" t="s">
+      <c r="C97" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="154" t="s">
+      <c r="D97" s="153" t="s">
         <v>34</v>
       </c>
       <c r="E97" s="27" t="s">
@@ -18400,9 +18394,9 @@
       </c>
     </row>
     <row r="98" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="155"/>
-      <c r="C98" s="155"/>
-      <c r="D98" s="155"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="154"/>
+      <c r="D98" s="154"/>
       <c r="E98" s="6" t="s">
         <v>13</v>
       </c>
@@ -18461,9 +18455,9 @@
       </c>
     </row>
     <row r="99" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="155"/>
-      <c r="C99" s="155"/>
-      <c r="D99" s="155"/>
+      <c r="B99" s="154"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="154"/>
       <c r="E99" s="6" t="s">
         <v>104</v>
       </c>
@@ -18520,9 +18514,9 @@
       </c>
     </row>
     <row r="100" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="155"/>
-      <c r="C100" s="155"/>
-      <c r="D100" s="155"/>
+      <c r="B100" s="154"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
       <c r="E100" s="6" t="s">
         <v>107</v>
       </c>
@@ -18581,9 +18575,9 @@
       </c>
     </row>
     <row r="101" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="155"/>
-      <c r="C101" s="155"/>
-      <c r="D101" s="155"/>
+      <c r="B101" s="154"/>
+      <c r="C101" s="154"/>
+      <c r="D101" s="154"/>
       <c r="E101" s="6" t="s">
         <v>110</v>
       </c>
@@ -18642,9 +18636,9 @@
       </c>
     </row>
     <row r="102" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="155"/>
-      <c r="C102" s="155"/>
-      <c r="D102" s="155"/>
+      <c r="B102" s="154"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="154"/>
       <c r="E102" s="6" t="s">
         <v>111</v>
       </c>
@@ -18685,9 +18679,9 @@
       <c r="Z102" s="121"/>
     </row>
     <row r="103" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="156"/>
-      <c r="C103" s="156"/>
-      <c r="D103" s="156"/>
+      <c r="B103" s="155"/>
+      <c r="C103" s="155"/>
+      <c r="D103" s="155"/>
       <c r="E103" s="7" t="s">
         <v>14</v>
       </c>
@@ -18733,13 +18727,13 @@
       <c r="A104" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="157">
+      <c r="B104" s="156">
         <v>19</v>
       </c>
-      <c r="C104" s="157" t="s">
+      <c r="C104" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="157" t="s">
+      <c r="D104" s="156" t="s">
         <v>34</v>
       </c>
       <c r="E104" s="26" t="s">
@@ -18759,7 +18753,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K104" s="157" t="s">
+      <c r="K104" s="156" t="s">
         <v>140</v>
       </c>
       <c r="L104" s="41"/>
@@ -18782,9 +18776,9 @@
       <c r="Z104" s="121"/>
     </row>
     <row r="105" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="158"/>
-      <c r="C105" s="158"/>
-      <c r="D105" s="158"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="157"/>
+      <c r="D105" s="157"/>
       <c r="E105" s="3" t="s">
         <v>13</v>
       </c>
@@ -18804,7 +18798,7 @@
         <f t="shared" si="18"/>
         <v>73.144567046942214</v>
       </c>
-      <c r="K105" s="158"/>
+      <c r="K105" s="157"/>
       <c r="L105" s="42"/>
       <c r="U105" s="119" t="str" cm="1">
         <f t="array" ref="U105">IF(C105="",INDEX(C101:C105,MATCH(TRUE,INDEX((C101:C105&lt;&gt;""),0),0)),C105)</f>
@@ -18825,9 +18819,9 @@
       <c r="Z105" s="121"/>
     </row>
     <row r="106" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="158"/>
-      <c r="C106" s="158"/>
-      <c r="D106" s="158"/>
+      <c r="B106" s="157"/>
+      <c r="C106" s="157"/>
+      <c r="D106" s="157"/>
       <c r="E106" s="3" t="s">
         <v>107</v>
       </c>
@@ -18847,7 +18841,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K106" s="158"/>
+      <c r="K106" s="157"/>
       <c r="L106" s="42"/>
       <c r="U106" s="119" t="str" cm="1">
         <f t="array" ref="U106">IF(C106="",INDEX(C102:C106,MATCH(TRUE,INDEX((C102:C106&lt;&gt;""),0),0)),C106)</f>
@@ -18868,9 +18862,9 @@
       <c r="Z106" s="121"/>
     </row>
     <row r="107" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="158"/>
-      <c r="C107" s="158"/>
-      <c r="D107" s="158"/>
+      <c r="B107" s="157"/>
+      <c r="C107" s="157"/>
+      <c r="D107" s="157"/>
       <c r="E107" s="3" t="s">
         <v>110</v>
       </c>
@@ -18890,7 +18884,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K107" s="158"/>
+      <c r="K107" s="157"/>
       <c r="L107" s="42"/>
       <c r="U107" s="119" t="str" cm="1">
         <f t="array" ref="U107">IF(C107="",INDEX(C103:C107,MATCH(TRUE,INDEX((C103:C107&lt;&gt;""),0),0)),C107)</f>
@@ -18911,9 +18905,9 @@
       <c r="Z107" s="121"/>
     </row>
     <row r="108" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="158"/>
-      <c r="C108" s="158"/>
-      <c r="D108" s="158"/>
+      <c r="B108" s="157"/>
+      <c r="C108" s="157"/>
+      <c r="D108" s="157"/>
       <c r="E108" s="3" t="s">
         <v>111</v>
       </c>
@@ -18933,7 +18927,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K108" s="158"/>
+      <c r="K108" s="157"/>
       <c r="L108" s="42"/>
       <c r="U108" s="119" t="str" cm="1">
         <f t="array" ref="U108">IF(C108="",INDEX(C102:C108,MATCH(TRUE,INDEX((C102:C108&lt;&gt;""),0),0)),C108)</f>
@@ -18954,9 +18948,9 @@
       <c r="Z108" s="121"/>
     </row>
     <row r="109" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="159"/>
-      <c r="C109" s="159"/>
-      <c r="D109" s="159"/>
+      <c r="B109" s="158"/>
+      <c r="C109" s="158"/>
+      <c r="D109" s="158"/>
       <c r="E109" s="4" t="s">
         <v>14</v>
       </c>
@@ -18976,7 +18970,7 @@
         <f t="shared" si="18"/>
         <v>9.1430708808677768</v>
       </c>
-      <c r="K109" s="159"/>
+      <c r="K109" s="158"/>
       <c r="L109" s="43"/>
       <c r="U109" s="119" t="str" cm="1">
         <f t="array" ref="U109">IF(C109="",INDEX(C103:C109,MATCH(TRUE,INDEX((C103:C109&lt;&gt;""),0),0)),C109)</f>
@@ -19000,13 +18994,13 @@
       <c r="A110" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B110" s="154">
+      <c r="B110" s="153">
         <v>20</v>
       </c>
-      <c r="C110" s="154" t="s">
+      <c r="C110" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="154" t="s">
+      <c r="D110" s="153" t="s">
         <v>38</v>
       </c>
       <c r="E110" s="27" t="s">
@@ -19026,7 +19020,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K110" s="154"/>
+      <c r="K110" s="153"/>
       <c r="L110" s="44"/>
       <c r="U110" s="119" t="str" cm="1">
         <f t="array" ref="U110">IF(C110="",INDEX(C104:C110,MATCH(TRUE,INDEX((C104:C110&lt;&gt;""),0),0)),C110)</f>
@@ -19049,9 +19043,9 @@
       <c r="Z110" s="121"/>
     </row>
     <row r="111" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="155"/>
-      <c r="C111" s="155"/>
-      <c r="D111" s="155"/>
+      <c r="B111" s="154"/>
+      <c r="C111" s="154"/>
+      <c r="D111" s="154"/>
       <c r="E111" s="6" t="s">
         <v>13</v>
       </c>
@@ -19071,7 +19065,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K111" s="155"/>
+      <c r="K111" s="154"/>
       <c r="L111" s="45"/>
       <c r="U111" s="119" t="str" cm="1">
         <f t="array" ref="U111">IF(C111="",INDEX(C105:C111,MATCH(TRUE,INDEX((C105:C111&lt;&gt;""),0),0)),C111)</f>
@@ -19092,9 +19086,9 @@
       <c r="Z111" s="121"/>
     </row>
     <row r="112" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="155"/>
-      <c r="C112" s="155"/>
-      <c r="D112" s="155"/>
+      <c r="B112" s="154"/>
+      <c r="C112" s="154"/>
+      <c r="D112" s="154"/>
       <c r="E112" s="6" t="s">
         <v>104</v>
       </c>
@@ -19116,7 +19110,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K112" s="155"/>
+      <c r="K112" s="154"/>
       <c r="L112" s="45" t="s">
         <v>126</v>
       </c>
@@ -19148,9 +19142,9 @@
       </c>
     </row>
     <row r="113" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="155"/>
-      <c r="C113" s="155"/>
-      <c r="D113" s="155"/>
+      <c r="B113" s="154"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
       <c r="E113" s="6" t="s">
         <v>110</v>
       </c>
@@ -19170,7 +19164,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K113" s="155"/>
+      <c r="K113" s="154"/>
       <c r="L113" s="45"/>
       <c r="U113" s="119" t="str" cm="1">
         <f t="array" ref="U113">IF(C113="",INDEX(C107:C113,MATCH(TRUE,INDEX((C107:C113&lt;&gt;""),0),0)),C113)</f>
@@ -19201,9 +19195,9 @@
       </c>
     </row>
     <row r="114" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="155"/>
-      <c r="C114" s="155"/>
-      <c r="D114" s="155"/>
+      <c r="B114" s="154"/>
+      <c r="C114" s="154"/>
+      <c r="D114" s="154"/>
       <c r="E114" s="6" t="s">
         <v>111</v>
       </c>
@@ -19223,7 +19217,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K114" s="155"/>
+      <c r="K114" s="154"/>
       <c r="L114" s="45"/>
       <c r="U114" s="119" t="str" cm="1">
         <f t="array" ref="U114">IF(C114="",INDEX(C108:C114,MATCH(TRUE,INDEX((C108:C114&lt;&gt;""),0),0)),C114)</f>
@@ -19253,9 +19247,9 @@
       </c>
     </row>
     <row r="115" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="155"/>
-      <c r="C115" s="155"/>
-      <c r="D115" s="155"/>
+      <c r="B115" s="154"/>
+      <c r="C115" s="154"/>
+      <c r="D115" s="154"/>
       <c r="E115" s="6" t="s">
         <v>107</v>
       </c>
@@ -19275,7 +19269,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K115" s="155"/>
+      <c r="K115" s="154"/>
       <c r="L115" s="45"/>
       <c r="U115" s="119" t="str" cm="1">
         <f t="array" ref="U115">IF(C115="",INDEX(C109:C115,MATCH(TRUE,INDEX((C109:C115&lt;&gt;""),0),0)),C115)</f>
@@ -19308,9 +19302,9 @@
       </c>
     </row>
     <row r="116" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="156"/>
-      <c r="C116" s="156"/>
-      <c r="D116" s="156"/>
+      <c r="B116" s="155"/>
+      <c r="C116" s="155"/>
+      <c r="D116" s="155"/>
       <c r="E116" s="7" t="s">
         <v>14</v>
       </c>
@@ -19330,7 +19324,7 @@
         <f t="shared" si="18"/>
         <v>10.4</v>
       </c>
-      <c r="K116" s="156"/>
+      <c r="K116" s="155"/>
       <c r="L116" s="46"/>
       <c r="U116" s="119" t="str" cm="1">
         <f t="array" ref="U116">IF(C116="",INDEX(C110:C116,MATCH(TRUE,INDEX((C110:C116&lt;&gt;""),0),0)),C116)</f>
@@ -19354,13 +19348,13 @@
       <c r="A117" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="157">
+      <c r="B117" s="156">
         <v>21</v>
       </c>
-      <c r="C117" s="157" t="s">
+      <c r="C117" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="D117" s="157" t="s">
+      <c r="D117" s="156" t="s">
         <v>38</v>
       </c>
       <c r="E117" s="26" t="s">
@@ -19380,7 +19374,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K117" s="157" t="s">
+      <c r="K117" s="156" t="s">
         <v>145</v>
       </c>
       <c r="L117" s="41"/>
@@ -19405,9 +19399,9 @@
       <c r="Z117" s="121"/>
     </row>
     <row r="118" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="158"/>
-      <c r="C118" s="158"/>
-      <c r="D118" s="158"/>
+      <c r="B118" s="157"/>
+      <c r="C118" s="157"/>
+      <c r="D118" s="157"/>
       <c r="E118" s="3" t="s">
         <v>13</v>
       </c>
@@ -19427,7 +19421,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K118" s="158"/>
+      <c r="K118" s="157"/>
       <c r="L118" s="42"/>
       <c r="U118" s="119" t="str" cm="1">
         <f t="array" ref="U118">IF(C118="",INDEX(C112:C118,MATCH(TRUE,INDEX((C112:C118&lt;&gt;""),0),0)),C118)</f>
@@ -19448,9 +19442,9 @@
       <c r="Z118" s="121"/>
     </row>
     <row r="119" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="158"/>
-      <c r="C119" s="158"/>
-      <c r="D119" s="158"/>
+      <c r="B119" s="157"/>
+      <c r="C119" s="157"/>
+      <c r="D119" s="157"/>
       <c r="E119" s="3" t="s">
         <v>110</v>
       </c>
@@ -19470,7 +19464,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K119" s="158"/>
+      <c r="K119" s="157"/>
       <c r="L119" s="42"/>
       <c r="U119" s="119" t="str" cm="1">
         <f t="array" ref="U119">IF(C119="",INDEX(C113:C119,MATCH(TRUE,INDEX((C113:C119&lt;&gt;""),0),0)),C119)</f>
@@ -19491,9 +19485,9 @@
       <c r="Z119" s="121"/>
     </row>
     <row r="120" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="158"/>
-      <c r="C120" s="158"/>
-      <c r="D120" s="158"/>
+      <c r="B120" s="157"/>
+      <c r="C120" s="157"/>
+      <c r="D120" s="157"/>
       <c r="E120" s="3" t="s">
         <v>111</v>
       </c>
@@ -19513,7 +19507,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K120" s="158"/>
+      <c r="K120" s="157"/>
       <c r="L120" s="42" t="s">
         <v>146</v>
       </c>
@@ -19536,9 +19530,9 @@
       <c r="Z120" s="121"/>
     </row>
     <row r="121" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="158"/>
-      <c r="C121" s="158"/>
-      <c r="D121" s="158"/>
+      <c r="B121" s="157"/>
+      <c r="C121" s="157"/>
+      <c r="D121" s="157"/>
       <c r="E121" s="3" t="s">
         <v>107</v>
       </c>
@@ -19558,7 +19552,7 @@
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="K121" s="158"/>
+      <c r="K121" s="157"/>
       <c r="L121" s="42"/>
       <c r="U121" s="119" t="str" cm="1">
         <f t="array" ref="U121">IF(C121="",INDEX(C115:C121,MATCH(TRUE,INDEX((C115:C121&lt;&gt;""),0),0)),C121)</f>
@@ -19579,9 +19573,9 @@
       <c r="Z121" s="121"/>
     </row>
     <row r="122" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="159"/>
-      <c r="C122" s="159"/>
-      <c r="D122" s="159"/>
+      <c r="B122" s="158"/>
+      <c r="C122" s="158"/>
+      <c r="D122" s="158"/>
       <c r="E122" s="4" t="s">
         <v>14</v>
       </c>
@@ -19601,7 +19595,7 @@
         <f t="shared" si="18"/>
         <v>10.4</v>
       </c>
-      <c r="K122" s="159"/>
+      <c r="K122" s="158"/>
       <c r="L122" s="43"/>
       <c r="U122" s="119" t="str" cm="1">
         <f t="array" ref="U122">IF(C122="",INDEX(C116:C122,MATCH(TRUE,INDEX((C116:C122&lt;&gt;""),0),0)),C122)</f>
@@ -19625,13 +19619,13 @@
       <c r="A123" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B123" s="154">
+      <c r="B123" s="153">
         <v>22</v>
       </c>
-      <c r="C123" s="154" t="s">
+      <c r="C123" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="154" t="s">
+      <c r="D123" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="27" t="s">
@@ -19672,9 +19666,9 @@
       <c r="Z123" s="121"/>
     </row>
     <row r="124" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="155"/>
-      <c r="C124" s="155"/>
-      <c r="D124" s="155"/>
+      <c r="B124" s="154"/>
+      <c r="C124" s="154"/>
+      <c r="D124" s="154"/>
       <c r="E124" s="6" t="s">
         <v>13</v>
       </c>
@@ -19715,9 +19709,9 @@
       <c r="Z124" s="121"/>
     </row>
     <row r="125" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="155"/>
-      <c r="C125" s="155"/>
-      <c r="D125" s="155"/>
+      <c r="B125" s="154"/>
+      <c r="C125" s="154"/>
+      <c r="D125" s="154"/>
       <c r="E125" s="6" t="s">
         <v>104</v>
       </c>
@@ -19758,9 +19752,9 @@
       <c r="Z125" s="121"/>
     </row>
     <row r="126" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="155"/>
-      <c r="C126" s="155"/>
-      <c r="D126" s="155"/>
+      <c r="B126" s="154"/>
+      <c r="C126" s="154"/>
+      <c r="D126" s="154"/>
       <c r="E126" s="6" t="s">
         <v>107</v>
       </c>
@@ -19801,9 +19795,9 @@
       <c r="Z126" s="121"/>
     </row>
     <row r="127" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="155"/>
-      <c r="C127" s="155"/>
-      <c r="D127" s="155"/>
+      <c r="B127" s="154"/>
+      <c r="C127" s="154"/>
+      <c r="D127" s="154"/>
       <c r="E127" s="6" t="s">
         <v>110</v>
       </c>
@@ -19844,9 +19838,9 @@
       <c r="Z127" s="121"/>
     </row>
     <row r="128" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="155"/>
-      <c r="C128" s="155"/>
-      <c r="D128" s="155"/>
+      <c r="B128" s="154"/>
+      <c r="C128" s="154"/>
+      <c r="D128" s="154"/>
       <c r="E128" s="6" t="s">
         <v>111</v>
       </c>
@@ -19887,9 +19881,9 @@
       <c r="Z128" s="121"/>
     </row>
     <row r="129" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="156"/>
-      <c r="C129" s="156"/>
-      <c r="D129" s="156"/>
+      <c r="B129" s="155"/>
+      <c r="C129" s="155"/>
+      <c r="D129" s="155"/>
       <c r="E129" s="7" t="s">
         <v>14</v>
       </c>
@@ -19935,13 +19929,13 @@
       <c r="A130" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B130" s="157">
+      <c r="B130" s="156">
         <v>23</v>
       </c>
-      <c r="C130" s="157" t="s">
+      <c r="C130" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="D130" s="157" t="s">
+      <c r="D130" s="156" t="s">
         <v>41</v>
       </c>
       <c r="E130" s="26" t="s">
@@ -19984,9 +19978,9 @@
       <c r="Z130" s="121"/>
     </row>
     <row r="131" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="158"/>
-      <c r="C131" s="158"/>
-      <c r="D131" s="158"/>
+      <c r="B131" s="157"/>
+      <c r="C131" s="157"/>
+      <c r="D131" s="157"/>
       <c r="E131" s="3" t="s">
         <v>13</v>
       </c>
@@ -20027,9 +20021,9 @@
       <c r="Z131" s="121"/>
     </row>
     <row r="132" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="158"/>
-      <c r="C132" s="158"/>
-      <c r="D132" s="158"/>
+      <c r="B132" s="157"/>
+      <c r="C132" s="157"/>
+      <c r="D132" s="157"/>
       <c r="E132" s="3" t="s">
         <v>110</v>
       </c>
@@ -20070,9 +20064,9 @@
       <c r="Z132" s="121"/>
     </row>
     <row r="133" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="158"/>
-      <c r="C133" s="158"/>
-      <c r="D133" s="158"/>
+      <c r="B133" s="157"/>
+      <c r="C133" s="157"/>
+      <c r="D133" s="157"/>
       <c r="E133" s="3" t="s">
         <v>111</v>
       </c>
@@ -20113,9 +20107,9 @@
       <c r="Z133" s="121"/>
     </row>
     <row r="134" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="158"/>
-      <c r="C134" s="158"/>
-      <c r="D134" s="158"/>
+      <c r="B134" s="157"/>
+      <c r="C134" s="157"/>
+      <c r="D134" s="157"/>
       <c r="E134" s="3" t="s">
         <v>107</v>
       </c>
@@ -20156,9 +20150,9 @@
       <c r="Z134" s="121"/>
     </row>
     <row r="135" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="159"/>
-      <c r="C135" s="159"/>
-      <c r="D135" s="159"/>
+      <c r="B135" s="158"/>
+      <c r="C135" s="158"/>
+      <c r="D135" s="158"/>
       <c r="E135" s="4" t="s">
         <v>14</v>
       </c>
@@ -20204,13 +20198,13 @@
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B136" s="154">
+      <c r="B136" s="153">
         <v>24</v>
       </c>
-      <c r="C136" s="154" t="s">
+      <c r="C136" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="D136" s="154" t="s">
+      <c r="D136" s="153" t="s">
         <v>41</v>
       </c>
       <c r="E136" s="27" t="s">
@@ -20251,9 +20245,9 @@
       <c r="Z136" s="121"/>
     </row>
     <row r="137" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="155"/>
-      <c r="C137" s="155"/>
-      <c r="D137" s="155"/>
+      <c r="B137" s="154"/>
+      <c r="C137" s="154"/>
+      <c r="D137" s="154"/>
       <c r="E137" s="6" t="s">
         <v>13</v>
       </c>
@@ -20294,9 +20288,9 @@
       <c r="Z137" s="121"/>
     </row>
     <row r="138" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="155"/>
-      <c r="C138" s="155"/>
-      <c r="D138" s="155"/>
+      <c r="B138" s="154"/>
+      <c r="C138" s="154"/>
+      <c r="D138" s="154"/>
       <c r="E138" s="6" t="s">
         <v>104</v>
       </c>
@@ -20337,9 +20331,9 @@
       <c r="Z138" s="121"/>
     </row>
     <row r="139" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="155"/>
-      <c r="C139" s="155"/>
-      <c r="D139" s="155"/>
+      <c r="B139" s="154"/>
+      <c r="C139" s="154"/>
+      <c r="D139" s="154"/>
       <c r="E139" s="6" t="s">
         <v>107</v>
       </c>
@@ -20380,9 +20374,9 @@
       <c r="Z139" s="121"/>
     </row>
     <row r="140" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="155"/>
-      <c r="C140" s="155"/>
-      <c r="D140" s="155"/>
+      <c r="B140" s="154"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="154"/>
       <c r="E140" s="6" t="s">
         <v>110</v>
       </c>
@@ -20423,9 +20417,9 @@
       <c r="Z140" s="121"/>
     </row>
     <row r="141" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="155"/>
-      <c r="C141" s="155"/>
-      <c r="D141" s="155"/>
+      <c r="B141" s="154"/>
+      <c r="C141" s="154"/>
+      <c r="D141" s="154"/>
       <c r="E141" s="6" t="s">
         <v>281</v>
       </c>
@@ -20471,9 +20465,9 @@
       <c r="Z141" s="121"/>
     </row>
     <row r="142" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="155"/>
-      <c r="C142" s="155"/>
-      <c r="D142" s="155"/>
+      <c r="B142" s="154"/>
+      <c r="C142" s="154"/>
+      <c r="D142" s="154"/>
       <c r="E142" s="6" t="s">
         <v>111</v>
       </c>
@@ -20514,9 +20508,9 @@
       <c r="Z142" s="121"/>
     </row>
     <row r="143" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="155"/>
-      <c r="C143" s="155"/>
-      <c r="D143" s="155"/>
+      <c r="B143" s="154"/>
+      <c r="C143" s="154"/>
+      <c r="D143" s="154"/>
       <c r="E143" s="6" t="s">
         <v>291</v>
       </c>
@@ -20557,9 +20551,9 @@
       <c r="Z143" s="121"/>
     </row>
     <row r="144" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="155"/>
-      <c r="C144" s="155"/>
-      <c r="D144" s="155"/>
+      <c r="B144" s="154"/>
+      <c r="C144" s="154"/>
+      <c r="D144" s="154"/>
       <c r="E144" s="6" t="s">
         <v>186</v>
       </c>
@@ -20605,9 +20599,9 @@
       <c r="Z144" s="121"/>
     </row>
     <row r="145" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="156"/>
-      <c r="C145" s="156"/>
-      <c r="D145" s="156"/>
+      <c r="B145" s="155"/>
+      <c r="C145" s="155"/>
+      <c r="D145" s="155"/>
       <c r="E145" s="7" t="s">
         <v>14</v>
       </c>
@@ -20651,13 +20645,13 @@
       <c r="A146" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B146" s="157">
+      <c r="B146" s="156">
         <v>25</v>
       </c>
-      <c r="C146" s="157" t="s">
+      <c r="C146" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="157" t="s">
+      <c r="D146" s="156" t="s">
         <v>45</v>
       </c>
       <c r="E146" s="26" t="s">
@@ -20698,9 +20692,9 @@
       <c r="Z146" s="121"/>
     </row>
     <row r="147" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="158"/>
-      <c r="C147" s="158"/>
-      <c r="D147" s="158"/>
+      <c r="B147" s="157"/>
+      <c r="C147" s="157"/>
+      <c r="D147" s="157"/>
       <c r="E147" s="3" t="s">
         <v>13</v>
       </c>
@@ -20741,9 +20735,9 @@
       <c r="Z147" s="121"/>
     </row>
     <row r="148" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="158"/>
-      <c r="C148" s="158"/>
-      <c r="D148" s="158"/>
+      <c r="B148" s="157"/>
+      <c r="C148" s="157"/>
+      <c r="D148" s="157"/>
       <c r="E148" s="3" t="s">
         <v>111</v>
       </c>
@@ -20784,9 +20778,9 @@
       <c r="Z148" s="121"/>
     </row>
     <row r="149" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="158"/>
-      <c r="C149" s="158"/>
-      <c r="D149" s="158"/>
+      <c r="B149" s="157"/>
+      <c r="C149" s="157"/>
+      <c r="D149" s="157"/>
       <c r="E149" s="3" t="s">
         <v>110</v>
       </c>
@@ -20831,9 +20825,9 @@
       <c r="Z149" s="121"/>
     </row>
     <row r="150" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="158"/>
-      <c r="C150" s="158"/>
-      <c r="D150" s="158"/>
+      <c r="B150" s="157"/>
+      <c r="C150" s="157"/>
+      <c r="D150" s="157"/>
       <c r="E150" s="3" t="s">
         <v>107</v>
       </c>
@@ -20874,9 +20868,9 @@
       <c r="Z150" s="121"/>
     </row>
     <row r="151" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="159"/>
-      <c r="C151" s="159"/>
-      <c r="D151" s="159"/>
+      <c r="B151" s="158"/>
+      <c r="C151" s="158"/>
+      <c r="D151" s="158"/>
       <c r="E151" s="4" t="s">
         <v>14</v>
       </c>
@@ -20920,13 +20914,13 @@
       <c r="A152" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="154">
+      <c r="B152" s="153">
         <v>26</v>
       </c>
-      <c r="C152" s="154" t="s">
+      <c r="C152" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="D152" s="187" t="s">
+      <c r="D152" s="173" t="s">
         <v>100</v>
       </c>
       <c r="E152" s="27" t="s">
@@ -20967,9 +20961,9 @@
       <c r="Z152" s="121"/>
     </row>
     <row r="153" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="155"/>
-      <c r="C153" s="155"/>
-      <c r="D153" s="188"/>
+      <c r="B153" s="154"/>
+      <c r="C153" s="154"/>
+      <c r="D153" s="174"/>
       <c r="E153" s="6" t="s">
         <v>13</v>
       </c>
@@ -21010,9 +21004,9 @@
       <c r="Z153" s="121"/>
     </row>
     <row r="154" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="155"/>
-      <c r="C154" s="155"/>
-      <c r="D154" s="155"/>
+      <c r="B154" s="154"/>
+      <c r="C154" s="154"/>
+      <c r="D154" s="154"/>
       <c r="E154" s="6" t="s">
         <v>111</v>
       </c>
@@ -21053,9 +21047,9 @@
       <c r="Z154" s="121"/>
     </row>
     <row r="155" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="155"/>
-      <c r="C155" s="155"/>
-      <c r="D155" s="155"/>
+      <c r="B155" s="154"/>
+      <c r="C155" s="154"/>
+      <c r="D155" s="154"/>
       <c r="E155" s="6" t="s">
         <v>110</v>
       </c>
@@ -21101,16 +21095,18 @@
       <c r="Z155" s="121"/>
     </row>
     <row r="156" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="155"/>
-      <c r="C156" s="155"/>
-      <c r="D156" s="155"/>
+      <c r="B156" s="154"/>
+      <c r="C156" s="154"/>
+      <c r="D156" s="154"/>
       <c r="E156" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F156" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G156" s="37"/>
+      <c r="G156" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="H156" s="61">
         <f t="shared" si="26"/>
         <v>6106.6392369553014</v>
@@ -21144,9 +21140,9 @@
       <c r="Z156" s="121"/>
     </row>
     <row r="157" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="156"/>
-      <c r="C157" s="156"/>
-      <c r="D157" s="156"/>
+      <c r="B157" s="155"/>
+      <c r="C157" s="155"/>
+      <c r="D157" s="155"/>
       <c r="E157" s="7" t="s">
         <v>14</v>
       </c>
@@ -21190,13 +21186,13 @@
       <c r="A158" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="157">
+      <c r="B158" s="156">
         <v>27</v>
       </c>
-      <c r="C158" s="157" t="s">
+      <c r="C158" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D158" s="189" t="s">
+      <c r="D158" s="175" t="s">
         <v>100</v>
       </c>
       <c r="E158" s="26" t="s">
@@ -21237,9 +21233,9 @@
       <c r="Z158" s="121"/>
     </row>
     <row r="159" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="158"/>
-      <c r="C159" s="158"/>
-      <c r="D159" s="190"/>
+      <c r="B159" s="157"/>
+      <c r="C159" s="157"/>
+      <c r="D159" s="176"/>
       <c r="E159" s="3" t="s">
         <v>13</v>
       </c>
@@ -21280,9 +21276,9 @@
       <c r="Z159" s="121"/>
     </row>
     <row r="160" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="158"/>
-      <c r="C160" s="158"/>
-      <c r="D160" s="190"/>
+      <c r="B160" s="157"/>
+      <c r="C160" s="157"/>
+      <c r="D160" s="176"/>
       <c r="E160" s="3" t="s">
         <v>111</v>
       </c>
@@ -21323,9 +21319,9 @@
       <c r="Z160" s="121"/>
     </row>
     <row r="161" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="158"/>
-      <c r="C161" s="158"/>
-      <c r="D161" s="190"/>
+      <c r="B161" s="157"/>
+      <c r="C161" s="157"/>
+      <c r="D161" s="176"/>
       <c r="E161" s="3" t="s">
         <v>110</v>
       </c>
@@ -21373,9 +21369,9 @@
       <c r="Z161" s="121"/>
     </row>
     <row r="162" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="158"/>
-      <c r="C162" s="158"/>
-      <c r="D162" s="158"/>
+      <c r="B162" s="157"/>
+      <c r="C162" s="157"/>
+      <c r="D162" s="157"/>
       <c r="E162" s="3" t="s">
         <v>107</v>
       </c>
@@ -21418,9 +21414,9 @@
       <c r="Z162" s="121"/>
     </row>
     <row r="163" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="159"/>
-      <c r="C163" s="159"/>
-      <c r="D163" s="159"/>
+      <c r="B163" s="158"/>
+      <c r="C163" s="158"/>
+      <c r="D163" s="158"/>
       <c r="E163" s="4" t="s">
         <v>14</v>
       </c>
@@ -21464,13 +21460,13 @@
       <c r="A164" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B164" s="154">
+      <c r="B164" s="153">
         <v>28</v>
       </c>
-      <c r="C164" s="154" t="s">
+      <c r="C164" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="D164" s="187" t="s">
+      <c r="D164" s="173" t="s">
         <v>49</v>
       </c>
       <c r="E164" s="27" t="s">
@@ -21511,9 +21507,9 @@
       <c r="Z164" s="121"/>
     </row>
     <row r="165" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="155"/>
-      <c r="C165" s="155"/>
-      <c r="D165" s="188"/>
+      <c r="B165" s="154"/>
+      <c r="C165" s="154"/>
+      <c r="D165" s="174"/>
       <c r="E165" s="6" t="s">
         <v>13</v>
       </c>
@@ -21554,9 +21550,9 @@
       <c r="Z165" s="121"/>
     </row>
     <row r="166" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="155"/>
-      <c r="C166" s="155"/>
-      <c r="D166" s="188"/>
+      <c r="B166" s="154"/>
+      <c r="C166" s="154"/>
+      <c r="D166" s="174"/>
       <c r="E166" s="6" t="s">
         <v>111</v>
       </c>
@@ -21597,9 +21593,9 @@
       <c r="Z166" s="121"/>
     </row>
     <row r="167" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="155"/>
-      <c r="C167" s="155"/>
-      <c r="D167" s="188"/>
+      <c r="B167" s="154"/>
+      <c r="C167" s="154"/>
+      <c r="D167" s="174"/>
       <c r="E167" s="6" t="s">
         <v>110</v>
       </c>
@@ -21645,16 +21641,18 @@
       <c r="Z167" s="121"/>
     </row>
     <row r="168" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="155"/>
-      <c r="C168" s="155"/>
-      <c r="D168" s="155"/>
+      <c r="B168" s="154"/>
+      <c r="C168" s="154"/>
+      <c r="D168" s="154"/>
       <c r="E168" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F168" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G168" s="37"/>
+      <c r="G168" s="37" t="s">
+        <v>185</v>
+      </c>
       <c r="H168" s="61">
         <f t="shared" si="26"/>
         <v>6106.6392369553014</v>
@@ -21688,9 +21686,9 @@
       <c r="Z168" s="121"/>
     </row>
     <row r="169" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="156"/>
-      <c r="C169" s="156"/>
-      <c r="D169" s="156"/>
+      <c r="B169" s="155"/>
+      <c r="C169" s="155"/>
+      <c r="D169" s="155"/>
       <c r="E169" s="7" t="s">
         <v>14</v>
       </c>
@@ -21734,13 +21732,13 @@
       <c r="A170" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="157">
+      <c r="B170" s="156">
         <v>29</v>
       </c>
-      <c r="C170" s="157" t="s">
+      <c r="C170" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="D170" s="189" t="s">
+      <c r="D170" s="175" t="s">
         <v>49</v>
       </c>
       <c r="E170" s="26" t="s">
@@ -21781,9 +21779,9 @@
       <c r="Z170" s="121"/>
     </row>
     <row r="171" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="158"/>
-      <c r="C171" s="158"/>
-      <c r="D171" s="190"/>
+      <c r="B171" s="157"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="176"/>
       <c r="E171" s="3" t="s">
         <v>13</v>
       </c>
@@ -21824,9 +21822,9 @@
       <c r="Z171" s="121"/>
     </row>
     <row r="172" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="158"/>
-      <c r="C172" s="158"/>
-      <c r="D172" s="190"/>
+      <c r="B172" s="157"/>
+      <c r="C172" s="157"/>
+      <c r="D172" s="176"/>
       <c r="E172" s="3" t="s">
         <v>111</v>
       </c>
@@ -21867,9 +21865,9 @@
       <c r="Z172" s="121"/>
     </row>
     <row r="173" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="158"/>
-      <c r="C173" s="158"/>
-      <c r="D173" s="190"/>
+      <c r="B173" s="157"/>
+      <c r="C173" s="157"/>
+      <c r="D173" s="176"/>
       <c r="E173" s="3" t="s">
         <v>110</v>
       </c>
@@ -21915,9 +21913,9 @@
       <c r="Z173" s="121"/>
     </row>
     <row r="174" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="158"/>
-      <c r="C174" s="158"/>
-      <c r="D174" s="158"/>
+      <c r="B174" s="157"/>
+      <c r="C174" s="157"/>
+      <c r="D174" s="157"/>
       <c r="E174" s="3" t="s">
         <v>107</v>
       </c>
@@ -21960,9 +21958,9 @@
       <c r="Z174" s="121"/>
     </row>
     <row r="175" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="159"/>
-      <c r="C175" s="159"/>
-      <c r="D175" s="159"/>
+      <c r="B175" s="158"/>
+      <c r="C175" s="158"/>
+      <c r="D175" s="158"/>
       <c r="E175" s="4" t="s">
         <v>14</v>
       </c>
@@ -22006,13 +22004,13 @@
       <c r="A176" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B176" s="154">
+      <c r="B176" s="153">
         <v>30</v>
       </c>
-      <c r="C176" s="154" t="s">
+      <c r="C176" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="D176" s="187" t="s">
+      <c r="D176" s="173" t="s">
         <v>52</v>
       </c>
       <c r="E176" s="27" t="s">
@@ -22053,9 +22051,9 @@
       <c r="Z176" s="121"/>
     </row>
     <row r="177" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="155"/>
-      <c r="C177" s="155"/>
-      <c r="D177" s="188"/>
+      <c r="B177" s="154"/>
+      <c r="C177" s="154"/>
+      <c r="D177" s="174"/>
       <c r="E177" s="6" t="s">
         <v>13</v>
       </c>
@@ -22096,9 +22094,9 @@
       <c r="Z177" s="121"/>
     </row>
     <row r="178" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="155"/>
-      <c r="C178" s="155"/>
-      <c r="D178" s="188"/>
+      <c r="B178" s="154"/>
+      <c r="C178" s="154"/>
+      <c r="D178" s="174"/>
       <c r="E178" s="6" t="s">
         <v>111</v>
       </c>
@@ -22139,9 +22137,9 @@
       <c r="Z178" s="121"/>
     </row>
     <row r="179" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="155"/>
-      <c r="C179" s="155"/>
-      <c r="D179" s="188"/>
+      <c r="B179" s="154"/>
+      <c r="C179" s="154"/>
+      <c r="D179" s="174"/>
       <c r="E179" s="6" t="s">
         <v>110</v>
       </c>
@@ -22187,27 +22185,29 @@
       <c r="Z179" s="121"/>
     </row>
     <row r="180" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="155"/>
-      <c r="C180" s="155"/>
-      <c r="D180" s="155"/>
+      <c r="B180" s="154"/>
+      <c r="C180" s="154"/>
+      <c r="D180" s="154"/>
       <c r="E180" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F180" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G180" s="37"/>
-      <c r="H180" s="61" t="str">
+        <v>17</v>
+      </c>
+      <c r="G180" s="37">
+        <v>44439</v>
+      </c>
+      <c r="H180" s="61">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I180" s="61" t="str">
+        <v>7707.4200486253976</v>
+      </c>
+      <c r="I180" s="61">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J180" s="62" t="str">
+        <v>1857.2096502711802</v>
+      </c>
+      <c r="J180" s="62">
         <f t="shared" si="28"/>
-        <v/>
+        <v>78.931410136525159</v>
       </c>
       <c r="K180" s="6"/>
       <c r="L180" s="45"/>
@@ -22230,9 +22230,9 @@
       <c r="Z180" s="121"/>
     </row>
     <row r="181" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="156"/>
-      <c r="C181" s="156"/>
-      <c r="D181" s="156"/>
+      <c r="B181" s="155"/>
+      <c r="C181" s="155"/>
+      <c r="D181" s="155"/>
       <c r="E181" s="7" t="s">
         <v>14</v>
       </c>
@@ -22276,13 +22276,13 @@
       <c r="A182" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B182" s="157">
+      <c r="B182" s="156">
         <v>31</v>
       </c>
-      <c r="C182" s="157" t="s">
+      <c r="C182" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="D182" s="189" t="s">
+      <c r="D182" s="175" t="s">
         <v>52</v>
       </c>
       <c r="E182" s="26" t="s">
@@ -22302,7 +22302,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K182" s="157" t="s">
+      <c r="K182" s="156" t="s">
         <v>176</v>
       </c>
       <c r="L182" s="41"/>
@@ -22325,9 +22325,9 @@
       <c r="Z182" s="121"/>
     </row>
     <row r="183" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="158"/>
-      <c r="C183" s="158"/>
-      <c r="D183" s="190"/>
+      <c r="B183" s="157"/>
+      <c r="C183" s="157"/>
+      <c r="D183" s="176"/>
       <c r="E183" s="3" t="s">
         <v>13</v>
       </c>
@@ -22349,7 +22349,7 @@
         <f t="shared" si="28"/>
         <v>59.430708808677764</v>
       </c>
-      <c r="K183" s="158"/>
+      <c r="K183" s="157"/>
       <c r="L183" s="42"/>
       <c r="U183" s="119" t="str" cm="1">
         <f t="array" ref="U183">IF(C183="",INDEX(C177:C183,MATCH(TRUE,INDEX((C177:C183&lt;&gt;""),0),0)),C183)</f>
@@ -22370,9 +22370,9 @@
       <c r="Z183" s="121"/>
     </row>
     <row r="184" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="158"/>
-      <c r="C184" s="158"/>
-      <c r="D184" s="190"/>
+      <c r="B184" s="157"/>
+      <c r="C184" s="157"/>
+      <c r="D184" s="176"/>
       <c r="E184" s="3" t="s">
         <v>111</v>
       </c>
@@ -22392,7 +22392,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K184" s="158"/>
+      <c r="K184" s="157"/>
       <c r="L184" s="42"/>
       <c r="U184" s="119" t="str" cm="1">
         <f t="array" ref="U184">IF(C184="",INDEX(C178:C184,MATCH(TRUE,INDEX((C178:C184&lt;&gt;""),0),0)),C184)</f>
@@ -22413,9 +22413,9 @@
       <c r="Z184" s="121"/>
     </row>
     <row r="185" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="158"/>
-      <c r="C185" s="158"/>
-      <c r="D185" s="190"/>
+      <c r="B185" s="157"/>
+      <c r="C185" s="157"/>
+      <c r="D185" s="176"/>
       <c r="E185" s="3" t="s">
         <v>110</v>
       </c>
@@ -22437,7 +22437,7 @@
         <f t="shared" si="28"/>
         <v>86.360248737609879</v>
       </c>
-      <c r="K185" s="158"/>
+      <c r="K185" s="157"/>
       <c r="L185" s="42" t="s">
         <v>275</v>
       </c>
@@ -22463,9 +22463,9 @@
       <c r="Z185" s="121"/>
     </row>
     <row r="186" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="158"/>
-      <c r="C186" s="158"/>
-      <c r="D186" s="158"/>
+      <c r="B186" s="157"/>
+      <c r="C186" s="157"/>
+      <c r="D186" s="157"/>
       <c r="E186" s="3" t="s">
         <v>107</v>
       </c>
@@ -22487,7 +22487,7 @@
         <f t="shared" si="28"/>
         <v>78.931410136525159</v>
       </c>
-      <c r="K186" s="158"/>
+      <c r="K186" s="157"/>
       <c r="L186" s="42"/>
       <c r="U186" s="119" t="str" cm="1">
         <f t="array" ref="U186">IF(C186="",INDEX(C180:C186,MATCH(TRUE,INDEX((C180:C186&lt;&gt;""),0),0)),C186)</f>
@@ -22508,9 +22508,9 @@
       <c r="Z186" s="121"/>
     </row>
     <row r="187" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="159"/>
-      <c r="C187" s="159"/>
-      <c r="D187" s="159"/>
+      <c r="B187" s="158"/>
+      <c r="C187" s="158"/>
+      <c r="D187" s="158"/>
       <c r="E187" s="4" t="s">
         <v>14</v>
       </c>
@@ -22530,7 +22530,7 @@
         <f t="shared" si="28"/>
         <v>7.4288386010847205</v>
       </c>
-      <c r="K187" s="159"/>
+      <c r="K187" s="158"/>
       <c r="L187" s="43"/>
       <c r="U187" s="119" t="str" cm="1">
         <f t="array" ref="U187">IF(C187="",INDEX(C181:C187,MATCH(TRUE,INDEX((C181:C187&lt;&gt;""),0),0)),C187)</f>
@@ -22554,13 +22554,13 @@
       <c r="A188" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B188" s="154">
+      <c r="B188" s="153">
         <v>32</v>
       </c>
-      <c r="C188" s="154" t="s">
+      <c r="C188" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="D188" s="154" t="s">
+      <c r="D188" s="153" t="s">
         <v>55</v>
       </c>
       <c r="E188" s="27" t="s">
@@ -22601,9 +22601,9 @@
       <c r="Z188" s="121"/>
     </row>
     <row r="189" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="155"/>
-      <c r="C189" s="155"/>
-      <c r="D189" s="155"/>
+      <c r="B189" s="154"/>
+      <c r="C189" s="154"/>
+      <c r="D189" s="154"/>
       <c r="E189" s="6" t="s">
         <v>13</v>
       </c>
@@ -22644,9 +22644,9 @@
       <c r="Z189" s="121"/>
     </row>
     <row r="190" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="155"/>
-      <c r="C190" s="155"/>
-      <c r="D190" s="155"/>
+      <c r="B190" s="154"/>
+      <c r="C190" s="154"/>
+      <c r="D190" s="154"/>
       <c r="E190" s="6" t="s">
         <v>111</v>
       </c>
@@ -22687,9 +22687,9 @@
       <c r="Z190" s="121"/>
     </row>
     <row r="191" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="155"/>
-      <c r="C191" s="155"/>
-      <c r="D191" s="155"/>
+      <c r="B191" s="154"/>
+      <c r="C191" s="154"/>
+      <c r="D191" s="154"/>
       <c r="E191" s="6" t="s">
         <v>110</v>
       </c>
@@ -22730,9 +22730,9 @@
       <c r="Z191" s="121"/>
     </row>
     <row r="192" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="155"/>
-      <c r="C192" s="155"/>
-      <c r="D192" s="155"/>
+      <c r="B192" s="154"/>
+      <c r="C192" s="154"/>
+      <c r="D192" s="154"/>
       <c r="E192" s="6" t="s">
         <v>107</v>
       </c>
@@ -22773,9 +22773,9 @@
       <c r="Z192" s="121"/>
     </row>
     <row r="193" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="156"/>
-      <c r="C193" s="156"/>
-      <c r="D193" s="156"/>
+      <c r="B193" s="155"/>
+      <c r="C193" s="155"/>
+      <c r="D193" s="155"/>
       <c r="E193" s="7" t="s">
         <v>14</v>
       </c>
@@ -22819,13 +22819,13 @@
       <c r="A194" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B194" s="157">
+      <c r="B194" s="156">
         <v>33</v>
       </c>
-      <c r="C194" s="157" t="s">
+      <c r="C194" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="D194" s="157" t="s">
+      <c r="D194" s="156" t="s">
         <v>164</v>
       </c>
       <c r="E194" s="26" t="s">
@@ -22845,7 +22845,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K194" s="200" t="s">
+      <c r="K194" s="171" t="s">
         <v>165</v>
       </c>
       <c r="L194" s="41"/>
@@ -22868,9 +22868,9 @@
       <c r="Z194" s="121"/>
     </row>
     <row r="195" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="158"/>
-      <c r="C195" s="158"/>
-      <c r="D195" s="158"/>
+      <c r="B195" s="157"/>
+      <c r="C195" s="157"/>
+      <c r="D195" s="157"/>
       <c r="E195" s="3" t="s">
         <v>13</v>
       </c>
@@ -22892,7 +22892,7 @@
         <f t="shared" si="28"/>
         <v>47.087338694595097</v>
       </c>
-      <c r="K195" s="158"/>
+      <c r="K195" s="157"/>
       <c r="L195" s="42"/>
       <c r="U195" s="119" t="str" cm="1">
         <f t="array" ref="U195">IF(C195="",INDEX(C189:C195,MATCH(TRUE,INDEX((C189:C195&lt;&gt;""),0),0)),C195)</f>
@@ -22913,9 +22913,9 @@
       <c r="Z195" s="121"/>
     </row>
     <row r="196" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="158"/>
-      <c r="C196" s="158"/>
-      <c r="D196" s="158"/>
+      <c r="B196" s="157"/>
+      <c r="C196" s="157"/>
+      <c r="D196" s="157"/>
       <c r="E196" s="3" t="s">
         <v>111</v>
       </c>
@@ -22935,7 +22935,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K196" s="158"/>
+      <c r="K196" s="157"/>
       <c r="L196" s="42"/>
       <c r="U196" s="119" t="str" cm="1">
         <f t="array" ref="U196">IF(C196="",INDEX(C190:C196,MATCH(TRUE,INDEX((C190:C196&lt;&gt;""),0),0)),C196)</f>
@@ -22956,9 +22956,9 @@
       <c r="Z196" s="121"/>
     </row>
     <row r="197" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="158"/>
-      <c r="C197" s="158"/>
-      <c r="D197" s="158"/>
+      <c r="B197" s="157"/>
+      <c r="C197" s="157"/>
+      <c r="D197" s="157"/>
       <c r="E197" s="3" t="s">
         <v>110</v>
       </c>
@@ -22980,7 +22980,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K197" s="158"/>
+      <c r="K197" s="157"/>
       <c r="L197" s="42"/>
       <c r="U197" s="119" t="str" cm="1">
         <f t="array" ref="U197">IF(C197="",INDEX(C191:C197,MATCH(TRUE,INDEX((C191:C197&lt;&gt;""),0),0)),C197)</f>
@@ -23001,9 +23001,9 @@
       <c r="Z197" s="121"/>
     </row>
     <row r="198" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="158"/>
-      <c r="C198" s="158"/>
-      <c r="D198" s="158"/>
+      <c r="B198" s="157"/>
+      <c r="C198" s="157"/>
+      <c r="D198" s="157"/>
       <c r="E198" s="3" t="s">
         <v>107</v>
       </c>
@@ -23025,7 +23025,7 @@
         <f t="shared" si="28"/>
         <v>62.537871703759116</v>
       </c>
-      <c r="K198" s="158"/>
+      <c r="K198" s="157"/>
       <c r="L198" s="42"/>
       <c r="U198" s="119" t="str" cm="1">
         <f t="array" ref="U198">IF(C198="",INDEX(C192:C198,MATCH(TRUE,INDEX((C192:C198&lt;&gt;""),0),0)),C198)</f>
@@ -23046,9 +23046,9 @@
       <c r="Z198" s="121"/>
     </row>
     <row r="199" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="159"/>
-      <c r="C199" s="159"/>
-      <c r="D199" s="159"/>
+      <c r="B199" s="158"/>
+      <c r="C199" s="158"/>
+      <c r="D199" s="158"/>
       <c r="E199" s="4" t="s">
         <v>14</v>
       </c>
@@ -23068,7 +23068,7 @@
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K199" s="159"/>
+      <c r="K199" s="158"/>
       <c r="L199" s="43"/>
       <c r="U199" s="119" t="str" cm="1">
         <f t="array" ref="U199">IF(C199="",INDEX(C193:C199,MATCH(TRUE,INDEX((C193:C199&lt;&gt;""),0),0)),C199)</f>
@@ -23092,13 +23092,13 @@
       <c r="A200" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B200" s="154">
+      <c r="B200" s="153">
         <v>34</v>
       </c>
-      <c r="C200" s="154" t="s">
+      <c r="C200" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="D200" s="154" t="s">
+      <c r="D200" s="153" t="s">
         <v>55</v>
       </c>
       <c r="E200" s="27" t="s">
@@ -23139,9 +23139,9 @@
       <c r="Z200" s="121"/>
     </row>
     <row r="201" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="155"/>
-      <c r="C201" s="155"/>
-      <c r="D201" s="155"/>
+      <c r="B201" s="154"/>
+      <c r="C201" s="154"/>
+      <c r="D201" s="154"/>
       <c r="E201" s="6" t="s">
         <v>13</v>
       </c>
@@ -23182,9 +23182,9 @@
       <c r="Z201" s="121"/>
     </row>
     <row r="202" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="155"/>
-      <c r="C202" s="155"/>
-      <c r="D202" s="155"/>
+      <c r="B202" s="154"/>
+      <c r="C202" s="154"/>
+      <c r="D202" s="154"/>
       <c r="E202" s="6" t="s">
         <v>111</v>
       </c>
@@ -23225,9 +23225,9 @@
       <c r="Z202" s="121"/>
     </row>
     <row r="203" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="155"/>
-      <c r="C203" s="155"/>
-      <c r="D203" s="155"/>
+      <c r="B203" s="154"/>
+      <c r="C203" s="154"/>
+      <c r="D203" s="154"/>
       <c r="E203" s="6" t="s">
         <v>110</v>
       </c>
@@ -23268,9 +23268,9 @@
       <c r="Z203" s="121"/>
     </row>
     <row r="204" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="155"/>
-      <c r="C204" s="155"/>
-      <c r="D204" s="155"/>
+      <c r="B204" s="154"/>
+      <c r="C204" s="154"/>
+      <c r="D204" s="154"/>
       <c r="E204" s="6" t="s">
         <v>107</v>
       </c>
@@ -23311,9 +23311,9 @@
       <c r="Z204" s="121"/>
     </row>
     <row r="205" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="156"/>
-      <c r="C205" s="156"/>
-      <c r="D205" s="156"/>
+      <c r="B205" s="155"/>
+      <c r="C205" s="155"/>
+      <c r="D205" s="155"/>
       <c r="E205" s="7" t="s">
         <v>14</v>
       </c>
@@ -23357,13 +23357,13 @@
       <c r="A206" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B206" s="157">
+      <c r="B206" s="156">
         <v>35</v>
       </c>
-      <c r="C206" s="157" t="s">
+      <c r="C206" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="D206" s="157" t="s">
+      <c r="D206" s="156" t="s">
         <v>59</v>
       </c>
       <c r="E206" s="26" t="s">
@@ -23404,9 +23404,9 @@
       <c r="Z206" s="121"/>
     </row>
     <row r="207" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="158"/>
-      <c r="C207" s="158"/>
-      <c r="D207" s="158"/>
+      <c r="B207" s="157"/>
+      <c r="C207" s="157"/>
+      <c r="D207" s="157"/>
       <c r="E207" s="3" t="s">
         <v>13</v>
       </c>
@@ -23447,9 +23447,9 @@
       <c r="Z207" s="121"/>
     </row>
     <row r="208" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="158"/>
-      <c r="C208" s="158"/>
-      <c r="D208" s="158"/>
+      <c r="B208" s="157"/>
+      <c r="C208" s="157"/>
+      <c r="D208" s="157"/>
       <c r="E208" s="3" t="s">
         <v>110</v>
       </c>
@@ -23490,9 +23490,9 @@
       <c r="Z208" s="121"/>
     </row>
     <row r="209" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="158"/>
-      <c r="C209" s="158"/>
-      <c r="D209" s="158"/>
+      <c r="B209" s="157"/>
+      <c r="C209" s="157"/>
+      <c r="D209" s="157"/>
       <c r="E209" s="3" t="s">
         <v>111</v>
       </c>
@@ -23533,9 +23533,9 @@
       <c r="Z209" s="121"/>
     </row>
     <row r="210" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="158"/>
-      <c r="C210" s="158"/>
-      <c r="D210" s="158"/>
+      <c r="B210" s="157"/>
+      <c r="C210" s="157"/>
+      <c r="D210" s="157"/>
       <c r="E210" s="3" t="s">
         <v>107</v>
       </c>
@@ -23578,9 +23578,9 @@
       <c r="Z210" s="121"/>
     </row>
     <row r="211" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="159"/>
-      <c r="C211" s="159"/>
-      <c r="D211" s="159"/>
+      <c r="B211" s="158"/>
+      <c r="C211" s="158"/>
+      <c r="D211" s="158"/>
       <c r="E211" s="4" t="s">
         <v>14</v>
       </c>
@@ -23624,13 +23624,13 @@
       <c r="A212" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B212" s="154">
+      <c r="B212" s="153">
         <v>36</v>
       </c>
-      <c r="C212" s="154" t="s">
+      <c r="C212" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="D212" s="154" t="s">
+      <c r="D212" s="153" t="s">
         <v>59</v>
       </c>
       <c r="E212" s="27" t="s">
@@ -23671,9 +23671,9 @@
       <c r="Z212" s="121"/>
     </row>
     <row r="213" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="155"/>
-      <c r="C213" s="155"/>
-      <c r="D213" s="155"/>
+      <c r="B213" s="154"/>
+      <c r="C213" s="154"/>
+      <c r="D213" s="154"/>
       <c r="E213" s="6" t="s">
         <v>13</v>
       </c>
@@ -23714,9 +23714,9 @@
       <c r="Z213" s="121"/>
     </row>
     <row r="214" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="155"/>
-      <c r="C214" s="155"/>
-      <c r="D214" s="155"/>
+      <c r="B214" s="154"/>
+      <c r="C214" s="154"/>
+      <c r="D214" s="154"/>
       <c r="E214" s="6" t="s">
         <v>111</v>
       </c>
@@ -23757,9 +23757,9 @@
       <c r="Z214" s="121"/>
     </row>
     <row r="215" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="155"/>
-      <c r="C215" s="155"/>
-      <c r="D215" s="155"/>
+      <c r="B215" s="154"/>
+      <c r="C215" s="154"/>
+      <c r="D215" s="154"/>
       <c r="E215" s="6" t="s">
         <v>110</v>
       </c>
@@ -23800,9 +23800,9 @@
       <c r="Z215" s="121"/>
     </row>
     <row r="216" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="155"/>
-      <c r="C216" s="155"/>
-      <c r="D216" s="155"/>
+      <c r="B216" s="154"/>
+      <c r="C216" s="154"/>
+      <c r="D216" s="154"/>
       <c r="E216" s="6" t="s">
         <v>107</v>
       </c>
@@ -23843,9 +23843,9 @@
       <c r="Z216" s="121"/>
     </row>
     <row r="217" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="156"/>
-      <c r="C217" s="156"/>
-      <c r="D217" s="156"/>
+      <c r="B217" s="155"/>
+      <c r="C217" s="155"/>
+      <c r="D217" s="155"/>
       <c r="E217" s="7" t="s">
         <v>14</v>
       </c>
@@ -23889,13 +23889,13 @@
       <c r="A218" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B218" s="157">
+      <c r="B218" s="156">
         <v>37</v>
       </c>
-      <c r="C218" s="157" t="s">
+      <c r="C218" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="D218" s="157" t="s">
+      <c r="D218" s="156" t="s">
         <v>62</v>
       </c>
       <c r="E218" s="26" t="s">
@@ -23936,9 +23936,9 @@
       <c r="Z218" s="121"/>
     </row>
     <row r="219" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="158"/>
-      <c r="C219" s="158"/>
-      <c r="D219" s="158"/>
+      <c r="B219" s="157"/>
+      <c r="C219" s="157"/>
+      <c r="D219" s="157"/>
       <c r="E219" s="3" t="s">
         <v>13</v>
       </c>
@@ -23981,9 +23981,9 @@
       <c r="Z219" s="121"/>
     </row>
     <row r="220" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="158"/>
-      <c r="C220" s="158"/>
-      <c r="D220" s="158"/>
+      <c r="B220" s="157"/>
+      <c r="C220" s="157"/>
+      <c r="D220" s="157"/>
       <c r="E220" s="3" t="s">
         <v>111</v>
       </c>
@@ -24024,9 +24024,9 @@
       <c r="Z220" s="121"/>
     </row>
     <row r="221" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="158"/>
-      <c r="C221" s="158"/>
-      <c r="D221" s="158"/>
+      <c r="B221" s="157"/>
+      <c r="C221" s="157"/>
+      <c r="D221" s="157"/>
       <c r="E221" s="3" t="s">
         <v>110</v>
       </c>
@@ -24069,9 +24069,9 @@
       <c r="Z221" s="121"/>
     </row>
     <row r="222" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="158"/>
-      <c r="C222" s="158"/>
-      <c r="D222" s="158"/>
+      <c r="B222" s="157"/>
+      <c r="C222" s="157"/>
+      <c r="D222" s="157"/>
       <c r="E222" s="3" t="s">
         <v>107</v>
       </c>
@@ -24114,9 +24114,9 @@
       <c r="Z222" s="121"/>
     </row>
     <row r="223" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="159"/>
-      <c r="C223" s="159"/>
-      <c r="D223" s="159"/>
+      <c r="B223" s="158"/>
+      <c r="C223" s="158"/>
+      <c r="D223" s="158"/>
       <c r="E223" s="4" t="s">
         <v>14</v>
       </c>
@@ -24160,13 +24160,13 @@
       <c r="A224" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B224" s="154">
+      <c r="B224" s="153">
         <v>38</v>
       </c>
-      <c r="C224" s="154" t="s">
+      <c r="C224" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="D224" s="154" t="s">
+      <c r="D224" s="153" t="s">
         <v>64</v>
       </c>
       <c r="E224" s="27" t="s">
@@ -24207,9 +24207,9 @@
       <c r="Z224" s="121"/>
     </row>
     <row r="225" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="155"/>
-      <c r="C225" s="155"/>
-      <c r="D225" s="155"/>
+      <c r="B225" s="154"/>
+      <c r="C225" s="154"/>
+      <c r="D225" s="154"/>
       <c r="E225" s="6" t="s">
         <v>13</v>
       </c>
@@ -24252,9 +24252,9 @@
       <c r="Z225" s="121"/>
     </row>
     <row r="226" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="155"/>
-      <c r="C226" s="155"/>
-      <c r="D226" s="155"/>
+      <c r="B226" s="154"/>
+      <c r="C226" s="154"/>
+      <c r="D226" s="154"/>
       <c r="E226" s="6" t="s">
         <v>111</v>
       </c>
@@ -24295,9 +24295,9 @@
       <c r="Z226" s="121"/>
     </row>
     <row r="227" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="155"/>
-      <c r="C227" s="155"/>
-      <c r="D227" s="155"/>
+      <c r="B227" s="154"/>
+      <c r="C227" s="154"/>
+      <c r="D227" s="154"/>
       <c r="E227" s="6" t="s">
         <v>110</v>
       </c>
@@ -24340,9 +24340,9 @@
       <c r="Z227" s="121"/>
     </row>
     <row r="228" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="155"/>
-      <c r="C228" s="155"/>
-      <c r="D228" s="155"/>
+      <c r="B228" s="154"/>
+      <c r="C228" s="154"/>
+      <c r="D228" s="154"/>
       <c r="E228" s="6" t="s">
         <v>107</v>
       </c>
@@ -24383,9 +24383,9 @@
       <c r="Z228" s="121"/>
     </row>
     <row r="229" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="156"/>
-      <c r="C229" s="156"/>
-      <c r="D229" s="156"/>
+      <c r="B229" s="155"/>
+      <c r="C229" s="155"/>
+      <c r="D229" s="155"/>
       <c r="E229" s="7" t="s">
         <v>14</v>
       </c>
@@ -24429,13 +24429,13 @@
       <c r="A230" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B230" s="157">
+      <c r="B230" s="156">
         <v>39</v>
       </c>
-      <c r="C230" s="157" t="s">
+      <c r="C230" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D230" s="157" t="s">
+      <c r="D230" s="156" t="s">
         <v>64</v>
       </c>
       <c r="E230" s="26" t="s">
@@ -24476,9 +24476,9 @@
       <c r="Z230" s="121"/>
     </row>
     <row r="231" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="158"/>
-      <c r="C231" s="158"/>
-      <c r="D231" s="158"/>
+      <c r="B231" s="157"/>
+      <c r="C231" s="157"/>
+      <c r="D231" s="157"/>
       <c r="E231" s="3" t="s">
         <v>13</v>
       </c>
@@ -24519,9 +24519,9 @@
       <c r="Z231" s="121"/>
     </row>
     <row r="232" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="158"/>
-      <c r="C232" s="158"/>
-      <c r="D232" s="158"/>
+      <c r="B232" s="157"/>
+      <c r="C232" s="157"/>
+      <c r="D232" s="157"/>
       <c r="E232" s="3" t="s">
         <v>111</v>
       </c>
@@ -24562,9 +24562,9 @@
       <c r="Z232" s="121"/>
     </row>
     <row r="233" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="158"/>
-      <c r="C233" s="158"/>
-      <c r="D233" s="158"/>
+      <c r="B233" s="157"/>
+      <c r="C233" s="157"/>
+      <c r="D233" s="157"/>
       <c r="E233" s="3" t="s">
         <v>110</v>
       </c>
@@ -24607,9 +24607,9 @@
       <c r="Z233" s="121"/>
     </row>
     <row r="234" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="158"/>
-      <c r="C234" s="158"/>
-      <c r="D234" s="158"/>
+      <c r="B234" s="157"/>
+      <c r="C234" s="157"/>
+      <c r="D234" s="157"/>
       <c r="E234" s="3" t="s">
         <v>107</v>
       </c>
@@ -24650,9 +24650,9 @@
       <c r="Z234" s="121"/>
     </row>
     <row r="235" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="159"/>
-      <c r="C235" s="159"/>
-      <c r="D235" s="159"/>
+      <c r="B235" s="158"/>
+      <c r="C235" s="158"/>
+      <c r="D235" s="158"/>
       <c r="E235" s="4" t="s">
         <v>14</v>
       </c>
@@ -24696,13 +24696,13 @@
       <c r="A236" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B236" s="154">
+      <c r="B236" s="153">
         <v>40</v>
       </c>
-      <c r="C236" s="154" t="s">
+      <c r="C236" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="D236" s="154" t="s">
+      <c r="D236" s="153" t="s">
         <v>137</v>
       </c>
       <c r="E236" s="27" t="s">
@@ -24743,9 +24743,9 @@
       <c r="Z236" s="121"/>
     </row>
     <row r="237" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="155"/>
-      <c r="C237" s="155"/>
-      <c r="D237" s="155"/>
+      <c r="B237" s="154"/>
+      <c r="C237" s="154"/>
+      <c r="D237" s="154"/>
       <c r="E237" s="6" t="s">
         <v>13</v>
       </c>
@@ -24786,9 +24786,9 @@
       <c r="Z237" s="121"/>
     </row>
     <row r="238" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="155"/>
-      <c r="C238" s="155"/>
-      <c r="D238" s="155"/>
+      <c r="B238" s="154"/>
+      <c r="C238" s="154"/>
+      <c r="D238" s="154"/>
       <c r="E238" s="6" t="s">
         <v>111</v>
       </c>
@@ -24829,9 +24829,9 @@
       <c r="Z238" s="121"/>
     </row>
     <row r="239" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="155"/>
-      <c r="C239" s="155"/>
-      <c r="D239" s="155"/>
+      <c r="B239" s="154"/>
+      <c r="C239" s="154"/>
+      <c r="D239" s="154"/>
       <c r="E239" s="6" t="s">
         <v>110</v>
       </c>
@@ -24874,9 +24874,9 @@
       <c r="Z239" s="121"/>
     </row>
     <row r="240" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="155"/>
-      <c r="C240" s="155"/>
-      <c r="D240" s="155"/>
+      <c r="B240" s="154"/>
+      <c r="C240" s="154"/>
+      <c r="D240" s="154"/>
       <c r="E240" s="6" t="s">
         <v>107</v>
       </c>
@@ -24917,9 +24917,9 @@
       <c r="Z240" s="121"/>
     </row>
     <row r="241" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="156"/>
-      <c r="C241" s="156"/>
-      <c r="D241" s="156"/>
+      <c r="B241" s="155"/>
+      <c r="C241" s="155"/>
+      <c r="D241" s="155"/>
       <c r="E241" s="7" t="s">
         <v>14</v>
       </c>
@@ -24963,13 +24963,13 @@
       <c r="A242" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B242" s="157">
+      <c r="B242" s="156">
         <v>41</v>
       </c>
-      <c r="C242" s="157" t="s">
+      <c r="C242" s="156" t="s">
         <v>67</v>
       </c>
-      <c r="D242" s="157" t="s">
+      <c r="D242" s="156" t="s">
         <v>64</v>
       </c>
       <c r="E242" s="26" t="s">
@@ -25010,9 +25010,9 @@
       <c r="Z242" s="121"/>
     </row>
     <row r="243" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="158"/>
-      <c r="C243" s="158"/>
-      <c r="D243" s="158"/>
+      <c r="B243" s="157"/>
+      <c r="C243" s="157"/>
+      <c r="D243" s="157"/>
       <c r="E243" s="3" t="s">
         <v>13</v>
       </c>
@@ -25053,9 +25053,9 @@
       <c r="Z243" s="121"/>
     </row>
     <row r="244" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="158"/>
-      <c r="C244" s="158"/>
-      <c r="D244" s="158"/>
+      <c r="B244" s="157"/>
+      <c r="C244" s="157"/>
+      <c r="D244" s="157"/>
       <c r="E244" s="3" t="s">
         <v>111</v>
       </c>
@@ -25096,9 +25096,9 @@
       <c r="Z244" s="121"/>
     </row>
     <row r="245" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="158"/>
-      <c r="C245" s="158"/>
-      <c r="D245" s="158"/>
+      <c r="B245" s="157"/>
+      <c r="C245" s="157"/>
+      <c r="D245" s="157"/>
       <c r="E245" s="3" t="s">
         <v>110</v>
       </c>
@@ -25139,9 +25139,9 @@
       <c r="Z245" s="121"/>
     </row>
     <row r="246" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="158"/>
-      <c r="C246" s="158"/>
-      <c r="D246" s="158"/>
+      <c r="B246" s="157"/>
+      <c r="C246" s="157"/>
+      <c r="D246" s="157"/>
       <c r="E246" s="3" t="s">
         <v>107</v>
       </c>
@@ -25182,9 +25182,9 @@
       <c r="Z246" s="121"/>
     </row>
     <row r="247" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="159"/>
-      <c r="C247" s="159"/>
-      <c r="D247" s="159"/>
+      <c r="B247" s="158"/>
+      <c r="C247" s="158"/>
+      <c r="D247" s="158"/>
       <c r="E247" s="4" t="s">
         <v>14</v>
       </c>
@@ -25228,13 +25228,13 @@
       <c r="A248" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B248" s="154">
+      <c r="B248" s="153">
         <v>42</v>
       </c>
-      <c r="C248" s="154" t="s">
+      <c r="C248" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="D248" s="154" t="s">
+      <c r="D248" s="153" t="s">
         <v>69</v>
       </c>
       <c r="E248" s="27" t="s">
@@ -25275,9 +25275,9 @@
       <c r="Z248" s="121"/>
     </row>
     <row r="249" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="155"/>
-      <c r="C249" s="155"/>
-      <c r="D249" s="155"/>
+      <c r="B249" s="154"/>
+      <c r="C249" s="154"/>
+      <c r="D249" s="154"/>
       <c r="E249" s="6" t="s">
         <v>13</v>
       </c>
@@ -25318,9 +25318,9 @@
       <c r="Z249" s="121"/>
     </row>
     <row r="250" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="155"/>
-      <c r="C250" s="155"/>
-      <c r="D250" s="155"/>
+      <c r="B250" s="154"/>
+      <c r="C250" s="154"/>
+      <c r="D250" s="154"/>
       <c r="E250" s="6" t="s">
         <v>104</v>
       </c>
@@ -25365,9 +25365,9 @@
       <c r="Z250" s="121"/>
     </row>
     <row r="251" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="155"/>
-      <c r="C251" s="155"/>
-      <c r="D251" s="155"/>
+      <c r="B251" s="154"/>
+      <c r="C251" s="154"/>
+      <c r="D251" s="154"/>
       <c r="E251" s="6" t="s">
         <v>111</v>
       </c>
@@ -25408,9 +25408,9 @@
       <c r="Z251" s="121"/>
     </row>
     <row r="252" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="155"/>
-      <c r="C252" s="155"/>
-      <c r="D252" s="155"/>
+      <c r="B252" s="154"/>
+      <c r="C252" s="154"/>
+      <c r="D252" s="154"/>
       <c r="E252" s="6" t="s">
         <v>110</v>
       </c>
@@ -25453,9 +25453,9 @@
       <c r="Z252" s="121"/>
     </row>
     <row r="253" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="155"/>
-      <c r="C253" s="155"/>
-      <c r="D253" s="155"/>
+      <c r="B253" s="154"/>
+      <c r="C253" s="154"/>
+      <c r="D253" s="154"/>
       <c r="E253" s="6" t="s">
         <v>107</v>
       </c>
@@ -25496,9 +25496,9 @@
       <c r="Z253" s="121"/>
     </row>
     <row r="254" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="156"/>
-      <c r="C254" s="156"/>
-      <c r="D254" s="156"/>
+      <c r="B254" s="155"/>
+      <c r="C254" s="155"/>
+      <c r="D254" s="155"/>
       <c r="E254" s="7" t="s">
         <v>14</v>
       </c>
@@ -25542,13 +25542,13 @@
       <c r="A255" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B255" s="157">
+      <c r="B255" s="156">
         <v>43</v>
       </c>
-      <c r="C255" s="157" t="s">
+      <c r="C255" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="D255" s="157" t="s">
+      <c r="D255" s="156" t="s">
         <v>69</v>
       </c>
       <c r="E255" s="26" t="s">
@@ -25589,9 +25589,9 @@
       <c r="Z255" s="121"/>
     </row>
     <row r="256" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="158"/>
-      <c r="C256" s="158"/>
-      <c r="D256" s="158"/>
+      <c r="B256" s="157"/>
+      <c r="C256" s="157"/>
+      <c r="D256" s="157"/>
       <c r="E256" s="3" t="s">
         <v>13</v>
       </c>
@@ -25632,9 +25632,9 @@
       <c r="Z256" s="121"/>
     </row>
     <row r="257" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="158"/>
-      <c r="C257" s="158"/>
-      <c r="D257" s="158"/>
+      <c r="B257" s="157"/>
+      <c r="C257" s="157"/>
+      <c r="D257" s="157"/>
       <c r="E257" s="3" t="s">
         <v>104</v>
       </c>
@@ -25679,9 +25679,9 @@
       <c r="Z257" s="121"/>
     </row>
     <row r="258" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="158"/>
-      <c r="C258" s="158"/>
-      <c r="D258" s="158"/>
+      <c r="B258" s="157"/>
+      <c r="C258" s="157"/>
+      <c r="D258" s="157"/>
       <c r="E258" s="3" t="s">
         <v>111</v>
       </c>
@@ -25722,9 +25722,9 @@
       <c r="Z258" s="121"/>
     </row>
     <row r="259" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="158"/>
-      <c r="C259" s="158"/>
-      <c r="D259" s="158"/>
+      <c r="B259" s="157"/>
+      <c r="C259" s="157"/>
+      <c r="D259" s="157"/>
       <c r="E259" s="3" t="s">
         <v>110</v>
       </c>
@@ -25767,9 +25767,9 @@
       <c r="Z259" s="121"/>
     </row>
     <row r="260" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="158"/>
-      <c r="C260" s="158"/>
-      <c r="D260" s="158"/>
+      <c r="B260" s="157"/>
+      <c r="C260" s="157"/>
+      <c r="D260" s="157"/>
       <c r="E260" s="3" t="s">
         <v>107</v>
       </c>
@@ -25810,9 +25810,9 @@
       <c r="Z260" s="121"/>
     </row>
     <row r="261" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="159"/>
-      <c r="C261" s="159"/>
-      <c r="D261" s="159"/>
+      <c r="B261" s="158"/>
+      <c r="C261" s="158"/>
+      <c r="D261" s="158"/>
       <c r="E261" s="4" t="s">
         <v>14</v>
       </c>
@@ -25858,13 +25858,13 @@
       <c r="A262" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B262" s="154">
+      <c r="B262" s="153">
         <v>44</v>
       </c>
-      <c r="C262" s="154" t="s">
+      <c r="C262" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="D262" s="154" t="s">
+      <c r="D262" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E262" s="27" t="s">
@@ -25905,9 +25905,9 @@
       <c r="Z262" s="121"/>
     </row>
     <row r="263" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="155"/>
-      <c r="C263" s="155"/>
-      <c r="D263" s="155"/>
+      <c r="B263" s="154"/>
+      <c r="C263" s="154"/>
+      <c r="D263" s="154"/>
       <c r="E263" s="6" t="s">
         <v>13</v>
       </c>
@@ -25948,9 +25948,9 @@
       <c r="Z263" s="121"/>
     </row>
     <row r="264" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="155"/>
-      <c r="C264" s="155"/>
-      <c r="D264" s="155"/>
+      <c r="B264" s="154"/>
+      <c r="C264" s="154"/>
+      <c r="D264" s="154"/>
       <c r="E264" s="6" t="s">
         <v>104</v>
       </c>
@@ -25991,9 +25991,9 @@
       <c r="Z264" s="121"/>
     </row>
     <row r="265" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="155"/>
-      <c r="C265" s="155"/>
-      <c r="D265" s="155"/>
+      <c r="B265" s="154"/>
+      <c r="C265" s="154"/>
+      <c r="D265" s="154"/>
       <c r="E265" s="6" t="s">
         <v>291</v>
       </c>
@@ -26034,9 +26034,9 @@
       <c r="Z265" s="121"/>
     </row>
     <row r="266" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="155"/>
-      <c r="C266" s="155"/>
-      <c r="D266" s="155"/>
+      <c r="B266" s="154"/>
+      <c r="C266" s="154"/>
+      <c r="D266" s="154"/>
       <c r="E266" s="6" t="s">
         <v>107</v>
       </c>
@@ -26077,9 +26077,9 @@
       <c r="Z266" s="121"/>
     </row>
     <row r="267" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="155"/>
-      <c r="C267" s="155"/>
-      <c r="D267" s="155"/>
+      <c r="B267" s="154"/>
+      <c r="C267" s="154"/>
+      <c r="D267" s="154"/>
       <c r="E267" s="6" t="s">
         <v>110</v>
       </c>
@@ -26122,9 +26122,9 @@
       <c r="Z267" s="121"/>
     </row>
     <row r="268" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="155"/>
-      <c r="C268" s="155"/>
-      <c r="D268" s="155"/>
+      <c r="B268" s="154"/>
+      <c r="C268" s="154"/>
+      <c r="D268" s="154"/>
       <c r="E268" s="6" t="s">
         <v>292</v>
       </c>
@@ -26165,9 +26165,9 @@
       <c r="Z268" s="121"/>
     </row>
     <row r="269" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="155"/>
-      <c r="C269" s="155"/>
-      <c r="D269" s="155"/>
+      <c r="B269" s="154"/>
+      <c r="C269" s="154"/>
+      <c r="D269" s="154"/>
       <c r="E269" s="6" t="s">
         <v>111</v>
       </c>
@@ -26208,9 +26208,9 @@
       <c r="Z269" s="121"/>
     </row>
     <row r="270" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="156"/>
-      <c r="C270" s="156"/>
-      <c r="D270" s="156"/>
+      <c r="B270" s="155"/>
+      <c r="C270" s="155"/>
+      <c r="D270" s="155"/>
       <c r="E270" s="7" t="s">
         <v>14</v>
       </c>
@@ -26254,13 +26254,13 @@
       <c r="A271" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B271" s="157">
+      <c r="B271" s="156">
         <v>45</v>
       </c>
-      <c r="C271" s="157" t="s">
+      <c r="C271" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="D271" s="157" t="s">
+      <c r="D271" s="156" t="s">
         <v>72</v>
       </c>
       <c r="E271" s="26" t="s">
@@ -26301,9 +26301,9 @@
       <c r="Z271" s="121"/>
     </row>
     <row r="272" spans="1:26" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="158"/>
-      <c r="C272" s="158"/>
-      <c r="D272" s="158"/>
+      <c r="B272" s="157"/>
+      <c r="C272" s="157"/>
+      <c r="D272" s="157"/>
       <c r="E272" s="3" t="s">
         <v>191</v>
       </c>
@@ -26347,9 +26347,9 @@
       <c r="Z272" s="121"/>
     </row>
     <row r="273" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="158"/>
-      <c r="C273" s="158"/>
-      <c r="D273" s="158"/>
+      <c r="B273" s="157"/>
+      <c r="C273" s="157"/>
+      <c r="D273" s="157"/>
       <c r="E273" s="3" t="s">
         <v>13</v>
       </c>
@@ -26390,9 +26390,9 @@
       <c r="Z273" s="121"/>
     </row>
     <row r="274" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="158"/>
-      <c r="C274" s="158"/>
-      <c r="D274" s="158"/>
+      <c r="B274" s="157"/>
+      <c r="C274" s="157"/>
+      <c r="D274" s="157"/>
       <c r="E274" s="3" t="s">
         <v>111</v>
       </c>
@@ -26433,9 +26433,9 @@
       <c r="Z274" s="121"/>
     </row>
     <row r="275" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="158"/>
-      <c r="C275" s="158"/>
-      <c r="D275" s="158"/>
+      <c r="B275" s="157"/>
+      <c r="C275" s="157"/>
+      <c r="D275" s="157"/>
       <c r="E275" s="3" t="s">
         <v>110</v>
       </c>
@@ -26476,9 +26476,9 @@
       <c r="Z275" s="121"/>
     </row>
     <row r="276" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="158"/>
-      <c r="C276" s="158"/>
-      <c r="D276" s="158"/>
+      <c r="B276" s="157"/>
+      <c r="C276" s="157"/>
+      <c r="D276" s="157"/>
       <c r="E276" s="3" t="s">
         <v>107</v>
       </c>
@@ -26519,9 +26519,9 @@
       <c r="Z276" s="121"/>
     </row>
     <row r="277" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="159"/>
-      <c r="C277" s="159"/>
-      <c r="D277" s="159"/>
+      <c r="B277" s="158"/>
+      <c r="C277" s="158"/>
+      <c r="D277" s="158"/>
       <c r="E277" s="4" t="s">
         <v>14</v>
       </c>
@@ -26565,13 +26565,13 @@
       <c r="A278" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B278" s="154">
+      <c r="B278" s="153">
         <v>46</v>
       </c>
-      <c r="C278" s="154" t="s">
+      <c r="C278" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="D278" s="154" t="s">
+      <c r="D278" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E278" s="27" t="s">
@@ -26612,9 +26612,9 @@
       <c r="Z278" s="121"/>
     </row>
     <row r="279" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="155"/>
-      <c r="C279" s="155"/>
-      <c r="D279" s="155"/>
+      <c r="B279" s="154"/>
+      <c r="C279" s="154"/>
+      <c r="D279" s="154"/>
       <c r="E279" s="6" t="s">
         <v>13</v>
       </c>
@@ -26657,9 +26657,9 @@
       <c r="Z279" s="121"/>
     </row>
     <row r="280" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="155"/>
-      <c r="C280" s="155"/>
-      <c r="D280" s="155"/>
+      <c r="B280" s="154"/>
+      <c r="C280" s="154"/>
+      <c r="D280" s="154"/>
       <c r="E280" s="6" t="s">
         <v>111</v>
       </c>
@@ -26700,9 +26700,9 @@
       <c r="Z280" s="121"/>
     </row>
     <row r="281" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="155"/>
-      <c r="C281" s="155"/>
-      <c r="D281" s="155"/>
+      <c r="B281" s="154"/>
+      <c r="C281" s="154"/>
+      <c r="D281" s="154"/>
       <c r="E281" s="6" t="s">
         <v>110</v>
       </c>
@@ -26745,9 +26745,9 @@
       <c r="Z281" s="121"/>
     </row>
     <row r="282" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="155"/>
-      <c r="C282" s="155"/>
-      <c r="D282" s="155"/>
+      <c r="B282" s="154"/>
+      <c r="C282" s="154"/>
+      <c r="D282" s="154"/>
       <c r="E282" s="6" t="s">
         <v>107</v>
       </c>
@@ -26790,9 +26790,9 @@
       <c r="Z282" s="121"/>
     </row>
     <row r="283" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="156"/>
-      <c r="C283" s="156"/>
-      <c r="D283" s="156"/>
+      <c r="B283" s="155"/>
+      <c r="C283" s="155"/>
+      <c r="D283" s="155"/>
       <c r="E283" s="7" t="s">
         <v>14</v>
       </c>
@@ -26836,13 +26836,13 @@
       <c r="A284" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B284" s="157">
+      <c r="B284" s="156">
         <v>47</v>
       </c>
-      <c r="C284" s="157" t="s">
+      <c r="C284" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="D284" s="157" t="s">
+      <c r="D284" s="156" t="s">
         <v>76</v>
       </c>
       <c r="E284" s="26" t="s">
@@ -26883,9 +26883,9 @@
       <c r="Z284" s="121"/>
     </row>
     <row r="285" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="158"/>
-      <c r="C285" s="158"/>
-      <c r="D285" s="158"/>
+      <c r="B285" s="157"/>
+      <c r="C285" s="157"/>
+      <c r="D285" s="157"/>
       <c r="E285" s="3" t="s">
         <v>13</v>
       </c>
@@ -26926,9 +26926,9 @@
       <c r="Z285" s="121"/>
     </row>
     <row r="286" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="158"/>
-      <c r="C286" s="158"/>
-      <c r="D286" s="158"/>
+      <c r="B286" s="157"/>
+      <c r="C286" s="157"/>
+      <c r="D286" s="157"/>
       <c r="E286" s="3" t="s">
         <v>110</v>
       </c>
@@ -26969,9 +26969,9 @@
       <c r="Z286" s="121"/>
     </row>
     <row r="287" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="158"/>
-      <c r="C287" s="158"/>
-      <c r="D287" s="158"/>
+      <c r="B287" s="157"/>
+      <c r="C287" s="157"/>
+      <c r="D287" s="157"/>
       <c r="E287" s="3" t="s">
         <v>111</v>
       </c>
@@ -27012,9 +27012,9 @@
       <c r="Z287" s="121"/>
     </row>
     <row r="288" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="158"/>
-      <c r="C288" s="158"/>
-      <c r="D288" s="158"/>
+      <c r="B288" s="157"/>
+      <c r="C288" s="157"/>
+      <c r="D288" s="157"/>
       <c r="E288" s="3" t="s">
         <v>107</v>
       </c>
@@ -27055,9 +27055,9 @@
       <c r="Z288" s="121"/>
     </row>
     <row r="289" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="159"/>
-      <c r="C289" s="159"/>
-      <c r="D289" s="159"/>
+      <c r="B289" s="158"/>
+      <c r="C289" s="158"/>
+      <c r="D289" s="158"/>
       <c r="E289" s="4" t="s">
         <v>14</v>
       </c>
@@ -27101,13 +27101,13 @@
       <c r="A290" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B290" s="154">
+      <c r="B290" s="153">
         <v>48</v>
       </c>
-      <c r="C290" s="154" t="s">
+      <c r="C290" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="D290" s="154" t="s">
+      <c r="D290" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E290" s="27" t="s">
@@ -27148,9 +27148,9 @@
       <c r="Z290" s="121"/>
     </row>
     <row r="291" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="155"/>
-      <c r="C291" s="155"/>
-      <c r="D291" s="155"/>
+      <c r="B291" s="154"/>
+      <c r="C291" s="154"/>
+      <c r="D291" s="154"/>
       <c r="E291" s="6" t="s">
         <v>13</v>
       </c>
@@ -27193,9 +27193,9 @@
       <c r="Z291" s="121"/>
     </row>
     <row r="292" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B292" s="155"/>
-      <c r="C292" s="155"/>
-      <c r="D292" s="155"/>
+      <c r="B292" s="154"/>
+      <c r="C292" s="154"/>
+      <c r="D292" s="154"/>
       <c r="E292" s="6" t="s">
         <v>111</v>
       </c>
@@ -27236,9 +27236,9 @@
       <c r="Z292" s="121"/>
     </row>
     <row r="293" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="155"/>
-      <c r="C293" s="155"/>
-      <c r="D293" s="155"/>
+      <c r="B293" s="154"/>
+      <c r="C293" s="154"/>
+      <c r="D293" s="154"/>
       <c r="E293" s="6" t="s">
         <v>110</v>
       </c>
@@ -27283,9 +27283,9 @@
       <c r="Z293" s="121"/>
     </row>
     <row r="294" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="155"/>
-      <c r="C294" s="155"/>
-      <c r="D294" s="155"/>
+      <c r="B294" s="154"/>
+      <c r="C294" s="154"/>
+      <c r="D294" s="154"/>
       <c r="E294" s="6" t="s">
         <v>292</v>
       </c>
@@ -27326,9 +27326,9 @@
       <c r="Z294" s="121"/>
     </row>
     <row r="295" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="155"/>
-      <c r="C295" s="155"/>
-      <c r="D295" s="155"/>
+      <c r="B295" s="154"/>
+      <c r="C295" s="154"/>
+      <c r="D295" s="154"/>
       <c r="E295" s="6" t="s">
         <v>107</v>
       </c>
@@ -27373,9 +27373,9 @@
       <c r="Z295" s="121"/>
     </row>
     <row r="296" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="156"/>
-      <c r="C296" s="156"/>
-      <c r="D296" s="156"/>
+      <c r="B296" s="155"/>
+      <c r="C296" s="155"/>
+      <c r="D296" s="155"/>
       <c r="E296" s="7" t="s">
         <v>14</v>
       </c>
@@ -27419,13 +27419,13 @@
       <c r="A297" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B297" s="157">
+      <c r="B297" s="156">
         <v>49</v>
       </c>
-      <c r="C297" s="157" t="s">
+      <c r="C297" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D297" s="157" t="s">
+      <c r="D297" s="156" t="s">
         <v>72</v>
       </c>
       <c r="E297" s="26" t="s">
@@ -27466,9 +27466,9 @@
       <c r="Z297" s="121"/>
     </row>
     <row r="298" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B298" s="158"/>
-      <c r="C298" s="158"/>
-      <c r="D298" s="158"/>
+      <c r="B298" s="157"/>
+      <c r="C298" s="157"/>
+      <c r="D298" s="157"/>
       <c r="E298" s="3" t="s">
         <v>13</v>
       </c>
@@ -27511,9 +27511,9 @@
       <c r="Z298" s="121"/>
     </row>
     <row r="299" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="158"/>
-      <c r="C299" s="158"/>
-      <c r="D299" s="158"/>
+      <c r="B299" s="157"/>
+      <c r="C299" s="157"/>
+      <c r="D299" s="157"/>
       <c r="E299" s="3" t="s">
         <v>111</v>
       </c>
@@ -27554,9 +27554,9 @@
       <c r="Z299" s="121"/>
     </row>
     <row r="300" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B300" s="158"/>
-      <c r="C300" s="158"/>
-      <c r="D300" s="158"/>
+      <c r="B300" s="157"/>
+      <c r="C300" s="157"/>
+      <c r="D300" s="157"/>
       <c r="E300" s="3" t="s">
         <v>110</v>
       </c>
@@ -27597,9 +27597,9 @@
       <c r="Z300" s="121"/>
     </row>
     <row r="301" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="158"/>
-      <c r="C301" s="158"/>
-      <c r="D301" s="158"/>
+      <c r="B301" s="157"/>
+      <c r="C301" s="157"/>
+      <c r="D301" s="157"/>
       <c r="E301" s="3" t="s">
         <v>292</v>
       </c>
@@ -27640,9 +27640,9 @@
       <c r="Z301" s="121"/>
     </row>
     <row r="302" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B302" s="158"/>
-      <c r="C302" s="158"/>
-      <c r="D302" s="158"/>
+      <c r="B302" s="157"/>
+      <c r="C302" s="157"/>
+      <c r="D302" s="157"/>
       <c r="E302" s="3" t="s">
         <v>107</v>
       </c>
@@ -27685,9 +27685,9 @@
       <c r="Z302" s="121"/>
     </row>
     <row r="303" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B303" s="159"/>
-      <c r="C303" s="159"/>
-      <c r="D303" s="159"/>
+      <c r="B303" s="158"/>
+      <c r="C303" s="158"/>
+      <c r="D303" s="158"/>
       <c r="E303" s="4" t="s">
         <v>14</v>
       </c>
@@ -27731,13 +27731,13 @@
       <c r="A304" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B304" s="154">
+      <c r="B304" s="153">
         <v>50</v>
       </c>
-      <c r="C304" s="154" t="s">
+      <c r="C304" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="D304" s="154" t="s">
+      <c r="D304" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E304" s="27" t="s">
@@ -27778,9 +27778,9 @@
       <c r="Z304" s="121"/>
     </row>
     <row r="305" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="155"/>
-      <c r="C305" s="155"/>
-      <c r="D305" s="155"/>
+      <c r="B305" s="154"/>
+      <c r="C305" s="154"/>
+      <c r="D305" s="154"/>
       <c r="E305" s="6" t="s">
         <v>13</v>
       </c>
@@ -27821,9 +27821,9 @@
       <c r="Z305" s="121"/>
     </row>
     <row r="306" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B306" s="155"/>
-      <c r="C306" s="155"/>
-      <c r="D306" s="155"/>
+      <c r="B306" s="154"/>
+      <c r="C306" s="154"/>
+      <c r="D306" s="154"/>
       <c r="E306" s="6" t="s">
         <v>111</v>
       </c>
@@ -27864,9 +27864,9 @@
       <c r="Z306" s="121"/>
     </row>
     <row r="307" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B307" s="155"/>
-      <c r="C307" s="155"/>
-      <c r="D307" s="155"/>
+      <c r="B307" s="154"/>
+      <c r="C307" s="154"/>
+      <c r="D307" s="154"/>
       <c r="E307" s="6" t="s">
         <v>110</v>
       </c>
@@ -27909,9 +27909,9 @@
       <c r="Z307" s="121"/>
     </row>
     <row r="308" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="155"/>
-      <c r="C308" s="155"/>
-      <c r="D308" s="155"/>
+      <c r="B308" s="154"/>
+      <c r="C308" s="154"/>
+      <c r="D308" s="154"/>
       <c r="E308" s="6" t="s">
         <v>292</v>
       </c>
@@ -27952,9 +27952,9 @@
       <c r="Z308" s="121"/>
     </row>
     <row r="309" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="155"/>
-      <c r="C309" s="155"/>
-      <c r="D309" s="155"/>
+      <c r="B309" s="154"/>
+      <c r="C309" s="154"/>
+      <c r="D309" s="154"/>
       <c r="E309" s="6" t="s">
         <v>107</v>
       </c>
@@ -27995,9 +27995,9 @@
       <c r="Z309" s="121"/>
     </row>
     <row r="310" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="156"/>
-      <c r="C310" s="156"/>
-      <c r="D310" s="156"/>
+      <c r="B310" s="155"/>
+      <c r="C310" s="155"/>
+      <c r="D310" s="155"/>
       <c r="E310" s="7" t="s">
         <v>14</v>
       </c>
@@ -28041,13 +28041,13 @@
       <c r="A311" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B311" s="157">
+      <c r="B311" s="156">
         <v>51</v>
       </c>
-      <c r="C311" s="157" t="s">
+      <c r="C311" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="D311" s="157" t="s">
+      <c r="D311" s="156" t="s">
         <v>72</v>
       </c>
       <c r="E311" s="26" t="s">
@@ -28088,9 +28088,9 @@
       <c r="Z311" s="121"/>
     </row>
     <row r="312" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="158"/>
-      <c r="C312" s="158"/>
-      <c r="D312" s="158"/>
+      <c r="B312" s="157"/>
+      <c r="C312" s="157"/>
+      <c r="D312" s="157"/>
       <c r="E312" s="3" t="s">
         <v>13</v>
       </c>
@@ -28131,9 +28131,9 @@
       <c r="Z312" s="121"/>
     </row>
     <row r="313" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="158"/>
-      <c r="C313" s="158"/>
-      <c r="D313" s="158"/>
+      <c r="B313" s="157"/>
+      <c r="C313" s="157"/>
+      <c r="D313" s="157"/>
       <c r="E313" s="3" t="s">
         <v>111</v>
       </c>
@@ -28174,9 +28174,9 @@
       <c r="Z313" s="121"/>
     </row>
     <row r="314" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="158"/>
-      <c r="C314" s="158"/>
-      <c r="D314" s="158"/>
+      <c r="B314" s="157"/>
+      <c r="C314" s="157"/>
+      <c r="D314" s="157"/>
       <c r="E314" s="3" t="s">
         <v>110</v>
       </c>
@@ -28219,9 +28219,9 @@
       <c r="Z314" s="121"/>
     </row>
     <row r="315" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="158"/>
-      <c r="C315" s="158"/>
-      <c r="D315" s="158"/>
+      <c r="B315" s="157"/>
+      <c r="C315" s="157"/>
+      <c r="D315" s="157"/>
       <c r="E315" s="3" t="s">
         <v>302</v>
       </c>
@@ -28262,9 +28262,9 @@
       <c r="Z315" s="121"/>
     </row>
     <row r="316" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B316" s="158"/>
-      <c r="C316" s="158"/>
-      <c r="D316" s="158"/>
+      <c r="B316" s="157"/>
+      <c r="C316" s="157"/>
+      <c r="D316" s="157"/>
       <c r="E316" s="3" t="s">
         <v>107</v>
       </c>
@@ -28305,9 +28305,9 @@
       <c r="Z316" s="121"/>
     </row>
     <row r="317" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B317" s="159"/>
-      <c r="C317" s="159"/>
-      <c r="D317" s="159"/>
+      <c r="B317" s="158"/>
+      <c r="C317" s="158"/>
+      <c r="D317" s="158"/>
       <c r="E317" s="4" t="s">
         <v>14</v>
       </c>
@@ -28351,13 +28351,13 @@
       <c r="A318" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B318" s="154">
+      <c r="B318" s="153">
         <v>52</v>
       </c>
-      <c r="C318" s="154" t="s">
+      <c r="C318" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="D318" s="154" t="s">
+      <c r="D318" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E318" s="27" t="s">
@@ -28398,9 +28398,9 @@
       <c r="Z318" s="121"/>
     </row>
     <row r="319" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B319" s="155"/>
-      <c r="C319" s="155"/>
-      <c r="D319" s="155"/>
+      <c r="B319" s="154"/>
+      <c r="C319" s="154"/>
+      <c r="D319" s="154"/>
       <c r="E319" s="6" t="s">
         <v>13</v>
       </c>
@@ -28441,9 +28441,9 @@
       <c r="Z319" s="121"/>
     </row>
     <row r="320" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="155"/>
-      <c r="C320" s="155"/>
-      <c r="D320" s="155"/>
+      <c r="B320" s="154"/>
+      <c r="C320" s="154"/>
+      <c r="D320" s="154"/>
       <c r="E320" s="6" t="s">
         <v>111</v>
       </c>
@@ -28484,9 +28484,9 @@
       <c r="Z320" s="121"/>
     </row>
     <row r="321" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B321" s="155"/>
-      <c r="C321" s="155"/>
-      <c r="D321" s="155"/>
+      <c r="B321" s="154"/>
+      <c r="C321" s="154"/>
+      <c r="D321" s="154"/>
       <c r="E321" s="6" t="s">
         <v>291</v>
       </c>
@@ -28527,9 +28527,9 @@
       <c r="Z321" s="121"/>
     </row>
     <row r="322" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B322" s="155"/>
-      <c r="C322" s="155"/>
-      <c r="D322" s="155"/>
+      <c r="B322" s="154"/>
+      <c r="C322" s="154"/>
+      <c r="D322" s="154"/>
       <c r="E322" s="6" t="s">
         <v>110</v>
       </c>
@@ -28572,9 +28572,9 @@
       <c r="Z322" s="121"/>
     </row>
     <row r="323" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B323" s="155"/>
-      <c r="C323" s="155"/>
-      <c r="D323" s="155"/>
+      <c r="B323" s="154"/>
+      <c r="C323" s="154"/>
+      <c r="D323" s="154"/>
       <c r="E323" s="6" t="s">
         <v>302</v>
       </c>
@@ -28615,9 +28615,9 @@
       <c r="Z323" s="121"/>
     </row>
     <row r="324" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B324" s="155"/>
-      <c r="C324" s="155"/>
-      <c r="D324" s="155"/>
+      <c r="B324" s="154"/>
+      <c r="C324" s="154"/>
+      <c r="D324" s="154"/>
       <c r="E324" s="6" t="s">
         <v>107</v>
       </c>
@@ -28658,9 +28658,9 @@
       <c r="Z324" s="121"/>
     </row>
     <row r="325" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="156"/>
-      <c r="C325" s="156"/>
-      <c r="D325" s="156"/>
+      <c r="B325" s="155"/>
+      <c r="C325" s="155"/>
+      <c r="D325" s="155"/>
       <c r="E325" s="7" t="s">
         <v>14</v>
       </c>
@@ -28704,13 +28704,13 @@
       <c r="A326" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B326" s="157">
+      <c r="B326" s="156">
         <v>53</v>
       </c>
-      <c r="C326" s="157" t="s">
+      <c r="C326" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="D326" s="157" t="s">
+      <c r="D326" s="156" t="s">
         <v>72</v>
       </c>
       <c r="E326" s="26" t="s">
@@ -28730,7 +28730,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K326" s="157" t="s">
+      <c r="K326" s="156" t="s">
         <v>141</v>
       </c>
       <c r="L326" s="41"/>
@@ -28753,9 +28753,9 @@
       <c r="Z326" s="121"/>
     </row>
     <row r="327" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B327" s="158"/>
-      <c r="C327" s="158"/>
-      <c r="D327" s="158"/>
+      <c r="B327" s="157"/>
+      <c r="C327" s="157"/>
+      <c r="D327" s="157"/>
       <c r="E327" s="3" t="s">
         <v>13</v>
       </c>
@@ -28775,7 +28775,7 @@
         <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="K327" s="158"/>
+      <c r="K327" s="157"/>
       <c r="L327" s="42"/>
       <c r="U327" s="119" t="str" cm="1">
         <f t="array" ref="U327">IF(C327="",INDEX(C319:C327,MATCH(TRUE,INDEX((C319:C327&lt;&gt;""),0),0)),C327)</f>
@@ -28796,9 +28796,9 @@
       <c r="Z327" s="121"/>
     </row>
     <row r="328" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B328" s="158"/>
-      <c r="C328" s="158"/>
-      <c r="D328" s="158"/>
+      <c r="B328" s="157"/>
+      <c r="C328" s="157"/>
+      <c r="D328" s="157"/>
       <c r="E328" s="3" t="s">
         <v>111</v>
       </c>
@@ -28818,7 +28818,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K328" s="158"/>
+      <c r="K328" s="157"/>
       <c r="L328" s="42"/>
       <c r="U328" s="119" t="str" cm="1">
         <f t="array" ref="U328">IF(C328="",INDEX(C320:C328,MATCH(TRUE,INDEX((C320:C328&lt;&gt;""),0),0)),C328)</f>
@@ -28839,9 +28839,9 @@
       <c r="Z328" s="121"/>
     </row>
     <row r="329" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B329" s="158"/>
-      <c r="C329" s="158"/>
-      <c r="D329" s="158"/>
+      <c r="B329" s="157"/>
+      <c r="C329" s="157"/>
+      <c r="D329" s="157"/>
       <c r="E329" s="3" t="s">
         <v>291</v>
       </c>
@@ -28861,7 +28861,7 @@
         <f t="shared" ref="J329" si="64">IF(F329="Done", V329*VLOOKUP(E329, $AB$3:$AE$16, 4, FALSE), "")</f>
         <v>14</v>
       </c>
-      <c r="K329" s="158"/>
+      <c r="K329" s="157"/>
       <c r="L329" s="42"/>
       <c r="U329" s="119" t="str" cm="1">
         <f t="array" ref="U329">IF(C329="",INDEX(C321:C329,MATCH(TRUE,INDEX((C321:C329&lt;&gt;""),0),0)),C329)</f>
@@ -28882,9 +28882,9 @@
       <c r="Z329" s="121"/>
     </row>
     <row r="330" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B330" s="158"/>
-      <c r="C330" s="158"/>
-      <c r="D330" s="158"/>
+      <c r="B330" s="157"/>
+      <c r="C330" s="157"/>
+      <c r="D330" s="157"/>
       <c r="E330" s="3" t="s">
         <v>110</v>
       </c>
@@ -28904,7 +28904,7 @@
         <f t="shared" si="43"/>
         <v>93</v>
       </c>
-      <c r="K330" s="158"/>
+      <c r="K330" s="157"/>
       <c r="L330" s="42" t="s">
         <v>139</v>
       </c>
@@ -28927,9 +28927,9 @@
       <c r="Z330" s="121"/>
     </row>
     <row r="331" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B331" s="158"/>
-      <c r="C331" s="158"/>
-      <c r="D331" s="158"/>
+      <c r="B331" s="157"/>
+      <c r="C331" s="157"/>
+      <c r="D331" s="157"/>
       <c r="E331" s="3" t="s">
         <v>107</v>
       </c>
@@ -28949,7 +28949,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K331" s="158"/>
+      <c r="K331" s="157"/>
       <c r="L331" s="42"/>
       <c r="U331" s="119" t="str" cm="1">
         <f t="array" ref="U331">IF(C331="",INDEX(C324:C331,MATCH(TRUE,INDEX((C324:C331&lt;&gt;""),0),0)),C331)</f>
@@ -28970,9 +28970,9 @@
       <c r="Z331" s="121"/>
     </row>
     <row r="332" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B332" s="159"/>
-      <c r="C332" s="159"/>
-      <c r="D332" s="159"/>
+      <c r="B332" s="158"/>
+      <c r="C332" s="158"/>
+      <c r="D332" s="158"/>
       <c r="E332" s="4" t="s">
         <v>14</v>
       </c>
@@ -28992,7 +28992,7 @@
         <f t="shared" si="43"/>
         <v>8</v>
       </c>
-      <c r="K332" s="159"/>
+      <c r="K332" s="158"/>
       <c r="L332" s="43"/>
       <c r="U332" s="119" t="str" cm="1">
         <f t="array" ref="U332">IF(C332="",INDEX(C325:C332,MATCH(TRUE,INDEX((C325:C332&lt;&gt;""),0),0)),C332)</f>
@@ -29016,13 +29016,13 @@
       <c r="A333" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B333" s="154">
+      <c r="B333" s="153">
         <v>54</v>
       </c>
-      <c r="C333" s="154" t="s">
+      <c r="C333" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="D333" s="154" t="s">
+      <c r="D333" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E333" s="27" t="s">
@@ -29042,7 +29042,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K333" s="154" t="s">
+      <c r="K333" s="153" t="s">
         <v>174</v>
       </c>
       <c r="L333" s="44"/>
@@ -29065,9 +29065,9 @@
       <c r="Z333" s="121"/>
     </row>
     <row r="334" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B334" s="155"/>
-      <c r="C334" s="155"/>
-      <c r="D334" s="155"/>
+      <c r="B334" s="154"/>
+      <c r="C334" s="154"/>
+      <c r="D334" s="154"/>
       <c r="E334" s="6" t="s">
         <v>13</v>
       </c>
@@ -29087,7 +29087,7 @@
         <f t="shared" si="43"/>
         <v>64</v>
       </c>
-      <c r="K334" s="155"/>
+      <c r="K334" s="154"/>
       <c r="L334" s="45"/>
       <c r="U334" s="119" t="str" cm="1">
         <f t="array" ref="U334">IF(C334="",INDEX(C327:C334,MATCH(TRUE,INDEX((C327:C334&lt;&gt;""),0),0)),C334)</f>
@@ -29108,9 +29108,9 @@
       <c r="Z334" s="121"/>
     </row>
     <row r="335" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B335" s="155"/>
-      <c r="C335" s="155"/>
-      <c r="D335" s="155"/>
+      <c r="B335" s="154"/>
+      <c r="C335" s="154"/>
+      <c r="D335" s="154"/>
       <c r="E335" s="6" t="s">
         <v>111</v>
       </c>
@@ -29130,7 +29130,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K335" s="155"/>
+      <c r="K335" s="154"/>
       <c r="L335" s="45"/>
       <c r="U335" s="119" t="str" cm="1">
         <f t="array" ref="U335">IF(C335="",INDEX(C328:C335,MATCH(TRUE,INDEX((C328:C335&lt;&gt;""),0),0)),C335)</f>
@@ -29151,9 +29151,9 @@
       <c r="Z335" s="121"/>
     </row>
     <row r="336" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B336" s="155"/>
-      <c r="C336" s="155"/>
-      <c r="D336" s="155"/>
+      <c r="B336" s="154"/>
+      <c r="C336" s="154"/>
+      <c r="D336" s="154"/>
       <c r="E336" s="6" t="s">
         <v>110</v>
       </c>
@@ -29173,7 +29173,7 @@
         <f t="shared" si="43"/>
         <v>93</v>
       </c>
-      <c r="K336" s="155"/>
+      <c r="K336" s="154"/>
       <c r="L336" s="45" t="s">
         <v>290</v>
       </c>
@@ -29196,9 +29196,9 @@
       <c r="Z336" s="121"/>
     </row>
     <row r="337" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B337" s="155"/>
-      <c r="C337" s="155"/>
-      <c r="D337" s="155"/>
+      <c r="B337" s="154"/>
+      <c r="C337" s="154"/>
+      <c r="D337" s="154"/>
       <c r="E337" s="6" t="s">
         <v>292</v>
       </c>
@@ -29218,7 +29218,7 @@
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K337" s="155"/>
+      <c r="K337" s="154"/>
       <c r="L337" s="45"/>
       <c r="U337" s="119" t="str" cm="1">
         <f t="array" ref="U337">IF(C337="",INDEX(C331:C337,MATCH(TRUE,INDEX((C331:C337&lt;&gt;""),0),0)),C337)</f>
@@ -29239,9 +29239,9 @@
       <c r="Z337" s="121"/>
     </row>
     <row r="338" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B338" s="155"/>
-      <c r="C338" s="155"/>
-      <c r="D338" s="155"/>
+      <c r="B338" s="154"/>
+      <c r="C338" s="154"/>
+      <c r="D338" s="154"/>
       <c r="E338" s="6" t="s">
         <v>302</v>
       </c>
@@ -29261,7 +29261,7 @@
         <f t="shared" ref="J338" si="71">IF(F338="Done", V338*VLOOKUP(E338, $AB$3:$AE$16, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K338" s="155"/>
+      <c r="K338" s="154"/>
       <c r="L338" s="45"/>
       <c r="U338" s="119" t="str" cm="1">
         <f t="array" ref="U338">IF(C338="",INDEX(C332:C338,MATCH(TRUE,INDEX((C332:C338&lt;&gt;""),0),0)),C338)</f>
@@ -29282,9 +29282,9 @@
       <c r="Z338" s="121"/>
     </row>
     <row r="339" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B339" s="155"/>
-      <c r="C339" s="155"/>
-      <c r="D339" s="155"/>
+      <c r="B339" s="154"/>
+      <c r="C339" s="154"/>
+      <c r="D339" s="154"/>
       <c r="E339" s="6" t="s">
         <v>107</v>
       </c>
@@ -29304,7 +29304,7 @@
         <f t="shared" ref="J339:J404" si="76">IF(F339="Done", V339*VLOOKUP(E339, $AB$3:$AE$16, 4, FALSE), "")</f>
         <v/>
       </c>
-      <c r="K339" s="155"/>
+      <c r="K339" s="154"/>
       <c r="L339" s="45"/>
       <c r="U339" s="119" t="str" cm="1">
         <f t="array" ref="U339">IF(C339="",INDEX(C331:C339,MATCH(TRUE,INDEX((C331:C339&lt;&gt;""),0),0)),C339)</f>
@@ -29325,9 +29325,9 @@
       <c r="Z339" s="121"/>
     </row>
     <row r="340" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B340" s="156"/>
-      <c r="C340" s="156"/>
-      <c r="D340" s="156"/>
+      <c r="B340" s="155"/>
+      <c r="C340" s="155"/>
+      <c r="D340" s="155"/>
       <c r="E340" s="7" t="s">
         <v>14</v>
       </c>
@@ -29349,7 +29349,7 @@
         <f t="shared" si="76"/>
         <v>8</v>
       </c>
-      <c r="K340" s="156"/>
+      <c r="K340" s="155"/>
       <c r="L340" s="46"/>
       <c r="U340" s="119" t="str" cm="1">
         <f t="array" ref="U340">IF(C340="",INDEX(C332:C340,MATCH(TRUE,INDEX((C332:C340&lt;&gt;""),0),0)),C340)</f>
@@ -29373,13 +29373,13 @@
       <c r="A341" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B341" s="157">
+      <c r="B341" s="156">
         <v>55</v>
       </c>
-      <c r="C341" s="157" t="s">
+      <c r="C341" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="D341" s="157" t="s">
+      <c r="D341" s="156" t="s">
         <v>72</v>
       </c>
       <c r="E341" s="26" t="s">
@@ -29420,9 +29420,9 @@
       <c r="Z341" s="121"/>
     </row>
     <row r="342" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="158"/>
-      <c r="C342" s="158"/>
-      <c r="D342" s="158"/>
+      <c r="B342" s="157"/>
+      <c r="C342" s="157"/>
+      <c r="D342" s="157"/>
       <c r="E342" s="3" t="s">
         <v>13</v>
       </c>
@@ -29465,9 +29465,9 @@
       <c r="Z342" s="121"/>
     </row>
     <row r="343" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B343" s="158"/>
-      <c r="C343" s="158"/>
-      <c r="D343" s="158"/>
+      <c r="B343" s="157"/>
+      <c r="C343" s="157"/>
+      <c r="D343" s="157"/>
       <c r="E343" s="3" t="s">
         <v>111</v>
       </c>
@@ -29508,9 +29508,9 @@
       <c r="Z343" s="121"/>
     </row>
     <row r="344" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B344" s="158"/>
-      <c r="C344" s="158"/>
-      <c r="D344" s="158"/>
+      <c r="B344" s="157"/>
+      <c r="C344" s="157"/>
+      <c r="D344" s="157"/>
       <c r="E344" s="3" t="s">
         <v>110</v>
       </c>
@@ -29553,9 +29553,9 @@
       <c r="Z344" s="121"/>
     </row>
     <row r="345" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B345" s="158"/>
-      <c r="C345" s="158"/>
-      <c r="D345" s="158"/>
+      <c r="B345" s="157"/>
+      <c r="C345" s="157"/>
+      <c r="D345" s="157"/>
       <c r="E345" s="3" t="s">
         <v>107</v>
       </c>
@@ -29596,9 +29596,9 @@
       <c r="Z345" s="121"/>
     </row>
     <row r="346" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B346" s="159"/>
-      <c r="C346" s="159"/>
-      <c r="D346" s="159"/>
+      <c r="B346" s="158"/>
+      <c r="C346" s="158"/>
+      <c r="D346" s="158"/>
       <c r="E346" s="4" t="s">
         <v>14</v>
       </c>
@@ -29646,13 +29646,13 @@
       <c r="A347" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B347" s="154">
+      <c r="B347" s="153">
         <v>56</v>
       </c>
-      <c r="C347" s="154" t="s">
+      <c r="C347" s="153" t="s">
         <v>85</v>
       </c>
-      <c r="D347" s="154" t="s">
+      <c r="D347" s="153" t="s">
         <v>72</v>
       </c>
       <c r="E347" s="27" t="s">
@@ -29693,9 +29693,9 @@
       <c r="Z347" s="121"/>
     </row>
     <row r="348" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="155"/>
-      <c r="C348" s="155"/>
-      <c r="D348" s="155"/>
+      <c r="B348" s="154"/>
+      <c r="C348" s="154"/>
+      <c r="D348" s="154"/>
       <c r="E348" s="6" t="s">
         <v>13</v>
       </c>
@@ -29736,9 +29736,9 @@
       <c r="Z348" s="121"/>
     </row>
     <row r="349" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="155"/>
-      <c r="C349" s="155"/>
-      <c r="D349" s="155"/>
+      <c r="B349" s="154"/>
+      <c r="C349" s="154"/>
+      <c r="D349" s="154"/>
       <c r="E349" s="6" t="s">
         <v>111</v>
       </c>
@@ -29779,9 +29779,9 @@
       <c r="Z349" s="121"/>
     </row>
     <row r="350" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B350" s="155"/>
-      <c r="C350" s="155"/>
-      <c r="D350" s="155"/>
+      <c r="B350" s="154"/>
+      <c r="C350" s="154"/>
+      <c r="D350" s="154"/>
       <c r="E350" s="6" t="s">
         <v>110</v>
       </c>
@@ -29824,9 +29824,9 @@
       <c r="Z350" s="121"/>
     </row>
     <row r="351" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B351" s="155"/>
-      <c r="C351" s="155"/>
-      <c r="D351" s="155"/>
+      <c r="B351" s="154"/>
+      <c r="C351" s="154"/>
+      <c r="D351" s="154"/>
       <c r="E351" s="6" t="s">
         <v>292</v>
       </c>
@@ -29867,9 +29867,9 @@
       <c r="Z351" s="121"/>
     </row>
     <row r="352" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B352" s="155"/>
-      <c r="C352" s="155"/>
-      <c r="D352" s="155"/>
+      <c r="B352" s="154"/>
+      <c r="C352" s="154"/>
+      <c r="D352" s="154"/>
       <c r="E352" s="6" t="s">
         <v>293</v>
       </c>
@@ -29910,9 +29910,9 @@
       <c r="Z352" s="121"/>
     </row>
     <row r="353" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B353" s="155"/>
-      <c r="C353" s="155"/>
-      <c r="D353" s="155"/>
+      <c r="B353" s="154"/>
+      <c r="C353" s="154"/>
+      <c r="D353" s="154"/>
       <c r="E353" s="6" t="s">
         <v>302</v>
       </c>
@@ -29953,9 +29953,9 @@
       <c r="Z353" s="121"/>
     </row>
     <row r="354" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="155"/>
-      <c r="C354" s="155"/>
-      <c r="D354" s="155"/>
+      <c r="B354" s="154"/>
+      <c r="C354" s="154"/>
+      <c r="D354" s="154"/>
       <c r="E354" s="6" t="s">
         <v>107</v>
       </c>
@@ -29998,9 +29998,9 @@
       <c r="Z354" s="121"/>
     </row>
     <row r="355" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="156"/>
-      <c r="C355" s="156"/>
-      <c r="D355" s="156"/>
+      <c r="B355" s="155"/>
+      <c r="C355" s="155"/>
+      <c r="D355" s="155"/>
       <c r="E355" s="7" t="s">
         <v>14</v>
       </c>
@@ -30046,13 +30046,13 @@
       <c r="A356" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B356" s="157">
+      <c r="B356" s="156">
         <v>57</v>
       </c>
-      <c r="C356" s="157" t="s">
+      <c r="C356" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="D356" s="157" t="s">
+      <c r="D356" s="156" t="s">
         <v>87</v>
       </c>
       <c r="E356" s="26" t="s">
@@ -30093,9 +30093,9 @@
       <c r="Z356" s="121"/>
     </row>
     <row r="357" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="158"/>
-      <c r="C357" s="158"/>
-      <c r="D357" s="158"/>
+      <c r="B357" s="157"/>
+      <c r="C357" s="157"/>
+      <c r="D357" s="157"/>
       <c r="E357" s="3" t="s">
         <v>13</v>
       </c>
@@ -30138,9 +30138,9 @@
       <c r="Z357" s="121"/>
     </row>
     <row r="358" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="158"/>
-      <c r="C358" s="158"/>
-      <c r="D358" s="158"/>
+      <c r="B358" s="157"/>
+      <c r="C358" s="157"/>
+      <c r="D358" s="157"/>
       <c r="E358" s="3" t="s">
         <v>111</v>
       </c>
@@ -30183,9 +30183,9 @@
       <c r="Z358" s="121"/>
     </row>
     <row r="359" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B359" s="158"/>
-      <c r="C359" s="158"/>
-      <c r="D359" s="158"/>
+      <c r="B359" s="157"/>
+      <c r="C359" s="157"/>
+      <c r="D359" s="157"/>
       <c r="E359" s="3" t="s">
         <v>110</v>
       </c>
@@ -30228,9 +30228,9 @@
       <c r="Z359" s="121"/>
     </row>
     <row r="360" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B360" s="158"/>
-      <c r="C360" s="158"/>
-      <c r="D360" s="158"/>
+      <c r="B360" s="157"/>
+      <c r="C360" s="157"/>
+      <c r="D360" s="157"/>
       <c r="E360" s="3" t="s">
         <v>107</v>
       </c>
@@ -30273,9 +30273,9 @@
       <c r="Z360" s="121"/>
     </row>
     <row r="361" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B361" s="159"/>
-      <c r="C361" s="159"/>
-      <c r="D361" s="159"/>
+      <c r="B361" s="158"/>
+      <c r="C361" s="158"/>
+      <c r="D361" s="158"/>
       <c r="E361" s="4" t="s">
         <v>14</v>
       </c>
@@ -30321,13 +30321,13 @@
       <c r="A362" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B362" s="154">
+      <c r="B362" s="153">
         <v>58</v>
       </c>
-      <c r="C362" s="154" t="s">
+      <c r="C362" s="153" t="s">
         <v>256</v>
       </c>
-      <c r="D362" s="154" t="s">
+      <c r="D362" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E362" s="27" t="s">
@@ -30368,9 +30368,9 @@
       <c r="Z362" s="121"/>
     </row>
     <row r="363" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B363" s="155"/>
-      <c r="C363" s="155"/>
-      <c r="D363" s="155"/>
+      <c r="B363" s="154"/>
+      <c r="C363" s="154"/>
+      <c r="D363" s="154"/>
       <c r="E363" s="6" t="s">
         <v>13</v>
       </c>
@@ -30411,9 +30411,9 @@
       <c r="Z363" s="121"/>
     </row>
     <row r="364" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B364" s="155"/>
-      <c r="C364" s="155"/>
-      <c r="D364" s="155"/>
+      <c r="B364" s="154"/>
+      <c r="C364" s="154"/>
+      <c r="D364" s="154"/>
       <c r="E364" s="6" t="s">
         <v>111</v>
       </c>
@@ -30454,9 +30454,9 @@
       <c r="Z364" s="121"/>
     </row>
     <row r="365" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B365" s="155"/>
-      <c r="C365" s="155"/>
-      <c r="D365" s="155"/>
+      <c r="B365" s="154"/>
+      <c r="C365" s="154"/>
+      <c r="D365" s="154"/>
       <c r="E365" s="6" t="s">
         <v>291</v>
       </c>
@@ -30497,9 +30497,9 @@
       <c r="Z365" s="121"/>
     </row>
     <row r="366" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B366" s="155"/>
-      <c r="C366" s="155"/>
-      <c r="D366" s="155"/>
+      <c r="B366" s="154"/>
+      <c r="C366" s="154"/>
+      <c r="D366" s="154"/>
       <c r="E366" s="6" t="s">
         <v>110</v>
       </c>
@@ -30540,9 +30540,9 @@
       <c r="Z366" s="121"/>
     </row>
     <row r="367" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B367" s="155"/>
-      <c r="C367" s="155"/>
-      <c r="D367" s="155"/>
+      <c r="B367" s="154"/>
+      <c r="C367" s="154"/>
+      <c r="D367" s="154"/>
       <c r="E367" s="6" t="s">
         <v>107</v>
       </c>
@@ -30583,9 +30583,9 @@
       <c r="Z367" s="121"/>
     </row>
     <row r="368" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B368" s="156"/>
-      <c r="C368" s="156"/>
-      <c r="D368" s="156"/>
+      <c r="B368" s="155"/>
+      <c r="C368" s="155"/>
+      <c r="D368" s="155"/>
       <c r="E368" s="7" t="s">
         <v>14</v>
       </c>
@@ -30629,13 +30629,13 @@
       <c r="A369" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B369" s="157">
+      <c r="B369" s="156">
         <v>59</v>
       </c>
-      <c r="C369" s="157" t="s">
+      <c r="C369" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="D369" s="157" t="s">
+      <c r="D369" s="156" t="s">
         <v>88</v>
       </c>
       <c r="E369" s="26" t="s">
@@ -30676,9 +30676,9 @@
       <c r="Z369" s="121"/>
     </row>
     <row r="370" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B370" s="158"/>
-      <c r="C370" s="158"/>
-      <c r="D370" s="158"/>
+      <c r="B370" s="157"/>
+      <c r="C370" s="157"/>
+      <c r="D370" s="157"/>
       <c r="E370" s="3" t="s">
         <v>13</v>
       </c>
@@ -30719,9 +30719,9 @@
       <c r="Z370" s="121"/>
     </row>
     <row r="371" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B371" s="158"/>
-      <c r="C371" s="158"/>
-      <c r="D371" s="158"/>
+      <c r="B371" s="157"/>
+      <c r="C371" s="157"/>
+      <c r="D371" s="157"/>
       <c r="E371" s="3" t="s">
         <v>111</v>
       </c>
@@ -30762,9 +30762,9 @@
       <c r="Z371" s="121"/>
     </row>
     <row r="372" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B372" s="158"/>
-      <c r="C372" s="158"/>
-      <c r="D372" s="158"/>
+      <c r="B372" s="157"/>
+      <c r="C372" s="157"/>
+      <c r="D372" s="157"/>
       <c r="E372" s="3" t="s">
         <v>110</v>
       </c>
@@ -30805,9 +30805,9 @@
       <c r="Z372" s="121"/>
     </row>
     <row r="373" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="158"/>
-      <c r="C373" s="158"/>
-      <c r="D373" s="158"/>
+      <c r="B373" s="157"/>
+      <c r="C373" s="157"/>
+      <c r="D373" s="157"/>
       <c r="E373" s="3" t="s">
         <v>107</v>
       </c>
@@ -30848,9 +30848,9 @@
       <c r="Z373" s="121"/>
     </row>
     <row r="374" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B374" s="159"/>
-      <c r="C374" s="159"/>
-      <c r="D374" s="159"/>
+      <c r="B374" s="158"/>
+      <c r="C374" s="158"/>
+      <c r="D374" s="158"/>
       <c r="E374" s="4" t="s">
         <v>14</v>
       </c>
@@ -30894,13 +30894,13 @@
       <c r="A375" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B375" s="154">
+      <c r="B375" s="153">
         <v>60</v>
       </c>
-      <c r="C375" s="154" t="s">
+      <c r="C375" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="D375" s="154" t="s">
+      <c r="D375" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E375" s="27" t="s">
@@ -30941,9 +30941,9 @@
       <c r="Z375" s="121"/>
     </row>
     <row r="376" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B376" s="155"/>
-      <c r="C376" s="155"/>
-      <c r="D376" s="155"/>
+      <c r="B376" s="154"/>
+      <c r="C376" s="154"/>
+      <c r="D376" s="154"/>
       <c r="E376" s="6" t="s">
         <v>13</v>
       </c>
@@ -30984,9 +30984,9 @@
       <c r="Z376" s="121"/>
     </row>
     <row r="377" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="155"/>
-      <c r="C377" s="155"/>
-      <c r="D377" s="155"/>
+      <c r="B377" s="154"/>
+      <c r="C377" s="154"/>
+      <c r="D377" s="154"/>
       <c r="E377" s="6" t="s">
         <v>111</v>
       </c>
@@ -31027,9 +31027,9 @@
       <c r="Z377" s="121"/>
     </row>
     <row r="378" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B378" s="155"/>
-      <c r="C378" s="155"/>
-      <c r="D378" s="155"/>
+      <c r="B378" s="154"/>
+      <c r="C378" s="154"/>
+      <c r="D378" s="154"/>
       <c r="E378" s="6" t="s">
         <v>110</v>
       </c>
@@ -31070,9 +31070,9 @@
       <c r="Z378" s="121"/>
     </row>
     <row r="379" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B379" s="155"/>
-      <c r="C379" s="155"/>
-      <c r="D379" s="155"/>
+      <c r="B379" s="154"/>
+      <c r="C379" s="154"/>
+      <c r="D379" s="154"/>
       <c r="E379" s="6" t="s">
         <v>107</v>
       </c>
@@ -31113,9 +31113,9 @@
       <c r="Z379" s="121"/>
     </row>
     <row r="380" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B380" s="156"/>
-      <c r="C380" s="156"/>
-      <c r="D380" s="156"/>
+      <c r="B380" s="155"/>
+      <c r="C380" s="155"/>
+      <c r="D380" s="155"/>
       <c r="E380" s="7" t="s">
         <v>14</v>
       </c>
@@ -31159,13 +31159,13 @@
       <c r="A381" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B381" s="157">
+      <c r="B381" s="156">
         <v>61</v>
       </c>
-      <c r="C381" s="157" t="s">
+      <c r="C381" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="D381" s="157" t="s">
+      <c r="D381" s="156" t="s">
         <v>88</v>
       </c>
       <c r="E381" s="26" t="s">
@@ -31206,9 +31206,9 @@
       <c r="Z381" s="121"/>
     </row>
     <row r="382" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="158"/>
-      <c r="C382" s="158"/>
-      <c r="D382" s="158"/>
+      <c r="B382" s="157"/>
+      <c r="C382" s="157"/>
+      <c r="D382" s="157"/>
       <c r="E382" s="3" t="s">
         <v>13</v>
       </c>
@@ -31249,9 +31249,9 @@
       <c r="Z382" s="121"/>
     </row>
     <row r="383" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B383" s="158"/>
-      <c r="C383" s="158"/>
-      <c r="D383" s="158"/>
+      <c r="B383" s="157"/>
+      <c r="C383" s="157"/>
+      <c r="D383" s="157"/>
       <c r="E383" s="3" t="s">
         <v>111</v>
       </c>
@@ -31292,9 +31292,9 @@
       <c r="Z383" s="121"/>
     </row>
     <row r="384" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="158"/>
-      <c r="C384" s="158"/>
-      <c r="D384" s="158"/>
+      <c r="B384" s="157"/>
+      <c r="C384" s="157"/>
+      <c r="D384" s="157"/>
       <c r="E384" s="3" t="s">
         <v>110</v>
       </c>
@@ -31337,9 +31337,9 @@
       <c r="Z384" s="121"/>
     </row>
     <row r="385" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B385" s="158"/>
-      <c r="C385" s="158"/>
-      <c r="D385" s="158"/>
+      <c r="B385" s="157"/>
+      <c r="C385" s="157"/>
+      <c r="D385" s="157"/>
       <c r="E385" s="3" t="s">
         <v>107</v>
       </c>
@@ -31380,9 +31380,9 @@
       <c r="Z385" s="121"/>
     </row>
     <row r="386" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B386" s="159"/>
-      <c r="C386" s="159"/>
-      <c r="D386" s="159"/>
+      <c r="B386" s="158"/>
+      <c r="C386" s="158"/>
+      <c r="D386" s="158"/>
       <c r="E386" s="4" t="s">
         <v>14</v>
       </c>
@@ -31426,13 +31426,13 @@
       <c r="A387" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B387" s="154">
+      <c r="B387" s="153">
         <v>62</v>
       </c>
-      <c r="C387" s="154" t="s">
+      <c r="C387" s="153" t="s">
         <v>97</v>
       </c>
-      <c r="D387" s="154" t="s">
+      <c r="D387" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E387" s="27" t="s">
@@ -31473,9 +31473,9 @@
       <c r="Z387" s="121"/>
     </row>
     <row r="388" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B388" s="155"/>
-      <c r="C388" s="155"/>
-      <c r="D388" s="155"/>
+      <c r="B388" s="154"/>
+      <c r="C388" s="154"/>
+      <c r="D388" s="154"/>
       <c r="E388" s="6" t="s">
         <v>13</v>
       </c>
@@ -31516,9 +31516,9 @@
       <c r="Z388" s="121"/>
     </row>
     <row r="389" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B389" s="155"/>
-      <c r="C389" s="155"/>
-      <c r="D389" s="155"/>
+      <c r="B389" s="154"/>
+      <c r="C389" s="154"/>
+      <c r="D389" s="154"/>
       <c r="E389" s="6" t="s">
         <v>111</v>
       </c>
@@ -31559,9 +31559,9 @@
       <c r="Z389" s="121"/>
     </row>
     <row r="390" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B390" s="155"/>
-      <c r="C390" s="155"/>
-      <c r="D390" s="155"/>
+      <c r="B390" s="154"/>
+      <c r="C390" s="154"/>
+      <c r="D390" s="154"/>
       <c r="E390" s="6" t="s">
         <v>110</v>
       </c>
@@ -31602,9 +31602,9 @@
       <c r="Z390" s="121"/>
     </row>
     <row r="391" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B391" s="155"/>
-      <c r="C391" s="155"/>
-      <c r="D391" s="155"/>
+      <c r="B391" s="154"/>
+      <c r="C391" s="154"/>
+      <c r="D391" s="154"/>
       <c r="E391" s="6" t="s">
         <v>107</v>
       </c>
@@ -31645,9 +31645,9 @@
       <c r="Z391" s="121"/>
     </row>
     <row r="392" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B392" s="156"/>
-      <c r="C392" s="156"/>
-      <c r="D392" s="156"/>
+      <c r="B392" s="155"/>
+      <c r="C392" s="155"/>
+      <c r="D392" s="155"/>
       <c r="E392" s="7" t="s">
         <v>14</v>
       </c>
@@ -31691,13 +31691,13 @@
       <c r="A393" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B393" s="157">
+      <c r="B393" s="156">
         <v>63</v>
       </c>
-      <c r="C393" s="157" t="s">
+      <c r="C393" s="156" t="s">
         <v>304</v>
       </c>
-      <c r="D393" s="157" t="s">
+      <c r="D393" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E393" s="26" t="s">
@@ -31738,9 +31738,9 @@
       <c r="Z393" s="121"/>
     </row>
     <row r="394" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B394" s="158"/>
-      <c r="C394" s="158"/>
-      <c r="D394" s="158"/>
+      <c r="B394" s="157"/>
+      <c r="C394" s="157"/>
+      <c r="D394" s="157"/>
       <c r="E394" s="3" t="s">
         <v>13</v>
       </c>
@@ -31781,9 +31781,9 @@
       <c r="Z394" s="121"/>
     </row>
     <row r="395" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="158"/>
-      <c r="C395" s="158"/>
-      <c r="D395" s="158"/>
+      <c r="B395" s="157"/>
+      <c r="C395" s="157"/>
+      <c r="D395" s="157"/>
       <c r="E395" s="3" t="s">
         <v>111</v>
       </c>
@@ -31824,9 +31824,9 @@
       <c r="Z395" s="121"/>
     </row>
     <row r="396" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="158"/>
-      <c r="C396" s="158"/>
-      <c r="D396" s="158"/>
+      <c r="B396" s="157"/>
+      <c r="C396" s="157"/>
+      <c r="D396" s="157"/>
       <c r="E396" s="3" t="s">
         <v>110</v>
       </c>
@@ -31867,9 +31867,9 @@
       <c r="Z396" s="121"/>
     </row>
     <row r="397" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="158"/>
-      <c r="C397" s="158"/>
-      <c r="D397" s="158"/>
+      <c r="B397" s="157"/>
+      <c r="C397" s="157"/>
+      <c r="D397" s="157"/>
       <c r="E397" s="3" t="s">
         <v>107</v>
       </c>
@@ -31910,9 +31910,9 @@
       <c r="Z397" s="121"/>
     </row>
     <row r="398" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="159"/>
-      <c r="C398" s="159"/>
-      <c r="D398" s="159"/>
+      <c r="B398" s="158"/>
+      <c r="C398" s="158"/>
+      <c r="D398" s="158"/>
       <c r="E398" s="4" t="s">
         <v>14</v>
       </c>
@@ -31956,13 +31956,13 @@
       <c r="A399" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B399" s="154">
+      <c r="B399" s="153">
         <v>64</v>
       </c>
-      <c r="C399" s="154" t="s">
+      <c r="C399" s="153" t="s">
         <v>309</v>
       </c>
-      <c r="D399" s="154" t="s">
+      <c r="D399" s="153" t="s">
         <v>92</v>
       </c>
       <c r="E399" s="27" t="s">
@@ -32005,9 +32005,9 @@
       <c r="Z399" s="121"/>
     </row>
     <row r="400" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="155"/>
-      <c r="C400" s="155"/>
-      <c r="D400" s="155"/>
+      <c r="B400" s="154"/>
+      <c r="C400" s="154"/>
+      <c r="D400" s="154"/>
       <c r="E400" s="6" t="s">
         <v>13</v>
       </c>
@@ -32048,9 +32048,9 @@
       <c r="Z400" s="121"/>
     </row>
     <row r="401" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="155"/>
-      <c r="C401" s="155"/>
-      <c r="D401" s="155"/>
+      <c r="B401" s="154"/>
+      <c r="C401" s="154"/>
+      <c r="D401" s="154"/>
       <c r="E401" s="6" t="s">
         <v>104</v>
       </c>
@@ -32095,9 +32095,9 @@
       <c r="Z401" s="121"/>
     </row>
     <row r="402" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B402" s="155"/>
-      <c r="C402" s="155"/>
-      <c r="D402" s="155"/>
+      <c r="B402" s="154"/>
+      <c r="C402" s="154"/>
+      <c r="D402" s="154"/>
       <c r="E402" s="6" t="s">
         <v>107</v>
       </c>
@@ -32138,9 +32138,9 @@
       <c r="Z402" s="121"/>
     </row>
     <row r="403" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="155"/>
-      <c r="C403" s="155"/>
-      <c r="D403" s="155"/>
+      <c r="B403" s="154"/>
+      <c r="C403" s="154"/>
+      <c r="D403" s="154"/>
       <c r="E403" s="6" t="s">
         <v>93</v>
       </c>
@@ -32181,9 +32181,9 @@
       <c r="Z403" s="121"/>
     </row>
     <row r="404" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="155"/>
-      <c r="C404" s="155"/>
-      <c r="D404" s="155"/>
+      <c r="B404" s="154"/>
+      <c r="C404" s="154"/>
+      <c r="D404" s="154"/>
       <c r="E404" s="6" t="s">
         <v>110</v>
       </c>
@@ -32229,9 +32229,9 @@
       <c r="Z404" s="121"/>
     </row>
     <row r="405" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B405" s="155"/>
-      <c r="C405" s="155"/>
-      <c r="D405" s="155"/>
+      <c r="B405" s="154"/>
+      <c r="C405" s="154"/>
+      <c r="D405" s="154"/>
       <c r="E405" s="6" t="s">
         <v>302</v>
       </c>
@@ -32272,9 +32272,9 @@
       <c r="Z405" s="121"/>
     </row>
     <row r="406" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B406" s="155"/>
-      <c r="C406" s="155"/>
-      <c r="D406" s="155"/>
+      <c r="B406" s="154"/>
+      <c r="C406" s="154"/>
+      <c r="D406" s="154"/>
       <c r="E406" s="6" t="s">
         <v>111</v>
       </c>
@@ -32315,9 +32315,9 @@
       <c r="Z406" s="121"/>
     </row>
     <row r="407" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B407" s="156"/>
-      <c r="C407" s="156"/>
-      <c r="D407" s="156"/>
+      <c r="B407" s="155"/>
+      <c r="C407" s="155"/>
+      <c r="D407" s="155"/>
       <c r="E407" s="7" t="s">
         <v>14</v>
       </c>
@@ -32360,13 +32360,13 @@
       <c r="A408" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B408" s="157">
+      <c r="B408" s="156">
         <v>65</v>
       </c>
-      <c r="C408" s="157" t="s">
+      <c r="C408" s="156" t="s">
         <v>310</v>
       </c>
-      <c r="D408" s="157" t="s">
+      <c r="D408" s="156" t="s">
         <v>92</v>
       </c>
       <c r="E408" s="26" t="s">
@@ -32407,9 +32407,9 @@
       <c r="Z408" s="121"/>
     </row>
     <row r="409" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B409" s="158"/>
-      <c r="C409" s="158"/>
-      <c r="D409" s="158"/>
+      <c r="B409" s="157"/>
+      <c r="C409" s="157"/>
+      <c r="D409" s="157"/>
       <c r="E409" s="3" t="s">
         <v>13</v>
       </c>
@@ -32450,9 +32450,9 @@
       <c r="Z409" s="121"/>
     </row>
     <row r="410" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B410" s="158"/>
-      <c r="C410" s="158"/>
-      <c r="D410" s="158"/>
+      <c r="B410" s="157"/>
+      <c r="C410" s="157"/>
+      <c r="D410" s="157"/>
       <c r="E410" s="3" t="s">
         <v>104</v>
       </c>
@@ -32493,9 +32493,9 @@
       <c r="Z410" s="121"/>
     </row>
     <row r="411" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B411" s="158"/>
-      <c r="C411" s="158"/>
-      <c r="D411" s="158"/>
+      <c r="B411" s="157"/>
+      <c r="C411" s="157"/>
+      <c r="D411" s="157"/>
       <c r="E411" s="3" t="s">
         <v>107</v>
       </c>
@@ -32536,9 +32536,9 @@
       <c r="Z411" s="121"/>
     </row>
     <row r="412" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B412" s="158"/>
-      <c r="C412" s="158"/>
-      <c r="D412" s="158"/>
+      <c r="B412" s="157"/>
+      <c r="C412" s="157"/>
+      <c r="D412" s="157"/>
       <c r="E412" s="3" t="s">
         <v>93</v>
       </c>
@@ -32579,9 +32579,9 @@
       <c r="Z412" s="121"/>
     </row>
     <row r="413" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B413" s="158"/>
-      <c r="C413" s="158"/>
-      <c r="D413" s="158"/>
+      <c r="B413" s="157"/>
+      <c r="C413" s="157"/>
+      <c r="D413" s="157"/>
       <c r="E413" s="3" t="s">
         <v>110</v>
       </c>
@@ -32622,9 +32622,9 @@
       <c r="Z413" s="121"/>
     </row>
     <row r="414" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="158"/>
-      <c r="C414" s="158"/>
-      <c r="D414" s="158"/>
+      <c r="B414" s="157"/>
+      <c r="C414" s="157"/>
+      <c r="D414" s="157"/>
       <c r="E414" s="3" t="s">
         <v>111</v>
       </c>
@@ -32665,9 +32665,9 @@
       <c r="Z414" s="121"/>
     </row>
     <row r="415" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="159"/>
-      <c r="C415" s="159"/>
-      <c r="D415" s="159"/>
+      <c r="B415" s="158"/>
+      <c r="C415" s="158"/>
+      <c r="D415" s="158"/>
       <c r="E415" s="4" t="s">
         <v>14</v>
       </c>
@@ -32710,13 +32710,13 @@
       <c r="A416" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B416" s="154">
+      <c r="B416" s="153">
         <v>66</v>
       </c>
-      <c r="C416" s="154" t="s">
+      <c r="C416" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="D416" s="154" t="s">
+      <c r="D416" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E416" s="27" t="s">
@@ -32757,9 +32757,9 @@
       <c r="Z416" s="121"/>
     </row>
     <row r="417" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B417" s="155"/>
-      <c r="C417" s="155"/>
-      <c r="D417" s="155"/>
+      <c r="B417" s="154"/>
+      <c r="C417" s="154"/>
+      <c r="D417" s="154"/>
       <c r="E417" s="6" t="s">
         <v>13</v>
       </c>
@@ -32800,9 +32800,9 @@
       <c r="Z417" s="121"/>
     </row>
     <row r="418" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B418" s="155"/>
-      <c r="C418" s="155"/>
-      <c r="D418" s="155"/>
+      <c r="B418" s="154"/>
+      <c r="C418" s="154"/>
+      <c r="D418" s="154"/>
       <c r="E418" s="6" t="s">
         <v>107</v>
       </c>
@@ -32843,9 +32843,9 @@
       <c r="Z418" s="121"/>
     </row>
     <row r="419" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="155"/>
-      <c r="C419" s="155"/>
-      <c r="D419" s="155"/>
+      <c r="B419" s="154"/>
+      <c r="C419" s="154"/>
+      <c r="D419" s="154"/>
       <c r="E419" s="6" t="s">
         <v>110</v>
       </c>
@@ -32886,9 +32886,9 @@
       <c r="Z419" s="121"/>
     </row>
     <row r="420" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B420" s="155"/>
-      <c r="C420" s="155"/>
-      <c r="D420" s="155"/>
+      <c r="B420" s="154"/>
+      <c r="C420" s="154"/>
+      <c r="D420" s="154"/>
       <c r="E420" s="6" t="s">
         <v>111</v>
       </c>
@@ -32929,9 +32929,9 @@
       <c r="Z420" s="121"/>
     </row>
     <row r="421" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B421" s="156"/>
-      <c r="C421" s="156"/>
-      <c r="D421" s="156"/>
+      <c r="B421" s="155"/>
+      <c r="C421" s="155"/>
+      <c r="D421" s="155"/>
       <c r="E421" s="7" t="s">
         <v>14</v>
       </c>
@@ -32975,13 +32975,13 @@
       <c r="A422" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B422" s="157">
+      <c r="B422" s="156">
         <v>67</v>
       </c>
-      <c r="C422" s="157" t="s">
+      <c r="C422" s="156" t="s">
         <v>96</v>
       </c>
-      <c r="D422" s="157" t="s">
+      <c r="D422" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E422" s="26" t="s">
@@ -33022,9 +33022,9 @@
       <c r="Z422" s="121"/>
     </row>
     <row r="423" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B423" s="158"/>
-      <c r="C423" s="158"/>
-      <c r="D423" s="158"/>
+      <c r="B423" s="157"/>
+      <c r="C423" s="157"/>
+      <c r="D423" s="157"/>
       <c r="E423" s="3" t="s">
         <v>13</v>
       </c>
@@ -33065,9 +33065,9 @@
       <c r="Z423" s="121"/>
     </row>
     <row r="424" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B424" s="158"/>
-      <c r="C424" s="158"/>
-      <c r="D424" s="158"/>
+      <c r="B424" s="157"/>
+      <c r="C424" s="157"/>
+      <c r="D424" s="157"/>
       <c r="E424" s="3" t="s">
         <v>110</v>
       </c>
@@ -33108,9 +33108,9 @@
       <c r="Z424" s="121"/>
     </row>
     <row r="425" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B425" s="158"/>
-      <c r="C425" s="158"/>
-      <c r="D425" s="158"/>
+      <c r="B425" s="157"/>
+      <c r="C425" s="157"/>
+      <c r="D425" s="157"/>
       <c r="E425" s="3" t="s">
         <v>107</v>
       </c>
@@ -33151,9 +33151,9 @@
       <c r="Z425" s="121"/>
     </row>
     <row r="426" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B426" s="158"/>
-      <c r="C426" s="158"/>
-      <c r="D426" s="158"/>
+      <c r="B426" s="157"/>
+      <c r="C426" s="157"/>
+      <c r="D426" s="157"/>
       <c r="E426" s="3" t="s">
         <v>111</v>
       </c>
@@ -33194,9 +33194,9 @@
       <c r="Z426" s="121"/>
     </row>
     <row r="427" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B427" s="159"/>
-      <c r="C427" s="159"/>
-      <c r="D427" s="159"/>
+      <c r="B427" s="158"/>
+      <c r="C427" s="158"/>
+      <c r="D427" s="158"/>
       <c r="E427" s="4" t="s">
         <v>14</v>
       </c>
@@ -33237,13 +33237,13 @@
       <c r="Z427" s="121"/>
     </row>
     <row r="428" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="154">
+      <c r="B428" s="153">
         <v>68</v>
       </c>
-      <c r="C428" s="154" t="s">
+      <c r="C428" s="153" t="s">
         <v>312</v>
       </c>
-      <c r="D428" s="154" t="s">
+      <c r="D428" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E428" s="27" t="s">
@@ -33284,9 +33284,9 @@
       <c r="Z428" s="138"/>
     </row>
     <row r="429" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B429" s="155"/>
-      <c r="C429" s="155"/>
-      <c r="D429" s="155"/>
+      <c r="B429" s="154"/>
+      <c r="C429" s="154"/>
+      <c r="D429" s="154"/>
       <c r="E429" s="6" t="s">
         <v>13</v>
       </c>
@@ -33325,9 +33325,9 @@
       <c r="Z429" s="138"/>
     </row>
     <row r="430" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B430" s="155"/>
-      <c r="C430" s="155"/>
-      <c r="D430" s="155"/>
+      <c r="B430" s="154"/>
+      <c r="C430" s="154"/>
+      <c r="D430" s="154"/>
       <c r="E430" s="6" t="s">
         <v>104</v>
       </c>
@@ -33357,9 +33357,9 @@
       <c r="Z430" s="138"/>
     </row>
     <row r="431" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="155"/>
-      <c r="C431" s="155"/>
-      <c r="D431" s="155"/>
+      <c r="B431" s="154"/>
+      <c r="C431" s="154"/>
+      <c r="D431" s="154"/>
       <c r="E431" s="6" t="s">
         <v>107</v>
       </c>
@@ -33398,9 +33398,9 @@
       <c r="Z431" s="138"/>
     </row>
     <row r="432" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B432" s="155"/>
-      <c r="C432" s="155"/>
-      <c r="D432" s="155"/>
+      <c r="B432" s="154"/>
+      <c r="C432" s="154"/>
+      <c r="D432" s="154"/>
       <c r="E432" s="6" t="s">
         <v>110</v>
       </c>
@@ -33439,9 +33439,9 @@
       <c r="Z432" s="138"/>
     </row>
     <row r="433" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B433" s="155"/>
-      <c r="C433" s="155"/>
-      <c r="D433" s="155"/>
+      <c r="B433" s="154"/>
+      <c r="C433" s="154"/>
+      <c r="D433" s="154"/>
       <c r="E433" s="6" t="s">
         <v>111</v>
       </c>
@@ -33480,9 +33480,9 @@
       <c r="Z433" s="138"/>
     </row>
     <row r="434" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B434" s="156"/>
-      <c r="C434" s="156"/>
-      <c r="D434" s="156"/>
+      <c r="B434" s="155"/>
+      <c r="C434" s="155"/>
+      <c r="D434" s="155"/>
       <c r="E434" s="7" t="s">
         <v>14</v>
       </c>
@@ -33523,13 +33523,13 @@
       <c r="Z434" s="138"/>
     </row>
     <row r="435" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B435" s="157">
+      <c r="B435" s="156">
         <v>69</v>
       </c>
-      <c r="C435" s="157" t="s">
+      <c r="C435" s="156" t="s">
         <v>311</v>
       </c>
-      <c r="D435" s="157" t="s">
+      <c r="D435" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E435" s="26" t="s">
@@ -33570,9 +33570,9 @@
       <c r="Z435" s="138"/>
     </row>
     <row r="436" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B436" s="158"/>
-      <c r="C436" s="158"/>
-      <c r="D436" s="158"/>
+      <c r="B436" s="157"/>
+      <c r="C436" s="157"/>
+      <c r="D436" s="157"/>
       <c r="E436" s="3" t="s">
         <v>13</v>
       </c>
@@ -33611,9 +33611,9 @@
       <c r="Z436" s="138"/>
     </row>
     <row r="437" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B437" s="158"/>
-      <c r="C437" s="158"/>
-      <c r="D437" s="158"/>
+      <c r="B437" s="157"/>
+      <c r="C437" s="157"/>
+      <c r="D437" s="157"/>
       <c r="E437" s="3" t="s">
         <v>110</v>
       </c>
@@ -33652,9 +33652,9 @@
       <c r="Z437" s="138"/>
     </row>
     <row r="438" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B438" s="158"/>
-      <c r="C438" s="158"/>
-      <c r="D438" s="158"/>
+      <c r="B438" s="157"/>
+      <c r="C438" s="157"/>
+      <c r="D438" s="157"/>
       <c r="E438" s="3" t="s">
         <v>107</v>
       </c>
@@ -33693,9 +33693,9 @@
       <c r="Z438" s="138"/>
     </row>
     <row r="439" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B439" s="158"/>
-      <c r="C439" s="158"/>
-      <c r="D439" s="158"/>
+      <c r="B439" s="157"/>
+      <c r="C439" s="157"/>
+      <c r="D439" s="157"/>
       <c r="E439" s="3" t="s">
         <v>111</v>
       </c>
@@ -33734,9 +33734,9 @@
       <c r="Z439" s="138"/>
     </row>
     <row r="440" spans="2:26" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B440" s="159"/>
-      <c r="C440" s="159"/>
-      <c r="D440" s="159"/>
+      <c r="B440" s="158"/>
+      <c r="C440" s="158"/>
+      <c r="D440" s="158"/>
       <c r="E440" s="4" t="s">
         <v>14</v>
       </c>
@@ -33762,28 +33762,28 @@
         <f t="array" ref="U440">IF(C440="",INDEX(C434:C440,MATCH(TRUE,INDEX((C434:C440&lt;&gt;""),0),0)),C440)</f>
         <v>Britoil Dignity</v>
       </c>
-      <c r="V440" s="210">
+      <c r="V440" s="120">
         <f t="shared" si="100"/>
         <v>1</v>
       </c>
-      <c r="W440" s="211">
+      <c r="W440" s="122">
         <v>20000</v>
       </c>
-      <c r="X440" s="210"/>
-      <c r="Y440" s="210">
+      <c r="X440" s="120"/>
+      <c r="Y440" s="120">
         <f t="shared" si="99"/>
         <v>21388</v>
       </c>
       <c r="Z440" s="138"/>
     </row>
     <row r="441" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B441" s="154">
+      <c r="B441" s="153">
         <v>70</v>
       </c>
-      <c r="C441" s="154" t="s">
+      <c r="C441" s="153" t="s">
         <v>305</v>
       </c>
-      <c r="D441" s="154" t="s">
+      <c r="D441" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E441" s="27" t="s">
@@ -33792,15 +33792,15 @@
       <c r="F441" s="32"/>
       <c r="G441" s="37"/>
       <c r="H441" s="61" t="str">
-        <f t="shared" ref="H441:H453" si="103">IF(F441="Done", V441*VLOOKUP(E441, $AB$3:$AC$16, 2, FALSE), "")</f>
+        <f t="shared" ref="H441:H442" si="103">IF(F441="Done", V441*VLOOKUP(E441, $AB$3:$AC$16, 2, FALSE), "")</f>
         <v/>
       </c>
       <c r="I441" s="61" t="str">
-        <f t="shared" ref="I441:I453" si="104">IF(F441="Done", V441*VLOOKUP(E441, $AB$3:$AD$16, 3, FALSE), "")</f>
+        <f t="shared" ref="I441:I442" si="104">IF(F441="Done", V441*VLOOKUP(E441, $AB$3:$AD$16, 3, FALSE), "")</f>
         <v/>
       </c>
       <c r="J441" s="62" t="str">
-        <f t="shared" ref="J441:J453" si="105">IF(F441="Done", V441*VLOOKUP(E441, $AB$3:$AE$16, 4, FALSE), "")</f>
+        <f t="shared" ref="J441:J442" si="105">IF(F441="Done", V441*VLOOKUP(E441, $AB$3:$AE$16, 4, FALSE), "")</f>
         <v/>
       </c>
       <c r="K441" s="6"/>
@@ -33809,24 +33809,24 @@
         <f t="array" ref="U441">IF(C441="",INDEX(C435:C441,MATCH(TRUE,INDEX((C435:C441&lt;&gt;""),0),0)),C441)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V441" s="210">
+      <c r="V441" s="120">
         <f t="shared" ref="V441:V453" si="106">MIN(Y441/21388,1.3)</f>
         <v>1</v>
       </c>
-      <c r="W441" s="211">
+      <c r="W441" s="122">
         <v>20000</v>
       </c>
-      <c r="X441" s="210"/>
-      <c r="Y441" s="210">
+      <c r="X441" s="120"/>
+      <c r="Y441" s="120">
         <f t="shared" ref="Y441:Y453" si="107">INT(VLOOKUP(U441, $AB$30:$AH$101, 7, FALSE))</f>
         <v>21388</v>
       </c>
       <c r="Z441" s="138"/>
     </row>
     <row r="442" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B442" s="155"/>
-      <c r="C442" s="155"/>
-      <c r="D442" s="155"/>
+      <c r="B442" s="154"/>
+      <c r="C442" s="154"/>
+      <c r="D442" s="154"/>
       <c r="E442" s="6" t="s">
         <v>13</v>
       </c>
@@ -33850,24 +33850,24 @@
         <f t="array" ref="U442">IF(C442="",INDEX(C436:C442,MATCH(TRUE,INDEX((C436:C442&lt;&gt;""),0),0)),C442)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V442" s="210">
+      <c r="V442" s="120">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="W442" s="211">
+      <c r="W442" s="122">
         <v>20000</v>
       </c>
-      <c r="X442" s="210"/>
-      <c r="Y442" s="210">
+      <c r="X442" s="120"/>
+      <c r="Y442" s="120">
         <f t="shared" si="107"/>
         <v>21388</v>
       </c>
       <c r="Z442" s="138"/>
     </row>
     <row r="443" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B443" s="155"/>
-      <c r="C443" s="155"/>
-      <c r="D443" s="155"/>
+      <c r="B443" s="154"/>
+      <c r="C443" s="154"/>
+      <c r="D443" s="154"/>
       <c r="E443" s="6" t="s">
         <v>104</v>
       </c>
@@ -33882,24 +33882,24 @@
         <f t="array" ref="U443">IF(C443="",INDEX(C437:C443,MATCH(TRUE,INDEX((C437:C443&lt;&gt;""),0),0)),C443)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V443" s="210">
+      <c r="V443" s="120">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="W443" s="211">
+      <c r="W443" s="122">
         <v>20001</v>
       </c>
-      <c r="X443" s="210"/>
-      <c r="Y443" s="210">
+      <c r="X443" s="120"/>
+      <c r="Y443" s="120">
         <f t="shared" si="107"/>
         <v>21388</v>
       </c>
       <c r="Z443" s="138"/>
     </row>
     <row r="444" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B444" s="155"/>
-      <c r="C444" s="155"/>
-      <c r="D444" s="155"/>
+      <c r="B444" s="154"/>
+      <c r="C444" s="154"/>
+      <c r="D444" s="154"/>
       <c r="E444" s="6" t="s">
         <v>107</v>
       </c>
@@ -33923,24 +33923,24 @@
         <f t="array" ref="U444">IF(C444="",INDEX(C437:C444,MATCH(TRUE,INDEX((C437:C444&lt;&gt;""),0),0)),C444)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V444" s="210">
+      <c r="V444" s="120">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="W444" s="211">
+      <c r="W444" s="122">
         <v>20000</v>
       </c>
-      <c r="X444" s="210"/>
-      <c r="Y444" s="210">
+      <c r="X444" s="120"/>
+      <c r="Y444" s="120">
         <f t="shared" si="107"/>
         <v>21388</v>
       </c>
       <c r="Z444" s="138"/>
     </row>
     <row r="445" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B445" s="155"/>
-      <c r="C445" s="155"/>
-      <c r="D445" s="155"/>
+      <c r="B445" s="154"/>
+      <c r="C445" s="154"/>
+      <c r="D445" s="154"/>
       <c r="E445" s="6" t="s">
         <v>110</v>
       </c>
@@ -33964,24 +33964,24 @@
         <f t="array" ref="U445">IF(C445="",INDEX(C438:C445,MATCH(TRUE,INDEX((C438:C445&lt;&gt;""),0),0)),C445)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V445" s="210">
+      <c r="V445" s="120">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="W445" s="211">
+      <c r="W445" s="122">
         <v>20000</v>
       </c>
-      <c r="X445" s="210"/>
-      <c r="Y445" s="210">
+      <c r="X445" s="120"/>
+      <c r="Y445" s="120">
         <f t="shared" si="107"/>
         <v>21388</v>
       </c>
       <c r="Z445" s="138"/>
     </row>
     <row r="446" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B446" s="155"/>
-      <c r="C446" s="155"/>
-      <c r="D446" s="155"/>
+      <c r="B446" s="154"/>
+      <c r="C446" s="154"/>
+      <c r="D446" s="154"/>
       <c r="E446" s="6" t="s">
         <v>111</v>
       </c>
@@ -34005,24 +34005,24 @@
         <f t="array" ref="U446">IF(C446="",INDEX(C439:C446,MATCH(TRUE,INDEX((C439:C446&lt;&gt;""),0),0)),C446)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V446" s="210">
+      <c r="V446" s="120">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="W446" s="211">
+      <c r="W446" s="122">
         <v>20000</v>
       </c>
-      <c r="X446" s="210"/>
-      <c r="Y446" s="210">
+      <c r="X446" s="120"/>
+      <c r="Y446" s="120">
         <f t="shared" si="107"/>
         <v>21388</v>
       </c>
       <c r="Z446" s="138"/>
     </row>
     <row r="447" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B447" s="156"/>
-      <c r="C447" s="156"/>
-      <c r="D447" s="156"/>
+      <c r="B447" s="155"/>
+      <c r="C447" s="155"/>
+      <c r="D447" s="155"/>
       <c r="E447" s="7" t="s">
         <v>14</v>
       </c>
@@ -34048,28 +34048,28 @@
         <f t="array" ref="U447">IF(C447="",INDEX(C440:C447,MATCH(TRUE,INDEX((C440:C447&lt;&gt;""),0),0)),C447)</f>
         <v>Britoil Dynamic</v>
       </c>
-      <c r="V447" s="210">
+      <c r="V447" s="120">
         <f t="shared" si="106"/>
         <v>1</v>
       </c>
-      <c r="W447" s="211">
+      <c r="W447" s="122">
         <v>20000</v>
       </c>
-      <c r="X447" s="210"/>
-      <c r="Y447" s="210">
+      <c r="X447" s="120"/>
+      <c r="Y447" s="120">
         <f t="shared" si="107"/>
         <v>21388</v>
       </c>
       <c r="Z447" s="138"/>
     </row>
     <row r="448" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B448" s="157">
+      <c r="B448" s="156">
         <v>71</v>
       </c>
-      <c r="C448" s="157" t="s">
+      <c r="C448" s="156" t="s">
         <v>306</v>
       </c>
-      <c r="D448" s="157" t="s">
+      <c r="D448" s="156" t="s">
         <v>12</v>
       </c>
       <c r="E448" s="26" t="s">
@@ -34095,24 +34095,24 @@
         <f t="array" ref="U448">IF(C448="",INDEX(C441:C448,MATCH(TRUE,INDEX((C441:C448&lt;&gt;""),0),0)),C448)</f>
         <v>Brine Eagle</v>
       </c>
-      <c r="V448" s="210">
+      <c r="V448" s="120">
         <f t="shared" si="106"/>
         <v>1.0308584252852067</v>
       </c>
-      <c r="W448" s="211">
+      <c r="W448" s="122">
         <v>20000</v>
       </c>
-      <c r="X448" s="210"/>
-      <c r="Y448" s="210">
+      <c r="X448" s="120"/>
+      <c r="Y448" s="120">
         <f t="shared" si="107"/>
         <v>22048</v>
       </c>
       <c r="Z448" s="138"/>
     </row>
     <row r="449" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B449" s="158"/>
-      <c r="C449" s="158"/>
-      <c r="D449" s="158"/>
+      <c r="B449" s="157"/>
+      <c r="C449" s="157"/>
+      <c r="D449" s="157"/>
       <c r="E449" s="3" t="s">
         <v>13</v>
       </c>
@@ -34136,24 +34136,24 @@
         <f t="array" ref="U449">IF(C449="",INDEX(C442:C449,MATCH(TRUE,INDEX((C442:C449&lt;&gt;""),0),0)),C449)</f>
         <v>Brine Eagle</v>
       </c>
-      <c r="V449" s="210">
+      <c r="V449" s="120">
         <f t="shared" si="106"/>
         <v>1.0308584252852067</v>
       </c>
-      <c r="W449" s="211">
+      <c r="W449" s="122">
         <v>20000</v>
       </c>
-      <c r="X449" s="210"/>
-      <c r="Y449" s="210">
+      <c r="X449" s="120"/>
+      <c r="Y449" s="120">
         <f t="shared" si="107"/>
         <v>22048</v>
       </c>
       <c r="Z449" s="138"/>
     </row>
     <row r="450" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B450" s="158"/>
-      <c r="C450" s="158"/>
-      <c r="D450" s="158"/>
+      <c r="B450" s="157"/>
+      <c r="C450" s="157"/>
+      <c r="D450" s="157"/>
       <c r="E450" s="3" t="s">
         <v>110</v>
       </c>
@@ -34177,24 +34177,24 @@
         <f t="array" ref="U450">IF(C450="",INDEX(C444:C450,MATCH(TRUE,INDEX((C444:C450&lt;&gt;""),0),0)),C450)</f>
         <v>Brine Eagle</v>
       </c>
-      <c r="V450" s="210">
+      <c r="V450" s="120">
         <f t="shared" si="106"/>
         <v>1.0308584252852067</v>
       </c>
-      <c r="W450" s="211">
+      <c r="W450" s="122">
         <v>20000</v>
       </c>
-      <c r="X450" s="210"/>
-      <c r="Y450" s="210">
+      <c r="X450" s="120"/>
+      <c r="Y450" s="120">
         <f t="shared" si="107"/>
         <v>22048</v>
       </c>
       <c r="Z450" s="138"/>
     </row>
     <row r="451" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B451" s="158"/>
-      <c r="C451" s="158"/>
-      <c r="D451" s="158"/>
+      <c r="B451" s="157"/>
+      <c r="C451" s="157"/>
+      <c r="D451" s="157"/>
       <c r="E451" s="3" t="s">
         <v>107</v>
       </c>
@@ -34218,24 +34218,24 @@
         <f t="array" ref="U451">IF(C451="",INDEX(C445:C451,MATCH(TRUE,INDEX((C445:C451&lt;&gt;""),0),0)),C451)</f>
         <v>Brine Eagle</v>
       </c>
-      <c r="V451" s="210">
+      <c r="V451" s="120">
         <f t="shared" si="106"/>
         <v>1.0308584252852067</v>
       </c>
-      <c r="W451" s="211">
+      <c r="W451" s="122">
         <v>20000</v>
       </c>
-      <c r="X451" s="210"/>
-      <c r="Y451" s="210">
+      <c r="X451" s="120"/>
+      <c r="Y451" s="120">
         <f t="shared" si="107"/>
         <v>22048</v>
       </c>
       <c r="Z451" s="138"/>
     </row>
     <row r="452" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B452" s="158"/>
-      <c r="C452" s="158"/>
-      <c r="D452" s="158"/>
+      <c r="B452" s="157"/>
+      <c r="C452" s="157"/>
+      <c r="D452" s="157"/>
       <c r="E452" s="3" t="s">
         <v>111</v>
       </c>
@@ -34259,24 +34259,24 @@
         <f t="array" ref="U452">IF(C452="",INDEX(C446:C452,MATCH(TRUE,INDEX((C446:C452&lt;&gt;""),0),0)),C452)</f>
         <v>Brine Eagle</v>
       </c>
-      <c r="V452" s="210">
+      <c r="V452" s="120">
         <f t="shared" si="106"/>
         <v>1.0308584252852067</v>
       </c>
-      <c r="W452" s="211">
+      <c r="W452" s="122">
         <v>20000</v>
       </c>
-      <c r="X452" s="210"/>
-      <c r="Y452" s="210">
+      <c r="X452" s="120"/>
+      <c r="Y452" s="120">
         <f t="shared" si="107"/>
         <v>22048</v>
       </c>
       <c r="Z452" s="138"/>
     </row>
     <row r="453" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B453" s="159"/>
-      <c r="C453" s="159"/>
-      <c r="D453" s="159"/>
+      <c r="B453" s="158"/>
+      <c r="C453" s="158"/>
+      <c r="D453" s="158"/>
       <c r="E453" s="4" t="s">
         <v>14</v>
       </c>
@@ -34302,28 +34302,28 @@
         <f t="array" ref="U453">IF(C453="",INDEX(C447:C453,MATCH(TRUE,INDEX((C447:C453&lt;&gt;""),0),0)),C453)</f>
         <v>Brine Eagle</v>
       </c>
-      <c r="V453" s="210">
+      <c r="V453" s="120">
         <f t="shared" si="106"/>
         <v>1.0308584252852067</v>
       </c>
-      <c r="W453" s="211">
+      <c r="W453" s="122">
         <v>20000</v>
       </c>
-      <c r="X453" s="210"/>
-      <c r="Y453" s="210">
+      <c r="X453" s="120"/>
+      <c r="Y453" s="120">
         <f t="shared" si="107"/>
         <v>22048</v>
       </c>
       <c r="Z453" s="138"/>
     </row>
     <row r="454" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B454" s="154">
+      <c r="B454" s="153">
         <v>72</v>
       </c>
-      <c r="C454" s="154" t="s">
+      <c r="C454" s="153" t="s">
         <v>307</v>
       </c>
-      <c r="D454" s="154" t="s">
+      <c r="D454" s="153" t="s">
         <v>12</v>
       </c>
       <c r="E454" s="27" t="s">
@@ -34349,24 +34349,24 @@
         <f t="array" ref="U454">IF(C454="",INDEX(C448:C454,MATCH(TRUE,INDEX((C448:C454&lt;&gt;""),0),0)),C454)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V454" s="210">
+      <c r="V454" s="120">
         <f t="shared" ref="V454:V460" si="111">MIN(Y454/21388,1.3)</f>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W454" s="211">
+      <c r="W454" s="122">
         <v>20000</v>
       </c>
-      <c r="X454" s="210"/>
-      <c r="Y454" s="210">
+      <c r="X454" s="120"/>
+      <c r="Y454" s="120">
         <f t="shared" ref="Y454:Y460" si="112">INT(VLOOKUP(U454, $AB$30:$AH$101, 7, FALSE))</f>
         <v>15736</v>
       </c>
       <c r="Z454" s="138"/>
     </row>
     <row r="455" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B455" s="155"/>
-      <c r="C455" s="155"/>
-      <c r="D455" s="155"/>
+      <c r="B455" s="154"/>
+      <c r="C455" s="154"/>
+      <c r="D455" s="154"/>
       <c r="E455" s="6" t="s">
         <v>13</v>
       </c>
@@ -34390,24 +34390,24 @@
         <f t="array" ref="U455">IF(C455="",INDEX(C449:C455,MATCH(TRUE,INDEX((C449:C455&lt;&gt;""),0),0)),C455)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V455" s="210">
+      <c r="V455" s="120">
         <f t="shared" si="111"/>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W455" s="211">
+      <c r="W455" s="122">
         <v>20000</v>
       </c>
-      <c r="X455" s="210"/>
-      <c r="Y455" s="210">
+      <c r="X455" s="120"/>
+      <c r="Y455" s="120">
         <f t="shared" si="112"/>
         <v>15736</v>
       </c>
       <c r="Z455" s="138"/>
     </row>
     <row r="456" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B456" s="155"/>
-      <c r="C456" s="155"/>
-      <c r="D456" s="155"/>
+      <c r="B456" s="154"/>
+      <c r="C456" s="154"/>
+      <c r="D456" s="154"/>
       <c r="E456" s="6" t="s">
         <v>104</v>
       </c>
@@ -34422,24 +34422,24 @@
         <f t="array" ref="U456">IF(C456="",INDEX(C450:C456,MATCH(TRUE,INDEX((C450:C456&lt;&gt;""),0),0)),C456)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V456" s="210">
+      <c r="V456" s="120">
         <f t="shared" si="111"/>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W456" s="211">
+      <c r="W456" s="122">
         <v>20001</v>
       </c>
-      <c r="X456" s="210"/>
-      <c r="Y456" s="210">
+      <c r="X456" s="120"/>
+      <c r="Y456" s="120">
         <f t="shared" si="112"/>
         <v>15736</v>
       </c>
       <c r="Z456" s="138"/>
     </row>
     <row r="457" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B457" s="155"/>
-      <c r="C457" s="155"/>
-      <c r="D457" s="155"/>
+      <c r="B457" s="154"/>
+      <c r="C457" s="154"/>
+      <c r="D457" s="154"/>
       <c r="E457" s="6" t="s">
         <v>107</v>
       </c>
@@ -34463,24 +34463,24 @@
         <f t="array" ref="U457">IF(C457="",INDEX(C450:C457,MATCH(TRUE,INDEX((C450:C457&lt;&gt;""),0),0)),C457)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V457" s="210">
+      <c r="V457" s="120">
         <f t="shared" si="111"/>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W457" s="211">
+      <c r="W457" s="122">
         <v>20000</v>
       </c>
-      <c r="X457" s="210"/>
-      <c r="Y457" s="210">
+      <c r="X457" s="120"/>
+      <c r="Y457" s="120">
         <f t="shared" si="112"/>
         <v>15736</v>
       </c>
       <c r="Z457" s="138"/>
     </row>
     <row r="458" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B458" s="155"/>
-      <c r="C458" s="155"/>
-      <c r="D458" s="155"/>
+      <c r="B458" s="154"/>
+      <c r="C458" s="154"/>
+      <c r="D458" s="154"/>
       <c r="E458" s="6" t="s">
         <v>110</v>
       </c>
@@ -34504,24 +34504,24 @@
         <f t="array" ref="U458">IF(C458="",INDEX(C451:C458,MATCH(TRUE,INDEX((C451:C458&lt;&gt;""),0),0)),C458)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V458" s="210">
+      <c r="V458" s="120">
         <f t="shared" si="111"/>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W458" s="211">
+      <c r="W458" s="122">
         <v>20000</v>
       </c>
-      <c r="X458" s="210"/>
-      <c r="Y458" s="210">
+      <c r="X458" s="120"/>
+      <c r="Y458" s="120">
         <f t="shared" si="112"/>
         <v>15736</v>
       </c>
       <c r="Z458" s="138"/>
     </row>
     <row r="459" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B459" s="155"/>
-      <c r="C459" s="155"/>
-      <c r="D459" s="155"/>
+      <c r="B459" s="154"/>
+      <c r="C459" s="154"/>
+      <c r="D459" s="154"/>
       <c r="E459" s="6" t="s">
         <v>111</v>
       </c>
@@ -34545,24 +34545,24 @@
         <f t="array" ref="U459">IF(C459="",INDEX(C452:C459,MATCH(TRUE,INDEX((C452:C459&lt;&gt;""),0),0)),C459)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V459" s="210">
+      <c r="V459" s="120">
         <f t="shared" si="111"/>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W459" s="211">
+      <c r="W459" s="122">
         <v>20000</v>
       </c>
-      <c r="X459" s="210"/>
-      <c r="Y459" s="210">
+      <c r="X459" s="120"/>
+      <c r="Y459" s="120">
         <f t="shared" si="112"/>
         <v>15736</v>
       </c>
       <c r="Z459" s="138"/>
     </row>
     <row r="460" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B460" s="156"/>
-      <c r="C460" s="156"/>
-      <c r="D460" s="156"/>
+      <c r="B460" s="155"/>
+      <c r="C460" s="155"/>
+      <c r="D460" s="155"/>
       <c r="E460" s="7" t="s">
         <v>14</v>
       </c>
@@ -34588,15 +34588,15 @@
         <f t="array" ref="U460">IF(C460="",INDEX(C453:C460,MATCH(TRUE,INDEX((C453:C460&lt;&gt;""),0),0)),C460)</f>
         <v>MWV Falgout</v>
       </c>
-      <c r="V460" s="210">
+      <c r="V460" s="120">
         <f t="shared" si="111"/>
         <v>0.73573966710304839</v>
       </c>
-      <c r="W460" s="211">
+      <c r="W460" s="122">
         <v>20000</v>
       </c>
-      <c r="X460" s="210"/>
-      <c r="Y460" s="210">
+      <c r="X460" s="120"/>
+      <c r="Y460" s="120">
         <f t="shared" si="112"/>
         <v>15736</v>
       </c>
@@ -37928,30 +37928,201 @@
   </sheetData>
   <autoFilter ref="B8:K440" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="243">
-    <mergeCell ref="B441:B447"/>
-    <mergeCell ref="C441:C447"/>
-    <mergeCell ref="D441:D447"/>
-    <mergeCell ref="B448:B453"/>
-    <mergeCell ref="C448:C453"/>
-    <mergeCell ref="D448:D453"/>
-    <mergeCell ref="B454:B460"/>
-    <mergeCell ref="C454:C460"/>
-    <mergeCell ref="D454:D460"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="K182:K187"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K326:K332"/>
-    <mergeCell ref="K110:K116"/>
-    <mergeCell ref="K117:K122"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="T2:T6"/>
-    <mergeCell ref="U2:W6"/>
-    <mergeCell ref="K194:K199"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="K104:K109"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AJ25:AK25"/>
+    <mergeCell ref="B428:B434"/>
+    <mergeCell ref="C428:C434"/>
+    <mergeCell ref="D428:D434"/>
+    <mergeCell ref="B435:B440"/>
+    <mergeCell ref="C435:C440"/>
+    <mergeCell ref="D435:D440"/>
+    <mergeCell ref="K333:K340"/>
+    <mergeCell ref="D311:D317"/>
+    <mergeCell ref="B318:B325"/>
+    <mergeCell ref="B326:B332"/>
+    <mergeCell ref="C356:C361"/>
+    <mergeCell ref="B347:B355"/>
+    <mergeCell ref="B381:B386"/>
+    <mergeCell ref="B369:B374"/>
+    <mergeCell ref="C369:C374"/>
+    <mergeCell ref="D341:D346"/>
+    <mergeCell ref="D347:D355"/>
+    <mergeCell ref="D356:D361"/>
+    <mergeCell ref="B375:B380"/>
+    <mergeCell ref="C375:C380"/>
+    <mergeCell ref="D375:D380"/>
+    <mergeCell ref="B333:B340"/>
+    <mergeCell ref="C341:C346"/>
+    <mergeCell ref="C347:C355"/>
+    <mergeCell ref="B387:B392"/>
+    <mergeCell ref="C387:C392"/>
+    <mergeCell ref="D387:D392"/>
+    <mergeCell ref="C381:C386"/>
+    <mergeCell ref="D381:D386"/>
+    <mergeCell ref="B341:B346"/>
+    <mergeCell ref="D362:D368"/>
+    <mergeCell ref="B356:B361"/>
+    <mergeCell ref="B362:B368"/>
+    <mergeCell ref="C362:C368"/>
+    <mergeCell ref="D369:D374"/>
+    <mergeCell ref="C333:C340"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="B224:B229"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="B236:B241"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="B248:B254"/>
+    <mergeCell ref="B290:B296"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="C236:C241"/>
+    <mergeCell ref="C242:C247"/>
+    <mergeCell ref="C248:C254"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C182:C187"/>
+    <mergeCell ref="C188:C193"/>
+    <mergeCell ref="C194:C199"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="B297:B303"/>
+    <mergeCell ref="C146:C151"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="D333:D340"/>
+    <mergeCell ref="B255:B261"/>
+    <mergeCell ref="B262:B270"/>
+    <mergeCell ref="B422:B427"/>
+    <mergeCell ref="C422:C427"/>
+    <mergeCell ref="D422:D427"/>
+    <mergeCell ref="B393:B398"/>
+    <mergeCell ref="C393:C398"/>
+    <mergeCell ref="D393:D398"/>
+    <mergeCell ref="C399:C407"/>
+    <mergeCell ref="D399:D407"/>
+    <mergeCell ref="B408:B415"/>
+    <mergeCell ref="C408:C415"/>
+    <mergeCell ref="D408:D415"/>
+    <mergeCell ref="B399:B407"/>
+    <mergeCell ref="B416:B421"/>
+    <mergeCell ref="C416:C421"/>
+    <mergeCell ref="D416:D421"/>
+    <mergeCell ref="B284:B289"/>
+    <mergeCell ref="C290:C296"/>
+    <mergeCell ref="B271:B277"/>
+    <mergeCell ref="B278:B283"/>
+    <mergeCell ref="B304:B310"/>
+    <mergeCell ref="B311:B317"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B218:B223"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="B206:B211"/>
+    <mergeCell ref="B212:B217"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="B136:B145"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="C170:C175"/>
+    <mergeCell ref="C176:C181"/>
+    <mergeCell ref="C136:C145"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D109"/>
+    <mergeCell ref="D110:D116"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="C297:C303"/>
+    <mergeCell ref="C311:C317"/>
+    <mergeCell ref="C318:C325"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K91:K96"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="C304:C310"/>
+    <mergeCell ref="C218:C223"/>
+    <mergeCell ref="C224:C229"/>
+    <mergeCell ref="C255:C261"/>
+    <mergeCell ref="C262:C270"/>
+    <mergeCell ref="C271:C277"/>
+    <mergeCell ref="C278:C283"/>
+    <mergeCell ref="C284:C289"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="D218:D223"/>
+    <mergeCell ref="D224:D229"/>
+    <mergeCell ref="D230:D235"/>
+    <mergeCell ref="D236:D241"/>
+    <mergeCell ref="D242:D247"/>
+    <mergeCell ref="D248:D254"/>
+    <mergeCell ref="D255:D261"/>
+    <mergeCell ref="D262:D270"/>
+    <mergeCell ref="D271:D277"/>
+    <mergeCell ref="C206:C211"/>
+    <mergeCell ref="C212:C217"/>
     <mergeCell ref="C326:C332"/>
     <mergeCell ref="D326:D332"/>
     <mergeCell ref="D117:D122"/>
@@ -37976,201 +38147,30 @@
     <mergeCell ref="D212:D217"/>
     <mergeCell ref="D318:D325"/>
     <mergeCell ref="D278:D283"/>
-    <mergeCell ref="C271:C277"/>
-    <mergeCell ref="C278:C283"/>
-    <mergeCell ref="C284:C289"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="D218:D223"/>
-    <mergeCell ref="D224:D229"/>
-    <mergeCell ref="D230:D235"/>
-    <mergeCell ref="D236:D241"/>
-    <mergeCell ref="D242:D247"/>
-    <mergeCell ref="D248:D254"/>
-    <mergeCell ref="D255:D261"/>
-    <mergeCell ref="D262:D270"/>
-    <mergeCell ref="D271:D277"/>
-    <mergeCell ref="C206:C211"/>
-    <mergeCell ref="C212:C217"/>
-    <mergeCell ref="C297:C303"/>
-    <mergeCell ref="C311:C317"/>
-    <mergeCell ref="C318:C325"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K91:K96"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="C304:C310"/>
-    <mergeCell ref="C218:C223"/>
-    <mergeCell ref="C224:C229"/>
-    <mergeCell ref="C255:C261"/>
-    <mergeCell ref="C262:C270"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C164:C169"/>
-    <mergeCell ref="C170:C175"/>
-    <mergeCell ref="C176:C181"/>
-    <mergeCell ref="C136:C145"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="D110:D116"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B218:B223"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B206:B211"/>
-    <mergeCell ref="B212:B217"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="B136:B145"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D333:D340"/>
-    <mergeCell ref="B255:B261"/>
-    <mergeCell ref="B262:B270"/>
-    <mergeCell ref="B422:B427"/>
-    <mergeCell ref="C422:C427"/>
-    <mergeCell ref="D422:D427"/>
-    <mergeCell ref="B393:B398"/>
-    <mergeCell ref="C393:C398"/>
-    <mergeCell ref="D393:D398"/>
-    <mergeCell ref="C399:C407"/>
-    <mergeCell ref="D399:D407"/>
-    <mergeCell ref="B408:B415"/>
-    <mergeCell ref="C408:C415"/>
-    <mergeCell ref="D408:D415"/>
-    <mergeCell ref="B399:B407"/>
-    <mergeCell ref="B416:B421"/>
-    <mergeCell ref="C416:C421"/>
-    <mergeCell ref="D416:D421"/>
-    <mergeCell ref="B284:B289"/>
-    <mergeCell ref="C290:C296"/>
-    <mergeCell ref="B271:B277"/>
-    <mergeCell ref="B278:B283"/>
-    <mergeCell ref="B304:B310"/>
-    <mergeCell ref="B311:B317"/>
-    <mergeCell ref="C333:C340"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="B224:B229"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="B236:B241"/>
-    <mergeCell ref="B242:B247"/>
-    <mergeCell ref="B248:B254"/>
-    <mergeCell ref="B290:B296"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="C236:C241"/>
-    <mergeCell ref="C242:C247"/>
-    <mergeCell ref="C248:C254"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C182:C187"/>
-    <mergeCell ref="C188:C193"/>
-    <mergeCell ref="C194:C199"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="B297:B303"/>
-    <mergeCell ref="C146:C151"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="C341:C346"/>
-    <mergeCell ref="C347:C355"/>
-    <mergeCell ref="B387:B392"/>
-    <mergeCell ref="C387:C392"/>
-    <mergeCell ref="D387:D392"/>
-    <mergeCell ref="C381:C386"/>
-    <mergeCell ref="D381:D386"/>
-    <mergeCell ref="B341:B346"/>
-    <mergeCell ref="D362:D368"/>
-    <mergeCell ref="B356:B361"/>
-    <mergeCell ref="B362:B368"/>
-    <mergeCell ref="C362:C368"/>
-    <mergeCell ref="D369:D374"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AJ25:AK25"/>
-    <mergeCell ref="B428:B434"/>
-    <mergeCell ref="C428:C434"/>
-    <mergeCell ref="D428:D434"/>
-    <mergeCell ref="B435:B440"/>
-    <mergeCell ref="C435:C440"/>
-    <mergeCell ref="D435:D440"/>
-    <mergeCell ref="K333:K340"/>
-    <mergeCell ref="D311:D317"/>
-    <mergeCell ref="B318:B325"/>
-    <mergeCell ref="B326:B332"/>
-    <mergeCell ref="C356:C361"/>
-    <mergeCell ref="B347:B355"/>
-    <mergeCell ref="B381:B386"/>
-    <mergeCell ref="B369:B374"/>
-    <mergeCell ref="C369:C374"/>
-    <mergeCell ref="D341:D346"/>
-    <mergeCell ref="D347:D355"/>
-    <mergeCell ref="D356:D361"/>
-    <mergeCell ref="B375:B380"/>
-    <mergeCell ref="C375:C380"/>
-    <mergeCell ref="D375:D380"/>
-    <mergeCell ref="B333:B340"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="K182:K187"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K326:K332"/>
+    <mergeCell ref="K110:K116"/>
+    <mergeCell ref="K117:K122"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="T2:T6"/>
+    <mergeCell ref="U2:W6"/>
+    <mergeCell ref="K194:K199"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="K104:K109"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="B441:B447"/>
+    <mergeCell ref="C441:C447"/>
+    <mergeCell ref="D441:D447"/>
+    <mergeCell ref="B448:B453"/>
+    <mergeCell ref="C448:C453"/>
+    <mergeCell ref="D448:D453"/>
+    <mergeCell ref="B454:B460"/>
+    <mergeCell ref="C454:C460"/>
+    <mergeCell ref="D454:D460"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F7:F1048576">
@@ -38209,7 +38209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
@@ -38318,7 +38318,7 @@
       </c>
       <c r="J3" s="116">
         <f>R18</f>
-        <v>0.57555176528794361</v>
+        <v>0.57683217501905748</v>
       </c>
       <c r="K3" s="128">
         <v>0.8</v>
@@ -38345,7 +38345,7 @@
       </c>
       <c r="T3" s="8">
         <f>SUM(C3:C17)</f>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="U3" s="8">
         <f>SUM(D3:D17)</f>
@@ -38353,7 +38353,7 @@
       </c>
       <c r="V3" s="8">
         <f>W4-T3-U3</f>
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="W3" s="8">
         <v>0</v>
@@ -38459,7 +38459,7 @@
       </c>
       <c r="J5" s="117">
         <f>1-(Tracker!AE115-C21)/(Tracker!AE115)</f>
-        <v>8.2731586507712618E-2</v>
+        <v>8.3294205381294839E-2</v>
       </c>
       <c r="K5" s="128">
         <v>0.2</v>
@@ -38583,7 +38583,7 @@
       </c>
       <c r="C8" s="22">
         <f>COUNTIFS(Tracker!E:E,A8,Tracker!F:F,"Done")</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="22">
         <f>COUNTIFS(Tracker!E:E,A8,Tracker!F:F,"In Process")</f>
@@ -38595,18 +38595,18 @@
       </c>
       <c r="F8" s="25">
         <f t="shared" si="1"/>
-        <v>0.38028169014084506</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="G8" s="28" t="b">
         <v>1</v>
       </c>
       <c r="N8" s="108">
         <f>C8*(Tracker!AC7+Tracker!AD7)</f>
-        <v>117500</v>
+        <v>122200</v>
       </c>
       <c r="O8" s="113">
         <f>C8*(Tracker!AE7)</f>
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="108" t="str">
         <f t="shared" si="2"/>
@@ -38614,7 +38614,7 @@
       </c>
       <c r="R8" s="114">
         <f t="shared" si="0"/>
-        <v>0.38028169014084506</v>
+        <v>0.39436619718309857</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -38983,19 +38983,19 @@
       </c>
       <c r="R18" s="115">
         <f>AVERAGE(R3:R17)</f>
-        <v>0.57555176528794361</v>
+        <v>0.57683217501905748</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="20" spans="1:19" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="202" t="e" vm="1">
+      <c r="B20" s="206" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204" t="s">
+      <c r="C20" s="207"/>
+      <c r="D20" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="207" t="str">
+      <c r="E20" s="211" t="str">
         <f>INDEX(A26:A94, MATCH(G21, B26:B94, 0))</f>
         <v>Britoil Defiance</v>
       </c>
@@ -39006,10 +39006,10 @@
       </c>
       <c r="C21" s="95">
         <f>SUM(Tracker!H9:H480)+SUM(Tracker!I9:I480)+C13*Tracker!AD12</f>
-        <v>1406452.9764353842</v>
-      </c>
-      <c r="D21" s="205"/>
-      <c r="E21" s="208"/>
+        <v>1416017.6061342806</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="212"/>
       <c r="G21" s="88">
         <f>MAX(B26:B92)</f>
         <v>56801.327847391061</v>
@@ -39021,12 +39021,12 @@
       </c>
       <c r="C22" s="93">
         <f>SUM(Tracker!J9:J480)</f>
-        <v>6750.5727884795251</v>
-      </c>
-      <c r="D22" s="205" t="s">
+        <v>6829.5041986160504</v>
+      </c>
+      <c r="D22" s="209" t="s">
         <v>301</v>
       </c>
-      <c r="E22" s="208" t="s">
+      <c r="E22" s="212" t="s">
         <v>73</v>
       </c>
     </row>
@@ -39037,8 +39037,8 @@
       <c r="C23" s="96">
         <v>15</v>
       </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="209"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="213"/>
     </row>
     <row r="25" spans="1:19" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="74" t="s">
@@ -39053,7 +39053,7 @@
       </c>
       <c r="D25" s="78">
         <f>SUM(D26:D53)</f>
-        <v>330040.70506826253</v>
+        <v>339605.33476715907</v>
       </c>
       <c r="E25" s="76" t="s">
         <v>123</v>
@@ -39179,11 +39179,11 @@
       </c>
       <c r="R29" s="91">
         <f>D25</f>
-        <v>330040.70506826253</v>
+        <v>339605.33476715907</v>
       </c>
       <c r="S29" s="111">
         <f>R29/16</f>
-        <v>20627.544066766408</v>
+        <v>21225.333422947442</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -39394,7 +39394,7 @@
       </c>
       <c r="D38" s="82">
         <f>SUMIF(Tracker!$U$9:$U$480, C38, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, C38, Tracker!$I$9:$I$480)</f>
-        <v>20150.724705442306</v>
+        <v>29715.354404338883</v>
       </c>
       <c r="E38" s="72" t="s">
         <v>77</v>
@@ -39680,7 +39680,7 @@
       <c r="A53" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="212">
+      <c r="B53" s="149">
         <f>SUMIF(Tracker!$U$9:$U$480, A53, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A53, Tracker!$I$9:$I$480)</f>
         <v>18025.621844024685</v>
       </c>
@@ -39803,7 +39803,7 @@
       </c>
       <c r="B66" s="90">
         <f>SUMIF(Tracker!$U$9:$U$480, A66, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A66, Tracker!$I$9:$I$480)</f>
-        <v>20150.724705442306</v>
+        <v>29715.354404338883</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.35">
@@ -40089,7 +40089,7 @@
       <c r="A99" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B99" s="215">
+      <c r="B99" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A99, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A99, Tracker!$I$9:$I$480)</f>
         <v>56801.327847391061</v>
       </c>
@@ -40119,7 +40119,7 @@
       <c r="A100" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B100" s="215">
+      <c r="B100" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A100, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A100, Tracker!$I$9:$I$480)</f>
         <v>56229.885917336826</v>
       </c>
@@ -40151,7 +40151,7 @@
       <c r="A101" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B101" s="215">
+      <c r="B101" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A101, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A101, Tracker!$I$9:$I$480)</f>
         <v>45000</v>
       </c>
@@ -40183,7 +40183,7 @@
       <c r="A102" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="215">
+      <c r="B102" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A102, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A102, Tracker!$I$9:$I$480)</f>
         <v>43400</v>
       </c>
@@ -40215,7 +40215,7 @@
       <c r="A103" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B103" s="215">
+      <c r="B103" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A103, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A103, Tracker!$I$9:$I$480)</f>
         <v>43400</v>
       </c>
@@ -40247,7 +40247,7 @@
       <c r="A104" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B104" s="215">
+      <c r="B104" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A104, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A104, Tracker!$I$9:$I$480)</f>
         <v>42901.542921264263</v>
       </c>
@@ -40279,7 +40279,7 @@
       <c r="A105" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="215">
+      <c r="B105" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A105, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A105, Tracker!$I$9:$I$480)</f>
         <v>42780.624649336074</v>
       </c>
@@ -40311,7 +40311,7 @@
       <c r="A106" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B106" s="215">
+      <c r="B106" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A106, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A106, Tracker!$I$9:$I$480)</f>
         <v>42515.279596035158</v>
       </c>
@@ -40343,7 +40343,7 @@
       <c r="A107" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B107" s="215">
+      <c r="B107" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A107, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A107, Tracker!$I$9:$I$480)</f>
         <v>39400</v>
       </c>
@@ -40375,7 +40375,7 @@
       <c r="A108" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B108" s="215">
+      <c r="B108" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A108, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A108, Tracker!$I$9:$I$480)</f>
         <v>37960</v>
       </c>
@@ -40407,7 +40407,7 @@
       <c r="A109" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="215">
+      <c r="B109" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A109, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A109, Tracker!$I$9:$I$480)</f>
         <v>35900</v>
       </c>
@@ -40439,7 +40439,7 @@
       <c r="A110" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="215">
+      <c r="B110" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A110, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A110, Tracker!$I$9:$I$480)</f>
         <v>33848.859173368241</v>
       </c>
@@ -40471,7 +40471,7 @@
       <c r="A111" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="215">
+      <c r="B111" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A111, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A111, Tracker!$I$9:$I$480)</f>
         <v>32394.726014587621</v>
       </c>
@@ -40503,7 +40503,7 @@
       <c r="A112" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B112" s="215">
+      <c r="B112" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A112, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A112, Tracker!$I$9:$I$480)</f>
         <v>30533.196184776505</v>
       </c>
@@ -40535,7 +40535,7 @@
       <c r="A113" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B113" s="215">
+      <c r="B113" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A113, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A113, Tracker!$I$9:$I$480)</f>
         <v>29700</v>
       </c>
@@ -40567,7 +40567,7 @@
       <c r="A114" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="215">
+      <c r="B114" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A114, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A114, Tracker!$I$9:$I$480)</f>
         <v>28972.470544230411</v>
       </c>
@@ -40599,7 +40599,7 @@
       <c r="A115" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B115" s="215">
+      <c r="B115" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A115, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A115, Tracker!$I$9:$I$480)</f>
         <v>28700.556386758934</v>
       </c>
@@ -40631,7 +40631,7 @@
       <c r="A116" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B116" s="215">
+      <c r="B116" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A116, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A116, Tracker!$I$9:$I$480)</f>
         <v>28700.556386758934</v>
       </c>
@@ -40663,7 +40663,7 @@
       <c r="A117" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B117" s="215">
+      <c r="B117" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A117, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A117, Tracker!$I$9:$I$480)</f>
         <v>28641.612118945202</v>
       </c>
@@ -40695,7 +40695,7 @@
       <c r="A118" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B118" s="215">
+      <c r="B118" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A118, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A118, Tracker!$I$9:$I$480)</f>
         <v>25438.166261455015</v>
       </c>
@@ -40727,7 +40727,7 @@
       <c r="A119" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="215">
+      <c r="B119" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A119, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A119, Tracker!$I$9:$I$480)</f>
         <v>25256.031419487561</v>
       </c>
@@ -40759,7 +40759,7 @@
       <c r="A120" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B120" s="215">
+      <c r="B120" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A120, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A120, Tracker!$I$9:$I$480)</f>
         <v>24570</v>
       </c>
@@ -40791,7 +40791,7 @@
       <c r="A121" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="215">
+      <c r="B121" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A121, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A121, Tracker!$I$9:$I$480)</f>
         <v>24570</v>
       </c>
@@ -40823,7 +40823,7 @@
       <c r="A122" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="215">
+      <c r="B122" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A122, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A122, Tracker!$I$9:$I$480)</f>
         <v>22171.946886104357</v>
       </c>
@@ -40855,7 +40855,7 @@
       <c r="A123" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B123" s="215">
+      <c r="B123" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A123, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A123, Tracker!$I$9:$I$480)</f>
         <v>21600.504956050121</v>
       </c>
@@ -40887,7 +40887,7 @@
       <c r="A124" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B124" s="215">
+      <c r="B124" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A124, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A124, Tracker!$I$9:$I$480)</f>
         <v>20900</v>
       </c>
@@ -40919,13 +40919,13 @@
       <c r="A125" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="215">
+      <c r="B125" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A125, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A125, Tracker!$I$9:$I$480)</f>
-        <v>20150.724705442306</v>
+        <v>29715.354404338883</v>
       </c>
       <c r="C125" s="8">
         <f>SUMIF(Tracker!$U$9:$U$480, A125, Tracker!$J$9:$J$480)</f>
-        <v>93.7890873386946</v>
+        <v>172.72049747521976</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>33</v>
@@ -40951,7 +40951,7 @@
       <c r="A126" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B126" s="215">
+      <c r="B126" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A126, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A126, Tracker!$I$9:$I$480)</f>
         <v>20085.692911913222</v>
       </c>
@@ -40983,7 +40983,7 @@
       <c r="A127" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B127" s="215">
+      <c r="B127" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A127, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A127, Tracker!$I$9:$I$480)</f>
         <v>20085.692911913222</v>
       </c>
@@ -41015,7 +41015,7 @@
       <c r="A128" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B128" s="215">
+      <c r="B128" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A128, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A128, Tracker!$I$9:$I$480)</f>
         <v>20085.692911913222</v>
       </c>
@@ -41047,7 +41047,7 @@
       <c r="A129" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B129" s="215">
+      <c r="B129" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A129, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A129, Tracker!$I$9:$I$480)</f>
         <v>19029.01627080606</v>
       </c>
@@ -41079,7 +41079,7 @@
       <c r="A130" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B130" s="215">
+      <c r="B130" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A130, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A130, Tracker!$I$9:$I$480)</f>
         <v>18025.621844024685</v>
       </c>
@@ -41111,7 +41111,7 @@
       <c r="A131" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B131" s="215">
+      <c r="B131" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A131, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A131, Tracker!$I$9:$I$480)</f>
         <v>18025.621844024685</v>
       </c>
@@ -41143,7 +41143,7 @@
       <c r="A132" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B132" s="215">
+      <c r="B132" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A132, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A132, Tracker!$I$9:$I$480)</f>
         <v>18025.621844024685</v>
       </c>
@@ -41175,7 +41175,7 @@
       <c r="A133" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B133" s="215">
+      <c r="B133" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A133, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A133, Tracker!$I$9:$I$480)</f>
         <v>18025.621844024685</v>
       </c>
@@ -41207,7 +41207,7 @@
       <c r="A134" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B134" s="215">
+      <c r="B134" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A134, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A134, Tracker!$I$9:$I$480)</f>
         <v>17820.151486815033</v>
       </c>
@@ -41239,7 +41239,7 @@
       <c r="A135" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B135" s="215">
+      <c r="B135" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A135, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A135, Tracker!$I$9:$I$480)</f>
         <v>17730.764914905554</v>
       </c>
@@ -41271,7 +41271,7 @@
       <c r="A136" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="215">
+      <c r="B136" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A136, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A136, Tracker!$I$9:$I$480)</f>
         <v>17550.631195062651</v>
       </c>
@@ -41303,7 +41303,7 @@
       <c r="A137" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B137" s="215">
+      <c r="B137" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A137, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A137, Tracker!$I$9:$I$480)</f>
         <v>17550.631195062651</v>
       </c>
@@ -41335,7 +41335,7 @@
       <c r="A138" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B138" s="215">
+      <c r="B138" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A138, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A138, Tracker!$I$9:$I$480)</f>
         <v>16380.648026930987</v>
       </c>
@@ -41367,7 +41367,7 @@
       <c r="A139" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B139" s="215">
+      <c r="B139" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A139, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A139, Tracker!$I$9:$I$480)</f>
         <v>14580.605947260146</v>
       </c>
@@ -41399,7 +41399,7 @@
       <c r="A140" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="215">
+      <c r="B140" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A140, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A140, Tracker!$I$9:$I$480)</f>
         <v>14580.605947260146</v>
       </c>
@@ -41431,7 +41431,7 @@
       <c r="A141" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B141" s="215">
+      <c r="B141" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A141, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A141, Tracker!$I$9:$I$480)</f>
         <v>14580.605947260146</v>
       </c>
@@ -41463,7 +41463,7 @@
       <c r="A142" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B142" s="215">
+      <c r="B142" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A142, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A142, Tracker!$I$9:$I$480)</f>
         <v>13186.18851692538</v>
       </c>
@@ -41495,7 +41495,7 @@
       <c r="A143" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B143" s="215">
+      <c r="B143" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A143, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A143, Tracker!$I$9:$I$480)</f>
         <v>12171.713110155226</v>
       </c>
@@ -41527,7 +41527,7 @@
       <c r="A144" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B144" s="215">
+      <c r="B144" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A144, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A144, Tracker!$I$9:$I$480)</f>
         <v>12171.713110155226</v>
       </c>
@@ -41559,7 +41559,7 @@
       <c r="A145" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B145" s="215">
+      <c r="B145" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A145, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A145, Tracker!$I$9:$I$480)</f>
         <v>12171.713110155226</v>
       </c>
@@ -41591,7 +41591,7 @@
       <c r="A146" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B146" s="215">
+      <c r="B146" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A146, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A146, Tracker!$I$9:$I$480)</f>
         <v>11771.703759117263</v>
       </c>
@@ -41623,7 +41623,7 @@
       <c r="A147" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B147" s="215">
+      <c r="B147" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A147, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A147, Tracker!$I$9:$I$480)</f>
         <v>10954.740976248364</v>
       </c>
@@ -41655,7 +41655,7 @@
       <c r="A148" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B148" s="215">
+      <c r="B148" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A148, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A148, Tracker!$I$9:$I$480)</f>
         <v>10954.740976248364</v>
       </c>
@@ -41687,7 +41687,7 @@
       <c r="A149" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B149" s="215">
+      <c r="B149" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A149, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A149, Tracker!$I$9:$I$480)</f>
         <v>10954.740976248364</v>
       </c>
@@ -41719,7 +41719,7 @@
       <c r="A150" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B150" s="215">
+      <c r="B150" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A150, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A150, Tracker!$I$9:$I$480)</f>
         <v>10660</v>
       </c>
@@ -41751,7 +41751,7 @@
       <c r="A151" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B151" s="215">
+      <c r="B151" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A151, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A151, Tracker!$I$9:$I$480)</f>
         <v>10447.503272863287</v>
       </c>
@@ -41783,7 +41783,7 @@
       <c r="A152" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B152" s="215">
+      <c r="B152" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A152, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A152, Tracker!$I$9:$I$480)</f>
         <v>10286.141761735553</v>
       </c>
@@ -41815,7 +41815,7 @@
       <c r="A153" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="215">
+      <c r="B153" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A153, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A153, Tracker!$I$9:$I$480)</f>
         <v>10142.762296614925</v>
       </c>
@@ -41847,7 +41847,7 @@
       <c r="A154" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B154" s="215">
+      <c r="B154" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A154, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A154, Tracker!$I$9:$I$480)</f>
         <v>9257.3592668786241</v>
       </c>
@@ -41879,7 +41879,7 @@
       <c r="A155" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B155" s="215">
+      <c r="B155" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A155, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A155, Tracker!$I$9:$I$480)</f>
         <v>8828.7778193379472</v>
       </c>
@@ -41892,26 +41892,26 @@
       </c>
       <c r="F155" s="91">
         <f>SUMIF(Tracker!$U$9:$U$480, E155, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, E155, Tracker!$I$9:$I$480)</f>
-        <v>20150.724705442306</v>
+        <v>29715.354404338883</v>
       </c>
       <c r="G155" s="8">
         <f>SUMIF(Tracker!$U$9:$U$480, E155, Tracker!$J$9:$J$480)</f>
-        <v>93.7890873386946</v>
+        <v>172.72049747521976</v>
       </c>
       <c r="H155" s="49">
         <f t="shared" si="3"/>
-        <v>33.365145530238109</v>
+        <v>55.757107302646858</v>
       </c>
       <c r="I155" s="8">
         <f>H155*(21600/VLOOKUP(E155, Tracker!$U$9:$W$480, 3, FALSE))</f>
-        <v>36.03435717265716</v>
+        <v>60.217675886858608</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B156" s="215">
+      <c r="B156" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A156, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A156, Tracker!$I$9:$I$480)</f>
         <v>8828.7778193379472</v>
       </c>
@@ -41943,7 +41943,7 @@
       <c r="A157" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B157" s="215">
+      <c r="B157" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A157, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A157, Tracker!$I$9:$I$480)</f>
         <v>7303.160650832242</v>
       </c>
@@ -41975,7 +41975,7 @@
       <c r="A158" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B158" s="215">
+      <c r="B158" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A158, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A158, Tracker!$I$9:$I$480)</f>
         <v>6760</v>
       </c>
@@ -42007,7 +42007,7 @@
       <c r="A159" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B159" s="215">
+      <c r="B159" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A159, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A159, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42039,7 +42039,7 @@
       <c r="A160" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B160" s="215">
+      <c r="B160" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A160, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A160, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42071,7 +42071,7 @@
       <c r="A161" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B161" s="215">
+      <c r="B161" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A161, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A161, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42103,7 +42103,7 @@
       <c r="A162" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B162" s="215">
+      <c r="B162" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A162, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A162, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42135,7 +42135,7 @@
       <c r="A163" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B163" s="215">
+      <c r="B163" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A163, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A163, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42167,7 +42167,7 @@
       <c r="A164" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B164" s="215">
+      <c r="B164" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A164, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A164, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42199,7 +42199,7 @@
       <c r="A165" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B165" s="215">
+      <c r="B165" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A165, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A165, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42231,7 +42231,7 @@
       <c r="A166" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B166" s="215">
+      <c r="B166" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A166, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A166, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42263,7 +42263,7 @@
       <c r="A167" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B167" s="215">
+      <c r="B167" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A167, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A167, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42292,10 +42292,10 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="213" t="s">
+      <c r="A168" s="150" t="s">
         <v>305</v>
       </c>
-      <c r="B168" s="215">
+      <c r="B168" s="152">
         <f>SUMIF(Tracker!$U$9:$U$480, A168, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A168, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42303,7 +42303,7 @@
         <f>SUMIF(Tracker!$U$9:$U$480, A168, Tracker!$J$9:$J$480)</f>
         <v>0</v>
       </c>
-      <c r="E168" s="213" t="s">
+      <c r="E168" s="150" t="s">
         <v>305</v>
       </c>
       <c r="F168" s="91">
@@ -42324,10 +42324,10 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="213" t="s">
+      <c r="A169" s="150" t="s">
         <v>306</v>
       </c>
-      <c r="B169" s="214">
+      <c r="B169" s="151">
         <f>SUMIF(Tracker!$U$9:$U$480, A169, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A169, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42335,7 +42335,7 @@
         <f>SUMIF(Tracker!$U$9:$U$480, A169, Tracker!$J$9:$J$480)</f>
         <v>0</v>
       </c>
-      <c r="E169" s="213" t="s">
+      <c r="E169" s="150" t="s">
         <v>306</v>
       </c>
       <c r="F169" s="91">
@@ -42356,10 +42356,10 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="213" t="s">
+      <c r="A170" s="150" t="s">
         <v>307</v>
       </c>
-      <c r="B170" s="214">
+      <c r="B170" s="151">
         <f>SUMIF(Tracker!$U$9:$U$480, A170, Tracker!$H$9:$H$480)+SUMIF(Tracker!$U$9:$U$480, A170, Tracker!$I$9:$I$480)</f>
         <v>0</v>
       </c>
@@ -42367,7 +42367,7 @@
         <f>SUMIF(Tracker!$U$9:$U$480, A170, Tracker!$J$9:$J$480)</f>
         <v>0</v>
       </c>
-      <c r="E170" s="213" t="s">
+      <c r="E170" s="150" t="s">
         <v>307</v>
       </c>
       <c r="F170" s="91">
@@ -42447,11 +42447,11 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="129">
         <f>Summary!C21</f>
-        <v>1406452.9764353842</v>
+        <v>1416017.6061342806</v>
       </c>
       <c r="B1" s="130">
         <f>Summary!C22</f>
-        <v>6750.5727884795251</v>
+        <v>6829.5041986160504</v>
       </c>
       <c r="C1" s="132">
         <f>Summary!C23</f>
@@ -42463,7 +42463,7 @@
       </c>
       <c r="E1" s="116">
         <f>Summary!J3</f>
-        <v>0.57555176528794361</v>
+        <v>0.57683217501905748</v>
       </c>
       <c r="F1" s="8">
         <f>Tracker!AE115</f>
@@ -42471,7 +42471,7 @@
       </c>
       <c r="G1" s="133">
         <f>Summary!J5</f>
-        <v>8.2731586507712618E-2</v>
+        <v>8.3294205381294839E-2</v>
       </c>
     </row>
   </sheetData>
@@ -42578,11 +42578,11 @@
       </c>
       <c r="E2" s="111">
         <f>Summary!D25</f>
-        <v>330040.70506826253</v>
+        <v>339605.33476715907</v>
       </c>
       <c r="F2" s="91">
         <f>E2/16</f>
-        <v>20627.544066766408</v>
+        <v>21225.333422947442</v>
       </c>
       <c r="G2" s="22" t="str">
         <f>Summary!A4</f>
@@ -42703,7 +42703,7 @@
       </c>
       <c r="H5" s="134">
         <f>Summary!C8</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="134">
         <f>Summary!D8</f>
@@ -42715,7 +42715,7 @@
       </c>
       <c r="K5" s="25">
         <f>Summary!F8</f>
-        <v>0.38028169014084506</v>
+        <v>0.39436619718309857</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -43159,11 +43159,11 @@
       </c>
       <c r="B27" s="91">
         <f>Summary!B125</f>
-        <v>20150.724705442306</v>
+        <v>29715.354404338883</v>
       </c>
       <c r="C27" s="8">
         <f>Summary!C125</f>
-        <v>93.7890873386946</v>
+        <v>172.72049747521976</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -43820,11 +43820,11 @@
       </c>
       <c r="B2" s="111">
         <f>Sheet2!E2</f>
-        <v>330040.70506826253</v>
+        <v>339605.33476715907</v>
       </c>
       <c r="C2" s="91">
         <f>Sheet2!F2</f>
-        <v>20627.544066766408</v>
+        <v>21225.333422947442</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -43953,7 +43953,7 @@
       </c>
       <c r="B5" s="134">
         <f>Sheet2!H5</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="134">
         <f>Sheet2!I5</f>
@@ -43965,7 +43965,7 @@
       </c>
       <c r="E5" s="135">
         <f>Summary!N8</f>
-        <v>117500</v>
+        <v>122200</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">

--- a/Vessel_Device_Installation_Tracker NV.xlsx
+++ b/Vessel_Device_Installation_Tracker NV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://britoilos-my.sharepoint.com/personal/axel_faurax_britoil_com_sg/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1760" documentId="13_ncr:1_{E5929760-29B4-4FBD-B5DB-E23A2F078BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB455CC-3476-4A0E-9A3F-801064425AD4}"/>
+  <xr:revisionPtr revIDLastSave="1763" documentId="13_ncr:1_{E5929760-29B4-4FBD-B5DB-E23A2F078BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F74E8368-6DF2-438E-AFEF-1A0DFA44B2F3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -2372,6 +2372,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2388,69 +2403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2525,11 +2477,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12261,8 +12261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ747"/>
   <sheetViews>
-    <sheetView topLeftCell="A451" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A475" sqref="A475"/>
+    <sheetView topLeftCell="A452" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AD121" sqref="AD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.149999999999999" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -12306,34 +12306,34 @@
       <c r="I1" s="8"/>
       <c r="J1" s="49"/>
       <c r="K1" s="9"/>
-      <c r="AB1" s="161" t="s">
+      <c r="AB1" s="155" t="s">
         <v>293</v>
       </c>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="163"/>
-      <c r="AM1" s="161" t="s">
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="157"/>
+      <c r="AM1" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="AN1" s="162"/>
-      <c r="AO1" s="162"/>
-      <c r="AP1" s="163"/>
+      <c r="AN1" s="156"/>
+      <c r="AO1" s="156"/>
+      <c r="AP1" s="157"/>
     </row>
     <row r="2" spans="1:43" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="194" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="178" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="196"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
+      <c r="H2" s="180"/>
       <c r="I2" s="48"/>
       <c r="J2" s="50"/>
-      <c r="K2" s="174" t="s">
+      <c r="K2" s="207" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="8" t="s">
@@ -12346,14 +12346,14 @@
         <f>2000*0.01</f>
         <v>20</v>
       </c>
-      <c r="T2" s="164" t="s">
+      <c r="T2" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="167" t="s">
+      <c r="U2" s="200" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="167"/>
-      <c r="W2" s="168"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="201"/>
       <c r="AB2" s="23" t="s">
         <v>97</v>
       </c>
@@ -12386,16 +12386,16 @@
       </c>
     </row>
     <row r="3" spans="1:43" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="199"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="183"/>
       <c r="I3" s="48"/>
       <c r="J3" s="50"/>
-      <c r="K3" s="169"/>
+      <c r="K3" s="202"/>
       <c r="N3" s="8" t="s">
         <v>114</v>
       </c>
@@ -12406,10 +12406,10 @@
         <f>O3*Q2</f>
         <v>64</v>
       </c>
-      <c r="T3" s="165"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="170"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="202"/>
+      <c r="V3" s="202"/>
+      <c r="W3" s="203"/>
       <c r="AB3" s="137" t="s">
         <v>13</v>
       </c>
@@ -12442,26 +12442,26 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="C4" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="189"/>
-      <c r="E4" s="200" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="202" t="s">
+      <c r="F4" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="202"/>
-      <c r="H4" s="204" t="s">
+      <c r="G4" s="186"/>
+      <c r="H4" s="188" t="s">
         <v>132</v>
       </c>
       <c r="I4" s="47"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="169"/>
+      <c r="K4" s="202"/>
       <c r="N4" s="8" t="s">
         <v>117</v>
       </c>
@@ -12475,10 +12475,10 @@
         <f>8000/25</f>
         <v>320</v>
       </c>
-      <c r="T4" s="165"/>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="170"/>
+      <c r="T4" s="198"/>
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="203"/>
       <c r="AB4" s="109" t="s">
         <v>93</v>
       </c>
@@ -12512,20 +12512,20 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="192"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="200"/>
-      <c r="F5" s="202"/>
-      <c r="G5" s="202"/>
-      <c r="H5" s="204"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
       <c r="I5" s="47"/>
       <c r="J5" s="51"/>
-      <c r="K5" s="169"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="169"/>
-      <c r="V5" s="169"/>
-      <c r="W5" s="170"/>
+      <c r="K5" s="202"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="202"/>
+      <c r="V5" s="202"/>
+      <c r="W5" s="203"/>
       <c r="AB5" s="109" t="s">
         <v>110</v>
       </c>
@@ -12559,20 +12559,20 @@
       </c>
     </row>
     <row r="6" spans="1:43" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="193"/>
-      <c r="C6" s="190"/>
-      <c r="D6" s="191"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="205"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="189"/>
       <c r="I6" s="47"/>
       <c r="J6" s="51"/>
-      <c r="K6" s="169"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="172"/>
+      <c r="K6" s="202"/>
+      <c r="T6" s="199"/>
+      <c r="U6" s="204"/>
+      <c r="V6" s="204"/>
+      <c r="W6" s="205"/>
       <c r="AB6" s="109" t="s">
         <v>290</v>
       </c>
@@ -12735,13 +12735,13 @@
       <c r="A9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="158">
+      <c r="B9" s="163">
         <v>1</v>
       </c>
-      <c r="C9" s="158" t="s">
+      <c r="C9" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="D9" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="26" t="s">
@@ -12814,9 +12814,9 @@
       </c>
     </row>
     <row r="10" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="3" t="s">
         <v>106</v>
       </c>
@@ -12886,9 +12886,9 @@
       </c>
     </row>
     <row r="11" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
       <c r="E11" s="3" t="s">
         <v>109</v>
       </c>
@@ -12959,9 +12959,9 @@
       </c>
     </row>
     <row r="12" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -13017,9 +13017,9 @@
       </c>
     </row>
     <row r="13" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
@@ -13078,13 +13078,13 @@
       <c r="A14" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="155">
+      <c r="B14" s="160">
         <v>2</v>
       </c>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="27" t="s">
@@ -13104,7 +13104,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K14" s="155" t="s">
+      <c r="K14" s="160" t="s">
         <v>172</v>
       </c>
       <c r="L14" s="44"/>
@@ -13155,9 +13155,9 @@
       </c>
     </row>
     <row r="15" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="6" t="s">
         <v>106</v>
       </c>
@@ -13177,7 +13177,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K15" s="156"/>
+      <c r="K15" s="161"/>
       <c r="L15" s="45"/>
       <c r="U15" s="119" t="s">
         <v>15</v>
@@ -13228,9 +13228,9 @@
       </c>
     </row>
     <row r="16" spans="1:43" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
       <c r="E16" s="6" t="s">
         <v>109</v>
       </c>
@@ -13250,7 +13250,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K16" s="156"/>
+      <c r="K16" s="161"/>
       <c r="L16" s="45"/>
       <c r="U16" s="119" t="s">
         <v>15</v>
@@ -13301,9 +13301,9 @@
       </c>
     </row>
     <row r="17" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
@@ -13325,7 +13325,7 @@
         <f t="shared" si="3"/>
         <v>32.915653637553767</v>
       </c>
-      <c r="K17" s="156"/>
+      <c r="K17" s="161"/>
       <c r="L17" s="45"/>
       <c r="U17" s="119" t="s">
         <v>15</v>
@@ -13360,9 +13360,9 @@
       </c>
     </row>
     <row r="18" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="157"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
@@ -13382,7 +13382,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K18" s="157"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="46"/>
       <c r="U18" s="119" t="s">
         <v>15</v>
@@ -13420,13 +13420,13 @@
       <c r="A19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B19" s="158">
+      <c r="B19" s="163">
         <v>3</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="26" t="s">
@@ -13493,9 +13493,9 @@
       </c>
     </row>
     <row r="20" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
       <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
@@ -13550,9 +13550,9 @@
       </c>
     </row>
     <row r="21" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
       <c r="E21" s="3" t="s">
         <v>109</v>
       </c>
@@ -13604,9 +13604,9 @@
       </c>
     </row>
     <row r="22" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
-      <c r="D22" s="159"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="164"/>
       <c r="E22" s="3" t="s">
         <v>106</v>
       </c>
@@ -13661,9 +13661,9 @@
       </c>
     </row>
     <row r="23" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
@@ -13721,13 +13721,13 @@
       <c r="A24" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="155">
+      <c r="B24" s="160">
         <v>4</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -13747,7 +13747,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K24" s="179" t="s">
+      <c r="K24" s="190" t="s">
         <v>100</v>
       </c>
       <c r="L24" s="44"/>
@@ -13772,9 +13772,9 @@
       <c r="Z24" s="121"/>
     </row>
     <row r="25" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
@@ -13794,7 +13794,7 @@
         <f t="shared" si="3"/>
         <v>83.2</v>
       </c>
-      <c r="K25" s="180"/>
+      <c r="K25" s="191"/>
       <c r="L25" s="45"/>
       <c r="U25" s="119" t="s">
         <v>18</v>
@@ -13812,15 +13812,15 @@
         <v>32083</v>
       </c>
       <c r="Z25" s="121"/>
-      <c r="AJ25" s="206" t="s">
+      <c r="AJ25" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="AK25" s="207"/>
+      <c r="AK25" s="159"/>
     </row>
     <row r="26" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
       <c r="E26" s="6" t="s">
         <v>109</v>
       </c>
@@ -13840,7 +13840,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K26" s="180"/>
+      <c r="K26" s="191"/>
       <c r="L26" s="45"/>
       <c r="U26" s="119" t="s">
         <v>18</v>
@@ -13860,9 +13860,9 @@
       <c r="Z26" s="121"/>
     </row>
     <row r="27" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
       <c r="E27" s="6" t="s">
         <v>106</v>
       </c>
@@ -13882,7 +13882,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K27" s="180"/>
+      <c r="K27" s="191"/>
       <c r="L27" s="45"/>
       <c r="U27" s="119" t="s">
         <v>18</v>
@@ -13902,9 +13902,9 @@
       <c r="Z27" s="121"/>
     </row>
     <row r="28" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
       <c r="E28" s="7" t="s">
         <v>14</v>
       </c>
@@ -13926,7 +13926,7 @@
         <f t="shared" si="3"/>
         <v>10.4</v>
       </c>
-      <c r="K28" s="181"/>
+      <c r="K28" s="192"/>
       <c r="L28" s="46"/>
       <c r="U28" s="119" t="s">
         <v>18</v>
@@ -13949,13 +13949,13 @@
       <c r="A29" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="158">
+      <c r="B29" s="163">
         <v>5</v>
       </c>
-      <c r="C29" s="158" t="s">
+      <c r="C29" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="158" t="s">
+      <c r="D29" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="26" t="s">
@@ -14010,9 +14010,9 @@
       </c>
     </row>
     <row r="30" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
       <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
@@ -14074,9 +14074,9 @@
       </c>
     </row>
     <row r="31" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
       <c r="E31" s="3" t="s">
         <v>109</v>
       </c>
@@ -14139,9 +14139,9 @@
       </c>
     </row>
     <row r="32" spans="1:38" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
       <c r="E32" s="3" t="s">
         <v>106</v>
       </c>
@@ -14204,9 +14204,9 @@
       </c>
     </row>
     <row r="33" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="160"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="4" t="s">
         <v>14</v>
       </c>
@@ -14272,13 +14272,13 @@
       <c r="A34" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B34" s="155">
+      <c r="B34" s="160">
         <v>6</v>
       </c>
-      <c r="C34" s="155" t="s">
+      <c r="C34" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="155" t="s">
+      <c r="D34" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -14341,9 +14341,9 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
       <c r="E35" s="6" t="s">
         <v>13</v>
       </c>
@@ -14406,9 +14406,9 @@
       </c>
     </row>
     <row r="36" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
       <c r="E36" s="6" t="s">
         <v>109</v>
       </c>
@@ -14471,9 +14471,9 @@
       </c>
     </row>
     <row r="37" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
       <c r="E37" s="6" t="s">
         <v>106</v>
       </c>
@@ -14536,9 +14536,9 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
       <c r="E38" s="7" t="s">
         <v>14</v>
       </c>
@@ -14604,13 +14604,13 @@
       <c r="A39" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B39" s="158">
+      <c r="B39" s="163">
         <v>7</v>
       </c>
-      <c r="C39" s="158" t="s">
+      <c r="C39" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="158" t="s">
+      <c r="D39" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="26" t="s">
@@ -14673,9 +14673,9 @@
       </c>
     </row>
     <row r="40" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
@@ -14738,9 +14738,9 @@
       </c>
     </row>
     <row r="41" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="3" t="s">
         <v>109</v>
       </c>
@@ -14803,9 +14803,9 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="159"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="3" t="s">
         <v>310</v>
       </c>
@@ -14868,9 +14868,9 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="159"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="3" t="s">
         <v>106</v>
       </c>
@@ -14933,9 +14933,9 @@
       </c>
     </row>
     <row r="44" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="160"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="160"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="4" t="s">
         <v>14</v>
       </c>
@@ -15001,13 +15001,13 @@
       <c r="A45" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B45" s="155">
+      <c r="B45" s="160">
         <v>8</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="155" t="s">
+      <c r="D45" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="27" t="s">
@@ -15070,9 +15070,9 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
       <c r="E46" s="6" t="s">
         <v>13</v>
       </c>
@@ -15135,9 +15135,9 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="161"/>
       <c r="E47" s="6" t="s">
         <v>109</v>
       </c>
@@ -15200,9 +15200,9 @@
       </c>
     </row>
     <row r="48" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="156"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
+      <c r="B48" s="161"/>
+      <c r="C48" s="161"/>
+      <c r="D48" s="161"/>
       <c r="E48" s="6" t="s">
         <v>106</v>
       </c>
@@ -15265,9 +15265,9 @@
       </c>
     </row>
     <row r="49" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
+      <c r="B49" s="162"/>
+      <c r="C49" s="162"/>
+      <c r="D49" s="162"/>
       <c r="E49" s="7" t="s">
         <v>14</v>
       </c>
@@ -15333,13 +15333,13 @@
       <c r="A50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="158">
+      <c r="B50" s="163">
         <v>9</v>
       </c>
-      <c r="C50" s="158" t="s">
+      <c r="C50" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="158" t="s">
+      <c r="D50" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="26" t="s">
@@ -15402,9 +15402,9 @@
       </c>
     </row>
     <row r="51" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="159"/>
-      <c r="C51" s="159"/>
-      <c r="D51" s="159"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
@@ -15467,9 +15467,9 @@
       </c>
     </row>
     <row r="52" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="159"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="3" t="s">
         <v>109</v>
       </c>
@@ -15532,9 +15532,9 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="159"/>
-      <c r="C53" s="159"/>
-      <c r="D53" s="159"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="3" t="s">
         <v>106</v>
       </c>
@@ -15597,9 +15597,9 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="160"/>
-      <c r="C54" s="160"/>
-      <c r="D54" s="160"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="4" t="s">
         <v>14</v>
       </c>
@@ -15665,13 +15665,13 @@
       <c r="A55" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="155">
+      <c r="B55" s="160">
         <v>10</v>
       </c>
-      <c r="C55" s="155" t="s">
+      <c r="C55" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="155" t="s">
+      <c r="D55" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="27" t="s">
@@ -15734,9 +15734,9 @@
       </c>
     </row>
     <row r="56" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="156"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
+      <c r="B56" s="161"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
       <c r="E56" s="6" t="s">
         <v>13</v>
       </c>
@@ -15799,9 +15799,9 @@
       </c>
     </row>
     <row r="57" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
+      <c r="B57" s="161"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
       <c r="E57" s="6" t="s">
         <v>109</v>
       </c>
@@ -15864,9 +15864,9 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="156"/>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
       <c r="E58" s="6" t="s">
         <v>106</v>
       </c>
@@ -15929,9 +15929,9 @@
       </c>
     </row>
     <row r="59" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
+      <c r="B59" s="162"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
       <c r="E59" s="7" t="s">
         <v>14</v>
       </c>
@@ -15999,13 +15999,13 @@
       <c r="A60" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="158">
+      <c r="B60" s="163">
         <v>11</v>
       </c>
-      <c r="C60" s="158" t="s">
+      <c r="C60" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="158" t="s">
+      <c r="D60" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="26" t="s">
@@ -16025,7 +16025,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K60" s="158" t="s">
+      <c r="K60" s="163" t="s">
         <v>165</v>
       </c>
       <c r="L60" s="41"/>
@@ -16070,9 +16070,9 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="159"/>
-      <c r="C61" s="159"/>
-      <c r="D61" s="159"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="3" t="s">
         <v>13</v>
       </c>
@@ -16092,7 +16092,7 @@
         <f t="shared" si="3"/>
         <v>49.373480456330654</v>
       </c>
-      <c r="K61" s="159"/>
+      <c r="K61" s="164"/>
       <c r="L61" s="42" t="s">
         <v>166</v>
       </c>
@@ -16137,9 +16137,9 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="3" t="s">
         <v>109</v>
       </c>
@@ -16159,7 +16159,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K62" s="159"/>
+      <c r="K62" s="164"/>
       <c r="L62" s="42"/>
       <c r="U62" s="119" t="str" cm="1">
         <f t="array" ref="U62">IF(C62="",INDEX(C59:C62,MATCH(TRUE,INDEX((C59:C62&lt;&gt;""),0),0)),C62)</f>
@@ -16202,9 +16202,9 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="159"/>
-      <c r="C63" s="159"/>
-      <c r="D63" s="159"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="3" t="s">
         <v>106</v>
       </c>
@@ -16224,7 +16224,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K63" s="159"/>
+      <c r="K63" s="164"/>
       <c r="L63" s="42"/>
       <c r="U63" s="119" t="str" cm="1">
         <f t="array" ref="U63">IF(C63="",INDEX(C60:C63,MATCH(TRUE,INDEX((C60:C63&lt;&gt;""),0),0)),C63)</f>
@@ -16267,9 +16267,9 @@
       </c>
     </row>
     <row r="64" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="160"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="160"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="4" t="s">
         <v>14</v>
       </c>
@@ -16289,7 +16289,7 @@
         <f t="shared" si="3"/>
         <v>6.1716850570413317</v>
       </c>
-      <c r="K64" s="160"/>
+      <c r="K64" s="165"/>
       <c r="L64" s="43"/>
       <c r="U64" s="119" t="str" cm="1">
         <f t="array" ref="U64">IF(C64="",INDEX(C60:C64,MATCH(TRUE,INDEX((C60:C64&lt;&gt;""),0),0)),C64)</f>
@@ -16335,13 +16335,13 @@
       <c r="A65" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="155">
+      <c r="B65" s="160">
         <v>12</v>
       </c>
-      <c r="C65" s="155" t="s">
+      <c r="C65" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="155" t="s">
+      <c r="D65" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="27" t="s">
@@ -16361,7 +16361,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K65" s="155" t="s">
+      <c r="K65" s="160" t="s">
         <v>146</v>
       </c>
       <c r="L65" s="44"/>
@@ -16406,9 +16406,9 @@
       </c>
     </row>
     <row r="66" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
+      <c r="B66" s="161"/>
+      <c r="C66" s="161"/>
+      <c r="D66" s="161"/>
       <c r="E66" s="6" t="s">
         <v>13</v>
       </c>
@@ -16428,7 +16428,7 @@
         <f t="shared" si="3"/>
         <v>65.974939218253226</v>
       </c>
-      <c r="K66" s="156"/>
+      <c r="K66" s="161"/>
       <c r="L66" s="45"/>
       <c r="U66" s="119" t="str" cm="1">
         <f t="array" ref="U66">IF(C66="",INDEX(C62:C66,MATCH(TRUE,INDEX((C62:C66&lt;&gt;""),0),0)),C66)</f>
@@ -16471,9 +16471,9 @@
       </c>
     </row>
     <row r="67" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="156"/>
-      <c r="C67" s="156"/>
-      <c r="D67" s="156"/>
+      <c r="B67" s="161"/>
+      <c r="C67" s="161"/>
+      <c r="D67" s="161"/>
       <c r="E67" s="6" t="s">
         <v>109</v>
       </c>
@@ -16493,7 +16493,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K67" s="156"/>
+      <c r="K67" s="161"/>
       <c r="L67" s="45" t="s">
         <v>143</v>
       </c>
@@ -16538,9 +16538,9 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="156"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="156"/>
+      <c r="B68" s="161"/>
+      <c r="C68" s="161"/>
+      <c r="D68" s="161"/>
       <c r="E68" s="6" t="s">
         <v>106</v>
       </c>
@@ -16560,7 +16560,7 @@
         <f t="shared" si="3"/>
         <v>87.622966149242572</v>
       </c>
-      <c r="K68" s="156"/>
+      <c r="K68" s="161"/>
       <c r="L68" s="45" t="s">
         <v>147</v>
       </c>
@@ -16605,9 +16605,9 @@
       </c>
     </row>
     <row r="69" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="157"/>
-      <c r="C69" s="157"/>
-      <c r="D69" s="157"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="162"/>
       <c r="E69" s="7" t="s">
         <v>14</v>
       </c>
@@ -16627,7 +16627,7 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K69" s="157"/>
+      <c r="K69" s="162"/>
       <c r="L69" s="46"/>
       <c r="U69" s="119" t="str" cm="1">
         <f t="array" ref="U69">IF(C69="",INDEX(C65:C69,MATCH(TRUE,INDEX((C65:C69&lt;&gt;""),0),0)),C69)</f>
@@ -16673,13 +16673,13 @@
       <c r="A70" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="158">
+      <c r="B70" s="163">
         <v>13</v>
       </c>
-      <c r="C70" s="158" t="s">
+      <c r="C70" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="158" t="s">
+      <c r="D70" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E70" s="26" t="s">
@@ -16742,9 +16742,9 @@
       </c>
     </row>
     <row r="71" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="159"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="3" t="s">
         <v>13</v>
       </c>
@@ -16807,9 +16807,9 @@
       </c>
     </row>
     <row r="72" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="159"/>
-      <c r="C72" s="159"/>
-      <c r="D72" s="159"/>
+      <c r="B72" s="164"/>
+      <c r="C72" s="164"/>
+      <c r="D72" s="164"/>
       <c r="E72" s="3" t="s">
         <v>103</v>
       </c>
@@ -16872,9 +16872,9 @@
       </c>
     </row>
     <row r="73" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
-      <c r="D73" s="159"/>
+      <c r="B73" s="164"/>
+      <c r="C73" s="164"/>
+      <c r="D73" s="164"/>
       <c r="E73" s="3" t="s">
         <v>109</v>
       </c>
@@ -16937,9 +16937,9 @@
       </c>
     </row>
     <row r="74" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="159"/>
-      <c r="C74" s="159"/>
-      <c r="D74" s="159"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="164"/>
+      <c r="D74" s="164"/>
       <c r="E74" s="3" t="s">
         <v>106</v>
       </c>
@@ -17002,9 +17002,9 @@
       </c>
     </row>
     <row r="75" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="160"/>
-      <c r="C75" s="160"/>
-      <c r="D75" s="160"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="165"/>
+      <c r="D75" s="165"/>
       <c r="E75" s="4" t="s">
         <v>14</v>
       </c>
@@ -17070,13 +17070,13 @@
       <c r="A76" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="155">
+      <c r="B76" s="160">
         <v>14</v>
       </c>
-      <c r="C76" s="155" t="s">
+      <c r="C76" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="155" t="s">
+      <c r="D76" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="27" t="s">
@@ -17133,9 +17133,9 @@
       </c>
     </row>
     <row r="77" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
+      <c r="B77" s="161"/>
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
       <c r="E77" s="6" t="s">
         <v>13</v>
       </c>
@@ -17192,9 +17192,9 @@
       </c>
     </row>
     <row r="78" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="156"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="156"/>
+      <c r="B78" s="161"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
       <c r="E78" s="6" t="s">
         <v>109</v>
       </c>
@@ -17253,9 +17253,9 @@
       </c>
     </row>
     <row r="79" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="156"/>
-      <c r="C79" s="156"/>
-      <c r="D79" s="156"/>
+      <c r="B79" s="161"/>
+      <c r="C79" s="161"/>
+      <c r="D79" s="161"/>
       <c r="E79" s="6" t="s">
         <v>106</v>
       </c>
@@ -17312,9 +17312,9 @@
       </c>
     </row>
     <row r="80" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="157"/>
-      <c r="C80" s="157"/>
-      <c r="D80" s="157"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="162"/>
+      <c r="D80" s="162"/>
       <c r="E80" s="7" t="s">
         <v>14</v>
       </c>
@@ -17374,13 +17374,13 @@
       <c r="A81" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="158">
+      <c r="B81" s="163">
         <v>15</v>
       </c>
-      <c r="C81" s="158" t="s">
+      <c r="C81" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="D81" s="158" t="s">
+      <c r="D81" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="26" t="s">
@@ -17400,7 +17400,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K81" s="173" t="s">
+      <c r="K81" s="206" t="s">
         <v>169</v>
       </c>
       <c r="L81" s="41"/>
@@ -17439,9 +17439,9 @@
       </c>
     </row>
     <row r="82" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="159"/>
+      <c r="B82" s="164"/>
+      <c r="C82" s="164"/>
+      <c r="D82" s="164"/>
       <c r="E82" s="3" t="s">
         <v>13</v>
       </c>
@@ -17461,7 +17461,7 @@
         <f t="shared" si="15"/>
         <v>66.450720029923318</v>
       </c>
-      <c r="K82" s="159"/>
+      <c r="K82" s="164"/>
       <c r="L82" s="42"/>
       <c r="U82" s="119" t="str" cm="1">
         <f t="array" ref="U82">IF(C82="",INDEX(C78:C82,MATCH(TRUE,INDEX((C78:C82&lt;&gt;""),0),0)),C82)</f>
@@ -17498,9 +17498,9 @@
       </c>
     </row>
     <row r="83" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="159"/>
-      <c r="C83" s="159"/>
-      <c r="D83" s="159"/>
+      <c r="B83" s="164"/>
+      <c r="C83" s="164"/>
+      <c r="D83" s="164"/>
       <c r="E83" s="3" t="s">
         <v>109</v>
       </c>
@@ -17520,7 +17520,7 @@
         <f t="shared" si="15"/>
         <v>96.561202543482324</v>
       </c>
-      <c r="K83" s="159"/>
+      <c r="K83" s="164"/>
       <c r="L83" s="42" t="s">
         <v>174</v>
       </c>
@@ -17559,9 +17559,9 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="159"/>
-      <c r="C84" s="159"/>
-      <c r="D84" s="159"/>
+      <c r="B84" s="164"/>
+      <c r="C84" s="164"/>
+      <c r="D84" s="164"/>
       <c r="E84" s="3" t="s">
         <v>106</v>
       </c>
@@ -17581,7 +17581,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K84" s="159"/>
+      <c r="K84" s="164"/>
       <c r="L84" s="42"/>
       <c r="U84" s="119" t="str" cm="1">
         <f t="array" ref="U84">IF(C84="",INDEX(C80:C84,MATCH(TRUE,INDEX((C80:C84&lt;&gt;""),0),0)),C84)</f>
@@ -17618,9 +17618,9 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="160"/>
-      <c r="C85" s="160"/>
-      <c r="D85" s="160"/>
+      <c r="B85" s="165"/>
+      <c r="C85" s="165"/>
+      <c r="D85" s="165"/>
       <c r="E85" s="4" t="s">
         <v>14</v>
       </c>
@@ -17640,7 +17640,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K85" s="160"/>
+      <c r="K85" s="165"/>
       <c r="L85" s="43"/>
       <c r="U85" s="119" t="str" cm="1">
         <f t="array" ref="U85">IF(C85="",INDEX(C81:C85,MATCH(TRUE,INDEX((C81:C85&lt;&gt;""),0),0)),C85)</f>
@@ -17680,13 +17680,13 @@
       <c r="A86" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B86" s="155">
+      <c r="B86" s="160">
         <v>16</v>
       </c>
-      <c r="C86" s="155" t="s">
+      <c r="C86" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="155" t="s">
+      <c r="D86" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="27" t="s">
@@ -17706,7 +17706,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K86" s="155" t="s">
+      <c r="K86" s="160" t="s">
         <v>167</v>
       </c>
       <c r="L86" s="44"/>
@@ -17745,9 +17745,9 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="156"/>
-      <c r="C87" s="156"/>
-      <c r="D87" s="156"/>
+      <c r="B87" s="161"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
       <c r="E87" s="6" t="s">
         <v>13</v>
       </c>
@@ -17769,7 +17769,7 @@
         <f t="shared" si="15"/>
         <v>66.450720029923318</v>
       </c>
-      <c r="K87" s="156"/>
+      <c r="K87" s="161"/>
       <c r="L87" s="45"/>
       <c r="U87" s="119" t="str" cm="1">
         <f t="array" ref="U87">IF(C87="",INDEX(C83:C87,MATCH(TRUE,INDEX((C83:C87&lt;&gt;""),0),0)),C87)</f>
@@ -17806,9 +17806,9 @@
       </c>
     </row>
     <row r="88" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="156"/>
-      <c r="C88" s="156"/>
-      <c r="D88" s="156"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
       <c r="E88" s="6" t="s">
         <v>109</v>
       </c>
@@ -17828,7 +17828,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K88" s="156"/>
+      <c r="K88" s="161"/>
       <c r="L88" s="45"/>
       <c r="U88" s="119" t="str" cm="1">
         <f t="array" ref="U88">IF(C88="",INDEX(C84:C88,MATCH(TRUE,INDEX((C84:C88&lt;&gt;""),0),0)),C88)</f>
@@ -17865,9 +17865,9 @@
       </c>
     </row>
     <row r="89" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="156"/>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
+      <c r="B89" s="161"/>
+      <c r="C89" s="161"/>
+      <c r="D89" s="161"/>
       <c r="E89" s="6" t="s">
         <v>106</v>
       </c>
@@ -17887,7 +17887,7 @@
         <f t="shared" si="15"/>
         <v>88.254862539741907</v>
       </c>
-      <c r="K89" s="156"/>
+      <c r="K89" s="161"/>
       <c r="L89" s="45"/>
       <c r="U89" s="119" t="str" cm="1">
         <f t="array" ref="U89">IF(C89="",INDEX(C85:C89,MATCH(TRUE,INDEX((C85:C89&lt;&gt;""),0),0)),C89)</f>
@@ -17924,9 +17924,9 @@
       </c>
     </row>
     <row r="90" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="157"/>
-      <c r="C90" s="157"/>
-      <c r="D90" s="157"/>
+      <c r="B90" s="162"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
       <c r="E90" s="7" t="s">
         <v>14</v>
       </c>
@@ -17946,7 +17946,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K90" s="157"/>
+      <c r="K90" s="162"/>
       <c r="L90" s="46"/>
       <c r="U90" s="119" t="str" cm="1">
         <f t="array" ref="U90">IF(C90="",INDEX(C86:C90,MATCH(TRUE,INDEX((C86:C90&lt;&gt;""),0),0)),C90)</f>
@@ -17986,13 +17986,13 @@
       <c r="A91" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B91" s="158">
+      <c r="B91" s="163">
         <v>17</v>
       </c>
-      <c r="C91" s="158" t="s">
+      <c r="C91" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="158" t="s">
+      <c r="D91" s="163" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="26" t="s">
@@ -18012,7 +18012,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K91" s="158" t="s">
+      <c r="K91" s="163" t="s">
         <v>101</v>
       </c>
       <c r="L91" s="41"/>
@@ -18051,9 +18051,9 @@
       </c>
     </row>
     <row r="92" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="159"/>
-      <c r="C92" s="159"/>
-      <c r="D92" s="159"/>
+      <c r="B92" s="164"/>
+      <c r="C92" s="164"/>
+      <c r="D92" s="164"/>
       <c r="E92" s="3" t="s">
         <v>13</v>
       </c>
@@ -18075,7 +18075,7 @@
         <f t="shared" si="15"/>
         <v>73.144567046942214</v>
       </c>
-      <c r="K92" s="159"/>
+      <c r="K92" s="164"/>
       <c r="L92" s="42"/>
       <c r="U92" s="119" t="str" cm="1">
         <f t="array" ref="U92">IF(C92="",INDEX(C88:C92,MATCH(TRUE,INDEX((C88:C92&lt;&gt;""),0),0)),C92)</f>
@@ -18112,9 +18112,9 @@
       </c>
     </row>
     <row r="93" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="159"/>
-      <c r="C93" s="159"/>
-      <c r="D93" s="159"/>
+      <c r="B93" s="164"/>
+      <c r="C93" s="164"/>
+      <c r="D93" s="164"/>
       <c r="E93" s="3" t="s">
         <v>106</v>
       </c>
@@ -18134,7 +18134,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K93" s="159"/>
+      <c r="K93" s="164"/>
       <c r="L93" s="42"/>
       <c r="U93" s="119" t="str" cm="1">
         <f t="array" ref="U93">IF(C93="",INDEX(C89:C93,MATCH(TRUE,INDEX((C89:C93&lt;&gt;""),0),0)),C93)</f>
@@ -18171,9 +18171,9 @@
       </c>
     </row>
     <row r="94" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="159"/>
-      <c r="C94" s="159"/>
-      <c r="D94" s="159"/>
+      <c r="B94" s="164"/>
+      <c r="C94" s="164"/>
+      <c r="D94" s="164"/>
       <c r="E94" s="3" t="s">
         <v>109</v>
       </c>
@@ -18193,7 +18193,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K94" s="159"/>
+      <c r="K94" s="164"/>
       <c r="L94" s="42"/>
       <c r="U94" s="119" t="str" cm="1">
         <f t="array" ref="U94">IF(C94="",INDEX(C90:C94,MATCH(TRUE,INDEX((C90:C94&lt;&gt;""),0),0)),C94)</f>
@@ -18230,9 +18230,9 @@
       </c>
     </row>
     <row r="95" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="159"/>
-      <c r="C95" s="159"/>
-      <c r="D95" s="159"/>
+      <c r="B95" s="164"/>
+      <c r="C95" s="164"/>
+      <c r="D95" s="164"/>
       <c r="E95" s="3" t="s">
         <v>110</v>
       </c>
@@ -18252,7 +18252,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K95" s="159"/>
+      <c r="K95" s="164"/>
       <c r="L95" s="42"/>
       <c r="U95" s="119" t="str" cm="1">
         <f t="array" ref="U95">IF(C95="",INDEX(C90:C95,MATCH(TRUE,INDEX((C90:C95&lt;&gt;""),0),0)),C95)</f>
@@ -18289,9 +18289,9 @@
       </c>
     </row>
     <row r="96" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="160"/>
-      <c r="C96" s="160"/>
-      <c r="D96" s="160"/>
+      <c r="B96" s="165"/>
+      <c r="C96" s="165"/>
+      <c r="D96" s="165"/>
       <c r="E96" s="4" t="s">
         <v>14</v>
       </c>
@@ -18313,7 +18313,7 @@
         <f t="shared" si="15"/>
         <v>9.1430708808677768</v>
       </c>
-      <c r="K96" s="160"/>
+      <c r="K96" s="165"/>
       <c r="L96" s="43"/>
       <c r="U96" s="119" t="str" cm="1">
         <f t="array" ref="U96">IF(C96="",INDEX(C91:C96,MATCH(TRUE,INDEX((C91:C96&lt;&gt;""),0),0)),C96)</f>
@@ -18353,13 +18353,13 @@
       <c r="A97" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="155">
+      <c r="B97" s="160">
         <v>18</v>
       </c>
-      <c r="C97" s="155" t="s">
+      <c r="C97" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="155" t="s">
+      <c r="D97" s="160" t="s">
         <v>34</v>
       </c>
       <c r="E97" s="27" t="s">
@@ -18416,9 +18416,9 @@
       </c>
     </row>
     <row r="98" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="156"/>
-      <c r="C98" s="156"/>
-      <c r="D98" s="156"/>
+      <c r="B98" s="161"/>
+      <c r="C98" s="161"/>
+      <c r="D98" s="161"/>
       <c r="E98" s="6" t="s">
         <v>13</v>
       </c>
@@ -18477,9 +18477,9 @@
       </c>
     </row>
     <row r="99" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="156"/>
+      <c r="B99" s="161"/>
+      <c r="C99" s="161"/>
+      <c r="D99" s="161"/>
       <c r="E99" s="6" t="s">
         <v>103</v>
       </c>
@@ -18536,9 +18536,9 @@
       </c>
     </row>
     <row r="100" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="156"/>
-      <c r="C100" s="156"/>
-      <c r="D100" s="156"/>
+      <c r="B100" s="161"/>
+      <c r="C100" s="161"/>
+      <c r="D100" s="161"/>
       <c r="E100" s="6" t="s">
         <v>106</v>
       </c>
@@ -18597,9 +18597,9 @@
       </c>
     </row>
     <row r="101" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="156"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="156"/>
+      <c r="B101" s="161"/>
+      <c r="C101" s="161"/>
+      <c r="D101" s="161"/>
       <c r="E101" s="6" t="s">
         <v>109</v>
       </c>
@@ -18658,9 +18658,9 @@
       </c>
     </row>
     <row r="102" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="156"/>
-      <c r="C102" s="156"/>
-      <c r="D102" s="156"/>
+      <c r="B102" s="161"/>
+      <c r="C102" s="161"/>
+      <c r="D102" s="161"/>
       <c r="E102" s="6" t="s">
         <v>110</v>
       </c>
@@ -18701,9 +18701,9 @@
       <c r="Z102" s="121"/>
     </row>
     <row r="103" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="157"/>
-      <c r="C103" s="157"/>
-      <c r="D103" s="157"/>
+      <c r="B103" s="162"/>
+      <c r="C103" s="162"/>
+      <c r="D103" s="162"/>
       <c r="E103" s="7" t="s">
         <v>14</v>
       </c>
@@ -18749,13 +18749,13 @@
       <c r="A104" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="158">
+      <c r="B104" s="163">
         <v>19</v>
       </c>
-      <c r="C104" s="158" t="s">
+      <c r="C104" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="D104" s="158" t="s">
+      <c r="D104" s="163" t="s">
         <v>34</v>
       </c>
       <c r="E104" s="26" t="s">
@@ -18775,7 +18775,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K104" s="158" t="s">
+      <c r="K104" s="163" t="s">
         <v>139</v>
       </c>
       <c r="L104" s="41"/>
@@ -18798,9 +18798,9 @@
       <c r="Z104" s="121"/>
     </row>
     <row r="105" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="159"/>
-      <c r="C105" s="159"/>
-      <c r="D105" s="159"/>
+      <c r="B105" s="164"/>
+      <c r="C105" s="164"/>
+      <c r="D105" s="164"/>
       <c r="E105" s="3" t="s">
         <v>13</v>
       </c>
@@ -18820,7 +18820,7 @@
         <f t="shared" si="15"/>
         <v>73.144567046942214</v>
       </c>
-      <c r="K105" s="159"/>
+      <c r="K105" s="164"/>
       <c r="L105" s="42"/>
       <c r="U105" s="119" t="str" cm="1">
         <f t="array" ref="U105">IF(C105="",INDEX(C101:C105,MATCH(TRUE,INDEX((C101:C105&lt;&gt;""),0),0)),C105)</f>
@@ -18841,9 +18841,9 @@
       <c r="Z105" s="121"/>
     </row>
     <row r="106" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="159"/>
-      <c r="C106" s="159"/>
-      <c r="D106" s="159"/>
+      <c r="B106" s="164"/>
+      <c r="C106" s="164"/>
+      <c r="D106" s="164"/>
       <c r="E106" s="3" t="s">
         <v>106</v>
       </c>
@@ -18863,7 +18863,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K106" s="159"/>
+      <c r="K106" s="164"/>
       <c r="L106" s="42"/>
       <c r="U106" s="119" t="str" cm="1">
         <f t="array" ref="U106">IF(C106="",INDEX(C102:C106,MATCH(TRUE,INDEX((C102:C106&lt;&gt;""),0),0)),C106)</f>
@@ -18884,9 +18884,9 @@
       <c r="Z106" s="121"/>
     </row>
     <row r="107" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="159"/>
-      <c r="C107" s="159"/>
-      <c r="D107" s="159"/>
+      <c r="B107" s="164"/>
+      <c r="C107" s="164"/>
+      <c r="D107" s="164"/>
       <c r="E107" s="3" t="s">
         <v>109</v>
       </c>
@@ -18906,7 +18906,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K107" s="159"/>
+      <c r="K107" s="164"/>
       <c r="L107" s="42"/>
       <c r="U107" s="119" t="str" cm="1">
         <f t="array" ref="U107">IF(C107="",INDEX(C103:C107,MATCH(TRUE,INDEX((C103:C107&lt;&gt;""),0),0)),C107)</f>
@@ -18927,9 +18927,9 @@
       <c r="Z107" s="121"/>
     </row>
     <row r="108" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="159"/>
-      <c r="C108" s="159"/>
-      <c r="D108" s="159"/>
+      <c r="B108" s="164"/>
+      <c r="C108" s="164"/>
+      <c r="D108" s="164"/>
       <c r="E108" s="3" t="s">
         <v>110</v>
       </c>
@@ -18949,7 +18949,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K108" s="159"/>
+      <c r="K108" s="164"/>
       <c r="L108" s="42"/>
       <c r="U108" s="119" t="str" cm="1">
         <f t="array" ref="U108">IF(C108="",INDEX(C102:C108,MATCH(TRUE,INDEX((C102:C108&lt;&gt;""),0),0)),C108)</f>
@@ -18970,9 +18970,9 @@
       <c r="Z108" s="121"/>
     </row>
     <row r="109" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="160"/>
-      <c r="C109" s="160"/>
-      <c r="D109" s="160"/>
+      <c r="B109" s="165"/>
+      <c r="C109" s="165"/>
+      <c r="D109" s="165"/>
       <c r="E109" s="4" t="s">
         <v>14</v>
       </c>
@@ -18992,7 +18992,7 @@
         <f t="shared" si="15"/>
         <v>9.1430708808677768</v>
       </c>
-      <c r="K109" s="160"/>
+      <c r="K109" s="165"/>
       <c r="L109" s="43"/>
       <c r="U109" s="119" t="str" cm="1">
         <f t="array" ref="U109">IF(C109="",INDEX(C103:C109,MATCH(TRUE,INDEX((C103:C109&lt;&gt;""),0),0)),C109)</f>
@@ -19016,13 +19016,13 @@
       <c r="A110" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="155">
+      <c r="B110" s="160">
         <v>20</v>
       </c>
-      <c r="C110" s="155" t="s">
+      <c r="C110" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="D110" s="155" t="s">
+      <c r="D110" s="160" t="s">
         <v>38</v>
       </c>
       <c r="E110" s="27" t="s">
@@ -19042,7 +19042,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K110" s="155"/>
+      <c r="K110" s="160"/>
       <c r="L110" s="44"/>
       <c r="U110" s="119" t="str" cm="1">
         <f t="array" ref="U110">IF(C110="",INDEX(C104:C110,MATCH(TRUE,INDEX((C104:C110&lt;&gt;""),0),0)),C110)</f>
@@ -19065,9 +19065,9 @@
       <c r="Z110" s="121"/>
     </row>
     <row r="111" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="156"/>
-      <c r="C111" s="156"/>
-      <c r="D111" s="156"/>
+      <c r="B111" s="161"/>
+      <c r="C111" s="161"/>
+      <c r="D111" s="161"/>
       <c r="E111" s="6" t="s">
         <v>13</v>
       </c>
@@ -19087,7 +19087,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K111" s="156"/>
+      <c r="K111" s="161"/>
       <c r="L111" s="45"/>
       <c r="U111" s="119" t="str" cm="1">
         <f t="array" ref="U111">IF(C111="",INDEX(C105:C111,MATCH(TRUE,INDEX((C105:C111&lt;&gt;""),0),0)),C111)</f>
@@ -19108,9 +19108,9 @@
       <c r="Z111" s="121"/>
     </row>
     <row r="112" spans="1:34" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="156"/>
-      <c r="C112" s="156"/>
-      <c r="D112" s="156"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="161"/>
+      <c r="D112" s="161"/>
       <c r="E112" s="6" t="s">
         <v>103</v>
       </c>
@@ -19132,7 +19132,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K112" s="156"/>
+      <c r="K112" s="161"/>
       <c r="L112" s="45" t="s">
         <v>125</v>
       </c>
@@ -19164,9 +19164,9 @@
       </c>
     </row>
     <row r="113" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="156"/>
-      <c r="C113" s="156"/>
-      <c r="D113" s="156"/>
+      <c r="B113" s="161"/>
+      <c r="C113" s="161"/>
+      <c r="D113" s="161"/>
       <c r="E113" s="6" t="s">
         <v>109</v>
       </c>
@@ -19186,7 +19186,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K113" s="156"/>
+      <c r="K113" s="161"/>
       <c r="L113" s="45"/>
       <c r="U113" s="119" t="str" cm="1">
         <f t="array" ref="U113">IF(C113="",INDEX(C107:C113,MATCH(TRUE,INDEX((C107:C113&lt;&gt;""),0),0)),C113)</f>
@@ -19217,9 +19217,9 @@
       </c>
     </row>
     <row r="114" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="156"/>
-      <c r="C114" s="156"/>
-      <c r="D114" s="156"/>
+      <c r="B114" s="161"/>
+      <c r="C114" s="161"/>
+      <c r="D114" s="161"/>
       <c r="E114" s="6" t="s">
         <v>110</v>
       </c>
@@ -19239,7 +19239,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K114" s="156"/>
+      <c r="K114" s="161"/>
       <c r="L114" s="45"/>
       <c r="U114" s="119" t="str" cm="1">
         <f t="array" ref="U114">IF(C114="",INDEX(C108:C114,MATCH(TRUE,INDEX((C108:C114&lt;&gt;""),0),0)),C114)</f>
@@ -19269,9 +19269,9 @@
       </c>
     </row>
     <row r="115" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="156"/>
-      <c r="C115" s="156"/>
-      <c r="D115" s="156"/>
+      <c r="B115" s="161"/>
+      <c r="C115" s="161"/>
+      <c r="D115" s="161"/>
       <c r="E115" s="6" t="s">
         <v>106</v>
       </c>
@@ -19291,7 +19291,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K115" s="156"/>
+      <c r="K115" s="161"/>
       <c r="L115" s="45"/>
       <c r="U115" s="119" t="str" cm="1">
         <f t="array" ref="U115">IF(C115="",INDEX(C109:C115,MATCH(TRUE,INDEX((C109:C115&lt;&gt;""),0),0)),C115)</f>
@@ -19324,9 +19324,9 @@
       </c>
     </row>
     <row r="116" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="157"/>
-      <c r="C116" s="157"/>
-      <c r="D116" s="157"/>
+      <c r="B116" s="162"/>
+      <c r="C116" s="162"/>
+      <c r="D116" s="162"/>
       <c r="E116" s="7" t="s">
         <v>14</v>
       </c>
@@ -19346,7 +19346,7 @@
         <f t="shared" si="15"/>
         <v>10.4</v>
       </c>
-      <c r="K116" s="157"/>
+      <c r="K116" s="162"/>
       <c r="L116" s="46"/>
       <c r="U116" s="119" t="str" cm="1">
         <f t="array" ref="U116">IF(C116="",INDEX(C110:C116,MATCH(TRUE,INDEX((C110:C116&lt;&gt;""),0),0)),C116)</f>
@@ -19370,13 +19370,13 @@
       <c r="A117" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B117" s="158">
+      <c r="B117" s="163">
         <v>21</v>
       </c>
-      <c r="C117" s="158" t="s">
+      <c r="C117" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="D117" s="158" t="s">
+      <c r="D117" s="163" t="s">
         <v>38</v>
       </c>
       <c r="E117" s="26" t="s">
@@ -19396,7 +19396,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K117" s="158" t="s">
+      <c r="K117" s="163" t="s">
         <v>144</v>
       </c>
       <c r="L117" s="41"/>
@@ -19428,9 +19428,9 @@
       </c>
     </row>
     <row r="118" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="159"/>
-      <c r="C118" s="159"/>
-      <c r="D118" s="159"/>
+      <c r="B118" s="164"/>
+      <c r="C118" s="164"/>
+      <c r="D118" s="164"/>
       <c r="E118" s="3" t="s">
         <v>13</v>
       </c>
@@ -19450,7 +19450,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K118" s="159"/>
+      <c r="K118" s="164"/>
       <c r="L118" s="42"/>
       <c r="U118" s="119" t="str" cm="1">
         <f t="array" ref="U118">IF(C118="",INDEX(C112:C118,MATCH(TRUE,INDEX((C112:C118&lt;&gt;""),0),0)),C118)</f>
@@ -19478,9 +19478,9 @@
       </c>
     </row>
     <row r="119" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="159"/>
-      <c r="C119" s="159"/>
-      <c r="D119" s="159"/>
+      <c r="B119" s="164"/>
+      <c r="C119" s="164"/>
+      <c r="D119" s="164"/>
       <c r="E119" s="3" t="s">
         <v>109</v>
       </c>
@@ -19500,7 +19500,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K119" s="159"/>
+      <c r="K119" s="164"/>
       <c r="L119" s="42"/>
       <c r="U119" s="119" t="str" cm="1">
         <f t="array" ref="U119">IF(C119="",INDEX(C113:C119,MATCH(TRUE,INDEX((C113:C119&lt;&gt;""),0),0)),C119)</f>
@@ -19528,9 +19528,9 @@
       </c>
     </row>
     <row r="120" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="159"/>
-      <c r="C120" s="159"/>
-      <c r="D120" s="159"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="164"/>
+      <c r="D120" s="164"/>
       <c r="E120" s="3" t="s">
         <v>110</v>
       </c>
@@ -19550,7 +19550,7 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K120" s="159"/>
+      <c r="K120" s="164"/>
       <c r="L120" s="42" t="s">
         <v>145</v>
       </c>
@@ -19573,9 +19573,9 @@
       <c r="Z120" s="121"/>
     </row>
     <row r="121" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="159"/>
-      <c r="C121" s="159"/>
-      <c r="D121" s="159"/>
+      <c r="B121" s="164"/>
+      <c r="C121" s="164"/>
+      <c r="D121" s="164"/>
       <c r="E121" s="3" t="s">
         <v>106</v>
       </c>
@@ -19595,7 +19595,7 @@
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="K121" s="159"/>
+      <c r="K121" s="164"/>
       <c r="L121" s="42"/>
       <c r="U121" s="119" t="str" cm="1">
         <f t="array" ref="U121">IF(C121="",INDEX(C115:C121,MATCH(TRUE,INDEX((C115:C121&lt;&gt;""),0),0)),C121)</f>
@@ -19625,9 +19625,9 @@
       </c>
     </row>
     <row r="122" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="160"/>
-      <c r="C122" s="160"/>
-      <c r="D122" s="160"/>
+      <c r="B122" s="165"/>
+      <c r="C122" s="165"/>
+      <c r="D122" s="165"/>
       <c r="E122" s="4" t="s">
         <v>14</v>
       </c>
@@ -19647,7 +19647,7 @@
         <f t="shared" si="15"/>
         <v>10.4</v>
       </c>
-      <c r="K122" s="160"/>
+      <c r="K122" s="165"/>
       <c r="L122" s="43"/>
       <c r="U122" s="119" t="str" cm="1">
         <f t="array" ref="U122">IF(C122="",INDEX(C116:C122,MATCH(TRUE,INDEX((C116:C122&lt;&gt;""),0),0)),C122)</f>
@@ -19671,13 +19671,13 @@
       <c r="A123" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B123" s="155">
+      <c r="B123" s="160">
         <v>22</v>
       </c>
-      <c r="C123" s="155" t="s">
+      <c r="C123" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="155" t="s">
+      <c r="D123" s="160" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="27" t="s">
@@ -19725,9 +19725,9 @@
       </c>
     </row>
     <row r="124" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="156"/>
-      <c r="C124" s="156"/>
-      <c r="D124" s="156"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="161"/>
+      <c r="D124" s="161"/>
       <c r="E124" s="6" t="s">
         <v>13</v>
       </c>
@@ -19768,9 +19768,9 @@
       <c r="Z124" s="121"/>
     </row>
     <row r="125" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="156"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
+      <c r="B125" s="161"/>
+      <c r="C125" s="161"/>
+      <c r="D125" s="161"/>
       <c r="E125" s="6" t="s">
         <v>103</v>
       </c>
@@ -19811,9 +19811,9 @@
       <c r="Z125" s="121"/>
     </row>
     <row r="126" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="156"/>
-      <c r="C126" s="156"/>
-      <c r="D126" s="156"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="161"/>
+      <c r="D126" s="161"/>
       <c r="E126" s="6" t="s">
         <v>106</v>
       </c>
@@ -19854,9 +19854,9 @@
       <c r="Z126" s="121"/>
     </row>
     <row r="127" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="156"/>
-      <c r="C127" s="156"/>
-      <c r="D127" s="156"/>
+      <c r="B127" s="161"/>
+      <c r="C127" s="161"/>
+      <c r="D127" s="161"/>
       <c r="E127" s="6" t="s">
         <v>109</v>
       </c>
@@ -19897,9 +19897,9 @@
       <c r="Z127" s="121"/>
     </row>
     <row r="128" spans="1:31" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="156"/>
-      <c r="C128" s="156"/>
-      <c r="D128" s="156"/>
+      <c r="B128" s="161"/>
+      <c r="C128" s="161"/>
+      <c r="D128" s="161"/>
       <c r="E128" s="6" t="s">
         <v>290</v>
       </c>
@@ -19940,9 +19940,9 @@
       <c r="Z128" s="121"/>
     </row>
     <row r="129" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="156"/>
-      <c r="C129" s="156"/>
-      <c r="D129" s="156"/>
+      <c r="B129" s="161"/>
+      <c r="C129" s="161"/>
+      <c r="D129" s="161"/>
       <c r="E129" s="6" t="s">
         <v>110</v>
       </c>
@@ -19983,9 +19983,9 @@
       <c r="Z129" s="121"/>
     </row>
     <row r="130" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="157"/>
-      <c r="C130" s="157"/>
-      <c r="D130" s="157"/>
+      <c r="B130" s="162"/>
+      <c r="C130" s="162"/>
+      <c r="D130" s="162"/>
       <c r="E130" s="7" t="s">
         <v>14</v>
       </c>
@@ -20031,13 +20031,13 @@
       <c r="A131" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="158">
+      <c r="B131" s="163">
         <v>23</v>
       </c>
-      <c r="C131" s="158" t="s">
+      <c r="C131" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="D131" s="158" t="s">
+      <c r="D131" s="163" t="s">
         <v>41</v>
       </c>
       <c r="E131" s="26" t="s">
@@ -20080,9 +20080,9 @@
       <c r="Z131" s="121"/>
     </row>
     <row r="132" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="159"/>
-      <c r="C132" s="159"/>
-      <c r="D132" s="159"/>
+      <c r="B132" s="164"/>
+      <c r="C132" s="164"/>
+      <c r="D132" s="164"/>
       <c r="E132" s="3" t="s">
         <v>13</v>
       </c>
@@ -20123,9 +20123,9 @@
       <c r="Z132" s="121"/>
     </row>
     <row r="133" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="159"/>
-      <c r="C133" s="159"/>
-      <c r="D133" s="159"/>
+      <c r="B133" s="164"/>
+      <c r="C133" s="164"/>
+      <c r="D133" s="164"/>
       <c r="E133" s="3" t="s">
         <v>109</v>
       </c>
@@ -20166,9 +20166,9 @@
       <c r="Z133" s="121"/>
     </row>
     <row r="134" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="159"/>
-      <c r="C134" s="159"/>
-      <c r="D134" s="159"/>
+      <c r="B134" s="164"/>
+      <c r="C134" s="164"/>
+      <c r="D134" s="164"/>
       <c r="E134" s="3" t="s">
         <v>110</v>
       </c>
@@ -20209,9 +20209,9 @@
       <c r="Z134" s="121"/>
     </row>
     <row r="135" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="159"/>
-      <c r="C135" s="159"/>
-      <c r="D135" s="159"/>
+      <c r="B135" s="164"/>
+      <c r="C135" s="164"/>
+      <c r="D135" s="164"/>
       <c r="E135" s="3" t="s">
         <v>106</v>
       </c>
@@ -20252,9 +20252,9 @@
       <c r="Z135" s="121"/>
     </row>
     <row r="136" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="160"/>
-      <c r="C136" s="160"/>
-      <c r="D136" s="160"/>
+      <c r="B136" s="165"/>
+      <c r="C136" s="165"/>
+      <c r="D136" s="165"/>
       <c r="E136" s="4" t="s">
         <v>14</v>
       </c>
@@ -20300,13 +20300,13 @@
       <c r="A137" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B137" s="155">
+      <c r="B137" s="160">
         <v>24</v>
       </c>
-      <c r="C137" s="155" t="s">
+      <c r="C137" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="D137" s="155" t="s">
+      <c r="D137" s="160" t="s">
         <v>41</v>
       </c>
       <c r="E137" s="27" t="s">
@@ -20347,9 +20347,9 @@
       <c r="Z137" s="121"/>
     </row>
     <row r="138" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="156"/>
-      <c r="C138" s="156"/>
-      <c r="D138" s="156"/>
+      <c r="B138" s="161"/>
+      <c r="C138" s="161"/>
+      <c r="D138" s="161"/>
       <c r="E138" s="6" t="s">
         <v>13</v>
       </c>
@@ -20390,9 +20390,9 @@
       <c r="Z138" s="121"/>
     </row>
     <row r="139" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="156"/>
-      <c r="C139" s="156"/>
-      <c r="D139" s="156"/>
+      <c r="B139" s="161"/>
+      <c r="C139" s="161"/>
+      <c r="D139" s="161"/>
       <c r="E139" s="6" t="s">
         <v>103</v>
       </c>
@@ -20433,9 +20433,9 @@
       <c r="Z139" s="121"/>
     </row>
     <row r="140" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="156"/>
-      <c r="C140" s="156"/>
-      <c r="D140" s="156"/>
+      <c r="B140" s="161"/>
+      <c r="C140" s="161"/>
+      <c r="D140" s="161"/>
       <c r="E140" s="6" t="s">
         <v>106</v>
       </c>
@@ -20476,9 +20476,9 @@
       <c r="Z140" s="121"/>
     </row>
     <row r="141" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="156"/>
-      <c r="C141" s="156"/>
-      <c r="D141" s="156"/>
+      <c r="B141" s="161"/>
+      <c r="C141" s="161"/>
+      <c r="D141" s="161"/>
       <c r="E141" s="6" t="s">
         <v>109</v>
       </c>
@@ -20519,9 +20519,9 @@
       <c r="Z141" s="121"/>
     </row>
     <row r="142" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="156"/>
-      <c r="C142" s="156"/>
-      <c r="D142" s="156"/>
+      <c r="B142" s="161"/>
+      <c r="C142" s="161"/>
+      <c r="D142" s="161"/>
       <c r="E142" s="6" t="s">
         <v>280</v>
       </c>
@@ -20567,9 +20567,9 @@
       <c r="Z142" s="121"/>
     </row>
     <row r="143" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="156"/>
-      <c r="C143" s="156"/>
-      <c r="D143" s="156"/>
+      <c r="B143" s="161"/>
+      <c r="C143" s="161"/>
+      <c r="D143" s="161"/>
       <c r="E143" s="6" t="s">
         <v>110</v>
       </c>
@@ -20610,9 +20610,9 @@
       <c r="Z143" s="121"/>
     </row>
     <row r="144" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="156"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
+      <c r="B144" s="161"/>
+      <c r="C144" s="161"/>
+      <c r="D144" s="161"/>
       <c r="E144" s="6" t="s">
         <v>290</v>
       </c>
@@ -20653,9 +20653,9 @@
       <c r="Z144" s="121"/>
     </row>
     <row r="145" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="156"/>
-      <c r="C145" s="156"/>
-      <c r="D145" s="156"/>
+      <c r="B145" s="161"/>
+      <c r="C145" s="161"/>
+      <c r="D145" s="161"/>
       <c r="E145" s="6" t="s">
         <v>185</v>
       </c>
@@ -20701,9 +20701,9 @@
       <c r="Z145" s="121"/>
     </row>
     <row r="146" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="157"/>
-      <c r="C146" s="157"/>
-      <c r="D146" s="157"/>
+      <c r="B146" s="162"/>
+      <c r="C146" s="162"/>
+      <c r="D146" s="162"/>
       <c r="E146" s="7" t="s">
         <v>14</v>
       </c>
@@ -20747,13 +20747,13 @@
       <c r="A147" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="158">
+      <c r="B147" s="163">
         <v>25</v>
       </c>
-      <c r="C147" s="158" t="s">
+      <c r="C147" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="D147" s="158" t="s">
+      <c r="D147" s="163" t="s">
         <v>45</v>
       </c>
       <c r="E147" s="26" t="s">
@@ -20794,9 +20794,9 @@
       <c r="Z147" s="121"/>
     </row>
     <row r="148" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="159"/>
-      <c r="C148" s="159"/>
-      <c r="D148" s="159"/>
+      <c r="B148" s="164"/>
+      <c r="C148" s="164"/>
+      <c r="D148" s="164"/>
       <c r="E148" s="3" t="s">
         <v>13</v>
       </c>
@@ -20837,9 +20837,9 @@
       <c r="Z148" s="121"/>
     </row>
     <row r="149" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="159"/>
-      <c r="C149" s="159"/>
-      <c r="D149" s="159"/>
+      <c r="B149" s="164"/>
+      <c r="C149" s="164"/>
+      <c r="D149" s="164"/>
       <c r="E149" s="3" t="s">
         <v>110</v>
       </c>
@@ -20880,9 +20880,9 @@
       <c r="Z149" s="121"/>
     </row>
     <row r="150" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="159"/>
-      <c r="C150" s="159"/>
-      <c r="D150" s="159"/>
+      <c r="B150" s="164"/>
+      <c r="C150" s="164"/>
+      <c r="D150" s="164"/>
       <c r="E150" s="3" t="s">
         <v>109</v>
       </c>
@@ -20927,9 +20927,9 @@
       <c r="Z150" s="121"/>
     </row>
     <row r="151" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="159"/>
-      <c r="C151" s="159"/>
-      <c r="D151" s="159"/>
+      <c r="B151" s="164"/>
+      <c r="C151" s="164"/>
+      <c r="D151" s="164"/>
       <c r="E151" s="3" t="s">
         <v>106</v>
       </c>
@@ -20970,9 +20970,9 @@
       <c r="Z151" s="121"/>
     </row>
     <row r="152" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="160"/>
-      <c r="C152" s="160"/>
-      <c r="D152" s="160"/>
+      <c r="B152" s="165"/>
+      <c r="C152" s="165"/>
+      <c r="D152" s="165"/>
       <c r="E152" s="4" t="s">
         <v>14</v>
       </c>
@@ -21016,13 +21016,13 @@
       <c r="A153" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B153" s="155">
+      <c r="B153" s="160">
         <v>26</v>
       </c>
-      <c r="C153" s="155" t="s">
+      <c r="C153" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="D153" s="175" t="s">
+      <c r="D153" s="193" t="s">
         <v>99</v>
       </c>
       <c r="E153" s="27" t="s">
@@ -21063,9 +21063,9 @@
       <c r="Z153" s="121"/>
     </row>
     <row r="154" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="156"/>
-      <c r="C154" s="156"/>
-      <c r="D154" s="176"/>
+      <c r="B154" s="161"/>
+      <c r="C154" s="161"/>
+      <c r="D154" s="194"/>
       <c r="E154" s="6" t="s">
         <v>13</v>
       </c>
@@ -21106,9 +21106,9 @@
       <c r="Z154" s="121"/>
     </row>
     <row r="155" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="156"/>
-      <c r="C155" s="156"/>
-      <c r="D155" s="156"/>
+      <c r="B155" s="161"/>
+      <c r="C155" s="161"/>
+      <c r="D155" s="161"/>
       <c r="E155" s="6" t="s">
         <v>110</v>
       </c>
@@ -21149,9 +21149,9 @@
       <c r="Z155" s="121"/>
     </row>
     <row r="156" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="156"/>
-      <c r="C156" s="156"/>
-      <c r="D156" s="156"/>
+      <c r="B156" s="161"/>
+      <c r="C156" s="161"/>
+      <c r="D156" s="161"/>
       <c r="E156" s="6" t="s">
         <v>109</v>
       </c>
@@ -21197,9 +21197,9 @@
       <c r="Z156" s="121"/>
     </row>
     <row r="157" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="156"/>
-      <c r="C157" s="156"/>
-      <c r="D157" s="156"/>
+      <c r="B157" s="161"/>
+      <c r="C157" s="161"/>
+      <c r="D157" s="161"/>
       <c r="E157" s="6" t="s">
         <v>106</v>
       </c>
@@ -21242,9 +21242,9 @@
       <c r="Z157" s="121"/>
     </row>
     <row r="158" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="157"/>
-      <c r="C158" s="157"/>
-      <c r="D158" s="157"/>
+      <c r="B158" s="162"/>
+      <c r="C158" s="162"/>
+      <c r="D158" s="162"/>
       <c r="E158" s="7" t="s">
         <v>14</v>
       </c>
@@ -21288,13 +21288,13 @@
       <c r="A159" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B159" s="158">
+      <c r="B159" s="163">
         <v>27</v>
       </c>
-      <c r="C159" s="158" t="s">
+      <c r="C159" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="D159" s="177" t="s">
+      <c r="D159" s="195" t="s">
         <v>99</v>
       </c>
       <c r="E159" s="26" t="s">
@@ -21335,9 +21335,9 @@
       <c r="Z159" s="121"/>
     </row>
     <row r="160" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="159"/>
-      <c r="C160" s="159"/>
-      <c r="D160" s="178"/>
+      <c r="B160" s="164"/>
+      <c r="C160" s="164"/>
+      <c r="D160" s="196"/>
       <c r="E160" s="3" t="s">
         <v>13</v>
       </c>
@@ -21378,9 +21378,9 @@
       <c r="Z160" s="121"/>
     </row>
     <row r="161" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="159"/>
-      <c r="C161" s="159"/>
-      <c r="D161" s="178"/>
+      <c r="B161" s="164"/>
+      <c r="C161" s="164"/>
+      <c r="D161" s="196"/>
       <c r="E161" s="3" t="s">
         <v>110</v>
       </c>
@@ -21421,9 +21421,9 @@
       <c r="Z161" s="121"/>
     </row>
     <row r="162" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="159"/>
-      <c r="C162" s="159"/>
-      <c r="D162" s="178"/>
+      <c r="B162" s="164"/>
+      <c r="C162" s="164"/>
+      <c r="D162" s="196"/>
       <c r="E162" s="3" t="s">
         <v>109</v>
       </c>
@@ -21471,9 +21471,9 @@
       <c r="Z162" s="121"/>
     </row>
     <row r="163" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="159"/>
-      <c r="C163" s="159"/>
-      <c r="D163" s="159"/>
+      <c r="B163" s="164"/>
+      <c r="C163" s="164"/>
+      <c r="D163" s="164"/>
       <c r="E163" s="3" t="s">
         <v>106</v>
       </c>
@@ -21516,9 +21516,9 @@
       <c r="Z163" s="121"/>
     </row>
     <row r="164" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="160"/>
-      <c r="C164" s="160"/>
-      <c r="D164" s="160"/>
+      <c r="B164" s="165"/>
+      <c r="C164" s="165"/>
+      <c r="D164" s="165"/>
       <c r="E164" s="4" t="s">
         <v>14</v>
       </c>
@@ -21562,13 +21562,13 @@
       <c r="A165" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="155">
+      <c r="B165" s="160">
         <v>28</v>
       </c>
-      <c r="C165" s="155" t="s">
+      <c r="C165" s="160" t="s">
         <v>48</v>
       </c>
-      <c r="D165" s="175" t="s">
+      <c r="D165" s="193" t="s">
         <v>49</v>
       </c>
       <c r="E165" s="27" t="s">
@@ -21609,9 +21609,9 @@
       <c r="Z165" s="121"/>
     </row>
     <row r="166" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="156"/>
-      <c r="C166" s="156"/>
-      <c r="D166" s="176"/>
+      <c r="B166" s="161"/>
+      <c r="C166" s="161"/>
+      <c r="D166" s="194"/>
       <c r="E166" s="6" t="s">
         <v>13</v>
       </c>
@@ -21652,9 +21652,9 @@
       <c r="Z166" s="121"/>
     </row>
     <row r="167" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="156"/>
-      <c r="C167" s="156"/>
-      <c r="D167" s="176"/>
+      <c r="B167" s="161"/>
+      <c r="C167" s="161"/>
+      <c r="D167" s="194"/>
       <c r="E167" s="6" t="s">
         <v>110</v>
       </c>
@@ -21695,9 +21695,9 @@
       <c r="Z167" s="121"/>
     </row>
     <row r="168" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="156"/>
-      <c r="C168" s="156"/>
-      <c r="D168" s="176"/>
+      <c r="B168" s="161"/>
+      <c r="C168" s="161"/>
+      <c r="D168" s="194"/>
       <c r="E168" s="6" t="s">
         <v>109</v>
       </c>
@@ -21743,9 +21743,9 @@
       <c r="Z168" s="121"/>
     </row>
     <row r="169" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="156"/>
-      <c r="C169" s="156"/>
-      <c r="D169" s="156"/>
+      <c r="B169" s="161"/>
+      <c r="C169" s="161"/>
+      <c r="D169" s="161"/>
       <c r="E169" s="6" t="s">
         <v>106</v>
       </c>
@@ -21788,9 +21788,9 @@
       <c r="Z169" s="121"/>
     </row>
     <row r="170" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="157"/>
-      <c r="C170" s="157"/>
-      <c r="D170" s="157"/>
+      <c r="B170" s="162"/>
+      <c r="C170" s="162"/>
+      <c r="D170" s="162"/>
       <c r="E170" s="7" t="s">
         <v>14</v>
       </c>
@@ -21834,13 +21834,13 @@
       <c r="A171" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="158">
+      <c r="B171" s="163">
         <v>29</v>
       </c>
-      <c r="C171" s="158" t="s">
+      <c r="C171" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="D171" s="177" t="s">
+      <c r="D171" s="195" t="s">
         <v>49</v>
       </c>
       <c r="E171" s="26" t="s">
@@ -21881,9 +21881,9 @@
       <c r="Z171" s="121"/>
     </row>
     <row r="172" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="159"/>
-      <c r="C172" s="159"/>
-      <c r="D172" s="178"/>
+      <c r="B172" s="164"/>
+      <c r="C172" s="164"/>
+      <c r="D172" s="196"/>
       <c r="E172" s="3" t="s">
         <v>13</v>
       </c>
@@ -21924,9 +21924,9 @@
       <c r="Z172" s="121"/>
     </row>
     <row r="173" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="159"/>
-      <c r="C173" s="159"/>
-      <c r="D173" s="178"/>
+      <c r="B173" s="164"/>
+      <c r="C173" s="164"/>
+      <c r="D173" s="196"/>
       <c r="E173" s="3" t="s">
         <v>110</v>
       </c>
@@ -21967,9 +21967,9 @@
       <c r="Z173" s="121"/>
     </row>
     <row r="174" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="159"/>
-      <c r="C174" s="159"/>
-      <c r="D174" s="178"/>
+      <c r="B174" s="164"/>
+      <c r="C174" s="164"/>
+      <c r="D174" s="196"/>
       <c r="E174" s="3" t="s">
         <v>109</v>
       </c>
@@ -22015,9 +22015,9 @@
       <c r="Z174" s="121"/>
     </row>
     <row r="175" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="159"/>
-      <c r="C175" s="159"/>
-      <c r="D175" s="159"/>
+      <c r="B175" s="164"/>
+      <c r="C175" s="164"/>
+      <c r="D175" s="164"/>
       <c r="E175" s="3" t="s">
         <v>106</v>
       </c>
@@ -22060,9 +22060,9 @@
       <c r="Z175" s="121"/>
     </row>
     <row r="176" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="160"/>
-      <c r="C176" s="160"/>
-      <c r="D176" s="160"/>
+      <c r="B176" s="165"/>
+      <c r="C176" s="165"/>
+      <c r="D176" s="165"/>
       <c r="E176" s="4" t="s">
         <v>14</v>
       </c>
@@ -22106,13 +22106,13 @@
       <c r="A177" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B177" s="155">
+      <c r="B177" s="160">
         <v>30</v>
       </c>
-      <c r="C177" s="155" t="s">
+      <c r="C177" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="D177" s="175" t="s">
+      <c r="D177" s="193" t="s">
         <v>52</v>
       </c>
       <c r="E177" s="27" t="s">
@@ -22153,9 +22153,9 @@
       <c r="Z177" s="121"/>
     </row>
     <row r="178" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="156"/>
-      <c r="C178" s="156"/>
-      <c r="D178" s="176"/>
+      <c r="B178" s="161"/>
+      <c r="C178" s="161"/>
+      <c r="D178" s="194"/>
       <c r="E178" s="6" t="s">
         <v>13</v>
       </c>
@@ -22196,9 +22196,9 @@
       <c r="Z178" s="121"/>
     </row>
     <row r="179" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="156"/>
-      <c r="C179" s="156"/>
-      <c r="D179" s="176"/>
+      <c r="B179" s="161"/>
+      <c r="C179" s="161"/>
+      <c r="D179" s="194"/>
       <c r="E179" s="6" t="s">
         <v>110</v>
       </c>
@@ -22239,9 +22239,9 @@
       <c r="Z179" s="121"/>
     </row>
     <row r="180" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="156"/>
-      <c r="C180" s="156"/>
-      <c r="D180" s="176"/>
+      <c r="B180" s="161"/>
+      <c r="C180" s="161"/>
+      <c r="D180" s="194"/>
       <c r="E180" s="6" t="s">
         <v>109</v>
       </c>
@@ -22287,9 +22287,9 @@
       <c r="Z180" s="121"/>
     </row>
     <row r="181" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="156"/>
-      <c r="C181" s="156"/>
-      <c r="D181" s="156"/>
+      <c r="B181" s="161"/>
+      <c r="C181" s="161"/>
+      <c r="D181" s="161"/>
       <c r="E181" s="6" t="s">
         <v>106</v>
       </c>
@@ -22332,9 +22332,9 @@
       <c r="Z181" s="121"/>
     </row>
     <row r="182" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="157"/>
-      <c r="C182" s="157"/>
-      <c r="D182" s="157"/>
+      <c r="B182" s="162"/>
+      <c r="C182" s="162"/>
+      <c r="D182" s="162"/>
       <c r="E182" s="7" t="s">
         <v>14</v>
       </c>
@@ -22378,13 +22378,13 @@
       <c r="A183" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B183" s="158">
+      <c r="B183" s="163">
         <v>31</v>
       </c>
-      <c r="C183" s="158" t="s">
+      <c r="C183" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="D183" s="177" t="s">
+      <c r="D183" s="195" t="s">
         <v>52</v>
       </c>
       <c r="E183" s="26" t="s">
@@ -22404,7 +22404,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K183" s="158" t="s">
+      <c r="K183" s="163" t="s">
         <v>175</v>
       </c>
       <c r="L183" s="41"/>
@@ -22427,9 +22427,9 @@
       <c r="Z183" s="121"/>
     </row>
     <row r="184" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="159"/>
-      <c r="C184" s="159"/>
-      <c r="D184" s="178"/>
+      <c r="B184" s="164"/>
+      <c r="C184" s="164"/>
+      <c r="D184" s="196"/>
       <c r="E184" s="3" t="s">
         <v>13</v>
       </c>
@@ -22451,7 +22451,7 @@
         <f t="shared" si="24"/>
         <v>59.430708808677764</v>
       </c>
-      <c r="K184" s="159"/>
+      <c r="K184" s="164"/>
       <c r="L184" s="42"/>
       <c r="U184" s="119" t="str" cm="1">
         <f t="array" ref="U184">IF(C184="",INDEX(C178:C184,MATCH(TRUE,INDEX((C178:C184&lt;&gt;""),0),0)),C184)</f>
@@ -22472,9 +22472,9 @@
       <c r="Z184" s="121"/>
     </row>
     <row r="185" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="159"/>
-      <c r="C185" s="159"/>
-      <c r="D185" s="178"/>
+      <c r="B185" s="164"/>
+      <c r="C185" s="164"/>
+      <c r="D185" s="196"/>
       <c r="E185" s="3" t="s">
         <v>110</v>
       </c>
@@ -22494,7 +22494,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K185" s="159"/>
+      <c r="K185" s="164"/>
       <c r="L185" s="42"/>
       <c r="U185" s="119" t="str" cm="1">
         <f t="array" ref="U185">IF(C185="",INDEX(C179:C185,MATCH(TRUE,INDEX((C179:C185&lt;&gt;""),0),0)),C185)</f>
@@ -22515,9 +22515,9 @@
       <c r="Z185" s="121"/>
     </row>
     <row r="186" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="159"/>
-      <c r="C186" s="159"/>
-      <c r="D186" s="178"/>
+      <c r="B186" s="164"/>
+      <c r="C186" s="164"/>
+      <c r="D186" s="196"/>
       <c r="E186" s="3" t="s">
         <v>109</v>
       </c>
@@ -22539,7 +22539,7 @@
         <f t="shared" si="24"/>
         <v>86.360248737609879</v>
       </c>
-      <c r="K186" s="159"/>
+      <c r="K186" s="164"/>
       <c r="L186" s="42" t="s">
         <v>274</v>
       </c>
@@ -22565,9 +22565,9 @@
       <c r="Z186" s="121"/>
     </row>
     <row r="187" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="159"/>
-      <c r="C187" s="159"/>
-      <c r="D187" s="159"/>
+      <c r="B187" s="164"/>
+      <c r="C187" s="164"/>
+      <c r="D187" s="164"/>
       <c r="E187" s="3" t="s">
         <v>106</v>
       </c>
@@ -22589,7 +22589,7 @@
         <f t="shared" si="24"/>
         <v>78.931410136525159</v>
       </c>
-      <c r="K187" s="159"/>
+      <c r="K187" s="164"/>
       <c r="L187" s="42"/>
       <c r="U187" s="119" t="str" cm="1">
         <f t="array" ref="U187">IF(C187="",INDEX(C181:C187,MATCH(TRUE,INDEX((C181:C187&lt;&gt;""),0),0)),C187)</f>
@@ -22610,9 +22610,9 @@
       <c r="Z187" s="121"/>
     </row>
     <row r="188" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="160"/>
-      <c r="C188" s="160"/>
-      <c r="D188" s="160"/>
+      <c r="B188" s="165"/>
+      <c r="C188" s="165"/>
+      <c r="D188" s="165"/>
       <c r="E188" s="4" t="s">
         <v>14</v>
       </c>
@@ -22632,7 +22632,7 @@
         <f t="shared" si="24"/>
         <v>7.4288386010847205</v>
       </c>
-      <c r="K188" s="160"/>
+      <c r="K188" s="165"/>
       <c r="L188" s="43"/>
       <c r="U188" s="119" t="str" cm="1">
         <f t="array" ref="U188">IF(C188="",INDEX(C182:C188,MATCH(TRUE,INDEX((C182:C188&lt;&gt;""),0),0)),C188)</f>
@@ -22656,13 +22656,13 @@
       <c r="A189" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B189" s="155">
+      <c r="B189" s="160">
         <v>32</v>
       </c>
-      <c r="C189" s="155" t="s">
+      <c r="C189" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="D189" s="155" t="s">
+      <c r="D189" s="160" t="s">
         <v>55</v>
       </c>
       <c r="E189" s="27" t="s">
@@ -22703,9 +22703,9 @@
       <c r="Z189" s="121"/>
     </row>
     <row r="190" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="156"/>
-      <c r="C190" s="156"/>
-      <c r="D190" s="156"/>
+      <c r="B190" s="161"/>
+      <c r="C190" s="161"/>
+      <c r="D190" s="161"/>
       <c r="E190" s="6" t="s">
         <v>13</v>
       </c>
@@ -22746,9 +22746,9 @@
       <c r="Z190" s="121"/>
     </row>
     <row r="191" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="156"/>
-      <c r="C191" s="156"/>
-      <c r="D191" s="156"/>
+      <c r="B191" s="161"/>
+      <c r="C191" s="161"/>
+      <c r="D191" s="161"/>
       <c r="E191" s="6" t="s">
         <v>110</v>
       </c>
@@ -22789,9 +22789,9 @@
       <c r="Z191" s="121"/>
     </row>
     <row r="192" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="156"/>
-      <c r="C192" s="156"/>
-      <c r="D192" s="156"/>
+      <c r="B192" s="161"/>
+      <c r="C192" s="161"/>
+      <c r="D192" s="161"/>
       <c r="E192" s="6" t="s">
         <v>109</v>
       </c>
@@ -22832,9 +22832,9 @@
       <c r="Z192" s="121"/>
     </row>
     <row r="193" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="156"/>
-      <c r="C193" s="156"/>
-      <c r="D193" s="156"/>
+      <c r="B193" s="161"/>
+      <c r="C193" s="161"/>
+      <c r="D193" s="161"/>
       <c r="E193" s="6" t="s">
         <v>106</v>
       </c>
@@ -22875,9 +22875,9 @@
       <c r="Z193" s="121"/>
     </row>
     <row r="194" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="157"/>
-      <c r="C194" s="157"/>
-      <c r="D194" s="157"/>
+      <c r="B194" s="162"/>
+      <c r="C194" s="162"/>
+      <c r="D194" s="162"/>
       <c r="E194" s="7" t="s">
         <v>14</v>
       </c>
@@ -22921,13 +22921,13 @@
       <c r="A195" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B195" s="158">
+      <c r="B195" s="163">
         <v>33</v>
       </c>
-      <c r="C195" s="158" t="s">
+      <c r="C195" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="D195" s="158" t="s">
+      <c r="D195" s="163" t="s">
         <v>163</v>
       </c>
       <c r="E195" s="26" t="s">
@@ -22947,7 +22947,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K195" s="173" t="s">
+      <c r="K195" s="206" t="s">
         <v>164</v>
       </c>
       <c r="L195" s="41"/>
@@ -22970,9 +22970,9 @@
       <c r="Z195" s="121"/>
     </row>
     <row r="196" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="159"/>
-      <c r="C196" s="159"/>
-      <c r="D196" s="159"/>
+      <c r="B196" s="164"/>
+      <c r="C196" s="164"/>
+      <c r="D196" s="164"/>
       <c r="E196" s="3" t="s">
         <v>13</v>
       </c>
@@ -22994,7 +22994,7 @@
         <f t="shared" si="24"/>
         <v>47.087338694595097</v>
       </c>
-      <c r="K196" s="159"/>
+      <c r="K196" s="164"/>
       <c r="L196" s="42"/>
       <c r="U196" s="119" t="str" cm="1">
         <f t="array" ref="U196">IF(C196="",INDEX(C190:C196,MATCH(TRUE,INDEX((C190:C196&lt;&gt;""),0),0)),C196)</f>
@@ -23015,9 +23015,9 @@
       <c r="Z196" s="121"/>
     </row>
     <row r="197" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="159"/>
-      <c r="C197" s="159"/>
-      <c r="D197" s="159"/>
+      <c r="B197" s="164"/>
+      <c r="C197" s="164"/>
+      <c r="D197" s="164"/>
       <c r="E197" s="3" t="s">
         <v>110</v>
       </c>
@@ -23037,7 +23037,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K197" s="159"/>
+      <c r="K197" s="164"/>
       <c r="L197" s="42"/>
       <c r="U197" s="119" t="str" cm="1">
         <f t="array" ref="U197">IF(C197="",INDEX(C191:C197,MATCH(TRUE,INDEX((C191:C197&lt;&gt;""),0),0)),C197)</f>
@@ -23058,9 +23058,9 @@
       <c r="Z197" s="121"/>
     </row>
     <row r="198" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="159"/>
-      <c r="C198" s="159"/>
-      <c r="D198" s="159"/>
+      <c r="B198" s="164"/>
+      <c r="C198" s="164"/>
+      <c r="D198" s="164"/>
       <c r="E198" s="3" t="s">
         <v>109</v>
       </c>
@@ -23082,7 +23082,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K198" s="159"/>
+      <c r="K198" s="164"/>
       <c r="L198" s="42"/>
       <c r="U198" s="119" t="str" cm="1">
         <f t="array" ref="U198">IF(C198="",INDEX(C192:C198,MATCH(TRUE,INDEX((C192:C198&lt;&gt;""),0),0)),C198)</f>
@@ -23103,9 +23103,9 @@
       <c r="Z198" s="121"/>
     </row>
     <row r="199" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="159"/>
-      <c r="C199" s="159"/>
-      <c r="D199" s="159"/>
+      <c r="B199" s="164"/>
+      <c r="C199" s="164"/>
+      <c r="D199" s="164"/>
       <c r="E199" s="3" t="s">
         <v>106</v>
       </c>
@@ -23127,7 +23127,7 @@
         <f t="shared" si="24"/>
         <v>62.537871703759116</v>
       </c>
-      <c r="K199" s="159"/>
+      <c r="K199" s="164"/>
       <c r="L199" s="42"/>
       <c r="U199" s="119" t="str" cm="1">
         <f t="array" ref="U199">IF(C199="",INDEX(C193:C199,MATCH(TRUE,INDEX((C193:C199&lt;&gt;""),0),0)),C199)</f>
@@ -23148,9 +23148,9 @@
       <c r="Z199" s="121"/>
     </row>
     <row r="200" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="160"/>
-      <c r="C200" s="160"/>
-      <c r="D200" s="160"/>
+      <c r="B200" s="165"/>
+      <c r="C200" s="165"/>
+      <c r="D200" s="165"/>
       <c r="E200" s="4" t="s">
         <v>14</v>
       </c>
@@ -23170,7 +23170,7 @@
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="K200" s="160"/>
+      <c r="K200" s="165"/>
       <c r="L200" s="43"/>
       <c r="U200" s="119" t="str" cm="1">
         <f t="array" ref="U200">IF(C200="",INDEX(C194:C200,MATCH(TRUE,INDEX((C194:C200&lt;&gt;""),0),0)),C200)</f>
@@ -23194,13 +23194,13 @@
       <c r="A201" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B201" s="155">
+      <c r="B201" s="160">
         <v>34</v>
       </c>
-      <c r="C201" s="155" t="s">
+      <c r="C201" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="D201" s="155" t="s">
+      <c r="D201" s="160" t="s">
         <v>55</v>
       </c>
       <c r="E201" s="27" t="s">
@@ -23241,9 +23241,9 @@
       <c r="Z201" s="121"/>
     </row>
     <row r="202" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="156"/>
-      <c r="C202" s="156"/>
-      <c r="D202" s="156"/>
+      <c r="B202" s="161"/>
+      <c r="C202" s="161"/>
+      <c r="D202" s="161"/>
       <c r="E202" s="6" t="s">
         <v>13</v>
       </c>
@@ -23284,9 +23284,9 @@
       <c r="Z202" s="121"/>
     </row>
     <row r="203" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="156"/>
-      <c r="C203" s="156"/>
-      <c r="D203" s="156"/>
+      <c r="B203" s="161"/>
+      <c r="C203" s="161"/>
+      <c r="D203" s="161"/>
       <c r="E203" s="6" t="s">
         <v>110</v>
       </c>
@@ -23327,9 +23327,9 @@
       <c r="Z203" s="121"/>
     </row>
     <row r="204" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="156"/>
-      <c r="C204" s="156"/>
-      <c r="D204" s="156"/>
+      <c r="B204" s="161"/>
+      <c r="C204" s="161"/>
+      <c r="D204" s="161"/>
       <c r="E204" s="6" t="s">
         <v>109</v>
       </c>
@@ -23370,9 +23370,9 @@
       <c r="Z204" s="121"/>
     </row>
     <row r="205" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="156"/>
-      <c r="C205" s="156"/>
-      <c r="D205" s="156"/>
+      <c r="B205" s="161"/>
+      <c r="C205" s="161"/>
+      <c r="D205" s="161"/>
       <c r="E205" s="6" t="s">
         <v>311</v>
       </c>
@@ -23413,9 +23413,9 @@
       <c r="Z205" s="121"/>
     </row>
     <row r="206" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="156"/>
-      <c r="C206" s="156"/>
-      <c r="D206" s="156"/>
+      <c r="B206" s="161"/>
+      <c r="C206" s="161"/>
+      <c r="D206" s="161"/>
       <c r="E206" s="6" t="s">
         <v>106</v>
       </c>
@@ -23456,9 +23456,9 @@
       <c r="Z206" s="121"/>
     </row>
     <row r="207" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="157"/>
-      <c r="C207" s="157"/>
-      <c r="D207" s="157"/>
+      <c r="B207" s="162"/>
+      <c r="C207" s="162"/>
+      <c r="D207" s="162"/>
       <c r="E207" s="7" t="s">
         <v>14</v>
       </c>
@@ -23502,13 +23502,13 @@
       <c r="A208" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B208" s="158">
+      <c r="B208" s="163">
         <v>35</v>
       </c>
-      <c r="C208" s="158" t="s">
+      <c r="C208" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="D208" s="158" t="s">
+      <c r="D208" s="163" t="s">
         <v>59</v>
       </c>
       <c r="E208" s="26" t="s">
@@ -23549,9 +23549,9 @@
       <c r="Z208" s="121"/>
     </row>
     <row r="209" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="159"/>
-      <c r="C209" s="159"/>
-      <c r="D209" s="159"/>
+      <c r="B209" s="164"/>
+      <c r="C209" s="164"/>
+      <c r="D209" s="164"/>
       <c r="E209" s="3" t="s">
         <v>13</v>
       </c>
@@ -23592,9 +23592,9 @@
       <c r="Z209" s="121"/>
     </row>
     <row r="210" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="159"/>
-      <c r="C210" s="159"/>
-      <c r="D210" s="159"/>
+      <c r="B210" s="164"/>
+      <c r="C210" s="164"/>
+      <c r="D210" s="164"/>
       <c r="E210" s="3" t="s">
         <v>109</v>
       </c>
@@ -23635,9 +23635,9 @@
       <c r="Z210" s="121"/>
     </row>
     <row r="211" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="159"/>
-      <c r="C211" s="159"/>
-      <c r="D211" s="159"/>
+      <c r="B211" s="164"/>
+      <c r="C211" s="164"/>
+      <c r="D211" s="164"/>
       <c r="E211" s="3" t="s">
         <v>110</v>
       </c>
@@ -23678,9 +23678,9 @@
       <c r="Z211" s="121"/>
     </row>
     <row r="212" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="159"/>
-      <c r="C212" s="159"/>
-      <c r="D212" s="159"/>
+      <c r="B212" s="164"/>
+      <c r="C212" s="164"/>
+      <c r="D212" s="164"/>
       <c r="E212" s="3" t="s">
         <v>106</v>
       </c>
@@ -23723,9 +23723,9 @@
       <c r="Z212" s="121"/>
     </row>
     <row r="213" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="160"/>
-      <c r="C213" s="160"/>
-      <c r="D213" s="160"/>
+      <c r="B213" s="165"/>
+      <c r="C213" s="165"/>
+      <c r="D213" s="165"/>
       <c r="E213" s="4" t="s">
         <v>14</v>
       </c>
@@ -23769,13 +23769,13 @@
       <c r="A214" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B214" s="155">
+      <c r="B214" s="160">
         <v>36</v>
       </c>
-      <c r="C214" s="155" t="s">
+      <c r="C214" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="D214" s="155" t="s">
+      <c r="D214" s="160" t="s">
         <v>59</v>
       </c>
       <c r="E214" s="27" t="s">
@@ -23816,9 +23816,9 @@
       <c r="Z214" s="121"/>
     </row>
     <row r="215" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="156"/>
-      <c r="C215" s="156"/>
-      <c r="D215" s="156"/>
+      <c r="B215" s="161"/>
+      <c r="C215" s="161"/>
+      <c r="D215" s="161"/>
       <c r="E215" s="6" t="s">
         <v>13</v>
       </c>
@@ -23859,9 +23859,9 @@
       <c r="Z215" s="121"/>
     </row>
     <row r="216" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="156"/>
-      <c r="C216" s="156"/>
-      <c r="D216" s="156"/>
+      <c r="B216" s="161"/>
+      <c r="C216" s="161"/>
+      <c r="D216" s="161"/>
       <c r="E216" s="6" t="s">
         <v>110</v>
       </c>
@@ -23902,9 +23902,9 @@
       <c r="Z216" s="121"/>
     </row>
     <row r="217" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="156"/>
-      <c r="C217" s="156"/>
-      <c r="D217" s="156"/>
+      <c r="B217" s="161"/>
+      <c r="C217" s="161"/>
+      <c r="D217" s="161"/>
       <c r="E217" s="6" t="s">
         <v>109</v>
       </c>
@@ -23945,9 +23945,9 @@
       <c r="Z217" s="121"/>
     </row>
     <row r="218" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="156"/>
-      <c r="C218" s="156"/>
-      <c r="D218" s="156"/>
+      <c r="B218" s="161"/>
+      <c r="C218" s="161"/>
+      <c r="D218" s="161"/>
       <c r="E218" s="6" t="s">
         <v>106</v>
       </c>
@@ -23988,9 +23988,9 @@
       <c r="Z218" s="121"/>
     </row>
     <row r="219" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="157"/>
-      <c r="C219" s="157"/>
-      <c r="D219" s="157"/>
+      <c r="B219" s="162"/>
+      <c r="C219" s="162"/>
+      <c r="D219" s="162"/>
       <c r="E219" s="7" t="s">
         <v>14</v>
       </c>
@@ -24034,13 +24034,13 @@
       <c r="A220" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B220" s="158">
+      <c r="B220" s="163">
         <v>37</v>
       </c>
-      <c r="C220" s="158" t="s">
+      <c r="C220" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="D220" s="158" t="s">
+      <c r="D220" s="163" t="s">
         <v>62</v>
       </c>
       <c r="E220" s="26" t="s">
@@ -24081,9 +24081,9 @@
       <c r="Z220" s="121"/>
     </row>
     <row r="221" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="159"/>
-      <c r="C221" s="159"/>
-      <c r="D221" s="159"/>
+      <c r="B221" s="164"/>
+      <c r="C221" s="164"/>
+      <c r="D221" s="164"/>
       <c r="E221" s="3" t="s">
         <v>13</v>
       </c>
@@ -24126,9 +24126,9 @@
       <c r="Z221" s="121"/>
     </row>
     <row r="222" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="159"/>
-      <c r="C222" s="159"/>
-      <c r="D222" s="159"/>
+      <c r="B222" s="164"/>
+      <c r="C222" s="164"/>
+      <c r="D222" s="164"/>
       <c r="E222" s="3" t="s">
         <v>110</v>
       </c>
@@ -24169,9 +24169,9 @@
       <c r="Z222" s="121"/>
     </row>
     <row r="223" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="159"/>
-      <c r="C223" s="159"/>
-      <c r="D223" s="159"/>
+      <c r="B223" s="164"/>
+      <c r="C223" s="164"/>
+      <c r="D223" s="164"/>
       <c r="E223" s="3" t="s">
         <v>109</v>
       </c>
@@ -24214,9 +24214,9 @@
       <c r="Z223" s="121"/>
     </row>
     <row r="224" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="159"/>
-      <c r="C224" s="159"/>
-      <c r="D224" s="159"/>
+      <c r="B224" s="164"/>
+      <c r="C224" s="164"/>
+      <c r="D224" s="164"/>
       <c r="E224" s="3" t="s">
         <v>106</v>
       </c>
@@ -24259,9 +24259,9 @@
       <c r="Z224" s="121"/>
     </row>
     <row r="225" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="160"/>
-      <c r="C225" s="160"/>
-      <c r="D225" s="160"/>
+      <c r="B225" s="165"/>
+      <c r="C225" s="165"/>
+      <c r="D225" s="165"/>
       <c r="E225" s="4" t="s">
         <v>14</v>
       </c>
@@ -24305,13 +24305,13 @@
       <c r="A226" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B226" s="155">
+      <c r="B226" s="160">
         <v>38</v>
       </c>
-      <c r="C226" s="155" t="s">
+      <c r="C226" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="D226" s="155" t="s">
+      <c r="D226" s="160" t="s">
         <v>64</v>
       </c>
       <c r="E226" s="27" t="s">
@@ -24352,9 +24352,9 @@
       <c r="Z226" s="121"/>
     </row>
     <row r="227" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="156"/>
-      <c r="C227" s="156"/>
-      <c r="D227" s="156"/>
+      <c r="B227" s="161"/>
+      <c r="C227" s="161"/>
+      <c r="D227" s="161"/>
       <c r="E227" s="6" t="s">
         <v>13</v>
       </c>
@@ -24397,9 +24397,9 @@
       <c r="Z227" s="121"/>
     </row>
     <row r="228" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="156"/>
-      <c r="C228" s="156"/>
-      <c r="D228" s="156"/>
+      <c r="B228" s="161"/>
+      <c r="C228" s="161"/>
+      <c r="D228" s="161"/>
       <c r="E228" s="6" t="s">
         <v>110</v>
       </c>
@@ -24440,9 +24440,9 @@
       <c r="Z228" s="121"/>
     </row>
     <row r="229" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="156"/>
-      <c r="C229" s="156"/>
-      <c r="D229" s="156"/>
+      <c r="B229" s="161"/>
+      <c r="C229" s="161"/>
+      <c r="D229" s="161"/>
       <c r="E229" s="6" t="s">
         <v>109</v>
       </c>
@@ -24485,9 +24485,9 @@
       <c r="Z229" s="121"/>
     </row>
     <row r="230" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="156"/>
-      <c r="C230" s="156"/>
-      <c r="D230" s="156"/>
+      <c r="B230" s="161"/>
+      <c r="C230" s="161"/>
+      <c r="D230" s="161"/>
       <c r="E230" s="6" t="s">
         <v>106</v>
       </c>
@@ -24528,9 +24528,9 @@
       <c r="Z230" s="121"/>
     </row>
     <row r="231" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="157"/>
-      <c r="C231" s="157"/>
-      <c r="D231" s="157"/>
+      <c r="B231" s="162"/>
+      <c r="C231" s="162"/>
+      <c r="D231" s="162"/>
       <c r="E231" s="7" t="s">
         <v>14</v>
       </c>
@@ -24574,13 +24574,13 @@
       <c r="A232" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B232" s="158">
+      <c r="B232" s="163">
         <v>39</v>
       </c>
-      <c r="C232" s="158" t="s">
+      <c r="C232" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D232" s="158" t="s">
+      <c r="D232" s="163" t="s">
         <v>64</v>
       </c>
       <c r="E232" s="26" t="s">
@@ -24621,9 +24621,9 @@
       <c r="Z232" s="121"/>
     </row>
     <row r="233" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="159"/>
-      <c r="C233" s="159"/>
-      <c r="D233" s="159"/>
+      <c r="B233" s="164"/>
+      <c r="C233" s="164"/>
+      <c r="D233" s="164"/>
       <c r="E233" s="3" t="s">
         <v>13</v>
       </c>
@@ -24664,9 +24664,9 @@
       <c r="Z233" s="121"/>
     </row>
     <row r="234" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="159"/>
-      <c r="C234" s="159"/>
-      <c r="D234" s="159"/>
+      <c r="B234" s="164"/>
+      <c r="C234" s="164"/>
+      <c r="D234" s="164"/>
       <c r="E234" s="3" t="s">
         <v>110</v>
       </c>
@@ -24707,9 +24707,9 @@
       <c r="Z234" s="121"/>
     </row>
     <row r="235" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="159"/>
-      <c r="C235" s="159"/>
-      <c r="D235" s="159"/>
+      <c r="B235" s="164"/>
+      <c r="C235" s="164"/>
+      <c r="D235" s="164"/>
       <c r="E235" s="3" t="s">
         <v>109</v>
       </c>
@@ -24752,9 +24752,9 @@
       <c r="Z235" s="121"/>
     </row>
     <row r="236" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="159"/>
-      <c r="C236" s="159"/>
-      <c r="D236" s="159"/>
+      <c r="B236" s="164"/>
+      <c r="C236" s="164"/>
+      <c r="D236" s="164"/>
       <c r="E236" s="3" t="s">
         <v>311</v>
       </c>
@@ -24795,9 +24795,9 @@
       <c r="Z236" s="121"/>
     </row>
     <row r="237" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="159"/>
-      <c r="C237" s="159"/>
-      <c r="D237" s="159"/>
+      <c r="B237" s="164"/>
+      <c r="C237" s="164"/>
+      <c r="D237" s="164"/>
       <c r="E237" s="3" t="s">
         <v>106</v>
       </c>
@@ -24838,9 +24838,9 @@
       <c r="Z237" s="121"/>
     </row>
     <row r="238" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="160"/>
-      <c r="C238" s="160"/>
-      <c r="D238" s="160"/>
+      <c r="B238" s="165"/>
+      <c r="C238" s="165"/>
+      <c r="D238" s="165"/>
       <c r="E238" s="4" t="s">
         <v>14</v>
       </c>
@@ -24884,13 +24884,13 @@
       <c r="A239" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B239" s="155">
+      <c r="B239" s="160">
         <v>40</v>
       </c>
-      <c r="C239" s="155" t="s">
+      <c r="C239" s="160" t="s">
         <v>66</v>
       </c>
-      <c r="D239" s="155" t="s">
+      <c r="D239" s="160" t="s">
         <v>136</v>
       </c>
       <c r="E239" s="27" t="s">
@@ -24931,9 +24931,9 @@
       <c r="Z239" s="121"/>
     </row>
     <row r="240" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="156"/>
-      <c r="C240" s="156"/>
-      <c r="D240" s="156"/>
+      <c r="B240" s="161"/>
+      <c r="C240" s="161"/>
+      <c r="D240" s="161"/>
       <c r="E240" s="6" t="s">
         <v>13</v>
       </c>
@@ -24974,9 +24974,9 @@
       <c r="Z240" s="121"/>
     </row>
     <row r="241" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="156"/>
-      <c r="C241" s="156"/>
-      <c r="D241" s="156"/>
+      <c r="B241" s="161"/>
+      <c r="C241" s="161"/>
+      <c r="D241" s="161"/>
       <c r="E241" s="6" t="s">
         <v>110</v>
       </c>
@@ -25017,9 +25017,9 @@
       <c r="Z241" s="121"/>
     </row>
     <row r="242" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="156"/>
-      <c r="C242" s="156"/>
-      <c r="D242" s="156"/>
+      <c r="B242" s="161"/>
+      <c r="C242" s="161"/>
+      <c r="D242" s="161"/>
       <c r="E242" s="6" t="s">
         <v>109</v>
       </c>
@@ -25062,9 +25062,9 @@
       <c r="Z242" s="121"/>
     </row>
     <row r="243" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="156"/>
-      <c r="C243" s="156"/>
-      <c r="D243" s="156"/>
+      <c r="B243" s="161"/>
+      <c r="C243" s="161"/>
+      <c r="D243" s="161"/>
       <c r="E243" s="6" t="s">
         <v>106</v>
       </c>
@@ -25105,9 +25105,9 @@
       <c r="Z243" s="121"/>
     </row>
     <row r="244" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="157"/>
-      <c r="C244" s="157"/>
-      <c r="D244" s="157"/>
+      <c r="B244" s="162"/>
+      <c r="C244" s="162"/>
+      <c r="D244" s="162"/>
       <c r="E244" s="7" t="s">
         <v>14</v>
       </c>
@@ -25151,13 +25151,13 @@
       <c r="A245" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B245" s="158">
+      <c r="B245" s="163">
         <v>41</v>
       </c>
-      <c r="C245" s="158" t="s">
+      <c r="C245" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="D245" s="158" t="s">
+      <c r="D245" s="163" t="s">
         <v>64</v>
       </c>
       <c r="E245" s="26" t="s">
@@ -25198,9 +25198,9 @@
       <c r="Z245" s="121"/>
     </row>
     <row r="246" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="159"/>
-      <c r="C246" s="159"/>
-      <c r="D246" s="159"/>
+      <c r="B246" s="164"/>
+      <c r="C246" s="164"/>
+      <c r="D246" s="164"/>
       <c r="E246" s="3" t="s">
         <v>13</v>
       </c>
@@ -25241,9 +25241,9 @@
       <c r="Z246" s="121"/>
     </row>
     <row r="247" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="159"/>
-      <c r="C247" s="159"/>
-      <c r="D247" s="159"/>
+      <c r="B247" s="164"/>
+      <c r="C247" s="164"/>
+      <c r="D247" s="164"/>
       <c r="E247" s="3" t="s">
         <v>110</v>
       </c>
@@ -25284,9 +25284,9 @@
       <c r="Z247" s="121"/>
     </row>
     <row r="248" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="159"/>
-      <c r="C248" s="159"/>
-      <c r="D248" s="159"/>
+      <c r="B248" s="164"/>
+      <c r="C248" s="164"/>
+      <c r="D248" s="164"/>
       <c r="E248" s="3" t="s">
         <v>109</v>
       </c>
@@ -25327,9 +25327,9 @@
       <c r="Z248" s="121"/>
     </row>
     <row r="249" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="159"/>
-      <c r="C249" s="159"/>
-      <c r="D249" s="159"/>
+      <c r="B249" s="164"/>
+      <c r="C249" s="164"/>
+      <c r="D249" s="164"/>
       <c r="E249" s="3" t="s">
         <v>106</v>
       </c>
@@ -25370,9 +25370,9 @@
       <c r="Z249" s="121"/>
     </row>
     <row r="250" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="160"/>
-      <c r="C250" s="160"/>
-      <c r="D250" s="160"/>
+      <c r="B250" s="165"/>
+      <c r="C250" s="165"/>
+      <c r="D250" s="165"/>
       <c r="E250" s="4" t="s">
         <v>14</v>
       </c>
@@ -25416,13 +25416,13 @@
       <c r="A251" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B251" s="155">
+      <c r="B251" s="160">
         <v>42</v>
       </c>
-      <c r="C251" s="155" t="s">
+      <c r="C251" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="D251" s="155" t="s">
+      <c r="D251" s="160" t="s">
         <v>69</v>
       </c>
       <c r="E251" s="27" t="s">
@@ -25463,9 +25463,9 @@
       <c r="Z251" s="121"/>
     </row>
     <row r="252" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="156"/>
-      <c r="C252" s="156"/>
-      <c r="D252" s="156"/>
+      <c r="B252" s="161"/>
+      <c r="C252" s="161"/>
+      <c r="D252" s="161"/>
       <c r="E252" s="6" t="s">
         <v>13</v>
       </c>
@@ -25506,9 +25506,9 @@
       <c r="Z252" s="121"/>
     </row>
     <row r="253" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="156"/>
-      <c r="C253" s="156"/>
-      <c r="D253" s="156"/>
+      <c r="B253" s="161"/>
+      <c r="C253" s="161"/>
+      <c r="D253" s="161"/>
       <c r="E253" s="6" t="s">
         <v>103</v>
       </c>
@@ -25553,9 +25553,9 @@
       <c r="Z253" s="121"/>
     </row>
     <row r="254" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="156"/>
-      <c r="C254" s="156"/>
-      <c r="D254" s="156"/>
+      <c r="B254" s="161"/>
+      <c r="C254" s="161"/>
+      <c r="D254" s="161"/>
       <c r="E254" s="6" t="s">
         <v>110</v>
       </c>
@@ -25596,9 +25596,9 @@
       <c r="Z254" s="121"/>
     </row>
     <row r="255" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="156"/>
-      <c r="C255" s="156"/>
-      <c r="D255" s="156"/>
+      <c r="B255" s="161"/>
+      <c r="C255" s="161"/>
+      <c r="D255" s="161"/>
       <c r="E255" s="6" t="s">
         <v>109</v>
       </c>
@@ -25641,9 +25641,9 @@
       <c r="Z255" s="121"/>
     </row>
     <row r="256" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="156"/>
-      <c r="C256" s="156"/>
-      <c r="D256" s="156"/>
+      <c r="B256" s="161"/>
+      <c r="C256" s="161"/>
+      <c r="D256" s="161"/>
       <c r="E256" s="6" t="s">
         <v>106</v>
       </c>
@@ -25684,9 +25684,9 @@
       <c r="Z256" s="121"/>
     </row>
     <row r="257" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="157"/>
-      <c r="C257" s="157"/>
-      <c r="D257" s="157"/>
+      <c r="B257" s="162"/>
+      <c r="C257" s="162"/>
+      <c r="D257" s="162"/>
       <c r="E257" s="7" t="s">
         <v>14</v>
       </c>
@@ -25730,13 +25730,13 @@
       <c r="A258" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B258" s="158">
+      <c r="B258" s="163">
         <v>43</v>
       </c>
-      <c r="C258" s="158" t="s">
+      <c r="C258" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="D258" s="158" t="s">
+      <c r="D258" s="163" t="s">
         <v>69</v>
       </c>
       <c r="E258" s="26" t="s">
@@ -25777,9 +25777,9 @@
       <c r="Z258" s="121"/>
     </row>
     <row r="259" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="159"/>
-      <c r="C259" s="159"/>
-      <c r="D259" s="159"/>
+      <c r="B259" s="164"/>
+      <c r="C259" s="164"/>
+      <c r="D259" s="164"/>
       <c r="E259" s="3" t="s">
         <v>13</v>
       </c>
@@ -25820,9 +25820,9 @@
       <c r="Z259" s="121"/>
     </row>
     <row r="260" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="159"/>
-      <c r="C260" s="159"/>
-      <c r="D260" s="159"/>
+      <c r="B260" s="164"/>
+      <c r="C260" s="164"/>
+      <c r="D260" s="164"/>
       <c r="E260" s="3" t="s">
         <v>103</v>
       </c>
@@ -25867,9 +25867,9 @@
       <c r="Z260" s="121"/>
     </row>
     <row r="261" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="159"/>
-      <c r="C261" s="159"/>
-      <c r="D261" s="159"/>
+      <c r="B261" s="164"/>
+      <c r="C261" s="164"/>
+      <c r="D261" s="164"/>
       <c r="E261" s="3" t="s">
         <v>110</v>
       </c>
@@ -25910,9 +25910,9 @@
       <c r="Z261" s="121"/>
     </row>
     <row r="262" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="159"/>
-      <c r="C262" s="159"/>
-      <c r="D262" s="159"/>
+      <c r="B262" s="164"/>
+      <c r="C262" s="164"/>
+      <c r="D262" s="164"/>
       <c r="E262" s="3" t="s">
         <v>109</v>
       </c>
@@ -25955,9 +25955,9 @@
       <c r="Z262" s="121"/>
     </row>
     <row r="263" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="159"/>
-      <c r="C263" s="159"/>
-      <c r="D263" s="159"/>
+      <c r="B263" s="164"/>
+      <c r="C263" s="164"/>
+      <c r="D263" s="164"/>
       <c r="E263" s="3" t="s">
         <v>106</v>
       </c>
@@ -25998,9 +25998,9 @@
       <c r="Z263" s="121"/>
     </row>
     <row r="264" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="160"/>
-      <c r="C264" s="160"/>
-      <c r="D264" s="160"/>
+      <c r="B264" s="165"/>
+      <c r="C264" s="165"/>
+      <c r="D264" s="165"/>
       <c r="E264" s="4" t="s">
         <v>14</v>
       </c>
@@ -26046,13 +26046,13 @@
       <c r="A265" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B265" s="155">
+      <c r="B265" s="160">
         <v>44</v>
       </c>
-      <c r="C265" s="155" t="s">
+      <c r="C265" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="D265" s="155" t="s">
+      <c r="D265" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E265" s="27" t="s">
@@ -26093,9 +26093,9 @@
       <c r="Z265" s="121"/>
     </row>
     <row r="266" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="156"/>
-      <c r="C266" s="156"/>
-      <c r="D266" s="156"/>
+      <c r="B266" s="161"/>
+      <c r="C266" s="161"/>
+      <c r="D266" s="161"/>
       <c r="E266" s="6" t="s">
         <v>13</v>
       </c>
@@ -26136,9 +26136,9 @@
       <c r="Z266" s="121"/>
     </row>
     <row r="267" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="156"/>
-      <c r="C267" s="156"/>
-      <c r="D267" s="156"/>
+      <c r="B267" s="161"/>
+      <c r="C267" s="161"/>
+      <c r="D267" s="161"/>
       <c r="E267" s="6" t="s">
         <v>103</v>
       </c>
@@ -26179,9 +26179,9 @@
       <c r="Z267" s="121"/>
     </row>
     <row r="268" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="156"/>
-      <c r="C268" s="156"/>
-      <c r="D268" s="156"/>
+      <c r="B268" s="161"/>
+      <c r="C268" s="161"/>
+      <c r="D268" s="161"/>
       <c r="E268" s="6" t="s">
         <v>290</v>
       </c>
@@ -26222,9 +26222,9 @@
       <c r="Z268" s="121"/>
     </row>
     <row r="269" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="156"/>
-      <c r="C269" s="156"/>
-      <c r="D269" s="156"/>
+      <c r="B269" s="161"/>
+      <c r="C269" s="161"/>
+      <c r="D269" s="161"/>
       <c r="E269" s="6" t="s">
         <v>106</v>
       </c>
@@ -26265,9 +26265,9 @@
       <c r="Z269" s="121"/>
     </row>
     <row r="270" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="156"/>
-      <c r="C270" s="156"/>
-      <c r="D270" s="156"/>
+      <c r="B270" s="161"/>
+      <c r="C270" s="161"/>
+      <c r="D270" s="161"/>
       <c r="E270" s="6" t="s">
         <v>109</v>
       </c>
@@ -26310,9 +26310,9 @@
       <c r="Z270" s="121"/>
     </row>
     <row r="271" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="156"/>
-      <c r="C271" s="156"/>
-      <c r="D271" s="156"/>
+      <c r="B271" s="161"/>
+      <c r="C271" s="161"/>
+      <c r="D271" s="161"/>
       <c r="E271" s="6" t="s">
         <v>310</v>
       </c>
@@ -26353,9 +26353,9 @@
       <c r="Z271" s="121"/>
     </row>
     <row r="272" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="156"/>
-      <c r="C272" s="156"/>
-      <c r="D272" s="156"/>
+      <c r="B272" s="161"/>
+      <c r="C272" s="161"/>
+      <c r="D272" s="161"/>
       <c r="E272" s="6" t="s">
         <v>311</v>
       </c>
@@ -26396,9 +26396,9 @@
       <c r="Z272" s="121"/>
     </row>
     <row r="273" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="156"/>
-      <c r="C273" s="156"/>
-      <c r="D273" s="156"/>
+      <c r="B273" s="161"/>
+      <c r="C273" s="161"/>
+      <c r="D273" s="161"/>
       <c r="E273" s="6" t="s">
         <v>110</v>
       </c>
@@ -26439,9 +26439,9 @@
       <c r="Z273" s="121"/>
     </row>
     <row r="274" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="157"/>
-      <c r="C274" s="157"/>
-      <c r="D274" s="157"/>
+      <c r="B274" s="162"/>
+      <c r="C274" s="162"/>
+      <c r="D274" s="162"/>
       <c r="E274" s="7" t="s">
         <v>14</v>
       </c>
@@ -26485,13 +26485,13 @@
       <c r="A275" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B275" s="158">
+      <c r="B275" s="163">
         <v>45</v>
       </c>
-      <c r="C275" s="158" t="s">
+      <c r="C275" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="D275" s="158" t="s">
+      <c r="D275" s="163" t="s">
         <v>72</v>
       </c>
       <c r="E275" s="26" t="s">
@@ -26532,9 +26532,9 @@
       <c r="Z275" s="121"/>
     </row>
     <row r="276" spans="1:26" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="159"/>
-      <c r="C276" s="159"/>
-      <c r="D276" s="159"/>
+      <c r="B276" s="164"/>
+      <c r="C276" s="164"/>
+      <c r="D276" s="164"/>
       <c r="E276" s="3" t="s">
         <v>190</v>
       </c>
@@ -26578,9 +26578,9 @@
       <c r="Z276" s="121"/>
     </row>
     <row r="277" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="159"/>
-      <c r="C277" s="159"/>
-      <c r="D277" s="159"/>
+      <c r="B277" s="164"/>
+      <c r="C277" s="164"/>
+      <c r="D277" s="164"/>
       <c r="E277" s="3" t="s">
         <v>13</v>
       </c>
@@ -26621,9 +26621,9 @@
       <c r="Z277" s="121"/>
     </row>
     <row r="278" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="159"/>
-      <c r="C278" s="159"/>
-      <c r="D278" s="159"/>
+      <c r="B278" s="164"/>
+      <c r="C278" s="164"/>
+      <c r="D278" s="164"/>
       <c r="E278" s="3" t="s">
         <v>110</v>
       </c>
@@ -26664,9 +26664,9 @@
       <c r="Z278" s="121"/>
     </row>
     <row r="279" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="159"/>
-      <c r="C279" s="159"/>
-      <c r="D279" s="159"/>
+      <c r="B279" s="164"/>
+      <c r="C279" s="164"/>
+      <c r="D279" s="164"/>
       <c r="E279" s="3" t="s">
         <v>109</v>
       </c>
@@ -26707,9 +26707,9 @@
       <c r="Z279" s="121"/>
     </row>
     <row r="280" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="159"/>
-      <c r="C280" s="159"/>
-      <c r="D280" s="159"/>
+      <c r="B280" s="164"/>
+      <c r="C280" s="164"/>
+      <c r="D280" s="164"/>
       <c r="E280" s="3" t="s">
         <v>311</v>
       </c>
@@ -26750,9 +26750,9 @@
       <c r="Z280" s="121"/>
     </row>
     <row r="281" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="159"/>
-      <c r="C281" s="159"/>
-      <c r="D281" s="159"/>
+      <c r="B281" s="164"/>
+      <c r="C281" s="164"/>
+      <c r="D281" s="164"/>
       <c r="E281" s="3" t="s">
         <v>106</v>
       </c>
@@ -26793,9 +26793,9 @@
       <c r="Z281" s="121"/>
     </row>
     <row r="282" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="160"/>
-      <c r="C282" s="160"/>
-      <c r="D282" s="160"/>
+      <c r="B282" s="165"/>
+      <c r="C282" s="165"/>
+      <c r="D282" s="165"/>
       <c r="E282" s="4" t="s">
         <v>14</v>
       </c>
@@ -26839,13 +26839,13 @@
       <c r="A283" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B283" s="155">
+      <c r="B283" s="160">
         <v>46</v>
       </c>
-      <c r="C283" s="155" t="s">
+      <c r="C283" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="D283" s="155" t="s">
+      <c r="D283" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E283" s="27" t="s">
@@ -26886,9 +26886,9 @@
       <c r="Z283" s="121"/>
     </row>
     <row r="284" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="156"/>
-      <c r="C284" s="156"/>
-      <c r="D284" s="156"/>
+      <c r="B284" s="161"/>
+      <c r="C284" s="161"/>
+      <c r="D284" s="161"/>
       <c r="E284" s="6" t="s">
         <v>13</v>
       </c>
@@ -26931,9 +26931,9 @@
       <c r="Z284" s="121"/>
     </row>
     <row r="285" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="156"/>
-      <c r="C285" s="156"/>
-      <c r="D285" s="156"/>
+      <c r="B285" s="161"/>
+      <c r="C285" s="161"/>
+      <c r="D285" s="161"/>
       <c r="E285" s="6" t="s">
         <v>110</v>
       </c>
@@ -26974,9 +26974,9 @@
       <c r="Z285" s="121"/>
     </row>
     <row r="286" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="156"/>
-      <c r="C286" s="156"/>
-      <c r="D286" s="156"/>
+      <c r="B286" s="161"/>
+      <c r="C286" s="161"/>
+      <c r="D286" s="161"/>
       <c r="E286" s="6" t="s">
         <v>109</v>
       </c>
@@ -27019,9 +27019,9 @@
       <c r="Z286" s="121"/>
     </row>
     <row r="287" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="156"/>
-      <c r="C287" s="156"/>
-      <c r="D287" s="156"/>
+      <c r="B287" s="161"/>
+      <c r="C287" s="161"/>
+      <c r="D287" s="161"/>
       <c r="E287" s="6" t="s">
         <v>311</v>
       </c>
@@ -27062,9 +27062,9 @@
       <c r="Z287" s="121"/>
     </row>
     <row r="288" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="156"/>
-      <c r="C288" s="156"/>
-      <c r="D288" s="156"/>
+      <c r="B288" s="161"/>
+      <c r="C288" s="161"/>
+      <c r="D288" s="161"/>
       <c r="E288" s="6" t="s">
         <v>106</v>
       </c>
@@ -27107,9 +27107,9 @@
       <c r="Z288" s="121"/>
     </row>
     <row r="289" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="157"/>
-      <c r="C289" s="157"/>
-      <c r="D289" s="157"/>
+      <c r="B289" s="162"/>
+      <c r="C289" s="162"/>
+      <c r="D289" s="162"/>
       <c r="E289" s="7" t="s">
         <v>14</v>
       </c>
@@ -27153,13 +27153,13 @@
       <c r="A290" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B290" s="158">
+      <c r="B290" s="163">
         <v>47</v>
       </c>
-      <c r="C290" s="158" t="s">
+      <c r="C290" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="D290" s="158" t="s">
+      <c r="D290" s="163" t="s">
         <v>76</v>
       </c>
       <c r="E290" s="26" t="s">
@@ -27200,9 +27200,9 @@
       <c r="Z290" s="121"/>
     </row>
     <row r="291" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="159"/>
-      <c r="C291" s="159"/>
-      <c r="D291" s="159"/>
+      <c r="B291" s="164"/>
+      <c r="C291" s="164"/>
+      <c r="D291" s="164"/>
       <c r="E291" s="3" t="s">
         <v>13</v>
       </c>
@@ -27243,9 +27243,9 @@
       <c r="Z291" s="121"/>
     </row>
     <row r="292" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B292" s="159"/>
-      <c r="C292" s="159"/>
-      <c r="D292" s="159"/>
+      <c r="B292" s="164"/>
+      <c r="C292" s="164"/>
+      <c r="D292" s="164"/>
       <c r="E292" s="3" t="s">
         <v>109</v>
       </c>
@@ -27286,9 +27286,9 @@
       <c r="Z292" s="121"/>
     </row>
     <row r="293" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="159"/>
-      <c r="C293" s="159"/>
-      <c r="D293" s="159"/>
+      <c r="B293" s="164"/>
+      <c r="C293" s="164"/>
+      <c r="D293" s="164"/>
       <c r="E293" s="3" t="s">
         <v>110</v>
       </c>
@@ -27329,9 +27329,9 @@
       <c r="Z293" s="121"/>
     </row>
     <row r="294" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="159"/>
-      <c r="C294" s="159"/>
-      <c r="D294" s="159"/>
+      <c r="B294" s="164"/>
+      <c r="C294" s="164"/>
+      <c r="D294" s="164"/>
       <c r="E294" s="3" t="s">
         <v>106</v>
       </c>
@@ -27372,9 +27372,9 @@
       <c r="Z294" s="121"/>
     </row>
     <row r="295" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="160"/>
-      <c r="C295" s="160"/>
-      <c r="D295" s="160"/>
+      <c r="B295" s="165"/>
+      <c r="C295" s="165"/>
+      <c r="D295" s="165"/>
       <c r="E295" s="4" t="s">
         <v>14</v>
       </c>
@@ -27418,13 +27418,13 @@
       <c r="A296" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B296" s="155">
+      <c r="B296" s="160">
         <v>48</v>
       </c>
-      <c r="C296" s="155" t="s">
+      <c r="C296" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="D296" s="155" t="s">
+      <c r="D296" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E296" s="27" t="s">
@@ -27465,9 +27465,9 @@
       <c r="Z296" s="121"/>
     </row>
     <row r="297" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B297" s="156"/>
-      <c r="C297" s="156"/>
-      <c r="D297" s="156"/>
+      <c r="B297" s="161"/>
+      <c r="C297" s="161"/>
+      <c r="D297" s="161"/>
       <c r="E297" s="6" t="s">
         <v>13</v>
       </c>
@@ -27510,9 +27510,9 @@
       <c r="Z297" s="121"/>
     </row>
     <row r="298" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B298" s="156"/>
-      <c r="C298" s="156"/>
-      <c r="D298" s="156"/>
+      <c r="B298" s="161"/>
+      <c r="C298" s="161"/>
+      <c r="D298" s="161"/>
       <c r="E298" s="6" t="s">
         <v>110</v>
       </c>
@@ -27553,9 +27553,9 @@
       <c r="Z298" s="121"/>
     </row>
     <row r="299" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="156"/>
-      <c r="C299" s="156"/>
-      <c r="D299" s="156"/>
+      <c r="B299" s="161"/>
+      <c r="C299" s="161"/>
+      <c r="D299" s="161"/>
       <c r="E299" s="6" t="s">
         <v>109</v>
       </c>
@@ -27600,9 +27600,9 @@
       <c r="Z299" s="121"/>
     </row>
     <row r="300" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B300" s="156"/>
-      <c r="C300" s="156"/>
-      <c r="D300" s="156"/>
+      <c r="B300" s="161"/>
+      <c r="C300" s="161"/>
+      <c r="D300" s="161"/>
       <c r="E300" s="6" t="s">
         <v>310</v>
       </c>
@@ -27643,9 +27643,9 @@
       <c r="Z300" s="121"/>
     </row>
     <row r="301" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="156"/>
-      <c r="C301" s="156"/>
-      <c r="D301" s="156"/>
+      <c r="B301" s="161"/>
+      <c r="C301" s="161"/>
+      <c r="D301" s="161"/>
       <c r="E301" s="6" t="s">
         <v>106</v>
       </c>
@@ -27690,9 +27690,9 @@
       <c r="Z301" s="121"/>
     </row>
     <row r="302" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B302" s="157"/>
-      <c r="C302" s="157"/>
-      <c r="D302" s="157"/>
+      <c r="B302" s="162"/>
+      <c r="C302" s="162"/>
+      <c r="D302" s="162"/>
       <c r="E302" s="7" t="s">
         <v>14</v>
       </c>
@@ -27736,13 +27736,13 @@
       <c r="A303" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B303" s="158">
+      <c r="B303" s="163">
         <v>49</v>
       </c>
-      <c r="C303" s="158" t="s">
+      <c r="C303" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="D303" s="158" t="s">
+      <c r="D303" s="163" t="s">
         <v>72</v>
       </c>
       <c r="E303" s="26" t="s">
@@ -27783,9 +27783,9 @@
       <c r="Z303" s="121"/>
     </row>
     <row r="304" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B304" s="159"/>
-      <c r="C304" s="159"/>
-      <c r="D304" s="159"/>
+      <c r="B304" s="164"/>
+      <c r="C304" s="164"/>
+      <c r="D304" s="164"/>
       <c r="E304" s="3" t="s">
         <v>13</v>
       </c>
@@ -27828,9 +27828,9 @@
       <c r="Z304" s="121"/>
     </row>
     <row r="305" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="159"/>
-      <c r="C305" s="159"/>
-      <c r="D305" s="159"/>
+      <c r="B305" s="164"/>
+      <c r="C305" s="164"/>
+      <c r="D305" s="164"/>
       <c r="E305" s="3" t="s">
         <v>110</v>
       </c>
@@ -27871,9 +27871,9 @@
       <c r="Z305" s="121"/>
     </row>
     <row r="306" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B306" s="159"/>
-      <c r="C306" s="159"/>
-      <c r="D306" s="159"/>
+      <c r="B306" s="164"/>
+      <c r="C306" s="164"/>
+      <c r="D306" s="164"/>
       <c r="E306" s="3" t="s">
         <v>109</v>
       </c>
@@ -27914,9 +27914,9 @@
       <c r="Z306" s="121"/>
     </row>
     <row r="307" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B307" s="159"/>
-      <c r="C307" s="159"/>
-      <c r="D307" s="159"/>
+      <c r="B307" s="164"/>
+      <c r="C307" s="164"/>
+      <c r="D307" s="164"/>
       <c r="E307" s="3" t="s">
         <v>310</v>
       </c>
@@ -27957,9 +27957,9 @@
       <c r="Z307" s="121"/>
     </row>
     <row r="308" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="159"/>
-      <c r="C308" s="159"/>
-      <c r="D308" s="159"/>
+      <c r="B308" s="164"/>
+      <c r="C308" s="164"/>
+      <c r="D308" s="164"/>
       <c r="E308" s="3" t="s">
         <v>106</v>
       </c>
@@ -28002,9 +28002,9 @@
       <c r="Z308" s="121"/>
     </row>
     <row r="309" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="160"/>
-      <c r="C309" s="160"/>
-      <c r="D309" s="160"/>
+      <c r="B309" s="165"/>
+      <c r="C309" s="165"/>
+      <c r="D309" s="165"/>
       <c r="E309" s="4" t="s">
         <v>14</v>
       </c>
@@ -28048,13 +28048,13 @@
       <c r="A310" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B310" s="155">
+      <c r="B310" s="160">
         <v>50</v>
       </c>
-      <c r="C310" s="155" t="s">
+      <c r="C310" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D310" s="155" t="s">
+      <c r="D310" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E310" s="27" t="s">
@@ -28095,9 +28095,9 @@
       <c r="Z310" s="121"/>
     </row>
     <row r="311" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="156"/>
-      <c r="C311" s="156"/>
-      <c r="D311" s="156"/>
+      <c r="B311" s="161"/>
+      <c r="C311" s="161"/>
+      <c r="D311" s="161"/>
       <c r="E311" s="6" t="s">
         <v>13</v>
       </c>
@@ -28138,9 +28138,9 @@
       <c r="Z311" s="121"/>
     </row>
     <row r="312" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="156"/>
-      <c r="C312" s="156"/>
-      <c r="D312" s="156"/>
+      <c r="B312" s="161"/>
+      <c r="C312" s="161"/>
+      <c r="D312" s="161"/>
       <c r="E312" s="6" t="s">
         <v>110</v>
       </c>
@@ -28181,9 +28181,9 @@
       <c r="Z312" s="121"/>
     </row>
     <row r="313" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="156"/>
-      <c r="C313" s="156"/>
-      <c r="D313" s="156"/>
+      <c r="B313" s="161"/>
+      <c r="C313" s="161"/>
+      <c r="D313" s="161"/>
       <c r="E313" s="6" t="s">
         <v>109</v>
       </c>
@@ -28226,9 +28226,9 @@
       <c r="Z313" s="121"/>
     </row>
     <row r="314" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="156"/>
-      <c r="C314" s="156"/>
-      <c r="D314" s="156"/>
+      <c r="B314" s="161"/>
+      <c r="C314" s="161"/>
+      <c r="D314" s="161"/>
       <c r="E314" s="6" t="s">
         <v>310</v>
       </c>
@@ -28269,9 +28269,9 @@
       <c r="Z314" s="121"/>
     </row>
     <row r="315" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="156"/>
-      <c r="C315" s="156"/>
-      <c r="D315" s="156"/>
+      <c r="B315" s="161"/>
+      <c r="C315" s="161"/>
+      <c r="D315" s="161"/>
       <c r="E315" s="6" t="s">
         <v>106</v>
       </c>
@@ -28312,9 +28312,9 @@
       <c r="Z315" s="121"/>
     </row>
     <row r="316" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B316" s="157"/>
-      <c r="C316" s="157"/>
-      <c r="D316" s="157"/>
+      <c r="B316" s="162"/>
+      <c r="C316" s="162"/>
+      <c r="D316" s="162"/>
       <c r="E316" s="7" t="s">
         <v>14</v>
       </c>
@@ -28358,13 +28358,13 @@
       <c r="A317" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B317" s="158">
+      <c r="B317" s="163">
         <v>51</v>
       </c>
-      <c r="C317" s="158" t="s">
+      <c r="C317" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="D317" s="158" t="s">
+      <c r="D317" s="163" t="s">
         <v>72</v>
       </c>
       <c r="E317" s="26" t="s">
@@ -28405,9 +28405,9 @@
       <c r="Z317" s="121"/>
     </row>
     <row r="318" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="159"/>
-      <c r="C318" s="159"/>
-      <c r="D318" s="159"/>
+      <c r="B318" s="164"/>
+      <c r="C318" s="164"/>
+      <c r="D318" s="164"/>
       <c r="E318" s="3" t="s">
         <v>13</v>
       </c>
@@ -28448,9 +28448,9 @@
       <c r="Z318" s="121"/>
     </row>
     <row r="319" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B319" s="159"/>
-      <c r="C319" s="159"/>
-      <c r="D319" s="159"/>
+      <c r="B319" s="164"/>
+      <c r="C319" s="164"/>
+      <c r="D319" s="164"/>
       <c r="E319" s="3" t="s">
         <v>110</v>
       </c>
@@ -28491,9 +28491,9 @@
       <c r="Z319" s="121"/>
     </row>
     <row r="320" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="159"/>
-      <c r="C320" s="159"/>
-      <c r="D320" s="159"/>
+      <c r="B320" s="164"/>
+      <c r="C320" s="164"/>
+      <c r="D320" s="164"/>
       <c r="E320" s="3" t="s">
         <v>109</v>
       </c>
@@ -28536,9 +28536,9 @@
       <c r="Z320" s="121"/>
     </row>
     <row r="321" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B321" s="159"/>
-      <c r="C321" s="159"/>
-      <c r="D321" s="159"/>
+      <c r="B321" s="164"/>
+      <c r="C321" s="164"/>
+      <c r="D321" s="164"/>
       <c r="E321" s="3" t="s">
         <v>299</v>
       </c>
@@ -28579,9 +28579,9 @@
       <c r="Z321" s="121"/>
     </row>
     <row r="322" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B322" s="159"/>
-      <c r="C322" s="159"/>
-      <c r="D322" s="159"/>
+      <c r="B322" s="164"/>
+      <c r="C322" s="164"/>
+      <c r="D322" s="164"/>
       <c r="E322" s="3" t="s">
         <v>106</v>
       </c>
@@ -28622,9 +28622,9 @@
       <c r="Z322" s="121"/>
     </row>
     <row r="323" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B323" s="160"/>
-      <c r="C323" s="160"/>
-      <c r="D323" s="160"/>
+      <c r="B323" s="165"/>
+      <c r="C323" s="165"/>
+      <c r="D323" s="165"/>
       <c r="E323" s="4" t="s">
         <v>14</v>
       </c>
@@ -28668,13 +28668,13 @@
       <c r="A324" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B324" s="155">
+      <c r="B324" s="160">
         <v>52</v>
       </c>
-      <c r="C324" s="155" t="s">
+      <c r="C324" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="D324" s="155" t="s">
+      <c r="D324" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E324" s="27" t="s">
@@ -28715,9 +28715,9 @@
       <c r="Z324" s="121"/>
     </row>
     <row r="325" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="156"/>
-      <c r="C325" s="156"/>
-      <c r="D325" s="156"/>
+      <c r="B325" s="161"/>
+      <c r="C325" s="161"/>
+      <c r="D325" s="161"/>
       <c r="E325" s="6" t="s">
         <v>13</v>
       </c>
@@ -28758,9 +28758,9 @@
       <c r="Z325" s="121"/>
     </row>
     <row r="326" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B326" s="156"/>
-      <c r="C326" s="156"/>
-      <c r="D326" s="156"/>
+      <c r="B326" s="161"/>
+      <c r="C326" s="161"/>
+      <c r="D326" s="161"/>
       <c r="E326" s="6" t="s">
         <v>110</v>
       </c>
@@ -28801,9 +28801,9 @@
       <c r="Z326" s="121"/>
     </row>
     <row r="327" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B327" s="156"/>
-      <c r="C327" s="156"/>
-      <c r="D327" s="156"/>
+      <c r="B327" s="161"/>
+      <c r="C327" s="161"/>
+      <c r="D327" s="161"/>
       <c r="E327" s="6" t="s">
         <v>290</v>
       </c>
@@ -28844,9 +28844,9 @@
       <c r="Z327" s="121"/>
     </row>
     <row r="328" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B328" s="156"/>
-      <c r="C328" s="156"/>
-      <c r="D328" s="156"/>
+      <c r="B328" s="161"/>
+      <c r="C328" s="161"/>
+      <c r="D328" s="161"/>
       <c r="E328" s="6" t="s">
         <v>109</v>
       </c>
@@ -28889,9 +28889,9 @@
       <c r="Z328" s="121"/>
     </row>
     <row r="329" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B329" s="156"/>
-      <c r="C329" s="156"/>
-      <c r="D329" s="156"/>
+      <c r="B329" s="161"/>
+      <c r="C329" s="161"/>
+      <c r="D329" s="161"/>
       <c r="E329" s="6" t="s">
         <v>299</v>
       </c>
@@ -28932,9 +28932,9 @@
       <c r="Z329" s="121"/>
     </row>
     <row r="330" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B330" s="156"/>
-      <c r="C330" s="156"/>
-      <c r="D330" s="156"/>
+      <c r="B330" s="161"/>
+      <c r="C330" s="161"/>
+      <c r="D330" s="161"/>
       <c r="E330" s="6" t="s">
         <v>106</v>
       </c>
@@ -28975,9 +28975,9 @@
       <c r="Z330" s="121"/>
     </row>
     <row r="331" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B331" s="157"/>
-      <c r="C331" s="157"/>
-      <c r="D331" s="157"/>
+      <c r="B331" s="162"/>
+      <c r="C331" s="162"/>
+      <c r="D331" s="162"/>
       <c r="E331" s="7" t="s">
         <v>14</v>
       </c>
@@ -29021,13 +29021,13 @@
       <c r="A332" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B332" s="158">
+      <c r="B332" s="163">
         <v>53</v>
       </c>
-      <c r="C332" s="158" t="s">
+      <c r="C332" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="D332" s="158" t="s">
+      <c r="D332" s="163" t="s">
         <v>72</v>
       </c>
       <c r="E332" s="26" t="s">
@@ -29047,7 +29047,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K332" s="158" t="s">
+      <c r="K332" s="163" t="s">
         <v>140</v>
       </c>
       <c r="L332" s="41"/>
@@ -29070,9 +29070,9 @@
       <c r="Z332" s="121"/>
     </row>
     <row r="333" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B333" s="159"/>
-      <c r="C333" s="159"/>
-      <c r="D333" s="159"/>
+      <c r="B333" s="164"/>
+      <c r="C333" s="164"/>
+      <c r="D333" s="164"/>
       <c r="E333" s="3" t="s">
         <v>13</v>
       </c>
@@ -29092,7 +29092,7 @@
         <f t="shared" si="61"/>
         <v>64</v>
       </c>
-      <c r="K333" s="159"/>
+      <c r="K333" s="164"/>
       <c r="L333" s="42"/>
       <c r="U333" s="119" t="str" cm="1">
         <f t="array" ref="U333">IF(C333="",INDEX(C325:C333,MATCH(TRUE,INDEX((C325:C333&lt;&gt;""),0),0)),C333)</f>
@@ -29113,9 +29113,9 @@
       <c r="Z333" s="121"/>
     </row>
     <row r="334" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B334" s="159"/>
-      <c r="C334" s="159"/>
-      <c r="D334" s="159"/>
+      <c r="B334" s="164"/>
+      <c r="C334" s="164"/>
+      <c r="D334" s="164"/>
       <c r="E334" s="3" t="s">
         <v>110</v>
       </c>
@@ -29135,7 +29135,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K334" s="159"/>
+      <c r="K334" s="164"/>
       <c r="L334" s="42"/>
       <c r="U334" s="119" t="str" cm="1">
         <f t="array" ref="U334">IF(C334="",INDEX(C326:C334,MATCH(TRUE,INDEX((C326:C334&lt;&gt;""),0),0)),C334)</f>
@@ -29156,9 +29156,9 @@
       <c r="Z334" s="121"/>
     </row>
     <row r="335" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B335" s="159"/>
-      <c r="C335" s="159"/>
-      <c r="D335" s="159"/>
+      <c r="B335" s="164"/>
+      <c r="C335" s="164"/>
+      <c r="D335" s="164"/>
       <c r="E335" s="3" t="s">
         <v>290</v>
       </c>
@@ -29178,7 +29178,7 @@
         <f t="shared" si="61"/>
         <v>14</v>
       </c>
-      <c r="K335" s="159"/>
+      <c r="K335" s="164"/>
       <c r="L335" s="42"/>
       <c r="U335" s="119" t="str" cm="1">
         <f t="array" ref="U335">IF(C335="",INDEX(C327:C335,MATCH(TRUE,INDEX((C327:C335&lt;&gt;""),0),0)),C335)</f>
@@ -29199,9 +29199,9 @@
       <c r="Z335" s="121"/>
     </row>
     <row r="336" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B336" s="159"/>
-      <c r="C336" s="159"/>
-      <c r="D336" s="159"/>
+      <c r="B336" s="164"/>
+      <c r="C336" s="164"/>
+      <c r="D336" s="164"/>
       <c r="E336" s="3" t="s">
         <v>109</v>
       </c>
@@ -29221,7 +29221,7 @@
         <f t="shared" si="61"/>
         <v>93</v>
       </c>
-      <c r="K336" s="159"/>
+      <c r="K336" s="164"/>
       <c r="L336" s="42" t="s">
         <v>138</v>
       </c>
@@ -29244,9 +29244,9 @@
       <c r="Z336" s="121"/>
     </row>
     <row r="337" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B337" s="159"/>
-      <c r="C337" s="159"/>
-      <c r="D337" s="159"/>
+      <c r="B337" s="164"/>
+      <c r="C337" s="164"/>
+      <c r="D337" s="164"/>
       <c r="E337" s="3" t="s">
         <v>106</v>
       </c>
@@ -29266,7 +29266,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K337" s="159"/>
+      <c r="K337" s="164"/>
       <c r="L337" s="42"/>
       <c r="U337" s="119" t="str" cm="1">
         <f t="array" ref="U337">IF(C337="",INDEX(C330:C337,MATCH(TRUE,INDEX((C330:C337&lt;&gt;""),0),0)),C337)</f>
@@ -29287,9 +29287,9 @@
       <c r="Z337" s="121"/>
     </row>
     <row r="338" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B338" s="160"/>
-      <c r="C338" s="160"/>
-      <c r="D338" s="160"/>
+      <c r="B338" s="165"/>
+      <c r="C338" s="165"/>
+      <c r="D338" s="165"/>
       <c r="E338" s="4" t="s">
         <v>14</v>
       </c>
@@ -29309,7 +29309,7 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
-      <c r="K338" s="160"/>
+      <c r="K338" s="165"/>
       <c r="L338" s="43"/>
       <c r="U338" s="119" t="str" cm="1">
         <f t="array" ref="U338">IF(C338="",INDEX(C331:C338,MATCH(TRUE,INDEX((C331:C338&lt;&gt;""),0),0)),C338)</f>
@@ -29333,13 +29333,13 @@
       <c r="A339" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B339" s="155">
+      <c r="B339" s="160">
         <v>54</v>
       </c>
-      <c r="C339" s="155" t="s">
+      <c r="C339" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="D339" s="155" t="s">
+      <c r="D339" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E339" s="27" t="s">
@@ -29359,7 +29359,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K339" s="155" t="s">
+      <c r="K339" s="160" t="s">
         <v>173</v>
       </c>
       <c r="L339" s="44"/>
@@ -29382,9 +29382,9 @@
       <c r="Z339" s="121"/>
     </row>
     <row r="340" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B340" s="156"/>
-      <c r="C340" s="156"/>
-      <c r="D340" s="156"/>
+      <c r="B340" s="161"/>
+      <c r="C340" s="161"/>
+      <c r="D340" s="161"/>
       <c r="E340" s="6" t="s">
         <v>13</v>
       </c>
@@ -29404,7 +29404,7 @@
         <f t="shared" si="61"/>
         <v>64</v>
       </c>
-      <c r="K340" s="156"/>
+      <c r="K340" s="161"/>
       <c r="L340" s="45"/>
       <c r="U340" s="119" t="str" cm="1">
         <f t="array" ref="U340">IF(C340="",INDEX(C333:C340,MATCH(TRUE,INDEX((C333:C340&lt;&gt;""),0),0)),C340)</f>
@@ -29425,9 +29425,9 @@
       <c r="Z340" s="121"/>
     </row>
     <row r="341" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B341" s="156"/>
-      <c r="C341" s="156"/>
-      <c r="D341" s="156"/>
+      <c r="B341" s="161"/>
+      <c r="C341" s="161"/>
+      <c r="D341" s="161"/>
       <c r="E341" s="6" t="s">
         <v>110</v>
       </c>
@@ -29447,7 +29447,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K341" s="156"/>
+      <c r="K341" s="161"/>
       <c r="L341" s="45"/>
       <c r="U341" s="119" t="str" cm="1">
         <f t="array" ref="U341">IF(C341="",INDEX(C334:C341,MATCH(TRUE,INDEX((C334:C341&lt;&gt;""),0),0)),C341)</f>
@@ -29468,9 +29468,9 @@
       <c r="Z341" s="121"/>
     </row>
     <row r="342" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B342" s="156"/>
-      <c r="C342" s="156"/>
-      <c r="D342" s="156"/>
+      <c r="B342" s="161"/>
+      <c r="C342" s="161"/>
+      <c r="D342" s="161"/>
       <c r="E342" s="6" t="s">
         <v>109</v>
       </c>
@@ -29490,7 +29490,7 @@
         <f t="shared" si="61"/>
         <v>93</v>
       </c>
-      <c r="K342" s="156"/>
+      <c r="K342" s="161"/>
       <c r="L342" s="45" t="s">
         <v>289</v>
       </c>
@@ -29513,9 +29513,9 @@
       <c r="Z342" s="121"/>
     </row>
     <row r="343" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B343" s="156"/>
-      <c r="C343" s="156"/>
-      <c r="D343" s="156"/>
+      <c r="B343" s="161"/>
+      <c r="C343" s="161"/>
+      <c r="D343" s="161"/>
       <c r="E343" s="6" t="s">
         <v>310</v>
       </c>
@@ -29535,7 +29535,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K343" s="156"/>
+      <c r="K343" s="161"/>
       <c r="L343" s="45"/>
       <c r="U343" s="119" t="str" cm="1">
         <f t="array" ref="U343">IF(C343="",INDEX(C337:C343,MATCH(TRUE,INDEX((C337:C343&lt;&gt;""),0),0)),C343)</f>
@@ -29556,9 +29556,9 @@
       <c r="Z343" s="121"/>
     </row>
     <row r="344" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B344" s="156"/>
-      <c r="C344" s="156"/>
-      <c r="D344" s="156"/>
+      <c r="B344" s="161"/>
+      <c r="C344" s="161"/>
+      <c r="D344" s="161"/>
       <c r="E344" s="6" t="s">
         <v>299</v>
       </c>
@@ -29578,7 +29578,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K344" s="156"/>
+      <c r="K344" s="161"/>
       <c r="L344" s="45"/>
       <c r="U344" s="119" t="str" cm="1">
         <f t="array" ref="U344">IF(C344="",INDEX(C338:C344,MATCH(TRUE,INDEX((C338:C344&lt;&gt;""),0),0)),C344)</f>
@@ -29599,9 +29599,9 @@
       <c r="Z344" s="121"/>
     </row>
     <row r="345" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B345" s="156"/>
-      <c r="C345" s="156"/>
-      <c r="D345" s="156"/>
+      <c r="B345" s="161"/>
+      <c r="C345" s="161"/>
+      <c r="D345" s="161"/>
       <c r="E345" s="6" t="s">
         <v>106</v>
       </c>
@@ -29621,7 +29621,7 @@
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="K345" s="156"/>
+      <c r="K345" s="161"/>
       <c r="L345" s="45"/>
       <c r="U345" s="119" t="str" cm="1">
         <f t="array" ref="U345">IF(C345="",INDEX(C337:C345,MATCH(TRUE,INDEX((C337:C345&lt;&gt;""),0),0)),C345)</f>
@@ -29642,9 +29642,9 @@
       <c r="Z345" s="121"/>
     </row>
     <row r="346" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B346" s="157"/>
-      <c r="C346" s="157"/>
-      <c r="D346" s="157"/>
+      <c r="B346" s="162"/>
+      <c r="C346" s="162"/>
+      <c r="D346" s="162"/>
       <c r="E346" s="7" t="s">
         <v>14</v>
       </c>
@@ -29666,7 +29666,7 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
-      <c r="K346" s="157"/>
+      <c r="K346" s="162"/>
       <c r="L346" s="46"/>
       <c r="U346" s="119" t="str" cm="1">
         <f t="array" ref="U346">IF(C346="",INDEX(C338:C346,MATCH(TRUE,INDEX((C338:C346&lt;&gt;""),0),0)),C346)</f>
@@ -29690,13 +29690,13 @@
       <c r="A347" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B347" s="158">
+      <c r="B347" s="163">
         <v>55</v>
       </c>
-      <c r="C347" s="158" t="s">
+      <c r="C347" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="D347" s="158" t="s">
+      <c r="D347" s="163" t="s">
         <v>72</v>
       </c>
       <c r="E347" s="26" t="s">
@@ -29737,9 +29737,9 @@
       <c r="Z347" s="121"/>
     </row>
     <row r="348" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="159"/>
-      <c r="C348" s="159"/>
-      <c r="D348" s="159"/>
+      <c r="B348" s="164"/>
+      <c r="C348" s="164"/>
+      <c r="D348" s="164"/>
       <c r="E348" s="3" t="s">
         <v>13</v>
       </c>
@@ -29782,9 +29782,9 @@
       <c r="Z348" s="121"/>
     </row>
     <row r="349" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="159"/>
-      <c r="C349" s="159"/>
-      <c r="D349" s="159"/>
+      <c r="B349" s="164"/>
+      <c r="C349" s="164"/>
+      <c r="D349" s="164"/>
       <c r="E349" s="3" t="s">
         <v>110</v>
       </c>
@@ -29825,9 +29825,9 @@
       <c r="Z349" s="121"/>
     </row>
     <row r="350" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B350" s="159"/>
-      <c r="C350" s="159"/>
-      <c r="D350" s="159"/>
+      <c r="B350" s="164"/>
+      <c r="C350" s="164"/>
+      <c r="D350" s="164"/>
       <c r="E350" s="3" t="s">
         <v>109</v>
       </c>
@@ -29870,9 +29870,9 @@
       <c r="Z350" s="121"/>
     </row>
     <row r="351" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B351" s="159"/>
-      <c r="C351" s="159"/>
-      <c r="D351" s="159"/>
+      <c r="B351" s="164"/>
+      <c r="C351" s="164"/>
+      <c r="D351" s="164"/>
       <c r="E351" s="3" t="s">
         <v>106</v>
       </c>
@@ -29913,9 +29913,9 @@
       <c r="Z351" s="121"/>
     </row>
     <row r="352" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B352" s="160"/>
-      <c r="C352" s="160"/>
-      <c r="D352" s="160"/>
+      <c r="B352" s="165"/>
+      <c r="C352" s="165"/>
+      <c r="D352" s="165"/>
       <c r="E352" s="4" t="s">
         <v>14</v>
       </c>
@@ -29963,13 +29963,13 @@
       <c r="A353" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B353" s="155">
+      <c r="B353" s="160">
         <v>56</v>
       </c>
-      <c r="C353" s="155" t="s">
+      <c r="C353" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="D353" s="155" t="s">
+      <c r="D353" s="160" t="s">
         <v>72</v>
       </c>
       <c r="E353" s="27" t="s">
@@ -30010,9 +30010,9 @@
       <c r="Z353" s="121"/>
     </row>
     <row r="354" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="156"/>
-      <c r="C354" s="156"/>
-      <c r="D354" s="156"/>
+      <c r="B354" s="161"/>
+      <c r="C354" s="161"/>
+      <c r="D354" s="161"/>
       <c r="E354" s="6" t="s">
         <v>13</v>
       </c>
@@ -30053,9 +30053,9 @@
       <c r="Z354" s="121"/>
     </row>
     <row r="355" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="156"/>
-      <c r="C355" s="156"/>
-      <c r="D355" s="156"/>
+      <c r="B355" s="161"/>
+      <c r="C355" s="161"/>
+      <c r="D355" s="161"/>
       <c r="E355" s="6" t="s">
         <v>110</v>
       </c>
@@ -30096,9 +30096,9 @@
       <c r="Z355" s="121"/>
     </row>
     <row r="356" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="156"/>
-      <c r="C356" s="156"/>
-      <c r="D356" s="156"/>
+      <c r="B356" s="161"/>
+      <c r="C356" s="161"/>
+      <c r="D356" s="161"/>
       <c r="E356" s="6" t="s">
         <v>109</v>
       </c>
@@ -30141,9 +30141,9 @@
       <c r="Z356" s="121"/>
     </row>
     <row r="357" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="156"/>
-      <c r="C357" s="156"/>
-      <c r="D357" s="156"/>
+      <c r="B357" s="161"/>
+      <c r="C357" s="161"/>
+      <c r="D357" s="161"/>
       <c r="E357" s="6" t="s">
         <v>310</v>
       </c>
@@ -30184,9 +30184,9 @@
       <c r="Z357" s="121"/>
     </row>
     <row r="358" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="156"/>
-      <c r="C358" s="156"/>
-      <c r="D358" s="156"/>
+      <c r="B358" s="161"/>
+      <c r="C358" s="161"/>
+      <c r="D358" s="161"/>
       <c r="E358" s="6" t="s">
         <v>310</v>
       </c>
@@ -30227,9 +30227,9 @@
       <c r="Z358" s="121"/>
     </row>
     <row r="359" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B359" s="156"/>
-      <c r="C359" s="156"/>
-      <c r="D359" s="156"/>
+      <c r="B359" s="161"/>
+      <c r="C359" s="161"/>
+      <c r="D359" s="161"/>
       <c r="E359" s="6" t="s">
         <v>299</v>
       </c>
@@ -30270,9 +30270,9 @@
       <c r="Z359" s="121"/>
     </row>
     <row r="360" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B360" s="156"/>
-      <c r="C360" s="156"/>
-      <c r="D360" s="156"/>
+      <c r="B360" s="161"/>
+      <c r="C360" s="161"/>
+      <c r="D360" s="161"/>
       <c r="E360" s="6" t="s">
         <v>106</v>
       </c>
@@ -30315,9 +30315,9 @@
       <c r="Z360" s="121"/>
     </row>
     <row r="361" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B361" s="157"/>
-      <c r="C361" s="157"/>
-      <c r="D361" s="157"/>
+      <c r="B361" s="162"/>
+      <c r="C361" s="162"/>
+      <c r="D361" s="162"/>
       <c r="E361" s="7" t="s">
         <v>14</v>
       </c>
@@ -30363,13 +30363,13 @@
       <c r="A362" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B362" s="158">
+      <c r="B362" s="163">
         <v>57</v>
       </c>
-      <c r="C362" s="158" t="s">
+      <c r="C362" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D362" s="158" t="s">
+      <c r="D362" s="163" t="s">
         <v>87</v>
       </c>
       <c r="E362" s="26" t="s">
@@ -30410,9 +30410,9 @@
       <c r="Z362" s="121"/>
     </row>
     <row r="363" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B363" s="159"/>
-      <c r="C363" s="159"/>
-      <c r="D363" s="159"/>
+      <c r="B363" s="164"/>
+      <c r="C363" s="164"/>
+      <c r="D363" s="164"/>
       <c r="E363" s="3" t="s">
         <v>13</v>
       </c>
@@ -30455,9 +30455,9 @@
       <c r="Z363" s="121"/>
     </row>
     <row r="364" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B364" s="159"/>
-      <c r="C364" s="159"/>
-      <c r="D364" s="159"/>
+      <c r="B364" s="164"/>
+      <c r="C364" s="164"/>
+      <c r="D364" s="164"/>
       <c r="E364" s="3" t="s">
         <v>110</v>
       </c>
@@ -30500,9 +30500,9 @@
       <c r="Z364" s="121"/>
     </row>
     <row r="365" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B365" s="159"/>
-      <c r="C365" s="159"/>
-      <c r="D365" s="159"/>
+      <c r="B365" s="164"/>
+      <c r="C365" s="164"/>
+      <c r="D365" s="164"/>
       <c r="E365" s="3" t="s">
         <v>109</v>
       </c>
@@ -30545,9 +30545,9 @@
       <c r="Z365" s="121"/>
     </row>
     <row r="366" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B366" s="159"/>
-      <c r="C366" s="159"/>
-      <c r="D366" s="159"/>
+      <c r="B366" s="164"/>
+      <c r="C366" s="164"/>
+      <c r="D366" s="164"/>
       <c r="E366" s="3" t="s">
         <v>290</v>
       </c>
@@ -30588,9 +30588,9 @@
       <c r="Z366" s="121"/>
     </row>
     <row r="367" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B367" s="159"/>
-      <c r="C367" s="159"/>
-      <c r="D367" s="159"/>
+      <c r="B367" s="164"/>
+      <c r="C367" s="164"/>
+      <c r="D367" s="164"/>
       <c r="E367" s="3" t="s">
         <v>106</v>
       </c>
@@ -30633,9 +30633,9 @@
       <c r="Z367" s="121"/>
     </row>
     <row r="368" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B368" s="160"/>
-      <c r="C368" s="160"/>
-      <c r="D368" s="160"/>
+      <c r="B368" s="165"/>
+      <c r="C368" s="165"/>
+      <c r="D368" s="165"/>
       <c r="E368" s="4" t="s">
         <v>14</v>
       </c>
@@ -30681,13 +30681,13 @@
       <c r="A369" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B369" s="155">
+      <c r="B369" s="160">
         <v>58</v>
       </c>
-      <c r="C369" s="155" t="s">
+      <c r="C369" s="160" t="s">
         <v>255</v>
       </c>
-      <c r="D369" s="155" t="s">
+      <c r="D369" s="160" t="s">
         <v>88</v>
       </c>
       <c r="E369" s="27" t="s">
@@ -30728,9 +30728,9 @@
       <c r="Z369" s="121"/>
     </row>
     <row r="370" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B370" s="156"/>
-      <c r="C370" s="156"/>
-      <c r="D370" s="156"/>
+      <c r="B370" s="161"/>
+      <c r="C370" s="161"/>
+      <c r="D370" s="161"/>
       <c r="E370" s="6" t="s">
         <v>13</v>
       </c>
@@ -30771,9 +30771,9 @@
       <c r="Z370" s="121"/>
     </row>
     <row r="371" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B371" s="156"/>
-      <c r="C371" s="156"/>
-      <c r="D371" s="156"/>
+      <c r="B371" s="161"/>
+      <c r="C371" s="161"/>
+      <c r="D371" s="161"/>
       <c r="E371" s="6" t="s">
         <v>110</v>
       </c>
@@ -30814,9 +30814,9 @@
       <c r="Z371" s="121"/>
     </row>
     <row r="372" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B372" s="156"/>
-      <c r="C372" s="156"/>
-      <c r="D372" s="156"/>
+      <c r="B372" s="161"/>
+      <c r="C372" s="161"/>
+      <c r="D372" s="161"/>
       <c r="E372" s="6" t="s">
         <v>290</v>
       </c>
@@ -30857,9 +30857,9 @@
       <c r="Z372" s="121"/>
     </row>
     <row r="373" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B373" s="156"/>
-      <c r="C373" s="156"/>
-      <c r="D373" s="156"/>
+      <c r="B373" s="161"/>
+      <c r="C373" s="161"/>
+      <c r="D373" s="161"/>
       <c r="E373" s="6" t="s">
         <v>109</v>
       </c>
@@ -30900,9 +30900,9 @@
       <c r="Z373" s="121"/>
     </row>
     <row r="374" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B374" s="156"/>
-      <c r="C374" s="156"/>
-      <c r="D374" s="156"/>
+      <c r="B374" s="161"/>
+      <c r="C374" s="161"/>
+      <c r="D374" s="161"/>
       <c r="E374" s="6" t="s">
         <v>106</v>
       </c>
@@ -30943,9 +30943,9 @@
       <c r="Z374" s="121"/>
     </row>
     <row r="375" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B375" s="157"/>
-      <c r="C375" s="157"/>
-      <c r="D375" s="157"/>
+      <c r="B375" s="162"/>
+      <c r="C375" s="162"/>
+      <c r="D375" s="162"/>
       <c r="E375" s="7" t="s">
         <v>14</v>
       </c>
@@ -30989,13 +30989,13 @@
       <c r="A376" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B376" s="158">
+      <c r="B376" s="163">
         <v>59</v>
       </c>
-      <c r="C376" s="158" t="s">
+      <c r="C376" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="D376" s="158" t="s">
+      <c r="D376" s="163" t="s">
         <v>88</v>
       </c>
       <c r="E376" s="26" t="s">
@@ -31036,9 +31036,9 @@
       <c r="Z376" s="121"/>
     </row>
     <row r="377" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="159"/>
-      <c r="C377" s="159"/>
-      <c r="D377" s="159"/>
+      <c r="B377" s="164"/>
+      <c r="C377" s="164"/>
+      <c r="D377" s="164"/>
       <c r="E377" s="3" t="s">
         <v>13</v>
       </c>
@@ -31079,9 +31079,9 @@
       <c r="Z377" s="121"/>
     </row>
     <row r="378" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B378" s="159"/>
-      <c r="C378" s="159"/>
-      <c r="D378" s="159"/>
+      <c r="B378" s="164"/>
+      <c r="C378" s="164"/>
+      <c r="D378" s="164"/>
       <c r="E378" s="3" t="s">
         <v>110</v>
       </c>
@@ -31122,9 +31122,9 @@
       <c r="Z378" s="121"/>
     </row>
     <row r="379" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B379" s="159"/>
-      <c r="C379" s="159"/>
-      <c r="D379" s="159"/>
+      <c r="B379" s="164"/>
+      <c r="C379" s="164"/>
+      <c r="D379" s="164"/>
       <c r="E379" s="3" t="s">
         <v>109</v>
       </c>
@@ -31165,9 +31165,9 @@
       <c r="Z379" s="121"/>
     </row>
     <row r="380" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B380" s="159"/>
-      <c r="C380" s="159"/>
-      <c r="D380" s="159"/>
+      <c r="B380" s="164"/>
+      <c r="C380" s="164"/>
+      <c r="D380" s="164"/>
       <c r="E380" s="3" t="s">
         <v>106</v>
       </c>
@@ -31208,9 +31208,9 @@
       <c r="Z380" s="121"/>
     </row>
     <row r="381" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B381" s="160"/>
-      <c r="C381" s="160"/>
-      <c r="D381" s="160"/>
+      <c r="B381" s="165"/>
+      <c r="C381" s="165"/>
+      <c r="D381" s="165"/>
       <c r="E381" s="4" t="s">
         <v>14</v>
       </c>
@@ -31254,13 +31254,13 @@
       <c r="A382" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B382" s="155">
+      <c r="B382" s="160">
         <v>60</v>
       </c>
-      <c r="C382" s="155" t="s">
+      <c r="C382" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="D382" s="155" t="s">
+      <c r="D382" s="160" t="s">
         <v>88</v>
       </c>
       <c r="E382" s="27" t="s">
@@ -31301,9 +31301,9 @@
       <c r="Z382" s="121"/>
     </row>
     <row r="383" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B383" s="156"/>
-      <c r="C383" s="156"/>
-      <c r="D383" s="156"/>
+      <c r="B383" s="161"/>
+      <c r="C383" s="161"/>
+      <c r="D383" s="161"/>
       <c r="E383" s="6" t="s">
         <v>13</v>
       </c>
@@ -31344,9 +31344,9 @@
       <c r="Z383" s="121"/>
     </row>
     <row r="384" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="156"/>
-      <c r="C384" s="156"/>
-      <c r="D384" s="156"/>
+      <c r="B384" s="161"/>
+      <c r="C384" s="161"/>
+      <c r="D384" s="161"/>
       <c r="E384" s="6" t="s">
         <v>110</v>
       </c>
@@ -31387,9 +31387,9 @@
       <c r="Z384" s="121"/>
     </row>
     <row r="385" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B385" s="156"/>
-      <c r="C385" s="156"/>
-      <c r="D385" s="156"/>
+      <c r="B385" s="161"/>
+      <c r="C385" s="161"/>
+      <c r="D385" s="161"/>
       <c r="E385" s="6" t="s">
         <v>109</v>
       </c>
@@ -31430,9 +31430,9 @@
       <c r="Z385" s="121"/>
     </row>
     <row r="386" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B386" s="156"/>
-      <c r="C386" s="156"/>
-      <c r="D386" s="156"/>
+      <c r="B386" s="161"/>
+      <c r="C386" s="161"/>
+      <c r="D386" s="161"/>
       <c r="E386" s="6" t="s">
         <v>106</v>
       </c>
@@ -31473,9 +31473,9 @@
       <c r="Z386" s="121"/>
     </row>
     <row r="387" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B387" s="157"/>
-      <c r="C387" s="157"/>
-      <c r="D387" s="157"/>
+      <c r="B387" s="162"/>
+      <c r="C387" s="162"/>
+      <c r="D387" s="162"/>
       <c r="E387" s="7" t="s">
         <v>14</v>
       </c>
@@ -31519,13 +31519,13 @@
       <c r="A388" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B388" s="158">
+      <c r="B388" s="163">
         <v>61</v>
       </c>
-      <c r="C388" s="158" t="s">
+      <c r="C388" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="D388" s="158" t="s">
+      <c r="D388" s="163" t="s">
         <v>88</v>
       </c>
       <c r="E388" s="26" t="s">
@@ -31566,9 +31566,9 @@
       <c r="Z388" s="121"/>
     </row>
     <row r="389" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B389" s="159"/>
-      <c r="C389" s="159"/>
-      <c r="D389" s="159"/>
+      <c r="B389" s="164"/>
+      <c r="C389" s="164"/>
+      <c r="D389" s="164"/>
       <c r="E389" s="3" t="s">
         <v>13</v>
       </c>
@@ -31609,9 +31609,9 @@
       <c r="Z389" s="121"/>
     </row>
     <row r="390" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B390" s="159"/>
-      <c r="C390" s="159"/>
-      <c r="D390" s="159"/>
+      <c r="B390" s="164"/>
+      <c r="C390" s="164"/>
+      <c r="D390" s="164"/>
       <c r="E390" s="3" t="s">
         <v>110</v>
       </c>
@@ -31652,9 +31652,9 @@
       <c r="Z390" s="121"/>
     </row>
     <row r="391" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B391" s="159"/>
-      <c r="C391" s="159"/>
-      <c r="D391" s="159"/>
+      <c r="B391" s="164"/>
+      <c r="C391" s="164"/>
+      <c r="D391" s="164"/>
       <c r="E391" s="3" t="s">
         <v>109</v>
       </c>
@@ -31697,9 +31697,9 @@
       <c r="Z391" s="121"/>
     </row>
     <row r="392" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B392" s="159"/>
-      <c r="C392" s="159"/>
-      <c r="D392" s="159"/>
+      <c r="B392" s="164"/>
+      <c r="C392" s="164"/>
+      <c r="D392" s="164"/>
       <c r="E392" s="3" t="s">
         <v>106</v>
       </c>
@@ -31740,9 +31740,9 @@
       <c r="Z392" s="121"/>
     </row>
     <row r="393" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B393" s="160"/>
-      <c r="C393" s="160"/>
-      <c r="D393" s="160"/>
+      <c r="B393" s="165"/>
+      <c r="C393" s="165"/>
+      <c r="D393" s="165"/>
       <c r="E393" s="4" t="s">
         <v>14</v>
       </c>
@@ -31786,13 +31786,13 @@
       <c r="A394" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B394" s="155">
+      <c r="B394" s="160">
         <v>62</v>
       </c>
-      <c r="C394" s="155" t="s">
+      <c r="C394" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="D394" s="155" t="s">
+      <c r="D394" s="160" t="s">
         <v>88</v>
       </c>
       <c r="E394" s="27" t="s">
@@ -31833,9 +31833,9 @@
       <c r="Z394" s="121"/>
     </row>
     <row r="395" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="156"/>
-      <c r="C395" s="156"/>
-      <c r="D395" s="156"/>
+      <c r="B395" s="161"/>
+      <c r="C395" s="161"/>
+      <c r="D395" s="161"/>
       <c r="E395" s="6" t="s">
         <v>13</v>
       </c>
@@ -31876,9 +31876,9 @@
       <c r="Z395" s="121"/>
     </row>
     <row r="396" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="156"/>
-      <c r="C396" s="156"/>
-      <c r="D396" s="156"/>
+      <c r="B396" s="161"/>
+      <c r="C396" s="161"/>
+      <c r="D396" s="161"/>
       <c r="E396" s="6" t="s">
         <v>110</v>
       </c>
@@ -31919,9 +31919,9 @@
       <c r="Z396" s="121"/>
     </row>
     <row r="397" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="156"/>
-      <c r="C397" s="156"/>
-      <c r="D397" s="156"/>
+      <c r="B397" s="161"/>
+      <c r="C397" s="161"/>
+      <c r="D397" s="161"/>
       <c r="E397" s="6" t="s">
         <v>109</v>
       </c>
@@ -31962,9 +31962,9 @@
       <c r="Z397" s="121"/>
     </row>
     <row r="398" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="156"/>
-      <c r="C398" s="156"/>
-      <c r="D398" s="156"/>
+      <c r="B398" s="161"/>
+      <c r="C398" s="161"/>
+      <c r="D398" s="161"/>
       <c r="E398" s="6" t="s">
         <v>106</v>
       </c>
@@ -32005,9 +32005,9 @@
       <c r="Z398" s="121"/>
     </row>
     <row r="399" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="157"/>
-      <c r="C399" s="157"/>
-      <c r="D399" s="157"/>
+      <c r="B399" s="162"/>
+      <c r="C399" s="162"/>
+      <c r="D399" s="162"/>
       <c r="E399" s="7" t="s">
         <v>14</v>
       </c>
@@ -32051,13 +32051,13 @@
       <c r="A400" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B400" s="158">
+      <c r="B400" s="163">
         <v>63</v>
       </c>
-      <c r="C400" s="158" t="s">
+      <c r="C400" s="163" t="s">
         <v>301</v>
       </c>
-      <c r="D400" s="158" t="s">
+      <c r="D400" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E400" s="26" t="s">
@@ -32098,9 +32098,9 @@
       <c r="Z400" s="121"/>
     </row>
     <row r="401" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="159"/>
-      <c r="C401" s="159"/>
-      <c r="D401" s="159"/>
+      <c r="B401" s="164"/>
+      <c r="C401" s="164"/>
+      <c r="D401" s="164"/>
       <c r="E401" s="3" t="s">
         <v>13</v>
       </c>
@@ -32141,9 +32141,9 @@
       <c r="Z401" s="121"/>
     </row>
     <row r="402" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B402" s="159"/>
-      <c r="C402" s="159"/>
-      <c r="D402" s="159"/>
+      <c r="B402" s="164"/>
+      <c r="C402" s="164"/>
+      <c r="D402" s="164"/>
       <c r="E402" s="3" t="s">
         <v>110</v>
       </c>
@@ -32184,9 +32184,9 @@
       <c r="Z402" s="121"/>
     </row>
     <row r="403" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="159"/>
-      <c r="C403" s="159"/>
-      <c r="D403" s="159"/>
+      <c r="B403" s="164"/>
+      <c r="C403" s="164"/>
+      <c r="D403" s="164"/>
       <c r="E403" s="3" t="s">
         <v>109</v>
       </c>
@@ -32227,9 +32227,9 @@
       <c r="Z403" s="121"/>
     </row>
     <row r="404" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="159"/>
-      <c r="C404" s="159"/>
-      <c r="D404" s="159"/>
+      <c r="B404" s="164"/>
+      <c r="C404" s="164"/>
+      <c r="D404" s="164"/>
       <c r="E404" s="3" t="s">
         <v>106</v>
       </c>
@@ -32270,9 +32270,9 @@
       <c r="Z404" s="121"/>
     </row>
     <row r="405" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B405" s="160"/>
-      <c r="C405" s="160"/>
-      <c r="D405" s="160"/>
+      <c r="B405" s="165"/>
+      <c r="C405" s="165"/>
+      <c r="D405" s="165"/>
       <c r="E405" s="4" t="s">
         <v>14</v>
       </c>
@@ -32316,13 +32316,13 @@
       <c r="A406" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B406" s="155">
+      <c r="B406" s="160">
         <v>64</v>
       </c>
-      <c r="C406" s="155" t="s">
+      <c r="C406" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="D406" s="155" t="s">
+      <c r="D406" s="160" t="s">
         <v>92</v>
       </c>
       <c r="E406" s="27" t="s">
@@ -32365,9 +32365,9 @@
       <c r="Z406" s="121"/>
     </row>
     <row r="407" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B407" s="156"/>
-      <c r="C407" s="156"/>
-      <c r="D407" s="156"/>
+      <c r="B407" s="161"/>
+      <c r="C407" s="161"/>
+      <c r="D407" s="161"/>
       <c r="E407" s="6" t="s">
         <v>13</v>
       </c>
@@ -32408,9 +32408,9 @@
       <c r="Z407" s="121"/>
     </row>
     <row r="408" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B408" s="156"/>
-      <c r="C408" s="156"/>
-      <c r="D408" s="156"/>
+      <c r="B408" s="161"/>
+      <c r="C408" s="161"/>
+      <c r="D408" s="161"/>
       <c r="E408" s="6" t="s">
         <v>103</v>
       </c>
@@ -32455,9 +32455,9 @@
       <c r="Z408" s="121"/>
     </row>
     <row r="409" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B409" s="156"/>
-      <c r="C409" s="156"/>
-      <c r="D409" s="156"/>
+      <c r="B409" s="161"/>
+      <c r="C409" s="161"/>
+      <c r="D409" s="161"/>
       <c r="E409" s="6" t="s">
         <v>106</v>
       </c>
@@ -32498,9 +32498,9 @@
       <c r="Z409" s="121"/>
     </row>
     <row r="410" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B410" s="156"/>
-      <c r="C410" s="156"/>
-      <c r="D410" s="156"/>
+      <c r="B410" s="161"/>
+      <c r="C410" s="161"/>
+      <c r="D410" s="161"/>
       <c r="E410" s="6" t="s">
         <v>93</v>
       </c>
@@ -32541,9 +32541,9 @@
       <c r="Z410" s="121"/>
     </row>
     <row r="411" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B411" s="156"/>
-      <c r="C411" s="156"/>
-      <c r="D411" s="156"/>
+      <c r="B411" s="161"/>
+      <c r="C411" s="161"/>
+      <c r="D411" s="161"/>
       <c r="E411" s="6" t="s">
         <v>109</v>
       </c>
@@ -32589,9 +32589,9 @@
       <c r="Z411" s="121"/>
     </row>
     <row r="412" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B412" s="156"/>
-      <c r="C412" s="156"/>
-      <c r="D412" s="156"/>
+      <c r="B412" s="161"/>
+      <c r="C412" s="161"/>
+      <c r="D412" s="161"/>
       <c r="E412" s="6" t="s">
         <v>311</v>
       </c>
@@ -32632,9 +32632,9 @@
       <c r="Z412" s="121"/>
     </row>
     <row r="413" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B413" s="156"/>
-      <c r="C413" s="156"/>
-      <c r="D413" s="156"/>
+      <c r="B413" s="161"/>
+      <c r="C413" s="161"/>
+      <c r="D413" s="161"/>
       <c r="E413" s="6" t="s">
         <v>299</v>
       </c>
@@ -32675,9 +32675,9 @@
       <c r="Z413" s="121"/>
     </row>
     <row r="414" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B414" s="156"/>
-      <c r="C414" s="156"/>
-      <c r="D414" s="156"/>
+      <c r="B414" s="161"/>
+      <c r="C414" s="161"/>
+      <c r="D414" s="161"/>
       <c r="E414" s="6" t="s">
         <v>110</v>
       </c>
@@ -32718,9 +32718,9 @@
       <c r="Z414" s="121"/>
     </row>
     <row r="415" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B415" s="157"/>
-      <c r="C415" s="157"/>
-      <c r="D415" s="157"/>
+      <c r="B415" s="162"/>
+      <c r="C415" s="162"/>
+      <c r="D415" s="162"/>
       <c r="E415" s="7" t="s">
         <v>14</v>
       </c>
@@ -32763,13 +32763,13 @@
       <c r="A416" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B416" s="158">
+      <c r="B416" s="163">
         <v>65</v>
       </c>
-      <c r="C416" s="158" t="s">
+      <c r="C416" s="163" t="s">
         <v>307</v>
       </c>
-      <c r="D416" s="158" t="s">
+      <c r="D416" s="163" t="s">
         <v>92</v>
       </c>
       <c r="E416" s="26" t="s">
@@ -32810,9 +32810,9 @@
       <c r="Z416" s="121"/>
     </row>
     <row r="417" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B417" s="159"/>
-      <c r="C417" s="159"/>
-      <c r="D417" s="159"/>
+      <c r="B417" s="164"/>
+      <c r="C417" s="164"/>
+      <c r="D417" s="164"/>
       <c r="E417" s="3" t="s">
         <v>13</v>
       </c>
@@ -32853,9 +32853,9 @@
       <c r="Z417" s="121"/>
     </row>
     <row r="418" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B418" s="159"/>
-      <c r="C418" s="159"/>
-      <c r="D418" s="159"/>
+      <c r="B418" s="164"/>
+      <c r="C418" s="164"/>
+      <c r="D418" s="164"/>
       <c r="E418" s="3" t="s">
         <v>103</v>
       </c>
@@ -32896,9 +32896,9 @@
       <c r="Z418" s="121"/>
     </row>
     <row r="419" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B419" s="159"/>
-      <c r="C419" s="159"/>
-      <c r="D419" s="159"/>
+      <c r="B419" s="164"/>
+      <c r="C419" s="164"/>
+      <c r="D419" s="164"/>
       <c r="E419" s="3" t="s">
         <v>106</v>
       </c>
@@ -32939,9 +32939,9 @@
       <c r="Z419" s="121"/>
     </row>
     <row r="420" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B420" s="159"/>
-      <c r="C420" s="159"/>
-      <c r="D420" s="159"/>
+      <c r="B420" s="164"/>
+      <c r="C420" s="164"/>
+      <c r="D420" s="164"/>
       <c r="E420" s="3" t="s">
         <v>93</v>
       </c>
@@ -32982,9 +32982,9 @@
       <c r="Z420" s="121"/>
     </row>
     <row r="421" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B421" s="159"/>
-      <c r="C421" s="159"/>
-      <c r="D421" s="159"/>
+      <c r="B421" s="164"/>
+      <c r="C421" s="164"/>
+      <c r="D421" s="164"/>
       <c r="E421" s="3" t="s">
         <v>311</v>
       </c>
@@ -33025,9 +33025,9 @@
       <c r="Z421" s="121"/>
     </row>
     <row r="422" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B422" s="159"/>
-      <c r="C422" s="159"/>
-      <c r="D422" s="159"/>
+      <c r="B422" s="164"/>
+      <c r="C422" s="164"/>
+      <c r="D422" s="164"/>
       <c r="E422" s="3" t="s">
         <v>109</v>
       </c>
@@ -33068,9 +33068,9 @@
       <c r="Z422" s="121"/>
     </row>
     <row r="423" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B423" s="159"/>
-      <c r="C423" s="159"/>
-      <c r="D423" s="159"/>
+      <c r="B423" s="164"/>
+      <c r="C423" s="164"/>
+      <c r="D423" s="164"/>
       <c r="E423" s="3" t="s">
         <v>110</v>
       </c>
@@ -33111,9 +33111,9 @@
       <c r="Z423" s="121"/>
     </row>
     <row r="424" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B424" s="160"/>
-      <c r="C424" s="160"/>
-      <c r="D424" s="160"/>
+      <c r="B424" s="165"/>
+      <c r="C424" s="165"/>
+      <c r="D424" s="165"/>
       <c r="E424" s="4" t="s">
         <v>14</v>
       </c>
@@ -33156,13 +33156,13 @@
       <c r="A425" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B425" s="155">
+      <c r="B425" s="160">
         <v>66</v>
       </c>
-      <c r="C425" s="155" t="s">
+      <c r="C425" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="D425" s="155" t="s">
+      <c r="D425" s="160" t="s">
         <v>88</v>
       </c>
       <c r="E425" s="27" t="s">
@@ -33203,9 +33203,9 @@
       <c r="Z425" s="121"/>
     </row>
     <row r="426" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B426" s="156"/>
-      <c r="C426" s="156"/>
-      <c r="D426" s="156"/>
+      <c r="B426" s="161"/>
+      <c r="C426" s="161"/>
+      <c r="D426" s="161"/>
       <c r="E426" s="6" t="s">
         <v>13</v>
       </c>
@@ -33246,9 +33246,9 @@
       <c r="Z426" s="121"/>
     </row>
     <row r="427" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B427" s="156"/>
-      <c r="C427" s="156"/>
-      <c r="D427" s="156"/>
+      <c r="B427" s="161"/>
+      <c r="C427" s="161"/>
+      <c r="D427" s="161"/>
       <c r="E427" s="6" t="s">
         <v>106</v>
       </c>
@@ -33289,9 +33289,9 @@
       <c r="Z427" s="121"/>
     </row>
     <row r="428" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B428" s="156"/>
-      <c r="C428" s="156"/>
-      <c r="D428" s="156"/>
+      <c r="B428" s="161"/>
+      <c r="C428" s="161"/>
+      <c r="D428" s="161"/>
       <c r="E428" s="6" t="s">
         <v>109</v>
       </c>
@@ -33332,9 +33332,9 @@
       <c r="Z428" s="121"/>
     </row>
     <row r="429" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B429" s="156"/>
-      <c r="C429" s="156"/>
-      <c r="D429" s="156"/>
+      <c r="B429" s="161"/>
+      <c r="C429" s="161"/>
+      <c r="D429" s="161"/>
       <c r="E429" s="6" t="s">
         <v>311</v>
       </c>
@@ -33375,9 +33375,9 @@
       <c r="Z429" s="121"/>
     </row>
     <row r="430" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B430" s="156"/>
-      <c r="C430" s="156"/>
-      <c r="D430" s="156"/>
+      <c r="B430" s="161"/>
+      <c r="C430" s="161"/>
+      <c r="D430" s="161"/>
       <c r="E430" s="6" t="s">
         <v>110</v>
       </c>
@@ -33418,9 +33418,9 @@
       <c r="Z430" s="121"/>
     </row>
     <row r="431" spans="1:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B431" s="157"/>
-      <c r="C431" s="157"/>
-      <c r="D431" s="157"/>
+      <c r="B431" s="162"/>
+      <c r="C431" s="162"/>
+      <c r="D431" s="162"/>
       <c r="E431" s="7" t="s">
         <v>14</v>
       </c>
@@ -33464,13 +33464,13 @@
       <c r="A432" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B432" s="158">
+      <c r="B432" s="163">
         <v>67</v>
       </c>
-      <c r="C432" s="158" t="s">
+      <c r="C432" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="D432" s="158" t="s">
+      <c r="D432" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E432" s="26" t="s">
@@ -33511,9 +33511,9 @@
       <c r="Z432" s="121"/>
     </row>
     <row r="433" spans="2:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B433" s="159"/>
-      <c r="C433" s="159"/>
-      <c r="D433" s="159"/>
+      <c r="B433" s="164"/>
+      <c r="C433" s="164"/>
+      <c r="D433" s="164"/>
       <c r="E433" s="3" t="s">
         <v>13</v>
       </c>
@@ -33554,9 +33554,9 @@
       <c r="Z433" s="121"/>
     </row>
     <row r="434" spans="2:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B434" s="159"/>
-      <c r="C434" s="159"/>
-      <c r="D434" s="159"/>
+      <c r="B434" s="164"/>
+      <c r="C434" s="164"/>
+      <c r="D434" s="164"/>
       <c r="E434" s="3" t="s">
         <v>109</v>
       </c>
@@ -33597,9 +33597,9 @@
       <c r="Z434" s="121"/>
     </row>
     <row r="435" spans="2:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B435" s="159"/>
-      <c r="C435" s="159"/>
-      <c r="D435" s="159"/>
+      <c r="B435" s="164"/>
+      <c r="C435" s="164"/>
+      <c r="D435" s="164"/>
       <c r="E435" s="3" t="s">
         <v>106</v>
       </c>
@@ -33640,9 +33640,9 @@
       <c r="Z435" s="121"/>
     </row>
     <row r="436" spans="2:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B436" s="159"/>
-      <c r="C436" s="159"/>
-      <c r="D436" s="159"/>
+      <c r="B436" s="164"/>
+      <c r="C436" s="164"/>
+      <c r="D436" s="164"/>
       <c r="E436" s="3" t="s">
         <v>110</v>
       </c>
@@ -33683,9 +33683,9 @@
       <c r="Z436" s="121"/>
     </row>
     <row r="437" spans="2:26" ht="25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
-      <c r="B437" s="160"/>
-      <c r="C437" s="160"/>
-      <c r="D437" s="160"/>
+      <c r="B437" s="165"/>
+      <c r="C437" s="165"/>
+      <c r="D437" s="165"/>
       <c r="E437" s="4" t="s">
         <v>14</v>
       </c>
@@ -33726,13 +33726,13 @@
       <c r="Z437" s="121"/>
     </row>
     <row r="438" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B438" s="155">
+      <c r="B438" s="160">
         <v>68</v>
       </c>
-      <c r="C438" s="155" t="s">
+      <c r="C438" s="160" t="s">
         <v>309</v>
       </c>
-      <c r="D438" s="155" t="s">
+      <c r="D438" s="160" t="s">
         <v>88</v>
       </c>
       <c r="E438" s="27" t="s">
@@ -33773,9 +33773,9 @@
       <c r="Z438" s="138"/>
     </row>
     <row r="439" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B439" s="156"/>
-      <c r="C439" s="156"/>
-      <c r="D439" s="156"/>
+      <c r="B439" s="161"/>
+      <c r="C439" s="161"/>
+      <c r="D439" s="161"/>
       <c r="E439" s="6" t="s">
         <v>13</v>
       </c>
@@ -33814,9 +33814,9 @@
       <c r="Z439" s="138"/>
     </row>
     <row r="440" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B440" s="156"/>
-      <c r="C440" s="156"/>
-      <c r="D440" s="156"/>
+      <c r="B440" s="161"/>
+      <c r="C440" s="161"/>
+      <c r="D440" s="161"/>
       <c r="E440" s="6" t="s">
         <v>103</v>
       </c>
@@ -33855,9 +33855,9 @@
       <c r="Z440" s="138"/>
     </row>
     <row r="441" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B441" s="156"/>
-      <c r="C441" s="156"/>
-      <c r="D441" s="156"/>
+      <c r="B441" s="161"/>
+      <c r="C441" s="161"/>
+      <c r="D441" s="161"/>
       <c r="E441" s="6" t="s">
         <v>106</v>
       </c>
@@ -33896,9 +33896,9 @@
       <c r="Z441" s="138"/>
     </row>
     <row r="442" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B442" s="156"/>
-      <c r="C442" s="156"/>
-      <c r="D442" s="156"/>
+      <c r="B442" s="161"/>
+      <c r="C442" s="161"/>
+      <c r="D442" s="161"/>
       <c r="E442" s="6" t="s">
         <v>109</v>
       </c>
@@ -33937,9 +33937,9 @@
       <c r="Z442" s="138"/>
     </row>
     <row r="443" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B443" s="156"/>
-      <c r="C443" s="156"/>
-      <c r="D443" s="156"/>
+      <c r="B443" s="161"/>
+      <c r="C443" s="161"/>
+      <c r="D443" s="161"/>
       <c r="E443" s="6" t="s">
         <v>290</v>
       </c>
@@ -33980,9 +33980,9 @@
       <c r="Z443" s="138"/>
     </row>
     <row r="444" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B444" s="156"/>
-      <c r="C444" s="156"/>
-      <c r="D444" s="156"/>
+      <c r="B444" s="161"/>
+      <c r="C444" s="161"/>
+      <c r="D444" s="161"/>
       <c r="E444" s="6" t="s">
         <v>110</v>
       </c>
@@ -34021,9 +34021,9 @@
       <c r="Z444" s="138"/>
     </row>
     <row r="445" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B445" s="157"/>
-      <c r="C445" s="157"/>
-      <c r="D445" s="157"/>
+      <c r="B445" s="162"/>
+      <c r="C445" s="162"/>
+      <c r="D445" s="162"/>
       <c r="E445" s="7" t="s">
         <v>14</v>
       </c>
@@ -34064,13 +34064,13 @@
       <c r="Z445" s="138"/>
     </row>
     <row r="446" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B446" s="158">
+      <c r="B446" s="163">
         <v>69</v>
       </c>
-      <c r="C446" s="158" t="s">
+      <c r="C446" s="163" t="s">
         <v>308</v>
       </c>
-      <c r="D446" s="158" t="s">
+      <c r="D446" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E446" s="26" t="s">
@@ -34111,9 +34111,9 @@
       <c r="Z446" s="138"/>
     </row>
     <row r="447" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B447" s="159"/>
-      <c r="C447" s="159"/>
-      <c r="D447" s="159"/>
+      <c r="B447" s="164"/>
+      <c r="C447" s="164"/>
+      <c r="D447" s="164"/>
       <c r="E447" s="3" t="s">
         <v>13</v>
       </c>
@@ -34152,9 +34152,9 @@
       <c r="Z447" s="138"/>
     </row>
     <row r="448" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B448" s="159"/>
-      <c r="C448" s="159"/>
-      <c r="D448" s="159"/>
+      <c r="B448" s="164"/>
+      <c r="C448" s="164"/>
+      <c r="D448" s="164"/>
       <c r="E448" s="3" t="s">
         <v>109</v>
       </c>
@@ -34193,9 +34193,9 @@
       <c r="Z448" s="138"/>
     </row>
     <row r="449" spans="2:26" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B449" s="159"/>
-      <c r="C449" s="159"/>
-      <c r="D449" s="159"/>
+      <c r="B449" s="164"/>
+      <c r="C449" s="164"/>
+      <c r="D449" s="164"/>
       <c r="E449" s="3" t="s">
         <v>106</v>
       </c>
@@ -34234,9 +34234,9 @@
       <c r="Z449" s="138"/>
     </row>
     <row r="450" spans="2:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B450" s="159"/>
-      <c r="C450" s="159"/>
-      <c r="D450" s="159"/>
+      <c r="B450" s="164"/>
+      <c r="C450" s="164"/>
+      <c r="D450" s="164"/>
       <c r="E450" s="3" t="s">
         <v>110</v>
       </c>
@@ -34275,9 +34275,9 @@
       <c r="Z450" s="138"/>
     </row>
     <row r="451" spans="2:26" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B451" s="160"/>
-      <c r="C451" s="160"/>
-      <c r="D451" s="160"/>
+      <c r="B451" s="165"/>
+      <c r="C451" s="165"/>
+      <c r="D451" s="165"/>
       <c r="E451" s="4" t="s">
         <v>14</v>
       </c>
@@ -34318,13 +34318,13 @@
       <c r="Z451" s="138"/>
     </row>
     <row r="452" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B452" s="155">
+      <c r="B452" s="160">
         <v>70</v>
       </c>
-      <c r="C452" s="155" t="s">
+      <c r="C452" s="160" t="s">
         <v>302</v>
       </c>
-      <c r="D452" s="155" t="s">
+      <c r="D452" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E452" s="27" t="s">
@@ -34365,9 +34365,9 @@
       <c r="Z452" s="138"/>
     </row>
     <row r="453" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B453" s="156"/>
-      <c r="C453" s="156"/>
-      <c r="D453" s="156"/>
+      <c r="B453" s="161"/>
+      <c r="C453" s="161"/>
+      <c r="D453" s="161"/>
       <c r="E453" s="6" t="s">
         <v>13</v>
       </c>
@@ -34406,9 +34406,9 @@
       <c r="Z453" s="138"/>
     </row>
     <row r="454" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B454" s="156"/>
-      <c r="C454" s="156"/>
-      <c r="D454" s="156"/>
+      <c r="B454" s="161"/>
+      <c r="C454" s="161"/>
+      <c r="D454" s="161"/>
       <c r="E454" s="6" t="s">
         <v>103</v>
       </c>
@@ -34447,9 +34447,9 @@
       <c r="Z454" s="138"/>
     </row>
     <row r="455" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B455" s="156"/>
-      <c r="C455" s="156"/>
-      <c r="D455" s="156"/>
+      <c r="B455" s="161"/>
+      <c r="C455" s="161"/>
+      <c r="D455" s="161"/>
       <c r="E455" s="6" t="s">
         <v>106</v>
       </c>
@@ -34488,9 +34488,9 @@
       <c r="Z455" s="138"/>
     </row>
     <row r="456" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B456" s="156"/>
-      <c r="C456" s="156"/>
-      <c r="D456" s="156"/>
+      <c r="B456" s="161"/>
+      <c r="C456" s="161"/>
+      <c r="D456" s="161"/>
       <c r="E456" s="6" t="s">
         <v>109</v>
       </c>
@@ -34529,9 +34529,9 @@
       <c r="Z456" s="138"/>
     </row>
     <row r="457" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B457" s="156"/>
-      <c r="C457" s="156"/>
-      <c r="D457" s="156"/>
+      <c r="B457" s="161"/>
+      <c r="C457" s="161"/>
+      <c r="D457" s="161"/>
       <c r="E457" s="6" t="s">
         <v>110</v>
       </c>
@@ -34570,9 +34570,9 @@
       <c r="Z457" s="138"/>
     </row>
     <row r="458" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B458" s="157"/>
-      <c r="C458" s="157"/>
-      <c r="D458" s="157"/>
+      <c r="B458" s="162"/>
+      <c r="C458" s="162"/>
+      <c r="D458" s="162"/>
       <c r="E458" s="7" t="s">
         <v>14</v>
       </c>
@@ -34613,13 +34613,13 @@
       <c r="Z458" s="138"/>
     </row>
     <row r="459" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B459" s="158">
+      <c r="B459" s="163">
         <v>71</v>
       </c>
-      <c r="C459" s="158" t="s">
+      <c r="C459" s="163" t="s">
         <v>303</v>
       </c>
-      <c r="D459" s="158" t="s">
+      <c r="D459" s="163" t="s">
         <v>12</v>
       </c>
       <c r="E459" s="26" t="s">
@@ -34660,9 +34660,9 @@
       <c r="Z459" s="138"/>
     </row>
     <row r="460" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B460" s="159"/>
-      <c r="C460" s="159"/>
-      <c r="D460" s="159"/>
+      <c r="B460" s="164"/>
+      <c r="C460" s="164"/>
+      <c r="D460" s="164"/>
       <c r="E460" s="3" t="s">
         <v>13</v>
       </c>
@@ -34701,9 +34701,9 @@
       <c r="Z460" s="138"/>
     </row>
     <row r="461" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B461" s="159"/>
-      <c r="C461" s="159"/>
-      <c r="D461" s="159"/>
+      <c r="B461" s="164"/>
+      <c r="C461" s="164"/>
+      <c r="D461" s="164"/>
       <c r="E461" s="3" t="s">
         <v>109</v>
       </c>
@@ -34742,9 +34742,9 @@
       <c r="Z461" s="138"/>
     </row>
     <row r="462" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B462" s="159"/>
-      <c r="C462" s="159"/>
-      <c r="D462" s="159"/>
+      <c r="B462" s="164"/>
+      <c r="C462" s="164"/>
+      <c r="D462" s="164"/>
       <c r="E462" s="3" t="s">
         <v>106</v>
       </c>
@@ -34783,9 +34783,9 @@
       <c r="Z462" s="138"/>
     </row>
     <row r="463" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B463" s="159"/>
-      <c r="C463" s="159"/>
-      <c r="D463" s="159"/>
+      <c r="B463" s="164"/>
+      <c r="C463" s="164"/>
+      <c r="D463" s="164"/>
       <c r="E463" s="3" t="s">
         <v>110</v>
       </c>
@@ -34824,9 +34824,9 @@
       <c r="Z463" s="138"/>
     </row>
     <row r="464" spans="2:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B464" s="160"/>
-      <c r="C464" s="160"/>
-      <c r="D464" s="160"/>
+      <c r="B464" s="165"/>
+      <c r="C464" s="165"/>
+      <c r="D464" s="165"/>
       <c r="E464" s="4" t="s">
         <v>14</v>
       </c>
@@ -34867,13 +34867,13 @@
       <c r="Z464" s="138"/>
     </row>
     <row r="465" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B465" s="155">
+      <c r="B465" s="160">
         <v>72</v>
       </c>
-      <c r="C465" s="155" t="s">
+      <c r="C465" s="160" t="s">
         <v>304</v>
       </c>
-      <c r="D465" s="155" t="s">
+      <c r="D465" s="160" t="s">
         <v>12</v>
       </c>
       <c r="E465" s="27" t="s">
@@ -34914,9 +34914,9 @@
       <c r="Z465" s="138"/>
     </row>
     <row r="466" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B466" s="156"/>
-      <c r="C466" s="156"/>
-      <c r="D466" s="156"/>
+      <c r="B466" s="161"/>
+      <c r="C466" s="161"/>
+      <c r="D466" s="161"/>
       <c r="E466" s="6" t="s">
         <v>13</v>
       </c>
@@ -34955,9 +34955,9 @@
       <c r="Z466" s="138"/>
     </row>
     <row r="467" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B467" s="156"/>
-      <c r="C467" s="156"/>
-      <c r="D467" s="156"/>
+      <c r="B467" s="161"/>
+      <c r="C467" s="161"/>
+      <c r="D467" s="161"/>
       <c r="E467" s="6" t="s">
         <v>103</v>
       </c>
@@ -34996,9 +34996,9 @@
       <c r="Z467" s="138"/>
     </row>
     <row r="468" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B468" s="156"/>
-      <c r="C468" s="156"/>
-      <c r="D468" s="156"/>
+      <c r="B468" s="161"/>
+      <c r="C468" s="161"/>
+      <c r="D468" s="161"/>
       <c r="E468" s="6" t="s">
         <v>106</v>
       </c>
@@ -35037,9 +35037,9 @@
       <c r="Z468" s="138"/>
     </row>
     <row r="469" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B469" s="156"/>
-      <c r="C469" s="156"/>
-      <c r="D469" s="156"/>
+      <c r="B469" s="161"/>
+      <c r="C469" s="161"/>
+      <c r="D469" s="161"/>
       <c r="E469" s="6" t="s">
         <v>109</v>
       </c>
@@ -35078,9 +35078,9 @@
       <c r="Z469" s="138"/>
     </row>
     <row r="470" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B470" s="156"/>
-      <c r="C470" s="156"/>
-      <c r="D470" s="156"/>
+      <c r="B470" s="161"/>
+      <c r="C470" s="161"/>
+      <c r="D470" s="161"/>
       <c r="E470" s="6" t="s">
         <v>110</v>
       </c>
@@ -35119,9 +35119,9 @@
       <c r="Z470" s="138"/>
     </row>
     <row r="471" spans="1:26" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B471" s="157"/>
-      <c r="C471" s="157"/>
-      <c r="D471" s="157"/>
+      <c r="B471" s="162"/>
+      <c r="C471" s="162"/>
+      <c r="D471" s="162"/>
       <c r="E471" s="7" t="s">
         <v>14</v>
       </c>
@@ -38487,6 +38487,225 @@
   </sheetData>
   <autoFilter ref="B8:K471" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="243">
+    <mergeCell ref="B452:B458"/>
+    <mergeCell ref="C452:C458"/>
+    <mergeCell ref="D452:D458"/>
+    <mergeCell ref="B459:B464"/>
+    <mergeCell ref="C459:C464"/>
+    <mergeCell ref="D459:D464"/>
+    <mergeCell ref="B465:B471"/>
+    <mergeCell ref="C465:C471"/>
+    <mergeCell ref="D465:D471"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="K183:K188"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K332:K338"/>
+    <mergeCell ref="K110:K116"/>
+    <mergeCell ref="K117:K122"/>
+    <mergeCell ref="K65:K69"/>
+    <mergeCell ref="T2:T6"/>
+    <mergeCell ref="U2:W6"/>
+    <mergeCell ref="K195:K200"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="K81:K85"/>
+    <mergeCell ref="K104:K109"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="K86:K90"/>
+    <mergeCell ref="C332:C338"/>
+    <mergeCell ref="D332:D338"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="D123:D130"/>
+    <mergeCell ref="D131:D136"/>
+    <mergeCell ref="D137:D146"/>
+    <mergeCell ref="D147:D152"/>
+    <mergeCell ref="D153:D158"/>
+    <mergeCell ref="D159:D164"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="D171:D176"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="D201:D207"/>
+    <mergeCell ref="D290:D295"/>
+    <mergeCell ref="D296:D302"/>
+    <mergeCell ref="D303:D309"/>
+    <mergeCell ref="D310:D316"/>
+    <mergeCell ref="D208:D213"/>
+    <mergeCell ref="D214:D219"/>
+    <mergeCell ref="D324:D331"/>
+    <mergeCell ref="D283:D289"/>
+    <mergeCell ref="C275:C282"/>
+    <mergeCell ref="C283:C289"/>
+    <mergeCell ref="C290:C295"/>
+    <mergeCell ref="C159:C164"/>
+    <mergeCell ref="D220:D225"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="D232:D238"/>
+    <mergeCell ref="D239:D244"/>
+    <mergeCell ref="D245:D250"/>
+    <mergeCell ref="D251:D257"/>
+    <mergeCell ref="D258:D264"/>
+    <mergeCell ref="D265:D274"/>
+    <mergeCell ref="D275:D282"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="C214:C219"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="C317:C323"/>
+    <mergeCell ref="C324:C331"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K91:K96"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="D70:D75"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D81:D85"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="C123:C130"/>
+    <mergeCell ref="C131:C136"/>
+    <mergeCell ref="C310:C316"/>
+    <mergeCell ref="C220:C225"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="C258:C264"/>
+    <mergeCell ref="C265:C274"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="B81:B85"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="C137:C146"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="C70:C75"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="C97:C103"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="C110:C116"/>
+    <mergeCell ref="D97:D103"/>
+    <mergeCell ref="D104:D109"/>
+    <mergeCell ref="D110:D116"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E2:H3"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B220:B225"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="B201:B207"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="B214:B219"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="B123:B130"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B137:B146"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D339:D346"/>
+    <mergeCell ref="B258:B264"/>
+    <mergeCell ref="B265:B274"/>
+    <mergeCell ref="B432:B437"/>
+    <mergeCell ref="C432:C437"/>
+    <mergeCell ref="D432:D437"/>
+    <mergeCell ref="B400:B405"/>
+    <mergeCell ref="C400:C405"/>
+    <mergeCell ref="D400:D405"/>
+    <mergeCell ref="C406:C415"/>
+    <mergeCell ref="D406:D415"/>
+    <mergeCell ref="B416:B424"/>
+    <mergeCell ref="C416:C424"/>
+    <mergeCell ref="D416:D424"/>
+    <mergeCell ref="B406:B415"/>
+    <mergeCell ref="B425:B431"/>
+    <mergeCell ref="C425:C431"/>
+    <mergeCell ref="D425:D431"/>
+    <mergeCell ref="B290:B295"/>
+    <mergeCell ref="C296:C302"/>
+    <mergeCell ref="B275:B282"/>
+    <mergeCell ref="B283:B289"/>
+    <mergeCell ref="B310:B316"/>
+    <mergeCell ref="B317:B323"/>
+    <mergeCell ref="C339:C346"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="B97:B103"/>
+    <mergeCell ref="B226:B231"/>
+    <mergeCell ref="B232:B238"/>
+    <mergeCell ref="B239:B244"/>
+    <mergeCell ref="B245:B250"/>
+    <mergeCell ref="B251:B257"/>
+    <mergeCell ref="B296:B302"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="C239:C244"/>
+    <mergeCell ref="C245:C250"/>
+    <mergeCell ref="C251:C257"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="C201:C207"/>
+    <mergeCell ref="B303:B309"/>
+    <mergeCell ref="C147:C152"/>
+    <mergeCell ref="C153:C158"/>
+    <mergeCell ref="C347:C352"/>
+    <mergeCell ref="C353:C361"/>
+    <mergeCell ref="B394:B399"/>
+    <mergeCell ref="C394:C399"/>
+    <mergeCell ref="D394:D399"/>
+    <mergeCell ref="C388:C393"/>
+    <mergeCell ref="D388:D393"/>
+    <mergeCell ref="B347:B352"/>
+    <mergeCell ref="D369:D375"/>
+    <mergeCell ref="B362:B368"/>
+    <mergeCell ref="B369:B375"/>
+    <mergeCell ref="C369:C375"/>
+    <mergeCell ref="D376:D381"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="AJ25:AK25"/>
     <mergeCell ref="B438:B445"/>
@@ -38511,225 +38730,6 @@
     <mergeCell ref="C382:C387"/>
     <mergeCell ref="D382:D387"/>
     <mergeCell ref="B339:B346"/>
-    <mergeCell ref="C347:C352"/>
-    <mergeCell ref="C353:C361"/>
-    <mergeCell ref="B394:B399"/>
-    <mergeCell ref="C394:C399"/>
-    <mergeCell ref="D394:D399"/>
-    <mergeCell ref="C388:C393"/>
-    <mergeCell ref="D388:D393"/>
-    <mergeCell ref="B347:B352"/>
-    <mergeCell ref="D369:D375"/>
-    <mergeCell ref="B362:B368"/>
-    <mergeCell ref="B369:B375"/>
-    <mergeCell ref="C369:C375"/>
-    <mergeCell ref="D376:D381"/>
-    <mergeCell ref="C339:C346"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="B97:B103"/>
-    <mergeCell ref="B226:B231"/>
-    <mergeCell ref="B232:B238"/>
-    <mergeCell ref="B239:B244"/>
-    <mergeCell ref="B245:B250"/>
-    <mergeCell ref="B251:B257"/>
-    <mergeCell ref="B296:B302"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="C239:C244"/>
-    <mergeCell ref="C245:C250"/>
-    <mergeCell ref="C251:C257"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="C201:C207"/>
-    <mergeCell ref="B303:B309"/>
-    <mergeCell ref="C147:C152"/>
-    <mergeCell ref="C153:C158"/>
-    <mergeCell ref="D339:D346"/>
-    <mergeCell ref="B258:B264"/>
-    <mergeCell ref="B265:B274"/>
-    <mergeCell ref="B432:B437"/>
-    <mergeCell ref="C432:C437"/>
-    <mergeCell ref="D432:D437"/>
-    <mergeCell ref="B400:B405"/>
-    <mergeCell ref="C400:C405"/>
-    <mergeCell ref="D400:D405"/>
-    <mergeCell ref="C406:C415"/>
-    <mergeCell ref="D406:D415"/>
-    <mergeCell ref="B416:B424"/>
-    <mergeCell ref="C416:C424"/>
-    <mergeCell ref="D416:D424"/>
-    <mergeCell ref="B406:B415"/>
-    <mergeCell ref="B425:B431"/>
-    <mergeCell ref="C425:C431"/>
-    <mergeCell ref="D425:D431"/>
-    <mergeCell ref="B290:B295"/>
-    <mergeCell ref="C296:C302"/>
-    <mergeCell ref="B275:B282"/>
-    <mergeCell ref="B283:B289"/>
-    <mergeCell ref="B310:B316"/>
-    <mergeCell ref="B317:B323"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="C4:D6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E2:H3"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B220:B225"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="B201:B207"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="B214:B219"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="B123:B130"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="B137:B146"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D33"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="C137:C146"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="C70:C75"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="C97:C103"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="C110:C116"/>
-    <mergeCell ref="D97:D103"/>
-    <mergeCell ref="D104:D109"/>
-    <mergeCell ref="D110:D116"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="C317:C323"/>
-    <mergeCell ref="C324:C331"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K91:K96"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D60:D64"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="D70:D75"/>
-    <mergeCell ref="D76:D80"/>
-    <mergeCell ref="D81:D85"/>
-    <mergeCell ref="D86:D90"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="C123:C130"/>
-    <mergeCell ref="C131:C136"/>
-    <mergeCell ref="C310:C316"/>
-    <mergeCell ref="C220:C225"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="C258:C264"/>
-    <mergeCell ref="C265:C274"/>
-    <mergeCell ref="C275:C282"/>
-    <mergeCell ref="C283:C289"/>
-    <mergeCell ref="C290:C295"/>
-    <mergeCell ref="C159:C164"/>
-    <mergeCell ref="D220:D225"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="D232:D238"/>
-    <mergeCell ref="D239:D244"/>
-    <mergeCell ref="D245:D250"/>
-    <mergeCell ref="D251:D257"/>
-    <mergeCell ref="D258:D264"/>
-    <mergeCell ref="D265:D274"/>
-    <mergeCell ref="D275:D282"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="C214:C219"/>
-    <mergeCell ref="C332:C338"/>
-    <mergeCell ref="D332:D338"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="D123:D130"/>
-    <mergeCell ref="D131:D136"/>
-    <mergeCell ref="D137:D146"/>
-    <mergeCell ref="D147:D152"/>
-    <mergeCell ref="D153:D158"/>
-    <mergeCell ref="D159:D164"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="D171:D176"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="D201:D207"/>
-    <mergeCell ref="D290:D295"/>
-    <mergeCell ref="D296:D302"/>
-    <mergeCell ref="D303:D309"/>
-    <mergeCell ref="D310:D316"/>
-    <mergeCell ref="D208:D213"/>
-    <mergeCell ref="D214:D219"/>
-    <mergeCell ref="D324:D331"/>
-    <mergeCell ref="D283:D289"/>
-    <mergeCell ref="AB1:AE1"/>
-    <mergeCell ref="K183:K188"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K332:K338"/>
-    <mergeCell ref="K110:K116"/>
-    <mergeCell ref="K117:K122"/>
-    <mergeCell ref="K65:K69"/>
-    <mergeCell ref="T2:T6"/>
-    <mergeCell ref="U2:W6"/>
-    <mergeCell ref="K195:K200"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="K81:K85"/>
-    <mergeCell ref="K104:K109"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="K86:K90"/>
-    <mergeCell ref="B452:B458"/>
-    <mergeCell ref="C452:C458"/>
-    <mergeCell ref="D452:D458"/>
-    <mergeCell ref="B459:B464"/>
-    <mergeCell ref="C459:C464"/>
-    <mergeCell ref="D459:D464"/>
-    <mergeCell ref="B465:B471"/>
-    <mergeCell ref="C465:C471"/>
-    <mergeCell ref="D465:D471"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F7:F1048576">
@@ -38768,8 +38768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -39115,6 +39115,10 @@
       <c r="G7" s="28" t="b">
         <v>1</v>
       </c>
+      <c r="J7" s="8">
+        <f>Tracker!AD121</f>
+        <v>22926</v>
+      </c>
       <c r="K7" s="106"/>
       <c r="N7" s="108">
         <f>C7*(Tracker!AC6+Tracker!AD6)</f>
@@ -39158,6 +39162,9 @@
       </c>
       <c r="G8" s="28" t="b">
         <v>1</v>
+      </c>
+      <c r="J8" s="8">
+        <v>72</v>
       </c>
       <c r="N8" s="108">
         <f>C8*(Tracker!AC7+Tracker!AD7)</f>
